--- a/notebook/eda/quran-mining-niheng/file-quran-translation-five-lang/english-transaltion-abdullah-yusuf-ali/index-False-english-transaltion-abdullah-yusuf-ali.xlsx
+++ b/notebook/eda/quran-mining-niheng/file-quran-translation-five-lang/english-transaltion-abdullah-yusuf-ali/index-False-english-transaltion-abdullah-yusuf-ali.xlsx
@@ -4435,7 +4435,7 @@
     <t xml:space="preserve">   Follow thou the inspiration sent unto thee and be patient and constant till God doth decide  for He is the Best to decide </t>
   </si>
   <si>
-    <t xml:space="preserve">   A  L  R   This is  a Book  With verses basic or fundamental  Of established meaning   Further explained in detail — From One Who is Wise And Well Acquainted  with all things   </t>
+    <t xml:space="preserve">   A  L  R   This is  a Book  With verses basic or fundamental  Of established meaning   Further explained in detail   From One Who is Wise And Well Acquainted  with all things   </t>
   </si>
   <si>
     <t xml:space="preserve">    It teacheth  that ye should Worship none but God   Say &amp;colon     Verily I am  Sent  unto you from Him To warn and to bring Glad tidings  </t>
@@ -4453,7 +4453,7 @@
     <t xml:space="preserve">   There is no moving creature On earth but its sustenance Dependeth on God   He knoweth The time and place of its Definite abode and its Temporary deposit   All is in a clear Record </t>
   </si>
   <si>
-    <t xml:space="preserve">   He it is Who created The heavens and the earth In six Days—and His Throne Was over the Waters— That He might try you  Which of you is best In conduct  But if Thou wert to say to them    Ye shall indeed be raised up After death    the Unbelievers Would be sure to say    This is nothing but Obvious sorcery    </t>
+    <t xml:space="preserve">   He it is Who created The heavens and the earth In six Days and His Throne Was over the Waters  That He might try you  Which of you is best In conduct  But if Thou wert to say to them    Ye shall indeed be raised up After death    the Unbelievers Would be sure to say    This is nothing but Obvious sorcery    </t>
   </si>
   <si>
     <t xml:space="preserve">   If We delay the Penalty For them for a definite term  They are sure to say    What keeps it back     Ah   On the day it  actually  Reaches them  nothing will Turn it away from them  And they will be completely Encircled by that which They used to mock at     </t>
@@ -4471,22 +4471,22 @@
     <t xml:space="preserve">   Perchance thou mayest  feel The inclination  to give up A part of what is revealed Unto thee  and thy heart Feeleth straitened lest they say    Why is not a treasure sent down Unto him  or why does not An angel come down with him     But thou art there only to warn   It is God that arrangeth All affairs  </t>
   </si>
   <si>
-    <t xml:space="preserve">   Or they may say    He forged it   Say    Bring ye then ten Sūras Forged  like unto it  and call  To your aid  whomsoever Ye can  other than God  — If ye speak the truth  </t>
+    <t xml:space="preserve">   Or they may say    He forged it   Say    Bring ye then ten Sūras Forged  like unto it  and call  To your aid  whomsoever Ye can  other than God    If ye speak the truth  </t>
   </si>
   <si>
     <t xml:space="preserve">     If then they  your false gods  Answer not your  call   Know ye that this Revelation Is sent down  replete  with the knowledge Of God  and that there is No god but He   Will ye Even then submit  to Islam     </t>
   </si>
   <si>
-    <t xml:space="preserve">   Those who desire The life of the Present And its glitter —to them We shall pay  the price Of  their deeds therein — Without diminution </t>
+    <t xml:space="preserve">   Those who desire The life of the Present And its glitter  to them We shall pay  the price Of  their deeds therein   Without diminution </t>
   </si>
   <si>
     <t xml:space="preserve">   They are those for whom There is nothing in the Hereafter But the Fire   vain Are the designs they frame therein  And of no effect Are the deeds that they do  </t>
   </si>
   <si>
-    <t xml:space="preserve">   Can they be  like  those Who accept a Clear  Sign  From their Lord  and whom A witness from Himself Doth teach  as did the Book Of Moses before it —a guide And a mercy   They believe Therein   but those of the Sects That reject it —the Fire Will be their promised Meeting place  Be not then In doubt thereon   for it is The Truth from thy Lord   Yet many among men Do not believe  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Who doth more wrong Than those who invent a lie Against God   They will be Turned back to the presence Of their Lord  and the witnesses Will say    These are the ones Who lied against their Lord   Behold   the Curse of God Is on those who do wrong  —</t>
+    <t xml:space="preserve">   Can they be  like  those Who accept a Clear  Sign  From their Lord  and whom A witness from Himself Doth teach  as did the Book Of Moses before it  a guide And a mercy   They believe Therein   but those of the Sects That reject it  the Fire Will be their promised Meeting place  Be not then In doubt thereon   for it is The Truth from thy Lord   Yet many among men Do not believe  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Who doth more wrong Than those who invent a lie Against God   They will be Turned back to the presence Of their Lord  and the witnesses Will say    These are the ones Who lied against their Lord   Behold   the Curse of God Is on those who do wrong   </t>
   </si>
   <si>
     <t xml:space="preserve">     Those who would hinder  men  From the path of God And would seek in it Something crooked   these were They who denied the Hereafter  </t>
@@ -4501,7 +4501,7 @@
     <t xml:space="preserve">   Without a doubt  these Are the very ones who Will lose most in the Hereafter  </t>
   </si>
   <si>
-    <t xml:space="preserve">   But those who believe And work righteousness  And humble themselves Before their Lord — They will be Companions Of the Garden  to dwell Therein for aye  </t>
+    <t xml:space="preserve">   But those who believe And work righteousness  And humble themselves Before their Lord   They will be Companions Of the Garden  to dwell Therein for aye  </t>
   </si>
   <si>
     <t xml:space="preserve">   These two kinds  of men  May be compared to The blind and deaf  And those who can see And hear well  Are they Equal when compared   Will ye not then take heed     </t>
@@ -4531,7 +4531,7 @@
     <t xml:space="preserve">   They said     O Noah   Thou hast disputed with us  And  much  hast thou prolonged The dispute with us   now Bring upon us what thou Threatenest us with  if thou Speakest the truth     </t>
   </si>
   <si>
-    <t xml:space="preserve">   He said     Truly  God Will bring it on you If He wills —and then  Ye will not be able To frustrate it  </t>
+    <t xml:space="preserve">   He said     Truly  God Will bring it on you If He wills  and then  Ye will not be able To frustrate it  </t>
   </si>
   <si>
     <t xml:space="preserve">     Of no profit will be My counsel to you  Much as I desire To give you  good  counsel  If it be that God Willeth to leave you astray   He is your Lord   And to Him will ye return    </t>
@@ -4549,10 +4549,10 @@
     <t xml:space="preserve">   Forthwith he  starts  Constructing the Ark   Every time that the Chiefs Of his People passed by him  They threw ridicule on him  They threw ridicule on him  He said     If ye ridicule Us now  we  in our turn  Can look down on you With ridicule likewise  </t>
   </si>
   <si>
-    <t xml:space="preserve">     But soon will ye know Who it is on whom Will descend a Penalty That will cover them With shame —on whom will be Unloosed a Penalty lasting    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   At length  behold   There came Our Command  And the fountains of the earth Gushed forth   We said     Embark therein  of each kind Two  male and female  And your family—except Those against whom the Word Has already gone forth — And the Believers   But only a few Believed with him </t>
+    <t xml:space="preserve">     But soon will ye know Who it is on whom Will descend a Penalty That will cover them With shame  on whom will be Unloosed a Penalty lasting    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   At length  behold   There came Our Command  And the fountains of the earth Gushed forth   We said     Embark therein  of each kind Two  male and female  And your family except Those against whom the Word Has already gone forth   And the Believers   But only a few Believed with him </t>
   </si>
   <si>
     <t xml:space="preserve">   So he said     Embark ye On the Ark  In the name of God  Whether it move Or be at rest   For my Lord is  be sure  Oft Forgiving  Most Merciful    </t>
@@ -4561,7 +4561,7 @@
     <t xml:space="preserve">   So the Ark floated With them on the waves  Towering  like mountains  And Noah called out To his son  who had Separated himself  from the rest      O my son   embark With us  and be not With the Unbelievers    </t>
   </si>
   <si>
-    <t xml:space="preserve">   The son replied     I will Betake myself to some mountain   It will save me from The water   Noah said     This day nothing can save  From the Command of God  Any but those on whom He hath mercy    — And the waves came Between them  and the son Was among those Overwhelmed in the Flood </t>
+    <t xml:space="preserve">   The son replied     I will Betake myself to some mountain   It will save me from The water   Noah said     This day nothing can save  From the Command of God  Any but those on whom He hath mercy      And the waves came Between them  and the son Was among those Overwhelmed in the Flood </t>
   </si>
   <si>
     <t xml:space="preserve">   Then when the word went forth     O earth   swallow up Thy water  and O sky   Withhold  thy rain      And the water abated  And the matter was ended  The Ark rested on Mount Jūdī  and the word Went forth     Away With those who do wrong    </t>
@@ -4603,7 +4603,7 @@
     <t xml:space="preserve">     I put my trust in God  My Lord and your Lord   There is not a moving Creature  but He hath Grasp of its fore lock  Verily  it is my Lord That is on a straight Path </t>
   </si>
   <si>
-    <t xml:space="preserve">     If ye turn away — I  at least  have conveyed The Message with which I Was sent to you  My Lord Will make another People To succeed you  and you Will not harm Him In the least  For my Lord Hath care and watch Over all things  </t>
+    <t xml:space="preserve">     If ye turn away   I  at least  have conveyed The Message with which I Was sent to you  My Lord Will make another People To succeed you  and you Will not harm Him In the least  For my Lord Hath care and watch Over all things  </t>
   </si>
   <si>
     <t xml:space="preserve">   So when Our decree Issued  We saved Hūd And those who believed With him  by  special  Grace From Ourselves   We saved them From a severe Penalty </t>
@@ -4612,16 +4612,16 @@
     <t xml:space="preserve">   Such were the  Ād people   They rejected the Signs Of their Lord and Cherisher   Disobeyed His Apostles   And followed the command Of every powerful  obstinate Transgressor </t>
   </si>
   <si>
-    <t xml:space="preserve">   And they were pursued By a Curse in this Life — And on the Day of Judgment  Ah   Behold   for the  Ād rejected their Lord and Cherisher   Ah   Behold   Removed  from sight  Were  Ād the People of Hūd     </t>
+    <t xml:space="preserve">   And they were pursued By a Curse in this Life   And on the Day of Judgment  Ah   Behold   for the  Ād rejected their Lord and Cherisher   Ah   Behold   Removed  from sight  Were  Ād the People of Hūd     </t>
   </si>
   <si>
     <t xml:space="preserve">   To the Thamūd People  We sent  Ṣāliḥ  one Of their own brethren  He said     O my People   Worship God   ye have No other god but Him  It is He Who hath produced you From the earth and settled you Therein   then ask forgiveness Of Him  and turn to Him  In repentance    for my Lord Is  always  near  ready To answer  </t>
   </si>
   <si>
-    <t xml:space="preserve">   They said     O Ṣāliḥ   Thou hast been of us  — A center of our hopes Hitherto   Dost thou  now  Forbid us the worship Of what our fathers worshipped   But we are really In suspicious  disquieting  Doubt as to that to which Thou invitest us  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   He said     O my people   Do ye see  —If I have a Clear  Sign  from my Lord And He hath sent Mercy Unto me from Himself —who Then can help me Against God if I were To disobey Him   What Then would ye add To my  portion  but perdition  </t>
+    <t xml:space="preserve">   They said     O Ṣāliḥ   Thou hast been of us    A center of our hopes Hitherto   Dost thou  now  Forbid us the worship Of what our fathers worshipped   But we are really In suspicious  disquieting  Doubt as to that to which Thou invitest us  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   He said     O my people   Do ye see   If I have a Clear  Sign  from my Lord And He hath sent Mercy Unto me from Himself  who Then can help me Against God if I were To disobey Him   What Then would ye add To my  portion  but perdition  </t>
   </si>
   <si>
     <t xml:space="preserve">     And O my people   This she camel of God is A symbol to you   Leave her to feed On God s  free  earth  And inflict no harm On her  or a swift Penalty Will seize you    </t>
@@ -4630,10 +4630,10 @@
     <t xml:space="preserve">   But they did ham string her  So he said     Enjoy yourselves In your homes for three days    Then will be your ruin     Behold  there a promise Not to be belied    </t>
   </si>
   <si>
-    <t xml:space="preserve">   When Our Decree issued  We saved Ṣāliḥ and those Who believed with him  By  special  Grace from Ourselves— And from the Ignominy Of that Day  For thy Lord— He is the Strong One  and Able To enforce His Will </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   The  mighty  Blast overtook The wrong doers  and they Lay prostrate in their homes Before the morning —</t>
+    <t xml:space="preserve">   When Our Decree issued  We saved Ṣāliḥ and those Who believed with him  By  special  Grace from Ourselves  And from the Ignominy Of that Day  For thy Lord  He is the Strong One  and Able To enforce His Will </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   The  mighty  Blast overtook The wrong doers  and they Lay prostrate in their homes Before the morning  </t>
   </si>
   <si>
     <t xml:space="preserve">   As if they had never Dwelt and flourished there  Ah   Behold   For the Thamūd Rejected their Lord and Cherisher   Ah   Behold   Removed  From sight  were the Thamūd     </t>
@@ -4678,7 +4678,7 @@
     <t xml:space="preserve">    The Messengers  said     O Lūṭ   We are Messengers from thy Lord   By no means shall they Reach thee   Now travel With thy family while yet A part of the night remains  And let not any of you Look back   but thy wife  Will remain behind    To her will happen What happens to the people  Morning is their time appointed   Is not the morning nigh    </t>
   </si>
   <si>
-    <t xml:space="preserve">   When Our decree issued  We turned  the cities  Upside down  and rained down On them brimstones Hard as baked clay  Spread  layer on layer —</t>
+    <t xml:space="preserve">   When Our decree issued  We turned  the cities  Upside down  and rained down On them brimstones Hard as baked clay  Spread  layer on layer  </t>
   </si>
   <si>
     <t xml:space="preserve">   Marked as from thy Lord   Nor are they ever far From those who do wrong     </t>
@@ -4714,7 +4714,7 @@
     <t xml:space="preserve">     And O my people   Do whatever ye can   I will do  my part    Soon will ye know Who it is on whom Descends the Penalty Of ignominy  and who Is a liar   And watch ye   For I too am watching With you    </t>
   </si>
   <si>
-    <t xml:space="preserve">   When Our decree issued  We saved Shu aib and those Who believed with him  By  special  Mercy from Ourselves   But the  mighty  Blast did seize The wrong doers  and they Lay prostrate in their homes By the morning —</t>
+    <t xml:space="preserve">   When Our decree issued  We saved Shu aib and those Who believed with him  By  special  Mercy from Ourselves   But the  mighty  Blast did seize The wrong doers  and they Lay prostrate in their homes By the morning  </t>
   </si>
   <si>
     <t xml:space="preserve">   As if they had never Dwelt and flourished there   Ah   Behold   How the Madyan Were removed  from sight  As were removed the Thamūd     </t>
@@ -4768,7 +4768,7 @@
     <t xml:space="preserve">   And of a surety  to all Will your Lord pay back  In full the recompense  Of their deeds   for He Knoweth well all that they do </t>
   </si>
   <si>
-    <t xml:space="preserve">   Therefore stand firm  in the straight Path  as thou art commanded — Thou and those who with thee Turn  unto God    and transgress not  From the Path    for He seeth Well all that ye do </t>
+    <t xml:space="preserve">   Therefore stand firm  in the straight Path  as thou art commanded   Thou and those who with thee Turn  unto God    and transgress not  From the Path    for He seeth Well all that ye do </t>
   </si>
   <si>
     <t xml:space="preserve">   And incline not to those Who do wrong  or the Fire Will seize you   and ye have No protectors other than God  Nor shall ye be helped </t>
@@ -4780,7 +4780,7 @@
     <t xml:space="preserve">   And be steadfast in patience   For verily God will not suffer The reward of the righteous To perish </t>
   </si>
   <si>
-    <t xml:space="preserve">   Why were there not  Among the generations before you  Persons possessed of balanced Good sense  prohibiting  men  From mischief in the earth— Except a few among them Whom We saved  from harm    But the wrong doers pursued The enjoyment of the good things Of life which were given them  And persisted in sin </t>
+    <t xml:space="preserve">   Why were there not  Among the generations before you  Persons possessed of balanced Good sense  prohibiting  men  From mischief in the earth  Except a few among them Whom We saved  from harm    But the wrong doers pursued The enjoyment of the good things Of life which were given them  And persisted in sin </t>
   </si>
   <si>
     <t xml:space="preserve">   Nor would thy Lord be The One to destroy Communities for a single wrong doing  If its members were likely To mend </t>
@@ -4792,7 +4792,7 @@
     <t xml:space="preserve">   Except those on whom thy Lord Hath bestowed His Mercy   And for this did He create Them   and the Word Of thy Lord shall be fulfilled     I will fill Hell with jinns And men all together  </t>
   </si>
   <si>
-    <t xml:space="preserve">   All that We relate to thee Of the stories of the apostles — With it We make firm Thy heart   in them there cometh To thee the Truth  as well as An exhortation and a message Of remembrance to those who believe </t>
+    <t xml:space="preserve">   All that We relate to thee Of the stories of the apostles   With it We make firm Thy heart   in them there cometh To thee the Truth  as well as An exhortation and a message Of remembrance to those who believe </t>
   </si>
   <si>
     <t xml:space="preserve">   Say to those who do not Believe     Do whatever ye can   We shall do our part  </t>
@@ -4819,7 +4819,7 @@
     <t xml:space="preserve">   Said  the father      My  dear  little son   Relate not thy vision To thy brothers  lest they Concoct a plot against thee   For Satan is to man An avowed enemy  </t>
   </si>
   <si>
-    <t xml:space="preserve">     Thus will thy Lord Choose thee and teach thee The interpretation of stories  and events  And perfect His favour To thee and to the posterity Of Jacob—even as He Perfected it to thy fathers Abraham and Isaac aforetime   For God is full of knowledge And wisdom     </t>
+    <t xml:space="preserve">     Thus will thy Lord Choose thee and teach thee The interpretation of stories  and events  And perfect His favour To thee and to the posterity Of Jacob even as He Perfected it to thy fathers Abraham and Isaac aforetime   For God is full of knowledge And wisdom     </t>
   </si>
   <si>
     <t xml:space="preserve">   Verily in Joseph and his brethren Are Signs  or Symbols  For Seekers  after Truth  </t>
@@ -4834,7 +4834,7 @@
     <t xml:space="preserve">   Said one of them     Slay not Joseph but if ye must Do something  throw him down To the bottom of the well   He will be picked up By some caravan of travellers  </t>
   </si>
   <si>
-    <t xml:space="preserve">   They said     O our father   Why dost thou not Trust us with Joseph —Seeing we are indeed His sincere well wishers  </t>
+    <t xml:space="preserve">   They said     O our father   Why dost thou not Trust us with Joseph  Seeing we are indeed His sincere well wishers  </t>
   </si>
   <si>
     <t xml:space="preserve">     Send him with us to morrow To enjoy himself and play  And we shall take Every care of him  </t>
@@ -4861,7 +4861,7 @@
     <t xml:space="preserve">   Then there came a caravan Of travellers   they sent Their water carrier  for water   And he let down his bucket  Into the well  He said     Ah there   Good news   Here is a  fine  young man     So they concealed him As a treasure   But God Knoweth well all that they do  </t>
   </si>
   <si>
-    <t xml:space="preserve">   The  Brethren  sold him For a miserable price — For a few dirhams counted out   In such low estimation Did they hold him     </t>
+    <t xml:space="preserve">   The  Brethren  sold him For a miserable price   For a few dirhams counted out   In such low estimation Did they hold him     </t>
   </si>
   <si>
     <t xml:space="preserve">   The man in Egypt Who bought him  said To his wife     Make his stay  Among us  honorable   Maybe he will bring us Much good  or we shall Adopt him as a son   Thus did We establish Joseph in the land  That We might teach him The interpretation of stories  And events   And God Hath full power and control Over His affairs   but most Among mankind know it not </t>
@@ -4879,13 +4879,13 @@
     <t xml:space="preserve">   So they both raced each other To the door and she Tore his shirt from the back   They both found her lord Near the door  She said     What is the  fitting  punishment For one who formed An evil design against Thy wife  but prison Or a grievous chastisement    </t>
   </si>
   <si>
-    <t xml:space="preserve">   He said     It was she That sought to seduce me— From my  true  self   And one Of her household saw  this  And bore witness   thus   —   If it be that his shirt Is rent form the front  then Is her tale true  And he is a liar  </t>
+    <t xml:space="preserve">   He said     It was she That sought to seduce me  From my  true  self   And one Of her household saw  this  And bore witness   thus       If it be that his shirt Is rent form the front  then Is her tale true  And he is a liar  </t>
   </si>
   <si>
     <t xml:space="preserve">     But if it be that his shirt Is torn from the back  Then is she the liar  And he is telling the truth    </t>
   </si>
   <si>
-    <t xml:space="preserve">   So when he saw his shirt — That it was torn at the back —  Her husband  said     Behold   It is a snare of you women   Truly  mighty is your snare  </t>
+    <t xml:space="preserve">   So when he saw his shirt   That it was torn at the back    Her husband  said     Behold   It is a snare of you women   Truly  mighty is your snare  </t>
   </si>
   <si>
     <t xml:space="preserve">     O Joseph  pass this over    O wife   ask forgiveness For thy sin  for truly Thou hast been at fault       </t>
@@ -4915,13 +4915,13 @@
     <t xml:space="preserve">   He said     Before any food Comes  in due course  To feed either of you  I will surely reveal To you the truth And meaning of this Ere it befall you   That is part of the  Duty  Which my Lord hath taught me  I have  I assure you  Abandoned the ways Of a people that believe not In God and that  even  Deny the Hereafter </t>
   </si>
   <si>
-    <t xml:space="preserve">     And I follow the ways Of my fathers —Abraham  Isaac  and Jacob   and never Could we attribute any partners Whatever to God   that  comes  Of the grace of God to us And to mankind   yet Most men are not grateful </t>
+    <t xml:space="preserve">     And I follow the ways Of my fathers  Abraham  Isaac  and Jacob   and never Could we attribute any partners Whatever to God   that  comes  Of the grace of God to us And to mankind   yet Most men are not grateful </t>
   </si>
   <si>
     <t xml:space="preserve">     O my two companions Of the prison    I ask you    Are many lords differing Among themselves better  Or the One God  Supreme and Irresistible  </t>
   </si>
   <si>
-    <t xml:space="preserve">     If not Him  ye worship nothing But names which ye have named — Ye and your fathers — For which God hath sent down No authority   the Command Is for none but God   He Hath commanded that ye worship None but Him   that is The right religion  but Most men understand not </t>
+    <t xml:space="preserve">     If not Him  ye worship nothing But names which ye have named   Ye and your fathers   For which God hath sent down No authority   the Command Is for none but God   He Hath commanded that ye worship None but Him   that is The right religion  but Most men understand not </t>
   </si>
   <si>
     <t xml:space="preserve">     O my two companions Of the prison   As to one Of you  he will pour out The wine for his lord to drink   As for the other  he will Hang from the cross  and the birds Will eat from off his head   So  hath been decreed That matter whereof Ye twain do enquire   </t>
@@ -4930,7 +4930,7 @@
     <t xml:space="preserve">   And of the two  To that one whom he considered About to be saved  he said     Mention me to thy lord   But Satan made him forget To mention him to his lord   And  Joseph  lingered in prison A few  more  years    </t>
   </si>
   <si>
-    <t xml:space="preserve">   The king  of Egypt  said     I do see  in a vision  Seven fat kine  whom seven Lean ones devour —and seven Green ears of corn  and seven  others  Withered  O ye chiefs   Expound to me my vision If it be that ye can Interpret visions  </t>
+    <t xml:space="preserve">   The king  of Egypt  said     I do see  in a vision  Seven fat kine  whom seven Lean ones devour  and seven Green ears of corn  and seven  others  Withered  O ye chiefs   Expound to me my vision If it be that ye can Interpret visions  </t>
   </si>
   <si>
     <t xml:space="preserve">   They said     A confused medley Of dreams   and we are not Skilled in the interpretation Of dreams  </t>
@@ -4942,10 +4942,10 @@
     <t xml:space="preserve">     O Joseph      he said    O man of truth   Expound To us  the dream  Of seven fat kine Whom seven lean ones Devour  and of seven Green ears of corn And  seven  others withered   That I may return To the people  and that They may understand  </t>
   </si>
   <si>
-    <t xml:space="preserve">    Joseph  said     For seven years Shall ye diligently sow As is your wont   And the harvests that ye reap  Ye shall leave them in the ear — Except a little  of which Ye shall eat </t>
-  </si>
-  <si>
-    <t xml:space="preserve">     Then will come After that  period  Seven dreadful  years   Which will devour What ye shall have laid by In advance for them —  All  except a little Which ye shall have  Specially  guarded </t>
+    <t xml:space="preserve">    Joseph  said     For seven years Shall ye diligently sow As is your wont   And the harvests that ye reap  Ye shall leave them in the ear   Except a little  of which Ye shall eat </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Then will come After that  period  Seven dreadful  years   Which will devour What ye shall have laid by In advance for them    All  except a little Which ye shall have  Specially  guarded </t>
   </si>
   <si>
     <t xml:space="preserve">     Then will come After that  period  a year In which the people will have Abundant water  and in which They will press  wine and oil      </t>
@@ -5071,7 +5071,7 @@
     <t xml:space="preserve">   He said     Know ye How ye dealt with Joseph And his brother  not knowing  What ye were doing     </t>
   </si>
   <si>
-    <t xml:space="preserve">   They said     Art thou indeed Joseph     He said     I am Joseph  and this is my brother   God has indeed been gracious To us  all    behold  he that is Righteous and patient —never Will God suffer the reward To be lost  of those Who do right  </t>
+    <t xml:space="preserve">   They said     Art thou indeed Joseph     He said     I am Joseph  and this is my brother   God has indeed been gracious To us  all    behold  he that is Righteous and patient  never Will God suffer the reward To be lost  of those Who do right  </t>
   </si>
   <si>
     <t xml:space="preserve">   They said     By God  Indeed Has God preferred thee Above us  and we certainly Have been guilty of sin    </t>
@@ -5104,7 +5104,7 @@
     <t xml:space="preserve">   And he raised his parents High on the throne  of dignity   And they fell down in prostration   All  before him  He said     O my father   this is The fulfillment of my vision Of old   God hath made it Come true   He was indeed Good to me when He Took me out of prison And brought you  all here  Out of the desert   Even  after Satan had sown Enmity between me and my brothers  Verily my Lord understandeth Best the mysteries of all That He planneth to do  For verily He is full Of knowledge and wisdom </t>
   </si>
   <si>
-    <t xml:space="preserve">     O my Lord   Thou hast Indeed bestowed on me Some power  and taught me Something of the interpretation Of dreams and events —O Thou Creator of the heavens And the earth   Thou art My Protector in this world And in the Hereafter  Take Thou my soul  at death  As one submitting to Thy Will  As a Muslim   and unite me With the righteous  </t>
+    <t xml:space="preserve">     O my Lord   Thou hast Indeed bestowed on me Some power  and taught me Something of the interpretation Of dreams and events  O Thou Creator of the heavens And the earth   Thou art My Protector in this world And in the Hereafter  Take Thou my soul  at death  As one submitting to Thy Will  As a Muslim   and unite me With the righteous  </t>
   </si>
   <si>
     <t xml:space="preserve">   Such is one of the stories Of what happened unseen  Which We reveal by inspiration Unto thee   nor wast thou  Present  with them when they Concerted their plans together In the process of weaving their plots </t>
@@ -5122,19 +5122,19 @@
     <t xml:space="preserve">   And most of them Believe not in God Without associating  others As partners  with Him  </t>
   </si>
   <si>
-    <t xml:space="preserve">   Do they then feel secure From the coming against them Of the covering veil Of the wrath of God — Or of the coming against them Of the  final  Hour All of a sudden While they perceive not  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Say thou     This is my way   I do invite unto God — On evidence clear as The seeing with one s eyes — I and whoever follows me  Glory to God   and never Will I join gods with God    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Nor did We send before thee  As apostles  any but men  Whom We did inspire —  Men  living in human habitations  Do they not travel Through the earth  and see What was the end Of those before them   But the home of the Hereafter Is best  for those who do right  Will ye not then understand  </t>
+    <t xml:space="preserve">   Do they then feel secure From the coming against them Of the covering veil Of the wrath of God   Or of the coming against them Of the  final  Hour All of a sudden While they perceive not  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Say thou     This is my way   I do invite unto God   On evidence clear as The seeing with one s eyes   I and whoever follows me  Glory to God   and never Will I join gods with God    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Nor did We send before thee  As apostles  any but men  Whom We did inspire    Men  living in human habitations  Do they not travel Through the earth  and see What was the end Of those before them   But the home of the Hereafter Is best  for those who do right  Will ye not then understand  </t>
   </si>
   <si>
     <t xml:space="preserve">    Respite will be granted  Until  when the apostles Give up hope  of their people  And  come to   think that they Were treated as liars  There reaches them Our help  And those whom We will Are delivered into safety  But never will be warded off Our punishment from those Who are in sin </t>
   </si>
   <si>
-    <t xml:space="preserve">   There is  in their stories  Instruction for men endued With understanding  It is not A tale invented  but a confirmation Of what went before it — A detailed exposition Of all things  and a Guide And a Mercy to any such As believe </t>
+    <t xml:space="preserve">   There is  in their stories  Instruction for men endued With understanding  It is not A tale invented  but a confirmation Of what went before it   A detailed exposition Of all things  and a Guide And a Mercy to any such As believe </t>
   </si>
   <si>
     <t xml:space="preserve">   A  L  M  R  These are The Signs  or Verses  Of the Book   that which Hath been revealed unto thee From thy Lord is the Truth   But most men believe not </t>
@@ -5146,7 +5146,7 @@
     <t xml:space="preserve">   And it is He Who spread out The earth  and set thereon Mountains standing firm  And  flowing  rivers   and fruit Of every kind He made In pairs  two and two   He draweth the Night as a veil O er the Day  Behold  verily In these things there are Signs For those who consider  </t>
   </si>
   <si>
-    <t xml:space="preserve">   And in the earth are tracts  Diverse though  neighbouring  And gardens of vines And fields sown with corn  And palm trees—growing Out of single roots or otherwise   Watered with the same water  Yet some of them We make More excellent than others to eat  Behold  verily in these things There are Signs for those Who understand  </t>
+    <t xml:space="preserve">   And in the earth are tracts  Diverse though  neighbouring  And gardens of vines And fields sown with corn  And palm trees growing Out of single roots or otherwise   Watered with the same water  Yet some of them We make More excellent than others to eat  Behold  verily in these things There are Signs for those Who understand  </t>
   </si>
   <si>
     <t xml:space="preserve">   If thou dost marvel  At their want of faith   Strange is their saying     When we are  actually  dust  Shall we indeed then be In a creation renewed     They are Those who deny their Lord   They Are those round whose necks Will be yokes  of servitude    They will be Companions Of the Fire  to dwell therein  For aye   </t>
@@ -5179,7 +5179,7 @@
     <t xml:space="preserve">   For Him  alone  is prayer In Truth   any others that they Call upon besides Him hear them No more than if they were To stretch forth their hands For water to reach their mouths But it reaches them not   For the prayer of those Without Faith is nothing But  futile  wandering  in the mind  </t>
   </si>
   <si>
-    <t xml:space="preserve">   Whatever beings there are In the heavens and the earth Do prostrate themselves to God  Acknowledging sub   —with good will Or in spite of themselves   So do their shadows In the mornings and evenings </t>
+    <t xml:space="preserve">   Whatever beings there are In the heavens and the earth Do prostrate themselves to God  Acknowledging sub    with good will Or in spite of themselves   So do their shadows In the mornings and evenings </t>
   </si>
   <si>
     <t xml:space="preserve">   Say    Who is the Lord and Sustainer Of the heavens and the earth     Say      It is  God   Say     Do ye then take  For worship  protectors other Than Him  such as have No power either for good Or for harm to themselves     Say     Are the blind equal With those who see   Or the depths of darkness Equal with Light     Or do they assign to God Partners who have created  Anything  as He has created  So that the creation seemed To them similar   Say     God is the Creator Of all things   He is The One  the Supreme and Irresistible  </t>
@@ -5188,10 +5188,10 @@
     <t xml:space="preserve">   He sends down water From the skies  and the channels Flow  each according to its measure   But the torrent bears away The foam that mounts up To the surface  Even so  From that  ore  which they heat In the fire  to make ornaments Or utensils therewith  There is a scum likewise  Thus doth God  by parables  Show forth Truth and Vanity  For the scum disappears Like froth cast out   While that which is for the good Of mankind remains On the earth  Thus doth God Set forth parables </t>
   </si>
   <si>
-    <t xml:space="preserve">   For those who respond To their Lord  are  all  Good things  But those Who respond not to Him — Even if they had all That is in the heavens And on earth  and as much more   In vain  would they offer it For ransom  For them Will the reckoning be terrible   Their abode will be Hell — What a bed of misery     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Is then one who doth know That that which hath been Revealed unto thee From thy Lord is the Truth  Like one who is blind   It is those who are Endued with understanding That receive admonition  —</t>
+    <t xml:space="preserve">   For those who respond To their Lord  are  all  Good things  But those Who respond not to Him   Even if they had all That is in the heavens And on earth  and as much more   In vain  would they offer it For ransom  For them Will the reckoning be terrible   Their abode will be Hell   What a bed of misery     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Is then one who doth know That that which hath been Revealed unto thee From thy Lord is the Truth  Like one who is blind   It is those who are Endued with understanding That receive admonition   </t>
   </si>
   <si>
     <t xml:space="preserve">   Those who fulfil the Covenant Of God and fail not In their plighted word  </t>
@@ -5200,7 +5200,7 @@
     <t xml:space="preserve">   Those who join together Those things which God Hath commanded to be joined  Hold their Lord in awe  And fear the terrible reckoning  </t>
   </si>
   <si>
-    <t xml:space="preserve">   Those who patiently persevere  Seeking the countenance their Lord   Establish regular prayers   spend  Out of  the gifts  We have bestowed For their sustenance  secretly And openly   and turn off Evil With good   for such there is The final attainment Of the  Eternal  Home —</t>
+    <t xml:space="preserve">   Those who patiently persevere  Seeking the countenance their Lord   Establish regular prayers   spend  Out of  the gifts  We have bestowed For their sustenance  secretly And openly   and turn off Evil With good   for such there is The final attainment Of the  Eternal  Home  </t>
   </si>
   <si>
     <t xml:space="preserve">   Gardens of perpetual bliss   They shall enter there  As well as the righteous Among their fathers  their spouses  And their offspring   And angels shall enter unto them From every gate  with the salutation   </t>
@@ -5209,13 +5209,13 @@
     <t xml:space="preserve">     Peace unto you for that ye Persevered in patience   Now How excellent is the final Home    </t>
   </si>
   <si>
-    <t xml:space="preserve">   But those who break The Covenant of God  after Having plighted their word thereto  And cut asunder those things Which God has commanded To be joined  and work mischief In the land  —on them Is the Curse   for them Is the terrible Home  </t>
+    <t xml:space="preserve">   But those who break The Covenant of God  after Having plighted their word thereto  And cut asunder those things Which God has commanded To be joined  and work mischief In the land   on them Is the Curse   for them Is the terrible Home  </t>
   </si>
   <si>
     <t xml:space="preserve">   God doth enlarge  or grant By  strict  measure  the Sustenance  Which He giveth  to whomso He pleaseth   The worldly  rejoice In the life of this world   But the life of this world Is but little comfort In the Hereafter    </t>
   </si>
   <si>
-    <t xml:space="preserve">   The Unbelievers say     Why Is not a Sign sent down To him from his Lord     Say     Truly God leaveth  To stray  whom He will   But He guideth to Himself Those who turn to Him In penitence —</t>
+    <t xml:space="preserve">   The Unbelievers say     Why Is not a Sign sent down To him from his Lord     Say     Truly God leaveth  To stray  whom He will   But He guideth to Himself Those who turn to Him In penitence  </t>
   </si>
   <si>
     <t xml:space="preserve">     Those who believe  and whose hearts Find satisfaction in the remembrance Of God   for without doubt In the remembrance of God Do hearts find satisfaction </t>
@@ -5227,7 +5227,7 @@
     <t xml:space="preserve">   Thus have We sent thee Amongst a People before whom  Long since  have  other  Peoples  Gone and  passed away   In order that thou mightest Rehearse unto them what We Send down unto thee by inspiration   Yet do they reject  Him   the Most Gracious   Say     He is my Lord   There is no god but He   On Him is my trust  And to Him do I turn    </t>
   </si>
   <si>
-    <t xml:space="preserve">   If there were a Qur ān With which mountains were moved  Or the earth were cloven asunder  Or the dead were made to speak   This would be the one    But truly  the Command is With God in all things   Do not the Believers know  That  had God  so  willed  He could have guided All mankind  to the Right    But the Unbelievers —never Will disaster cease to seize Them for their  ill  deeds  Or to settle close to their homes  Until the Promise of God Come to pass  for  verily  God will not fail In His promise    </t>
+    <t xml:space="preserve">   If there were a Qur ān With which mountains were moved  Or the earth were cloven asunder  Or the dead were made to speak   This would be the one    But truly  the Command is With God in all things   Do not the Believers know  That  had God  so  willed  He could have guided All mankind  to the Right    But the Unbelievers  never Will disaster cease to seize Them for their  ill  deeds  Or to settle close to their homes  Until the Promise of God Come to pass  for  verily  God will not fail In His promise    </t>
   </si>
   <si>
     <t xml:space="preserve">   Mocked were  many  apostles Before thee   but I granted Respite to the Unbelievers  And finally I punished them   Then how  terrible  was My requital  </t>
@@ -5239,7 +5239,7 @@
     <t xml:space="preserve">   For them is a Penalty In the life of this world  But harder  truly  is the Penalty Of the Hereafter   and defender Have they none against God </t>
   </si>
   <si>
-    <t xml:space="preserve">   The parable of the Garden Which the righteous are promised  — Beneath if flow rivers   Perpetual is the enjoyment thereof And the shade therein   Such is the End Of the Righteous   and the End Of Unbelievers is the Fire </t>
+    <t xml:space="preserve">   The parable of the Garden Which the righteous are promised    Beneath if flow rivers   Perpetual is the enjoyment thereof And the shade therein   Such is the End Of the Righteous   and the End Of Unbelievers is the Fire </t>
   </si>
   <si>
     <t xml:space="preserve">   Those to whom We have Given the Book rejoice At what hath been revealed Unto thee   but there are Among the clans those who reject A part thereof  Say     I am commanded to worship God  and not to join partners With Him  Unto Him Do I call  and Unto Him is my return  </t>
@@ -5266,10 +5266,10 @@
     <t xml:space="preserve">   The Unbelievers say     No apostle Art thou   Say     Enough For a witness between me And you is God  and such As have knowledge of the Book  </t>
   </si>
   <si>
-    <t xml:space="preserve">   A  L  R  A Book Which We have revealed Unto thee  in order that Thou mightest lead mankind Out of the depths of darkness Into light—by the leave Of their Lord—to the Way Of  Him  Exalted in Power  Worthy of all Praise  —</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Of God  to Whom do belong All things in the heavens And on earth   But alas for the Unbelievers For a terrible Penalty  Their Unfaith will bring them   —</t>
+    <t xml:space="preserve">   A  L  R  A Book Which We have revealed Unto thee  in order that Thou mightest lead mankind Out of the depths of darkness Into light by the leave Of their Lord to the Way Of  Him  Exalted in Power  Worthy of all Praise   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Of God  to Whom do belong All things in the heavens And on earth   But alas for the Unbelievers For a terrible Penalty  Their Unfaith will bring them    </t>
   </si>
   <si>
     <t xml:space="preserve">   Those who love the life Of this world more than The Hereafter  who hinder  men  From the Path of God And seek therein something crooked   They are astray By a long distance </t>
@@ -5278,7 +5278,7 @@
     <t xml:space="preserve">   We sent not an apostle Except  to teach  in the language Of his  own  people  in order To make  things  clear to them  Now God leaves straying Those whom He pleases And guides whom He pleases   And He is Exalted in Power  Full of Wisdom </t>
   </si>
   <si>
-    <t xml:space="preserve">   We sent Moses with Our Signs  And the command     Bring out Thy people from the depths Of darkness into light  And teach them to remember The Days of God   Verily In this there are Signs For such as are firmly patient And constant —grateful and appreciative </t>
+    <t xml:space="preserve">   We sent Moses with Our Signs  And the command     Bring out Thy people from the depths Of darkness into light  And teach them to remember The Days of God   Verily In this there are Signs For such as are firmly patient And constant  grateful and appreciative </t>
   </si>
   <si>
     <t xml:space="preserve">   Remember   Moses said To his people     Call to mind The favor of God to you When He delivered you From the people of Pharaoh   They set you hard tasks And punishments  slaughtered Your sons  and let your women folk Live   therein was A tremendous trial from your Lord     </t>
@@ -5287,10 +5287,10 @@
     <t xml:space="preserve">   And remember   your Lord Caused to be declared  publicly      If ye are grateful  I will Add more  favours  unto you   But if ye show ingratitude  Truly My punishment Is terrible indeed  </t>
   </si>
   <si>
-    <t xml:space="preserve">   And Moses said     If ye Show ingratitude  ye and all On earth together —yet Is God Free of all wants  Worthy of all praise </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Has not the story Reached you   O people     of those Who  went  before you  — Of the People of Noah And  Ād and Thamūd  — And of those who  came  After them   None knows them But God  To them came Apostles with Clear  Signs    But they put their hands Up to their mouths  and said     We do deny  the mission  On which ye have been sent  And we are really In suspicious  disquieting  doubt As to that to which Ye invite us  </t>
+    <t xml:space="preserve">   And Moses said     If ye Show ingratitude  ye and all On earth together  yet Is God Free of all wants  Worthy of all praise </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Has not the story Reached you   O people     of those Who  went  before you    Of the People of Noah And  Ād and Thamūd    And of those who  came  After them   None knows them But God  To them came Apostles with Clear  Signs    But they put their hands Up to their mouths  and said     We do deny  the mission  On which ye have been sent  And we are really In suspicious  disquieting  doubt As to that to which Ye invite us  </t>
   </si>
   <si>
     <t xml:space="preserve">   Their apostles said     Is there A doubt about God  The Creator of the heavens And the earth   It is He Who invites you  in order That He may forgive you Your sins and give you Respite for a term appointed     They said     Ah   ye are No more than human  Like ourselves   Ye wish To turn us away from The  gods  our fathers Used to worship   then Bring us some clear authority  </t>
@@ -5305,7 +5305,7 @@
     <t xml:space="preserve">   And the Unbelievers said To their apostles     Be sure We shall drive you out Of our land  or ye shall Return to our religion   But their Lord inspired  This Message  to them     Verily We shall cause The wrong doers to perish  </t>
   </si>
   <si>
-    <t xml:space="preserve">     And verily We shall Cause you to abide In the land  and succeed them  This for such as fear The Time when they shall stand Before My tribunal —such As fear the Punishment denounced  </t>
+    <t xml:space="preserve">     And verily We shall Cause you to abide In the land  and succeed them  This for such as fear The Time when they shall stand Before My tribunal  such As fear the Punishment denounced  </t>
   </si>
   <si>
     <t xml:space="preserve">   But they sought victory and decision  There and then   and frustration Was the lot of every Powerful obstinate transgressor </t>
@@ -5332,10 +5332,10 @@
     <t xml:space="preserve">   And Satan will say When the matter is decided     It was God Who gave you A promise of Truth   I too Promised  but I failed In my promise to you  I had no authority over you Except to call you  but ye Listened to me   then Reproach not me  but reproach Your own souls  I cannot listen To your cries  nor can ye Listen to mine  I reject Your former act in associating Me with God  For wrong doers there must be A grievous Penalty  </t>
   </si>
   <si>
-    <t xml:space="preserve">   But those who believe And work righteousness Will be admitted to Gardens Beneath which rivers flow — To dwell therein for aye With the leave of their Lord  Their greeting therein Will be     Peace    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Seest thou not how God sets forth a parable  — A goodly Word Like a goodly tree  Whose root is firmly fixed  And its branches  reach  To the heavens —</t>
+    <t xml:space="preserve">   But those who believe And work righteousness Will be admitted to Gardens Beneath which rivers flow   To dwell therein for aye With the leave of their Lord  Their greeting therein Will be     Peace    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Seest thou not how God sets forth a parable    A goodly Word Like a goodly tree  Whose root is firmly fixed  And its branches  reach  To the heavens  </t>
   </si>
   <si>
     <t xml:space="preserve">   It brings forth its fruit At all times  by the leave Of its Lord  So God sets forth parables For men  in order that They may receive admonition </t>
@@ -5347,10 +5347,10 @@
     <t xml:space="preserve">   God will establish in strength Those who believe  with the Word That stands firm  in this world And in the Hereafter   but God Will leave  to stray  those Who do wrong   God doeth What He willeth    </t>
   </si>
   <si>
-    <t xml:space="preserve">   Hast thou not turned Thy vision to those who Have changed the favour of God Into blasphemy and caused Their people to descend To the House of Perdition  —</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Into Hell   They will burn Therein —an evil place To stay in  </t>
+    <t xml:space="preserve">   Hast thou not turned Thy vision to those who Have changed the favour of God Into blasphemy and caused Their people to descend To the House of Perdition   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Into Hell   They will burn Therein  an evil place To stay in  </t>
   </si>
   <si>
     <t xml:space="preserve">   And they set up  idols  As equal to God  to mislead  Men  from the Path   Say     Enjoy  your brief power    But verily ye are making Straightway for Hell    </t>
@@ -5371,7 +5371,7 @@
     <t xml:space="preserve">   Remember Abraham said     O my Lord   make this city One of peace and security   And preserve me and my sons From worshipping idols </t>
   </si>
   <si>
-    <t xml:space="preserve">     O my Lord   they have indeed Led astray many among mankind   He then who follows my  ways  Is of me  and he that Disobeys me —but Thou Art indeed Oft Forgiving  Most Merciful </t>
+    <t xml:space="preserve">     O my Lord   they have indeed Led astray many among mankind   He then who follows my  ways  Is of me  and he that Disobeys me  but Thou Art indeed Oft Forgiving  Most Merciful </t>
   </si>
   <si>
     <t xml:space="preserve">     O our Lord   I have made Some of my offspring to dwell In a valley without cultivation  By Thy Sacred House   In order  O our Lord  that they May establish regular Prayer   So fill the hearts of some Among men with love towards them  And feed them with Fruits   So that they may give thanks </t>
@@ -5386,10 +5386,10 @@
     <t xml:space="preserve">     O my Lord   make me One who establishes regular Prayer  And also  raise such  Among my offspring O our Lord   And accept Thou my Prayer </t>
   </si>
   <si>
-    <t xml:space="preserve">     O our Lord   cover  us  With Thy Forgiveness—me  My parents  and  all  Believers  On the Day that the Reckoning Will be established       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Think not that God Doth not heed the deeds Of those who do wrong  He but giveth them respite Against a Day when The eyes will fixedly stare In horror —</t>
+    <t xml:space="preserve">     O our Lord   cover  us  With Thy Forgiveness me  My parents  and  all  Believers  On the Day that the Reckoning Will be established       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Think not that God Doth not heed the deeds Of those who do wrong  He but giveth them respite Against a Day when The eyes will fixedly stare In horror  </t>
   </si>
   <si>
     <t xml:space="preserve">   They running forward With necks outstretched  Their heads uplifted  their gaze Returning not towards them  And their hearts a  gaping  void  </t>
@@ -5404,13 +5404,13 @@
     <t xml:space="preserve">   Mighty indeed were the plots Which they made  but their plots Were  well  within the sight Of God  even though they were Such as to shake the hills  </t>
   </si>
   <si>
-    <t xml:space="preserve">   Never think that God would fail His apostles in His promise   For God is Exalted in Power — The Lord of Retribution </t>
+    <t xml:space="preserve">   Never think that God would fail His apostles in His promise   For God is Exalted in Power   The Lord of Retribution </t>
   </si>
   <si>
     <t xml:space="preserve">   One day the Earth will be Changed to a different Earth  And so will be the Heavens  And  men  will be marshalled Forth  before God  the One  The Irresistible  </t>
   </si>
   <si>
-    <t xml:space="preserve">   And thou wilt see The Sinners that day Bound together in fetters  —</t>
+    <t xml:space="preserve">   And thou wilt see The Sinners that day Bound together in fetters   </t>
   </si>
   <si>
     <t xml:space="preserve">   Their garments of liquid pitch  And their faces covered with Fire  </t>
@@ -5422,7 +5422,7 @@
     <t xml:space="preserve">   Here is a Message for mankind  Let them take warning therefrom  And let them know that He Is  no other than  One God   Let men of understanding Take heed </t>
   </si>
   <si>
-    <t xml:space="preserve">   A  L  R  These are The Āyats of Revelation — Of a Qur ān That makes things clear </t>
+    <t xml:space="preserve">   A  L  R  These are The Āyats of Revelation   Of a Qur ān That makes things clear </t>
   </si>
   <si>
     <t xml:space="preserve">   Again and again will those Who disbelieve  wish that they Had bowed  to God s Will  In Islām </t>
@@ -5455,7 +5455,7 @@
     <t xml:space="preserve">   But never came an apostle To them but they mocked him </t>
   </si>
   <si>
-    <t xml:space="preserve">   Even so do We let it creep Into the hearts of the sinners—</t>
+    <t xml:space="preserve">   Even so do We let it creep Into the hearts of the sinners </t>
   </si>
   <si>
     <t xml:space="preserve">   That they should not believe In the  Message    but the ways Of the ancients have passed away </t>
@@ -5479,7 +5479,7 @@
     <t xml:space="preserve">   And the earth We have spread out  Like a carpet    set thereon Mountains firm and immovable   And produced therein all kinds Of things in due balance </t>
   </si>
   <si>
-    <t xml:space="preserve">   And We have provided therein Means of subsistence —for you And for those for whose sustenance Ye are not responsible </t>
+    <t xml:space="preserve">   And We have provided therein Means of subsistence  for you And for those for whose sustenance Ye are not responsible </t>
   </si>
   <si>
     <t xml:space="preserve">   And there is not a thing But its  sources and  treasures  Inexhaustible  are with Us   But We only send down Thereof in due and ascertainable measures </t>
@@ -5530,13 +5530,13 @@
     <t xml:space="preserve">    Iblīs  said     O my Lord   Give me then respite Till the Day The  dead  are raised  </t>
   </si>
   <si>
-    <t xml:space="preserve">    God  said     Respite Is granted thee—</t>
+    <t xml:space="preserve">    God  said     Respite Is granted thee </t>
   </si>
   <si>
     <t xml:space="preserve">     Till the Day Of the Time Appointed  </t>
   </si>
   <si>
-    <t xml:space="preserve">    Iblīs  said     O my Lord   Because Thou hast put me In the wrong  I will Make  wrong  fair seeming To them on the earth  And I will put them All in the wrong —</t>
+    <t xml:space="preserve">    Iblīs  said     O my Lord   Because Thou hast put me In the wrong  I will Make  wrong  fair seeming To them on the earth  And I will put them All in the wrong  </t>
   </si>
   <si>
     <t xml:space="preserve">     Except Thy servants among them  Sincere and purified  By Thy grace   </t>
@@ -5596,7 +5596,7 @@
     <t xml:space="preserve">   They said     We have been Sent to a people  Deep  in sin </t>
   </si>
   <si>
-    <t xml:space="preserve">     Excepting the adherents Of Lūṭ   them we are certainly  Charged  to save  from harm  — All—</t>
+    <t xml:space="preserve">     Excepting the adherents Of Lūṭ   them we are certainly  Charged  to save  from harm    All </t>
   </si>
   <si>
     <t xml:space="preserve">     Except his wife  who  We have ascertained  Will be among those Who will lag behind     </t>
@@ -5686,10 +5686,10 @@
     <t xml:space="preserve">   Strain not thine eyes  Wistfully  at what We Have bestowed on certain classes Of them  nor grieve over them   But lower thy wing  in gentleness  To the Believers </t>
   </si>
   <si>
-    <t xml:space="preserve">   And say     I am indeed he That warneth openly And without ambiguity  —</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Of just such wrath  As We sent down On those who divided  Scripture into arbitrary parts  —</t>
+    <t xml:space="preserve">   And say     I am indeed he That warneth openly And without ambiguity   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Of just such wrath  As We sent down On those who divided  Scripture into arbitrary parts   </t>
   </si>
   <si>
     <t xml:space="preserve">    So also on such  As have made the Qur ān Into shreds  as they please  </t>
@@ -5704,7 +5704,7 @@
     <t xml:space="preserve">   Therefore expound openly What thou art commanded  And turn away from those Who join false gods with God </t>
   </si>
   <si>
-    <t xml:space="preserve">   For sufficient are We Unto thee against those Who scoff —</t>
+    <t xml:space="preserve">   For sufficient are We Unto thee against those Who scoff  </t>
   </si>
   <si>
     <t xml:space="preserve">   Those who adopt  with God  Another god   but soon Will they come to know </t>
@@ -5797,7 +5797,7 @@
     <t xml:space="preserve">   Those before them did also Plot  against God s Way    But God took their structures From their foundations  and the roof Fell down on them from above   And the Wrath seized them From di s they did not perceive </t>
   </si>
   <si>
-    <t xml:space="preserve">   Then  on the Day of Judgment  He will cover them With shame  and say     Where are My   partners   Concerning whom ye used To dispute  with the godly      Those endued with knowledge Will say     This Day  indeed  Are the Unbelievers covered With Shame and Misery —</t>
+    <t xml:space="preserve">   Then  on the Day of Judgment  He will cover them With shame  and say     Where are My   partners   Concerning whom ye used To dispute  with the godly      Those endued with knowledge Will say     This Day  indeed  Are the Unbelievers covered With Shame and Misery  </t>
   </si>
   <si>
     <t xml:space="preserve">      Namely  those whose lives the angels Take in a state of wrong doing To their own souls   Then would they offer submission  With the pretence     We did No evil  knowingly     The angels Will reply     Nay  but verily God knoweth all that ye did  </t>
@@ -5806,10 +5806,10 @@
     <t xml:space="preserve">     So enter the gates of Hell  To dwell therein  Thus evil indeed Is the abode of the arrogant  </t>
   </si>
   <si>
-    <t xml:space="preserve">   To the righteous  When  it is said    What Is it that your Lord Has revealed     they say    All that is good   To those Who do good  there is good In this world  and the Home Of the Hereafter is even better And excellent indeed is the Home Of the righteous —</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Gardens of Eternity which they Will enter   beneath them Flow  pleasant  rivers   they Will have therein all That they wish   thus doth God reward the righteous —</t>
+    <t xml:space="preserve">   To the righteous  When  it is said    What Is it that your Lord Has revealed     they say    All that is good   To those Who do good  there is good In this world  and the Home Of the Hereafter is even better And excellent indeed is the Home Of the righteous  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Gardens of Eternity which they Will enter   beneath them Flow  pleasant  rivers   they Will have therein all That they wish   thus doth God reward the righteous  </t>
   </si>
   <si>
     <t xml:space="preserve">    Namely  those whose lives The angels take in a state Of purity  saying  to them     Peace be on you   enter ye The Garden  because of  the good  Which ye did  in the world   </t>
@@ -5821,7 +5821,7 @@
     <t xml:space="preserve">   But the evil results Of their deeds overtook them  And that very  Wrath  At which they had scoffed Hemmed them in    </t>
   </si>
   <si>
-    <t xml:space="preserve">   The worshippers of false gods Say     If God had so willed  We should not have worshipped Aught but Him—neither we Nor our fathers —nor should We have prescribed prohibitions Other than His   So did those Who went before them  But what is the mission Of apostles but to preach The Clear Message  </t>
+    <t xml:space="preserve">   The worshippers of false gods Say     If God had so willed  We should not have worshipped Aught but Him neither we Nor our fathers  nor should We have prescribed prohibitions Other than His   So did those Who went before them  But what is the mission Of apostles but to preach The Clear Message  </t>
   </si>
   <si>
     <t xml:space="preserve">   For We assuredly sent Amongst every People an apostle   With the Command     Serve God  and eschew Evil     Of the people were some whom God guided  and some On whom Error became Inevitably  established   So travel Through the earth  and see What was the end of those Who denied  the Truth  </t>
@@ -5839,7 +5839,7 @@
     <t xml:space="preserve">   For to anything which We Have willed  We but say The Word    Be    and it is    </t>
   </si>
   <si>
-    <t xml:space="preserve">   To those who leave Their homes in the cause Of God  after suffering oppression — We will assuredly give A goodly home in this world   But truly the reward Of the Hereafter will be greater  If they only realise  this   </t>
+    <t xml:space="preserve">   To those who leave Their homes in the cause Of God  after suffering oppression   We will assuredly give A goodly home in this world   But truly the reward Of the Hereafter will be greater  If they only realise  this   </t>
   </si>
   <si>
     <t xml:space="preserve">    They are  those who persevere In patience  and put Their trust on their Lord </t>
@@ -5851,16 +5851,16 @@
     <t xml:space="preserve">    We sent them  with Clear Signs And Books of dark prophecies   And We have sent down Unto thee  also  the Message   That thou mayest explain clearly To men what is sent For them  and that they May give thought </t>
   </si>
   <si>
-    <t xml:space="preserve">   Do then those who devise Evil  plots  feel secure That God will not cause The earth to swallow them up  Or that the Wrath will not Seize them from di s They little perceive  —</t>
+    <t xml:space="preserve">   Do then those who devise Evil  plots  feel secure That God will not cause The earth to swallow them up  Or that the Wrath will not Seize them from di s They little perceive   </t>
   </si>
   <si>
     <t xml:space="preserve">   Or that He may not Call them to account In the midst of their goings To and fro  without a chance Of their frustrating Him  </t>
   </si>
   <si>
-    <t xml:space="preserve">   Or that He may not Call them to account By a process of slow wastage— For thy Lord is indeed Full of kindness and mercy </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Do they not look At God s creation   even  Among  inanimate  things — How their  very  shadows Turn round  from the right And the left  prostrating Themselves to God  and that In the humblest manner  </t>
+    <t xml:space="preserve">   Or that He may not Call them to account By a process of slow wastage  For thy Lord is indeed Full of kindness and mercy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Do they not look At God s creation   even  Among  inanimate  things   How their  very  shadows Turn round  from the right And the left  prostrating Themselves to God  and that In the humblest manner  </t>
   </si>
   <si>
     <t xml:space="preserve">   And to God doth obeisance All that is in the heavens And on earth  whether Moving  living  creatures Or the angels   for none Are arrogant  before their Lord  </t>
@@ -5878,7 +5878,7 @@
     <t xml:space="preserve">   And ye have no good thing But is from God   and moreover  When ye are touched by distress  Unto Him ye cry with groans  </t>
   </si>
   <si>
-    <t xml:space="preserve">   Yet  when He removes The distress from you  behold   Some of you turn to other gods To join with their Lord—</t>
+    <t xml:space="preserve">   Yet  when He removes The distress from you  behold   Some of you turn to other gods To join with their Lord </t>
   </si>
   <si>
     <t xml:space="preserve">    As if  to show their ingratitude For the favours We have Bestowed on them   Then enjoy  Your brief day    but soon Will ye know  your folly   </t>
@@ -5887,7 +5887,7 @@
     <t xml:space="preserve">   And they  even  assign  To things they do not know  A portion out of that Which we have bestowed For their sustenance   By God  ye shall certainly Be called to account For your false inventions </t>
   </si>
   <si>
-    <t xml:space="preserve">   And they assign daughters For God  —Glory be to Him  — And for themselves  sons — The issue  they desire  </t>
+    <t xml:space="preserve">   And they assign daughters For God   Glory be to Him    And for themselves  sons   The issue  they desire  </t>
   </si>
   <si>
     <t xml:space="preserve">   When news is brought To one of them  of  the birth Of  a female  child   his face Darkens  and he is filled With inward grief  </t>
@@ -5932,10 +5932,10 @@
     <t xml:space="preserve">   God has bestowed His gifts Of sustenance more freely on some Of you than on others   those More favoured are not going To throw back their gifts To those whom their right hands Possess  so as to be equal In that respect  Will they then Deny the favours of God  </t>
   </si>
   <si>
-    <t xml:space="preserve">   And God has made for you Mates  and companions  of your own nature  And made for you  out of them  Sons and daughters and grandchildren  And provided for you sustenance Of the best   will they Then believe in vain things  And be ungrateful for God s favours  —</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   And worship others than God — Such as have no power Of providing them  for sustenance  With anything in heavens or earth  And cannot possibly have Such power  </t>
+    <t xml:space="preserve">   And God has made for you Mates  and companions  of your own nature  And made for you  out of them  Sons and daughters and grandchildren  And provided for you sustenance Of the best   will they Then believe in vain things  And be ungrateful for God s favours   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   And worship others than God   Such as have no power Of providing them  for sustenance  With anything in heavens or earth  And cannot possibly have Such power  </t>
   </si>
   <si>
     <t xml:space="preserve">   Invent not similitudes For God   for God knoweth  And ye know not </t>
@@ -5980,7 +5980,7 @@
     <t xml:space="preserve">   That day shall they  openly  show  Their  submission to God   and all Their inventions shall leave Them in the lurch </t>
   </si>
   <si>
-    <t xml:space="preserve">   Those who reject God And hinder  men  from the Path Of God—for them Will We add Penalty To Penalty   for that they Used to spread mischief </t>
+    <t xml:space="preserve">   Those who reject God And hinder  men  from the Path Of God for them Will We add Penalty To Penalty   for that they Used to spread mischief </t>
   </si>
   <si>
     <t xml:space="preserve">   One day We shall raise From all Peoples a witness Against them  from amongst themselves   And We shall bring thee As a witness against these  Thy people    and We have sent down To thee the Book explaining All things  a Guide  a Mercy  And Glad Tidings to Muslims    </t>
@@ -6019,7 +6019,7 @@
     <t xml:space="preserve">   His authority is over those Only  who take him as patron And who join partners with God    </t>
   </si>
   <si>
-    <t xml:space="preserve">   When We substitute one revelation For another —and God knows best What He reveals  in stages  — They say    Thou art but a forger     But most of them understand not </t>
+    <t xml:space="preserve">   When We substitute one revelation For another  and God knows best What He reveals  in stages    They say    Thou art but a forger     But most of them understand not </t>
   </si>
   <si>
     <t xml:space="preserve">   Say  the Holy Spirit has brought The revelation from thy Lord In Truth  in order to strengthen Those who believe  and as a Guide And Glad Tidings to Muslims </t>
@@ -6028,13 +6028,13 @@
     <t xml:space="preserve">   We know indeed that they Say    It is a man that Teaches him   The tongue Of him they wickedly point to Is notable foreign  while this Is Arabic  pure and clear </t>
   </si>
   <si>
-    <t xml:space="preserve">   Those who believe not In the Signs of God — God will not guide them  And theirs will be A grievous Penalty </t>
+    <t xml:space="preserve">   Those who believe not In the Signs of God   God will not guide them  And theirs will be A grievous Penalty </t>
   </si>
   <si>
     <t xml:space="preserve">   It is those who believe not In the Signs of God  That forge falsehood   It is they who lie  </t>
   </si>
   <si>
-    <t xml:space="preserve">   Any one who  after accepting Faith in God  utters Unbelief — Except under compulsion  His heart remaining firm In Faith—but such as Open their breast to Unbelief — On them is Wrath from God  And theirs will be A dreadful Penalty </t>
+    <t xml:space="preserve">   Any one who  after accepting Faith in God  utters Unbelief   Except under compulsion  His heart remaining firm In Faith but such as Open their breast to Unbelief   On them is Wrath from God  And theirs will be A dreadful Penalty </t>
   </si>
   <si>
     <t xml:space="preserve">   This because they love The life of this world Better than the Hereafter   And God will not guide Those who reject Faith </t>
@@ -6046,7 +6046,7 @@
     <t xml:space="preserve">   Without doubt  in the Hereafter They will perish </t>
   </si>
   <si>
-    <t xml:space="preserve">   But verily thy Lord — To those who leave their homes After trials and persecutions — And who thereafter strive And fight for the Faith And patiently persevere — Thy Lord  after all this Is Oft Forgiving  Most Merciful    </t>
+    <t xml:space="preserve">   But verily thy Lord   To those who leave their homes After trials and persecutions   And who thereafter strive And fight for the Faith And patiently persevere   Thy Lord  after all this Is Oft Forgiving  Most Merciful    </t>
   </si>
   <si>
     <t xml:space="preserve">   One Day every soul Will come up struggling For itself  and every soul Will be recompensed  fully  For all its actions  and none Will be unjustly dealt with </t>
@@ -6061,10 +6061,10 @@
     <t xml:space="preserve">   So eat of the sustenance Which God has provided For you  lawful and good   And be grateful for the favours Of God  if it is He Whom ye serve </t>
   </si>
   <si>
-    <t xml:space="preserve">   He has only forbidden you Dead meat  and blood  And the flesh of swine  And any  food  over which The name of other than God Has been invoked  But if one is forced by necessity  Without wilful disobedience  Nor transgressing due limits — Then God is Oft Forgiving  Most Merciful </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   But say not—for any false thing That your tongues may put forth —   This is lawful  and this Is forbidden   so as to ascribe False things to God  For those Who ascribe false things To God  will never prosper </t>
+    <t xml:space="preserve">   He has only forbidden you Dead meat  and blood  And the flesh of swine  And any  food  over which The name of other than God Has been invoked  But if one is forced by necessity  Without wilful disobedience  Nor transgressing due limits   Then God is Oft Forgiving  Most Merciful </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   But say not for any false thing That your tongues may put forth     This is lawful  and this Is forbidden   so as to ascribe False things to God  For those Who ascribe false things To God  will never prosper </t>
   </si>
   <si>
     <t xml:space="preserve">    In such falsehood  Is but a paltry profit   But they will have A most grievous Penalty </t>
@@ -6073,7 +6073,7 @@
     <t xml:space="preserve">   To the Jews We prohibited Such things as We have Mentioned to thee before   We did them no wrong  But they were used to Doing wrong to themselves </t>
   </si>
   <si>
-    <t xml:space="preserve">   But verily thy Lord — To those who do wrong In ignorance  but who Thereafter repent and make amends — Thy Lord  after all this  Is Oft  Forgiving  Most Merciful    </t>
+    <t xml:space="preserve">   But verily thy Lord   To those who do wrong In ignorance  but who Thereafter repent and make amends   Thy Lord  after all this  Is Oft  Forgiving  Most Merciful    </t>
   </si>
   <si>
     <t xml:space="preserve">   Abraham was indeed a model  Devoutly obedient to God   And  true in faith  and he Joined not gods with God  </t>
@@ -6103,7 +6103,7 @@
     <t xml:space="preserve">   For God is with those Who restrain themselves  And those who do good </t>
   </si>
   <si>
-    <t xml:space="preserve">   Glory to  God  Who did take His Servant For a Journey by night From the Sacred Mosque To the Farthest Mosque  Whose precincts We did Bless —in order that We Might show him some Of Our Signs   for He Is the One Who heareth And seeth  all things  </t>
+    <t xml:space="preserve">   Glory to  God  Who did take His Servant For a Journey by night From the Sacred Mosque To the Farthest Mosque  Whose precincts We did Bless  in order that We Might show him some Of Our Signs   for He Is the One Who heareth And seeth  all things  </t>
   </si>
   <si>
     <t xml:space="preserve">   We gave Moses the Book  And made it a Guide To the Children of Israel   Commanding      Take not Other than Me As Disposer of  your  affairs  </t>
@@ -6154,13 +6154,13 @@
     <t xml:space="preserve">   How many generations Have We destroyed after Noah   And enough is thy Lord To note and see The sins of His servants </t>
   </si>
   <si>
-    <t xml:space="preserve">   If any do wish For the transitory things  Of this life   We readily Grant them—such things As We will  to such persons As We will   in the end Have We provided Hell For them   they will burn Therein  disgraced and rejected </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Those who do wish For the  things of  the Hereafter  And strive therefor With all due striving  And have Faith — They are the ones Whose striving is acceptable  To God  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Of the bounties of thy Lord We bestow freely on all— These as well as those   The bounties of thy Lord Are not closed  to anyone  </t>
+    <t xml:space="preserve">   If any do wish For the transitory things  Of this life   We readily Grant them such things As We will  to such persons As We will   in the end Have We provided Hell For them   they will burn Therein  disgraced and rejected </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Those who do wish For the  things of  the Hereafter  And strive therefor With all due striving  And have Faith   They are the ones Whose striving is acceptable  To God  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Of the bounties of thy Lord We bestow freely on all  These as well as those   The bounties of thy Lord Are not closed  to anyone  </t>
   </si>
   <si>
     <t xml:space="preserve">   See how We have bestowed More on some than on others   But verily the Hereafter Is more in rank and gradation And more in excellence </t>
@@ -6199,7 +6199,7 @@
     <t xml:space="preserve">   Nor come nigh to adultery   For it is a shameful  deed  And an evil  opening the road  To other evils  </t>
   </si>
   <si>
-    <t xml:space="preserve">   Nor take life—which God Has made sacred—except For just cause  And if Anyone is slain wrongfully  We have given his heir Authority  to demand Qiṣāṣ Or to forgive    but let him Not exceed bounds in the matter Of taking life   for he Is helped  by the Law  </t>
+    <t xml:space="preserve">   Nor take life which God Has made sacred except For just cause  And if Anyone is slain wrongfully  We have given his heir Authority  to demand Qiṣāṣ Or to forgive    but let him Not exceed bounds in the matter Of taking life   for he Is helped  by the Law  </t>
   </si>
   <si>
     <t xml:space="preserve">   Come not nigh To the orphan s property Except to improve it  Until he attains the age Of full strength   and fulfil  Every  engagement  For  every  engagement Will be enquired into  On the Day of Reckoning  </t>
@@ -6226,10 +6226,10 @@
     <t xml:space="preserve">   We have explained  things  In various  ways  in this Qur ān  In order that they may receive Admonition  but it only increases Their flight  from the Truth   </t>
   </si>
   <si>
-    <t xml:space="preserve">   Say   if there had been  Other  gods with Him — As they say —behold  They would certainly have Sought out a way To the Lord of the Throne  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Glory to Him   He is high Above all that they say  — Exalted and Great  beyond measure   </t>
+    <t xml:space="preserve">   Say   if there had been  Other  gods with Him   As they say  behold  They would certainly have Sought out a way To the Lord of the Throne  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Glory to Him   He is high Above all that they say    Exalted and Great  beyond measure   </t>
   </si>
   <si>
     <t xml:space="preserve">   The seven heavens and the earth  And all beings therein  Declare His glory   There not a thing But celebrates His praise   And yet ye understand not How they declare His glory   Verily He is Oft Forbearing  Most Forgiving  </t>
@@ -6238,7 +6238,7 @@
     <t xml:space="preserve">   When thou dost recite The Qur ān  We put  Between thee and those who Believe not in the Hereafter  A veil invisible  </t>
   </si>
   <si>
-    <t xml:space="preserve">   And We put coverings Over their hearts  and minds  Lest they should understand The Qur ān  and deafness Into their ears   when thou Dost commemorate thy Lord— And Him alone—in the Qur ān  They turn on their backs  Fleeing  from the Truth  </t>
+    <t xml:space="preserve">   And We put coverings Over their hearts  and minds  Lest they should understand The Qur ān  and deafness Into their ears   when thou Dost commemorate thy Lord  And Him alone in the Qur ān  They turn on their backs  Fleeing  from the Truth  </t>
   </si>
   <si>
     <t xml:space="preserve">   We know best why it is They listen  when they listen To thee   and when they Meet in private conference  Behold  the wicked say    Ye follow none other than A man bewitched    </t>
@@ -6253,7 +6253,7 @@
     <t xml:space="preserve">   Say      Nay    be ye Stones or iron </t>
   </si>
   <si>
-    <t xml:space="preserve">     Or created matter Which  in your minds  Is hardest  to be raised up  —  Yet shall ye be raised up      Then will they say     Who will cause us To return     Say     He Who created you first     Then will they wag Their heads towards thee  And say    When will That be     Say    May be It will be quite soon  </t>
+    <t xml:space="preserve">     Or created matter Which  in your minds  Is hardest  to be raised up     Yet shall ye be raised up      Then will they say     Who will cause us To return     Say     He Who created you first     Then will they wag Their heads towards thee  And say    When will That be     Say    May be It will be quite soon  </t>
   </si>
   <si>
     <t xml:space="preserve">     It will be on a Day When He will call you  And ye will answer  His call  with  words Of  His praise  and ye Will think that ye tarried But a little while       </t>
@@ -6268,10 +6268,10 @@
     <t xml:space="preserve">   And it is your Lord That knoweth best all beings That are in the heavens And on earth   We Did bestow on some Prophets More  and other  gifts Than on others   and We gave To David  the gift Of  the Psalms </t>
   </si>
   <si>
-    <t xml:space="preserve">   Say     Call on those— Besides Him—whom ye fancy   They have neither the power To remove your troubles From you nor to change them  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Those whom they call upon Do desire  for themselves  means Of access to their Lord — Even those who are nearest   They hope for His Mercy And fear His Wrath   For the Wrath of thy Lord Is something to take heed of </t>
+    <t xml:space="preserve">   Say     Call on those  Besides Him whom ye fancy   They have neither the power To remove your troubles From you nor to change them  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Those whom they call upon Do desire  for themselves  means Of access to their Lord   Even those who are nearest   They hope for His Mercy And fear His Wrath   For the Wrath of thy Lord Is something to take heed of </t>
   </si>
   <si>
     <t xml:space="preserve">   There is not a population But We shall destroy it Before the Day of Judgment Or punish it with A dreadful Penalty   That is written In the  eternal  Record </t>
@@ -6280,16 +6280,16 @@
     <t xml:space="preserve">   And We refrain from sending The Signs  only because The men of former generations Treated them as false   We sent the She camel To the Thamūd to open Their eyes  but they Treated her wrongfully   We only send the Signs By way of terror  And warning from evil  </t>
   </si>
   <si>
-    <t xml:space="preserve">   Behold   We told thee That thy Lord doth encompass Mankind round about   We granted the Vision Which We showed thee  But as a trial for men — As also the Cursed Tree  Mentioned  in the Qur ān   We put terror  and warning  Into them  but it only Increases their inordinate transgression     </t>
+    <t xml:space="preserve">   Behold   We told thee That thy Lord doth encompass Mankind round about   We granted the Vision Which We showed thee  But as a trial for men   As also the Cursed Tree  Mentioned  in the Qur ān   We put terror  and warning  Into them  but it only Increases their inordinate transgression     </t>
   </si>
   <si>
     <t xml:space="preserve">   Behold   We said to the angels     Bow down unto Adam     They bowed down except Iblīs   He said    Shall I bow down To one whom Thou didst create From clay    </t>
   </si>
   <si>
-    <t xml:space="preserve">   He said    Seest Thou   This is The one whom Thou hast honoured Above me   If Thou wilt but Respite me to the Day Of Judgment  I will surely Bring his descendants Under my sway— All but a few    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    God  said     Go thy way   If any of them follow thee  Verily Hell will be The recompense of you  all — An ample recompense </t>
+    <t xml:space="preserve">   He said    Seest Thou   This is The one whom Thou hast honoured Above me   If Thou wilt but Respite me to the Day Of Judgment  I will surely Bring his descendants Under my sway  All but a few    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    God  said     Go thy way   If any of them follow thee  Verily Hell will be The recompense of you  all   An ample recompense </t>
   </si>
   <si>
     <t xml:space="preserve">     Lead to destruction those Whom thou canst among them  With thy  seductive  voice   Make assaults on them With thy cavalry and thy Infantry   mutually share With them wealth and children   And make promises to them   But Satan promises them Nothing but deceit </t>
@@ -6301,7 +6301,7 @@
     <t xml:space="preserve">   Your Lord is He That maketh the Ship Go smoothly for you Through the sea  in order that Ye may seek of His Bounty  For He is unto you Most Merciful </t>
   </si>
   <si>
-    <t xml:space="preserve">   When distress seizes you At sea  those that ye Call upon—besides Himself— Leave you in the lurch   But when He brings you back Safe to land  ye turn Away  from Him   Most ungrateful Is man  </t>
+    <t xml:space="preserve">   When distress seizes you At sea  those that ye Call upon besides Himself  Leave you in the lurch   But when He brings you back Safe to land  ye turn Away  from Him   Most ungrateful Is man  </t>
   </si>
   <si>
     <t xml:space="preserve">   Do ye then feel secure That He will not cause you To be swallowed up Beneath the earth When ye are on land  Or that He will not send Against you a violent tornado  With showers of stones  So that ye shall find No one to carry out Your affairs for you  </t>
@@ -6334,7 +6334,7 @@
     <t xml:space="preserve">    This was Our  way With the apostles We sent Before thee   thou wilt find No change in Our ways    </t>
   </si>
   <si>
-    <t xml:space="preserve">   Establish regular prayers— At the sun s decline Till the darkness of the night  And the morning prayer And reading   for the prayer And reading in the morning Carry their testimony </t>
+    <t xml:space="preserve">   Establish regular prayers  At the sun s decline Till the darkness of the night  And the morning prayer And reading   for the prayer And reading in the morning Carry their testimony </t>
   </si>
   <si>
     <t xml:space="preserve">   And pray in the small watches Of the morning    it would be  An additional prayer  Or spiritual profit  For thee   soon will thy Lord Raise thee to a station Of Praise and Glory  </t>
@@ -6358,7 +6358,7 @@
     <t xml:space="preserve">   They ask thee concerning The Spirit  of inspiration   Say     The Spirit  cometh  By command of my Lord   Of knowledge it is only A little that is communicated To you   O men     </t>
   </si>
   <si>
-    <t xml:space="preserve">   If it were Our Will  We could take away That which We have Sent thee by inspiration   Then would thou find None to plead thy affair In that matter as against Us —</t>
+    <t xml:space="preserve">   If it were Our Will  We could take away That which We have Sent thee by inspiration   Then would thou find None to plead thy affair In that matter as against Us  </t>
   </si>
   <si>
     <t xml:space="preserve">   Except for Mercy from thy Lord   For His Bounty is To thee  indeed  great </t>
@@ -6379,7 +6379,7 @@
     <t xml:space="preserve">     Or thou cause the sky To fall in pieces  as thou Sayest  will happen   against us   Or thou bring God And the angels before  us  Face to face  </t>
   </si>
   <si>
-    <t xml:space="preserve">     Or thou have a house Adorned with gold  Or thou mount a ladder Right into the skies  No  we shall not even believe In thy mounting until thou Send down to us a book That we could read   Say     Glory to my Lord   Am I aught but a man — An apostle       </t>
+    <t xml:space="preserve">     Or thou have a house Adorned with gold  Or thou mount a ladder Right into the skies  No  we shall not even believe In thy mounting until thou Send down to us a book That we could read   Say     Glory to my Lord   Am I aught but a man   An apostle       </t>
   </si>
   <si>
     <t xml:space="preserve">   What kept men back From Belief when Guidance Came to them  was nothing But this   they said    Has God sent a man  Like us  to be  His  Apostle    </t>
@@ -6391,7 +6391,7 @@
     <t xml:space="preserve">   Say     Enough is God For a witness between me And you   for He is Well acquainted with His servants  And He sees  all things   </t>
   </si>
   <si>
-    <t xml:space="preserve">   It is he whom God guides  That is on true guidance   But he whom He leaves Astray—for such wilt thou Find no protector besides Him  On the Day of Judgment We shall gather them together  Prone on their faces  Blind  dumb  and deaf   Their abode will be Hell   Every time it shows abatement  We shall increase for them The fierceness of the Fire </t>
+    <t xml:space="preserve">   It is he whom God guides  That is on true guidance   But he whom He leaves Astray for such wilt thou Find no protector besides Him  On the Day of Judgment We shall gather them together  Prone on their faces  Blind  dumb  and deaf   Their abode will be Hell   Every time it shows abatement  We shall increase for them The fierceness of the Fire </t>
   </si>
   <si>
     <t xml:space="preserve">   That is their recompense  Because they rejected Our Signs  And said    When we are reduced To bones and broken dust  Should we really be raised up  To be  a new Creation    </t>
@@ -6454,7 +6454,7 @@
     <t xml:space="preserve">   Thou wouldst only  perchance  Fret thyself to death  Following after them  in grief  If they believe not In this Message </t>
   </si>
   <si>
-    <t xml:space="preserve">   That which is on earth We have made but as A glittering show for the earth  In order that We may test Them—as to which of them Are best in conduct </t>
+    <t xml:space="preserve">   That which is on earth We have made but as A glittering show for the earth  In order that We may test Them as to which of them Are best in conduct </t>
   </si>
   <si>
     <t xml:space="preserve">   Verily what is on earth We shall make but as Dust and dry soil  Without growth or herbage  </t>
@@ -6484,7 +6484,7 @@
     <t xml:space="preserve">     When ye turn away From them and the things They worship other than God  Betake yourselves to the Cave   Your Lord will shower His mercies on you And dispose of your affair Towards comfort and ease  </t>
   </si>
   <si>
-    <t xml:space="preserve">   Thou wouldst have seen The sun  when it rose  Declining to the right From their Cave  and when It set  turning away From them to the left  While they lay in the open Space in the midst Of the Cave  Such are Among the Signs of God   He whom God guides Is right guided   but he Whom God leaves to stray — For him wilt thou find No protector to lead him To the Right Way    </t>
+    <t xml:space="preserve">   Thou wouldst have seen The sun  when it rose  Declining to the right From their Cave  and when It set  turning away From them to the left  While they lay in the open Space in the midst Of the Cave  Such are Among the Signs of God   He whom God guides Is right guided   but he Whom God leaves to stray   For him wilt thou find No protector to lead him To the Right Way    </t>
   </si>
   <si>
     <t xml:space="preserve">   Thou wouldst have deemed them Awake  whilst they were asleep  And We turned them On their right and on Their left sides   their dog Stretching forth his two fore legs On the threshold   if thou Hadst come up on to them  Thou wouldst have certainly Turned back from them in flight  And wouldst certainly have been Filled with terror of them </t>
@@ -6499,10 +6499,10 @@
     <t xml:space="preserve">   Thus did We make Their case known to the people  That they might know That the promise of God Is true  and that there can Be no doubt about the Hour Of Judgment  Behold  They dispute among themselves As to their affair   Some  said    Construct a building over them     Their Lord knows best About them   those who prevailed Over their affair said    Let us surely build a place Of worship over them  </t>
   </si>
   <si>
-    <t xml:space="preserve">    Some  say they were three  The dog being the fourth Among them    others  say They were five  the dog Being the sixth —doubtfully Guessing at the unknown    Yet others  say they were Seven  the dog being the eighth  Say thou     My Lord Knoweth best their number   It is but few that know Their  real case    Enter not  Therefore  into controversies Concerning them  except On a matter that is clear  Nor consult any of them About  the affair of  the Sleepers    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Nor say of anything    I shall be sure to do So and so to morrow  —</t>
+    <t xml:space="preserve">    Some  say they were three  The dog being the fourth Among them    others  say They were five  the dog Being the sixth  doubtfully Guessing at the unknown    Yet others  say they were Seven  the dog being the eighth  Say thou     My Lord Knoweth best their number   It is but few that know Their  real case    Enter not  Therefore  into controversies Concerning them  except On a matter that is clear  Nor consult any of them About  the affair of  the Sleepers    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Nor say of anything    I shall be sure to do So and so to morrow   </t>
   </si>
   <si>
     <t xml:space="preserve">   Without adding    So please God     And call thy Lord to mind When thou forgettest  and say    I hope that my Lord Will guide me ever closer  Even  than this To the right road  </t>
@@ -6553,7 +6553,7 @@
     <t xml:space="preserve">     Why didst thou not  As thou wentest into Thy garden  say     God s Will  Be done    There is no power But with God     If thou Dost see me less than Thee in wealth and sons </t>
   </si>
   <si>
-    <t xml:space="preserve">     It may be that my Lord Will give me something Better than thy garden  And that He will send On thy garden thunderbolts  By way of reckoning  From heaven  making it  But  slippery sand  —</t>
+    <t xml:space="preserve">     It may be that my Lord Will give me something Better than thy garden  And that He will send On thy garden thunderbolts  By way of reckoning  From heaven  making it  But  slippery sand   </t>
   </si>
   <si>
     <t xml:space="preserve">     Or the water of the garden Will run off underground So that thou wilt never Be able to find it  </t>
@@ -6676,7 +6676,7 @@
     <t xml:space="preserve">     So we desired that Their Lord would give them In exchange  a son  Better in purity  of conduct  And closer in af  </t>
   </si>
   <si>
-    <t xml:space="preserve">     As for the wall  It belonged to two youths  Orphans  in the Town   There was  beneath it  A buried treasure  to which They were entitled   Their father Had been a righteous man   So thy Lord desired that They should attain their age Of full strength and get out Their treasure—a mercy  And favour  from thy Lord  I did it not of my own Accord  Such is the interpretation Of  those things  over which Thou wast unable To hold patience     </t>
+    <t xml:space="preserve">     As for the wall  It belonged to two youths  Orphans  in the Town   There was  beneath it  A buried treasure  to which They were entitled   Their father Had been a righteous man   So thy Lord desired that They should attain their age Of full strength and get out Their treasure a mercy  And favour  from thy Lord  I did it not of my own Accord  Such is the interpretation Of  those things  over which Thou wast unable To hold patience     </t>
   </si>
   <si>
     <t xml:space="preserve">   They ask thee concerning Ẓul qarnain  Say    I will rehearse to you Something of his story  </t>
@@ -6694,7 +6694,7 @@
     <t xml:space="preserve">   He said     Whoever doth wrong  Him shall we punish   then Shall he be sent back To his Lord   and He will Punish him with a punishment Unheard of  before  </t>
   </si>
   <si>
-    <t xml:space="preserve">     But whoever believes  And works righteousness — He shall have a goodly Reward  and easy will be His task as we order it By our command  </t>
+    <t xml:space="preserve">     But whoever believes  And works righteousness   He shall have a goodly Reward  and easy will be His task as we order it By our command  </t>
   </si>
   <si>
     <t xml:space="preserve">   Then followed he  another  way </t>
@@ -6727,7 +6727,7 @@
     <t xml:space="preserve">   On that day We shall Leave them to surge Like waves on one another   The trumpet will be blown  And We shall collect them All together </t>
   </si>
   <si>
-    <t xml:space="preserve">   And We shall present Hell that day for Unbelievers To see  all spread out —</t>
+    <t xml:space="preserve">   And We shall present Hell that day for Unbelievers To see  all spread out  </t>
   </si>
   <si>
     <t xml:space="preserve">    Unbelievers  whose eyes Had been under a veil From Remembrance of Me  And who had been unable Even to hear    </t>
@@ -6736,7 +6736,7 @@
     <t xml:space="preserve">   Do the Unbelievers think That they can take My servants as protectors Besides Me   Verily We Have prepared Hell For the Unbelievers For  their  entertainment </t>
   </si>
   <si>
-    <t xml:space="preserve">   Say     Shall we tell you Of those who lose most In respect of their deeds  —</t>
+    <t xml:space="preserve">   Say     Shall we tell you Of those who lose most In respect of their deeds   </t>
   </si>
   <si>
     <t xml:space="preserve">     Those whose efforts have Been wasted in this life  While they thought that They were acquiring good By their works    </t>
@@ -6772,7 +6772,7 @@
     <t xml:space="preserve">   Praying     O my Lord   Infirm indeed are my bones  And the hair of my head Doth glisten with grey   But never am I unblest  O my Lord  in my prayer To Thee  </t>
   </si>
   <si>
-    <t xml:space="preserve">     Now I fear  what  My relatives  and colleagues   Will do  after me   But my wife is barren   So give me an heir As from Thyself —</t>
+    <t xml:space="preserve">     Now I fear  what  My relatives  and colleagues   Will do  after me   But my wife is barren   So give me an heir As from Thyself  </t>
   </si>
   <si>
     <t xml:space="preserve">      One that  will  truly  Represent me  and represent The posterity of Jacob   And make him  O my Lord   One with whom Thou art Well pleased    </t>
@@ -6931,13 +6931,13 @@
     <t xml:space="preserve">   And We raised him To a lofty station </t>
   </si>
   <si>
-    <t xml:space="preserve">   Those were some Of the prophets on whom God did bestow His Grace — Of the posterity of Adam  And of those whom We Carried  in the Ark  With Noah  and of The posterity of Abraham And Israel—of those Whom We guided and chose  Whenever the Signs Of  God  Most Gracious Were rehearsed to them  They would fall down In prostrate adoration And in tears </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   But after them there followed A posterity who missed Prayers and followed after lusts  Soon  then  will they Face Destruction —</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Except those who repent And believe  and work Righteousness   for these Will enter the Garden And will not be wronged In the least —</t>
+    <t xml:space="preserve">   Those were some Of the prophets on whom God did bestow His Grace   Of the posterity of Adam  And of those whom We Carried  in the Ark  With Noah  and of The posterity of Abraham And Israel of those Whom We guided and chose  Whenever the Signs Of  God  Most Gracious Were rehearsed to them  They would fall down In prostrate adoration And in tears </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   But after them there followed A posterity who missed Prayers and followed after lusts  Soon  then  will they Face Destruction  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Except those who repent And believe  and work Righteousness   for these Will enter the Garden And will not be wronged In the least  </t>
   </si>
   <si>
     <t xml:space="preserve">   Gardens of Eternity  those Which  God  Most Gracious Has promised to His servants In the Unseen   for His promise Must  necessarily  come to pass </t>
@@ -6949,7 +6949,7 @@
     <t xml:space="preserve">   Such is the Garden which We give as an inheritance To those of Our servants Who guard against evil </t>
   </si>
   <si>
-    <t xml:space="preserve">    The angels say &amp;colon     We descend not but By command of thy Lord   To Him belongeth what is Before us and what is Behind us  and what is Between   and thy Lord Never doth forget —</t>
+    <t xml:space="preserve">    The angels say &amp;colon     We descend not but By command of thy Lord   To Him belongeth what is Before us and what is Behind us  and what is Between   and thy Lord Never doth forget  </t>
   </si>
   <si>
     <t xml:space="preserve">     Lord of the heavens And of the earth  And of all that is Between them   so worship Him  And be constant and patient In His worship   knowest thou Of any who is worthy Of the same Name as He       </t>
@@ -6982,7 +6982,7 @@
     <t xml:space="preserve">   But how many  countless  Generations before them Have We destroyed  Who were even better In equipment and in glitter To the eye  </t>
   </si>
   <si>
-    <t xml:space="preserve">   Say     If any men go Astray   God  Most Gracious Extends  the rope  to them  Until  when they see The warning of God  being Fulfilled —either in punishment Or in  the approach of  The Hour —they will At length realise who is Worst in position  and  who  Weakest in forces  </t>
+    <t xml:space="preserve">   Say     If any men go Astray   God  Most Gracious Extends  the rope  to them  Until  when they see The warning of God  being Fulfilled  either in punishment Or in  the approach of  The Hour  they will At length realise who is Worst in position  and  who  Weakest in forces  </t>
   </si>
   <si>
     <t xml:space="preserve">     And God doth advance In guidance those who seek Guidance   and the things That endure  Good Deeds  Are best in the sight Of thy Lord  as rewards  And best in respect of  Their  eventual returns  </t>
@@ -7015,7 +7015,7 @@
     <t xml:space="preserve">   The day We shall gather The righteous to  God  Most Gracious  like a band Presented before a king for honours </t>
   </si>
   <si>
-    <t xml:space="preserve">   And We shall drive The sinners to hell  Like thirsty cattle Driven down to water —</t>
+    <t xml:space="preserve">   And We shall drive The sinners to hell  Like thirsty cattle Driven down to water  </t>
   </si>
   <si>
     <t xml:space="preserve">   None shall have the power Of intercession  but such a one As has received permission  or promise  From  God  Most Gracious </t>
@@ -7060,7 +7060,7 @@
     <t xml:space="preserve">   We have not sent down The Qur ān to thee to be  An occasion  for thy distress </t>
   </si>
   <si>
-    <t xml:space="preserve">   But only as an admonition To those who fear  God  —</t>
+    <t xml:space="preserve">   But only as an admonition To those who fear  God   </t>
   </si>
   <si>
     <t xml:space="preserve">   A revelation from Him Who created the earth And the heavens on high </t>
@@ -7096,7 +7096,7 @@
     <t xml:space="preserve">     Verily  I am God   There is no god but I   So serve thou Me  only   And establish regular prayer For celebrating My praise </t>
   </si>
   <si>
-    <t xml:space="preserve">     Verily the Hour is coming— My design is to keep it Hidden for every soul To receive its reward By the measure of Its Endeavour </t>
+    <t xml:space="preserve">     Verily the Hour is coming  My design is to keep it Hidden for every soul To receive its reward By the measure of Its Endeavour </t>
   </si>
   <si>
     <t xml:space="preserve">     Therefore let not such as Believe not therein But follow their own Lusts  divert thee therefrom  Lest thou perish     </t>
@@ -7117,7 +7117,7 @@
     <t xml:space="preserve">    God  said    Seize it  And fear not   We Shall return it at once To its former condition   </t>
   </si>
   <si>
-    <t xml:space="preserve">     Now draw thy hand Close to thy side   It shall come forth white  And shining   without harm  Or stain  —as another Sign —</t>
+    <t xml:space="preserve">     Now draw thy hand Close to thy side   It shall come forth white  And shining   without harm  Or stain   as another Sign  </t>
   </si>
   <si>
     <t xml:space="preserve">     In order that We May show thee  Two  of Our Greater Signs </t>
@@ -7207,7 +7207,7 @@
     <t xml:space="preserve">    Pharaoh  said     What then Is the condition Of previous generations    </t>
   </si>
   <si>
-    <t xml:space="preserve">   He replied     The knowledge Of that is with my Lord  Duly recorded   my Lord Never errs  nor forgets —</t>
+    <t xml:space="preserve">   He replied     The knowledge Of that is with my Lord  Duly recorded   my Lord Never errs  nor forgets  </t>
   </si>
   <si>
     <t xml:space="preserve">     He Who has made for you The earth like a carpet Spread out   has enabled you To go about therein by roads  And channels    and has sent Down water from the sky   With it have We produced Divers pairs of plants Each separate from the others </t>
@@ -7225,7 +7225,7 @@
     <t xml:space="preserve">   He said     Hast thou come To drive us out Of our land with thy magic  O Moses  </t>
   </si>
   <si>
-    <t xml:space="preserve">     But we can surely produce Magic to match thine   So make a tryst Between us and thee  Which we shall not fail To keep—neither we nor thou— In a place where both Shall have even chances  </t>
+    <t xml:space="preserve">     But we can surely produce Magic to match thine   So make a tryst Between us and thee  Which we shall not fail To keep neither we nor thou  In a place where both Shall have even chances  </t>
   </si>
   <si>
     <t xml:space="preserve">   Moses said     Your tryst Is the Day of the Festival  And let the people be assembled When the sun is well up  </t>
@@ -7249,7 +7249,7 @@
     <t xml:space="preserve">   They said     O Moses   Whether wilt thou That thou throw  first  Or that we be the first To throw    </t>
   </si>
   <si>
-    <t xml:space="preserve">   He said    Nay  throw ye First     Then behold Their ropes and their rods— So it seemed to him On account of their magic— Began to be in lively motion  </t>
+    <t xml:space="preserve">   He said    Nay  throw ye First     Then behold Their ropes and their rods  So it seemed to him On account of their magic  Began to be in lively motion  </t>
   </si>
   <si>
     <t xml:space="preserve">   So Moses conceived In his mind A  sort of  fear </t>
@@ -7273,10 +7273,10 @@
     <t xml:space="preserve">     For us  we have believed In our Lord   may He Forgive us our faults  And the magic to which Thou didst compel us   For God is Best And Most Abiding  </t>
   </si>
   <si>
-    <t xml:space="preserve">   Verily he who comes To his Lord as a sinner  At Judgment  —for him Is Hell   therein shall he Neither die nor live </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   But such as comes To Him as Believers Who have worked righteous deeds — For them are ranks exalted —</t>
+    <t xml:space="preserve">   Verily he who comes To his Lord as a sinner  At Judgment   for him Is Hell   therein shall he Neither die nor live </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   But such as comes To Him as Believers Who have worked righteous deeds   For them are ranks exalted  </t>
   </si>
   <si>
     <t xml:space="preserve">   Gardens of Eternity  Beneath which flow rivers   They will dwell therein For aye   such is the reward Of those who purify Themselves  from evil     </t>
@@ -7297,7 +7297,7 @@
     <t xml:space="preserve">    Saying      Eat of the good Things We have provided For your sustenance  but Commit no excess therein  Lest My Wrath should justly Descend on you   and those On whom descends My Wrath Do perish indeed  </t>
   </si>
   <si>
-    <t xml:space="preserve">     But  without doubt  I am  Also  He that forgives Again and again  to those Who repent  believe  And do right —who  In fine  are ready to receive True guidance  </t>
+    <t xml:space="preserve">     But  without doubt  I am  Also  He that forgives Again and again  to those Who repent  believe  And do right  who  In fine  are ready to receive True guidance  </t>
   </si>
   <si>
     <t xml:space="preserve">    When Moses was up on the Mount  God said &amp;colon     What made thee Hasten in advance of thy people  O Moses    </t>
@@ -7354,7 +7354,7 @@
     <t xml:space="preserve">   If any do turn away Therefrom  verily they will Bear a burden On the Day of Judgement  </t>
   </si>
   <si>
-    <t xml:space="preserve">   They will abide in this  state    And grievous will the burden Be to them on that Day —</t>
+    <t xml:space="preserve">   They will abide in this  state    And grievous will the burden Be to them on that Day  </t>
   </si>
   <si>
     <t xml:space="preserve">   The Day when the Trumpet Will be sounded   that Day  We shall gather the sinful  Blear eyed  with terror  </t>
@@ -7384,13 +7384,13 @@
     <t xml:space="preserve">   He knows what  appears To His creatures as  before Or after or behind them   But they shall not compass it With their knowledge </t>
   </si>
   <si>
-    <t xml:space="preserve">    All  faces shall be humbled Before  Him —the Living  The Self Subsisting  Eternal   Hopeless indeed will be The man that carries Iniquity  on his back  </t>
+    <t xml:space="preserve">    All  faces shall be humbled Before  Him  the Living  The Self Subsisting  Eternal   Hopeless indeed will be The man that carries Iniquity  on his back  </t>
   </si>
   <si>
     <t xml:space="preserve">   But he who works deeds Of righteousness  and has faith  Will have no fear of harm Nor of any curtailment  Of what is his due  </t>
   </si>
   <si>
-    <t xml:space="preserve">   Thus have We sent this Down—an Arabic Qur ān—And explained therein in detail Some of the warnings  In order that they may Fear God  or that it may Cause their remembrance  of Him  </t>
+    <t xml:space="preserve">   Thus have We sent this Down an Arabic Qur ān And explained therein in detail Some of the warnings  In order that they may Fear God  or that it may Cause their remembrance  of Him  </t>
   </si>
   <si>
     <t xml:space="preserve">   High above all is God  The King  the Truth   Be not in haste With the Qur ān before Its revelation to thee Is completed  but say    O my Lord   advance me In knowledge  </t>
@@ -7420,7 +7420,7 @@
     <t xml:space="preserve">   But his Lord chose him  For His Grace    He turned To him  and gave him guidance </t>
   </si>
   <si>
-    <t xml:space="preserve">   He said     Get ye down  Both of you —all together  From the Garden  with enmity One to another   but if  As is sure  there comes to you Guidance from Me  whosoever Follows My guidance  will not Lose his way  nor fall Into misery </t>
+    <t xml:space="preserve">   He said     Get ye down  Both of you  all together  From the Garden  with enmity One to another   but if  As is sure  there comes to you Guidance from Me  whosoever Follows My guidance  will not Lose his way  nor fall Into misery </t>
   </si>
   <si>
     <t xml:space="preserve">     But whosoever turns away From My Message  verily For him is a life narrowed Down  and We shall raise Him up blind on the Day Of Judgment  </t>
@@ -7462,7 +7462,7 @@
     <t xml:space="preserve">   Closer and closer to mankind Comes their Reckoning   yet they Heed not and they turn away </t>
   </si>
   <si>
-    <t xml:space="preserve">   Never comes  aught  to them Of a renewed Message From their Lord  but they Listen to it as in jest —</t>
+    <t xml:space="preserve">   Never comes  aught  to them Of a renewed Message From their Lord  but they Listen to it as in jest  </t>
   </si>
   <si>
     <t xml:space="preserve">   Their hearts toying as with Trifles  The wrong doers conceal Their private counsels   saying     Is this  one  more than A man like yourselves   Will ye go to witchcraft With your eyes open    </t>
@@ -7471,7 +7471,7 @@
     <t xml:space="preserve">   Say     My Lord Knoweth  every  word  spoken  In the heavens and on earth   He is the One that heareth And knoweth  all things   </t>
   </si>
   <si>
-    <t xml:space="preserve">     Nay   they say     these are  Medleys of dreams  —Nay  He forged it  —Nay  He is  but  a poet   Let him then bring us A Sign like the ones That were sent to  Prophets  of old    </t>
+    <t xml:space="preserve">     Nay   they say     these are  Medleys of dreams   Nay  He forged it   Nay  He is  but  a poet   Let him then bring us A Sign like the ones That were sent to  Prophets  of old    </t>
   </si>
   <si>
     <t xml:space="preserve">    As to those  before them  Not one of the populations Which We destroyed believed   Will these believe  </t>
@@ -7600,7 +7600,7 @@
     <t xml:space="preserve">   We shall set up scales Of justice for the Day Of Judgment  so that Not a soul will be dealt with Unjustly in the least  And if there be  No more than  the weight Of a mustard seed  We will bring it  to account    And enough are We To take account </t>
   </si>
   <si>
-    <t xml:space="preserve">   In the past We granted To Moses and Aaron The Criterion  for judgment   And a Light and a Message For those who would do right —</t>
+    <t xml:space="preserve">   In the past We granted To Moses and Aaron The Criterion  for judgment   And a Light and a Message For those who would do right  </t>
   </si>
   <si>
     <t xml:space="preserve">   Those who fear their Lord In their most secret thoughts  And who hold the Hour  Of Judgment  in awe </t>
@@ -7618,7 +7618,7 @@
     <t xml:space="preserve">   They said    We found Our fathers worshipping them  </t>
   </si>
   <si>
-    <t xml:space="preserve">   He said    Indeed ye Have been in manifest Error—ye and your fathers  </t>
+    <t xml:space="preserve">   He said    Indeed ye Have been in manifest Error ye and your fathers  </t>
   </si>
   <si>
     <t xml:space="preserve">   They said    Have you Brought us the Truth  Or are you one Of those who jest    </t>
@@ -7627,7 +7627,7 @@
     <t xml:space="preserve">   He said    Nay  your Lord Is the Lord of the heavens And the earth  He Who Created them  from nothing    And I am a witness To this  truth  </t>
   </si>
   <si>
-    <t xml:space="preserve">     And by God  I have A plan for your idols— After ye go away And turn your backs   </t>
+    <t xml:space="preserve">     And by God  I have A plan for your idols  After ye go away And turn your backs   </t>
   </si>
   <si>
     <t xml:space="preserve">   So he broke them to pieces   All  but the biggest of them  That they might turn  And address themselves  to it </t>
@@ -7645,7 +7645,7 @@
     <t xml:space="preserve">   They said    Art thou The one that did this With our gods  O Abraham    </t>
   </si>
   <si>
-    <t xml:space="preserve">   He said     Nay  this Was done by— This is their is their biggest one   Ask them  if they Can speak intelligently    </t>
+    <t xml:space="preserve">   He said     Nay  this Was done by  This is their is their biggest one   Ask them  if they Can speak intelligently    </t>
   </si>
   <si>
     <t xml:space="preserve">   So they turned to themselves And said    Surely ye Are the ones in the wrong    </t>
@@ -7708,7 +7708,7 @@
     <t xml:space="preserve">   And  remember  Job  when He cried to his Lord    Truly distress has seized me  But Thou art the Most Merciful of those that are Merciful  </t>
   </si>
   <si>
-    <t xml:space="preserve">   So We listened to him   We removed the distress That was on him  And We restored his people To him  and doubled Their number —as a Grace From Ourselves  and a thing For commemoration  for all Who serve Us </t>
+    <t xml:space="preserve">   So We listened to him   We removed the distress That was on him  And We restored his people To him  and doubled Their number  as a Grace From Ourselves  and a thing For commemoration  for all Who serve Us </t>
   </si>
   <si>
     <t xml:space="preserve">   And  remember  Ismā īl  Idrīs  and Ẓul kifl  all  Men  of constancy and patience  </t>
@@ -7738,7 +7738,7 @@
     <t xml:space="preserve">   But  later generations  cut off Their affair  of unity   One from another    yet  Will they all return to Us    </t>
   </si>
   <si>
-    <t xml:space="preserve">   Whoever works any act Of Righteousness and has Faith — His endeavour will not Be rejected   We shall Record it in his favour </t>
+    <t xml:space="preserve">   Whoever works any act Of Righteousness and has Faith   His endeavour will not Be rejected   We shall Record it in his favour </t>
   </si>
   <si>
     <t xml:space="preserve">   But there is a ban On any population which We have destroyed   that they Shall not return </t>
@@ -7765,10 +7765,10 @@
     <t xml:space="preserve">   Not the slightest sound Will they hear of Hell   What their souls desired  In that will they dwell </t>
   </si>
   <si>
-    <t xml:space="preserve">   The Great Terror will Bring them no grief   But the angels will meet them  With mutual greetings      This is your Day —  The Day  that ye were promised  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   The Day that We roll up The heavens like a scroll Rolled up for books  completed  — Even as We produced The first Creation  so Shall We produce A new one   a promise We have undertaken   Truly shall We fulfil it </t>
+    <t xml:space="preserve">   The Great Terror will Bring them no grief   But the angels will meet them  With mutual greetings      This is your Day    The Day  that ye were promised  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   The Day that We roll up The heavens like a scroll Rolled up for books  completed    Even as We produced The first Creation  so Shall We produce A new one   a promise We have undertaken   Truly shall We fulfil it </t>
   </si>
   <si>
     <t xml:space="preserve">   Before this We wrote In the Psalms  after the Message  Given to Moses      My servants  The righteous  shall inherit The earth  </t>
@@ -7816,7 +7816,7 @@
     <t xml:space="preserve">   And verily the Hour will come   There can be no doubt About it  or about  the fact  That God will raise up All who are in the graves </t>
   </si>
   <si>
-    <t xml:space="preserve">   Yet there is among men Such a one as disputes About God  without knowledge  Without guidance  and without A Book of Enlightenment —</t>
+    <t xml:space="preserve">   Yet there is among men Such a one as disputes About God  without knowledge  Without guidance  and without A Book of Enlightenment  </t>
   </si>
   <si>
     <t xml:space="preserve">    Disdainfully  bending his side  In order to lead  men  astray From the Path of God   For him there is disgrace In this life  and on the Day Of Judgment We shall Make him taste the Penalty Of burning  Fire  </t>
@@ -7843,13 +7843,13 @@
     <t xml:space="preserve">   Thus have We sent down Clear Signs   and verily God doth guide whom He will  </t>
   </si>
   <si>
-    <t xml:space="preserve">   Those who believe  in the Qur ān   Those who follow the Jewish  scriptures   And the Sabians  Christians  Magians  and Polytheists — God will judge between them On the Day of Judgment   For God is witness Of all things </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Seest thou not that To God bow down in worship All things that are In the heavens and on earth — The sun  the moon  the stars   The hills  the trees  the animals   And a great number among Mankind   But a great number Are  also  such as are Fit for Punishment   and such As God shall disgrace — None can raise to honour   For God carries out All that He wills </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   These two antagonists dispute With each other about their Lord   But those who deny  their Lord  — For them will be cut out A garment of Fire   Over their heads will be Poured out boiling water </t>
+    <t xml:space="preserve">   Those who believe  in the Qur ān   Those who follow the Jewish  scriptures   And the Sabians  Christians  Magians  and Polytheists   God will judge between them On the Day of Judgment   For God is witness Of all things </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Seest thou not that To God bow down in worship All things that are In the heavens and on earth   The sun  the moon  the stars   The hills  the trees  the animals   And a great number among Mankind   But a great number Are  also  such as are Fit for Punishment   and such As God shall disgrace   None can raise to honour   For God carries out All that He wills </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   These two antagonists dispute With each other about their Lord   But those who deny  their Lord    For them will be cut out A garment of Fire   Over their heads will be Poured out boiling water </t>
   </si>
   <si>
     <t xml:space="preserve">   With it will be scalded What is within their bodies  As well as  their  skins </t>
@@ -7867,7 +7867,7 @@
     <t xml:space="preserve">   For they have been guided  In this life  to the purest Of speeches   they have been Guided to the Path of Him Who is Worthy of  all  Praise </t>
   </si>
   <si>
-    <t xml:space="preserve">   As to those who have rejected  God   and would keep back  men  From the Way of God  and From the Sacred Mosque  which We have made  open  to  all  men— Equal is the dweller there And the visitor from the country— And any whose purpose therein Is profanity or wrong doing— Them will We cause to taste Of a most grievous Penalty    </t>
+    <t xml:space="preserve">   As to those who have rejected  God   and would keep back  men  From the Way of God  and From the Sacred Mosque  which We have made  open  to  all  men  Equal is the dweller there And the visitor from the country  And any whose purpose therein Is profanity or wrong doing  Them will We cause to taste Of a most grievous Penalty    </t>
   </si>
   <si>
     <t xml:space="preserve">   Behold   We gave the site  To Abraham  of the  Sacred  House   Saying      Associate not anything  In worship  with Me   And sanctify My House For those who compass it round  Or stand up  Or bow  or prostrate themselves  Therein in prayer  </t>
@@ -7882,7 +7882,7 @@
     <t xml:space="preserve">     Then let them complete The rites prescribed For them  perform their vows  And  again  circumambulate The Ancient House  </t>
   </si>
   <si>
-    <t xml:space="preserve">   Such  is the Pilgrimage    Whoever honours the sacred Rites of God  for him It is good in the sight Of his Lord  Lawful to you  For food in pilgrimage  are cattle  Except those mentioned to you  As exceptions    but shun The abomination of idols  And shun the word That is false —</t>
+    <t xml:space="preserve">   Such  is the Pilgrimage    Whoever honours the sacred Rites of God  for him It is good in the sight Of his Lord  Lawful to you  For food in pilgrimage  are cattle  Except those mentioned to you  As exceptions    but shun The abomination of idols  And shun the word That is false  </t>
   </si>
   <si>
     <t xml:space="preserve">   Being true in faith to God  And never assigning partners To Him   if anyone assigns Partners to God  he is As if he had fallen From heaven and been snatched up By birds  or the wind Had swooped  like a bird On its prey  and thrown him Into a far distant place </t>
@@ -7894,7 +7894,7 @@
     <t xml:space="preserve">   In them ye have benefits For a term appointed   In the end their place Of sacrifice is near The Ancient House    </t>
   </si>
   <si>
-    <t xml:space="preserve">   To every people did We Appoint rites  of sacrifice   That they might celebrate The name of God over The sustenance He gave them From animals  fit for food   But your God is One God   Submit then your wills to Him  In Islam    and give thou The good news to those Who humble themselves —</t>
+    <t xml:space="preserve">   To every people did We Appoint rites  of sacrifice   That they might celebrate The name of God over The sustenance He gave them From animals  fit for food   But your God is One God   Submit then your wills to Him  In Islam    and give thou The good news to those Who humble themselves  </t>
   </si>
   <si>
     <t xml:space="preserve">   To those whose hearts  When God is mentioned  Are filled with fear  Who show patient perseverance Over their afflictions  keep up Regular prayer  and spend  In charity  out of what We have bestowed upon them </t>
@@ -7909,16 +7909,16 @@
     <t xml:space="preserve">   Verily God will defend  From ill  those who believe   Verily  God loveth not Any that is a traitor To faith  or shows ingratitude    </t>
   </si>
   <si>
-    <t xml:space="preserve">   To those against whom War is made  permission Is given  to fight   because They are wronged  —and verily  God is Most Powerful For their aid  —</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    They are  those who have Been expelled from their homes In defiance of right —  For no cause  except That they say    Our Lord Is God    Did not God Check one set of people By means of another  There would surely have been Pulled down monasteries  churches  Synagogues  and mosques  in which The name of God is commemorated In abundant measure  God will Certainly aid those who Aid His  cause   —for verily God is Full of Strength  Exalted in Might   Able to enforce His Will  </t>
+    <t xml:space="preserve">   To those against whom War is made  permission Is given  to fight   because They are wronged   and verily  God is Most Powerful For their aid   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    They are  those who have Been expelled from their homes In defiance of right    For no cause  except That they say    Our Lord Is God    Did not God Check one set of people By means of another  There would surely have been Pulled down monasteries  churches  Synagogues  and mosques  in which The name of God is commemorated In abundant measure  God will Certainly aid those who Aid His  cause    for verily God is Full of Strength  Exalted in Might   Able to enforce His Will  </t>
   </si>
   <si>
     <t xml:space="preserve">    They are  those who  If We establish them In the land  establish Regular prayer and give Regular charity  enjoin The right and forbid wrong   With God rests the end  And decision  of  all  affairs </t>
   </si>
   <si>
-    <t xml:space="preserve">   If they treat thy  mission  As false  so did the Peoples Before them  with their Prophets  — The People of Noah  And  Ād and Thamūd  </t>
+    <t xml:space="preserve">   If they treat thy  mission  As false  so did the Peoples Before them  with their Prophets    The People of Noah  And  Ād and Thamūd  </t>
   </si>
   <si>
     <t xml:space="preserve">   Those of Abraham and Lūṭ  </t>
@@ -7945,7 +7945,7 @@
     <t xml:space="preserve">     Those who believe and work Righteousness  for them Is forgiveness and a sustenance Most generous </t>
   </si>
   <si>
-    <t xml:space="preserve">     But those who strive Against Our Signs  to frustrate Them —they will be Companions of the Fire  </t>
+    <t xml:space="preserve">     But those who strive Against Our Signs  to frustrate Them  they will be Companions of the Fire  </t>
   </si>
   <si>
     <t xml:space="preserve">   Never did We send An apostle or a prophet Before thee  but  when he Framed a desire  Satan Threw some  vanity  Into his desire   but God Will cancel anything  vain  That Satan throws in  And God will confirm  And establish  His Signs   For God is full of knowledge And wisdom  </t>
@@ -7966,7 +7966,7 @@
     <t xml:space="preserve">   And for those who reject Faith And deny Our Signs  There will be a humiliating Punishment    </t>
   </si>
   <si>
-    <t xml:space="preserve">   Those who leave their homes In the cause of God  And are then slain or die — On them will God bestow verily A goodly Provision     God is He Who Bestows the best Provision </t>
+    <t xml:space="preserve">   Those who leave their homes In the cause of God  And are then slain or die   On them will God bestow verily A goodly Provision     God is He Who Bestows the best Provision </t>
   </si>
   <si>
     <t xml:space="preserve">   Verily He will admit them To a place with which They shall be well pleased   For God is All Knowing  Most Forbearing </t>
@@ -7978,13 +7978,13 @@
     <t xml:space="preserve">   That is because God merges Night into Day  and He Merges Day into Night  and Verily it is God Who hears And sees  all things  </t>
   </si>
   <si>
-    <t xml:space="preserve">   That is because God—He Is the Reality   and those Besides Him whom they invoke — They are but vain Falsehood   Verily God is He  Most High  Most Great </t>
+    <t xml:space="preserve">   That is because God He Is the Reality   and those Besides Him whom they invoke   They are but vain Falsehood   Verily God is He  Most High  Most Great </t>
   </si>
   <si>
     <t xml:space="preserve">   Seest thou not that God Sends down rain from the sky  And forthwith the earth Becomes clothed with green   For God is He Who understands The finest mysteries  and Is well acquainted  with them  </t>
   </si>
   <si>
-    <t xml:space="preserve">   To Him belongs all that is In the heavens and on earth   For verily God —He is Free of all wants  Worthy of all praise    </t>
+    <t xml:space="preserve">   To Him belongs all that is In the heavens and on earth   For verily God  He is Free of all wants  Worthy of all praise    </t>
   </si>
   <si>
     <t xml:space="preserve">   Seest thou not that God Has made subject to you  men  All that is on the earth  And the ships that sail Through the sea by His command   He withholds the sky  rain  From falling on the earth Except by His leave   For God is Most Kind And Most Merciful to man </t>
@@ -8026,10 +8026,10 @@
     <t xml:space="preserve">   O ye who believe   Bow down  prostrate yourselves  And adore your Lord   And do good   That ye may prosper </t>
   </si>
   <si>
-    <t xml:space="preserve">   And strive in His cause As ye ought to strive   With sincerity and under discipline   He has chosen you  and has Imposed no difficulties on you In religion   it is the cult Of your father Abraham  It is He Who has named You Muslims  both before And in this  Revelation    That the Apostle may be A witness for you  and ye Be witnesses for mankind   So establish regular Prayer  Give regular Charity  And hold fast to God   He is your Protector— The Best to protect And the Best to help  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   The Believers must  Eventually  win through —</t>
+    <t xml:space="preserve">   And strive in His cause As ye ought to strive   With sincerity and under discipline   He has chosen you  and has Imposed no difficulties on you In religion   it is the cult Of your father Abraham  It is He Who has named You Muslims  both before And in this  Revelation    That the Apostle may be A witness for you  and ye Be witnesses for mankind   So establish regular Prayer  Give regular Charity  And hold fast to God   He is your Protector  The Best to protect And the Best to help  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   The Believers must  Eventually  win through  </t>
   </si>
   <si>
     <t xml:space="preserve">   Those who humble themselves In their prayers  </t>
@@ -8044,16 +8044,16 @@
     <t xml:space="preserve">   Who abstain from sex </t>
   </si>
   <si>
-    <t xml:space="preserve">   Except with those joined To them in the marriage bond  Or  the captives  whom Their right hands possess — For  in their case  they are Free from blame </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   But those whose desires exceed Those limits are transgressors  —</t>
+    <t xml:space="preserve">   Except with those joined To them in the marriage bond  Or  the captives  whom Their right hands possess   For  in their case  they are Free from blame </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   But those whose desires exceed Those limits are transgressors   </t>
   </si>
   <si>
     <t xml:space="preserve">   Those who faithfully observe Their trusts and their covenants  </t>
   </si>
   <si>
-    <t xml:space="preserve">   And who  strictly  guard Their prayers  —</t>
+    <t xml:space="preserve">   And who  strictly  guard Their prayers   </t>
   </si>
   <si>
     <t xml:space="preserve">   Those will be the heirs </t>
@@ -8083,7 +8083,7 @@
     <t xml:space="preserve">   And We send down water From the sky according to  Due  measure  and We cause it To soak in the soil   And We certainly are able To drain it off  with ease  </t>
   </si>
   <si>
-    <t xml:space="preserve">   With it We grow for you Gardens of date palms And vines   in them have ye Abundant fruits   and of them Ye eat  and have enjoyment  —</t>
+    <t xml:space="preserve">   With it We grow for you Gardens of date palms And vines   in them have ye Abundant fruits   and of them Ye eat  and have enjoyment   </t>
   </si>
   <si>
     <t xml:space="preserve">   Also a tree springing Out of Mount Sinai  Which produces oil  And relish for those Who use it for food </t>
@@ -8107,10 +8107,10 @@
     <t xml:space="preserve">    Noah  said     O my Lord   Help me   for that they Accuse me of falsehood    </t>
   </si>
   <si>
-    <t xml:space="preserve">   So We inspired him  With this message      Construct The Ark within Our sight And under Our guidance   then When comes Our command  And the fountains of the earth Gush forth  take thou on board Pairs of every species  male And female  and thy family— Except those of them Against whom the Word Has already gone forth   And address Me not In favour of the wrong doers   For they shall be drowned  In the Flood  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   And when thou hast embarked On the Ark—thou and those With thee —say     Praise be To God  Who has saved us From the people who do wrong  </t>
+    <t xml:space="preserve">   So We inspired him  With this message      Construct The Ark within Our sight And under Our guidance   then When comes Our command  And the fountains of the earth Gush forth  take thou on board Pairs of every species  male And female  and thy family  Except those of them Against whom the Word Has already gone forth   And address Me not In favour of the wrong doers   For they shall be drowned  In the Flood  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   And when thou hast embarked On the Ark thou and those With thee  say     Praise be To God  Who has saved us From the people who do wrong  </t>
   </si>
   <si>
     <t xml:space="preserve">   And say     O my Lord   Enable me to disembark With Thy blessing   for Thou Art the Best to enable  us  To disembark  </t>
@@ -8206,7 +8206,7 @@
     <t xml:space="preserve">   Those who join not  in worship  Partners with their Lord  </t>
   </si>
   <si>
-    <t xml:space="preserve">   And those who dispense Their charity with their hearts Full of fear  because They will return to their Lord  —</t>
+    <t xml:space="preserve">   And those who dispense Their charity with their hearts Full of fear  because They will return to their Lord   </t>
   </si>
   <si>
     <t xml:space="preserve">   It is these who hasten In every good work  And these who are Foremost in them </t>
@@ -8215,7 +8215,7 @@
     <t xml:space="preserve">   On no soul do We Place a burden greater Than it can bear   Before Us is a record Which clearly shows the truth   They will never be wronged </t>
   </si>
   <si>
-    <t xml:space="preserve">   But their hearts are In confused ignorance Of this   and there are  Besides that  deeds of theirs  Which they will  continue  To do —</t>
+    <t xml:space="preserve">   But their hearts are In confused ignorance Of this   and there are  Besides that  deeds of theirs  Which they will  continue  To do  </t>
   </si>
   <si>
     <t xml:space="preserve">   Until  when We seize In Punishment those of them Who received the good things Of this world  behold  They will groan in supplication  </t>
@@ -8224,7 +8224,7 @@
     <t xml:space="preserve">    It will be said      Groan not in supplication This day   for ye shall Certainly not be helped by Us </t>
   </si>
   <si>
-    <t xml:space="preserve">     My Signs used to be Rehearsed to you  but ye Used to turn back On your heels—</t>
+    <t xml:space="preserve">     My Signs used to be Rehearsed to you  but ye Used to turn back On your heels </t>
   </si>
   <si>
     <t xml:space="preserve">     In arrogance   talking nonsense About the  Qur ān   like one Telling fables by night  </t>
@@ -8254,7 +8254,7 @@
     <t xml:space="preserve">   If We had mercy on them And removed the distress Which is on them  they Would obstinately persist In their transgression  Wandering in distraction To and fro </t>
   </si>
   <si>
-    <t xml:space="preserve">   We inflicted Punishment On them  but they Humbled not themselves To their Lord  nor do they Submissively entreat  Him   —</t>
+    <t xml:space="preserve">   We inflicted Punishment On them  but they Humbled not themselves To their Lord  nor do they Submissively entreat  Him    </t>
   </si>
   <si>
     <t xml:space="preserve">   Until We open on them A gate leading to A severe Punishment   then Lo   they will be plunged In despair therein     </t>
@@ -8290,7 +8290,7 @@
     <t xml:space="preserve">   They will say     They belong  To God   Say     Will ye not Then be filled with awe    </t>
   </si>
   <si>
-    <t xml:space="preserve">   Say     Who is it in whose Hands is the governance Of all things —who protects  All   but is not protected  Of any     Say  if ye know  </t>
+    <t xml:space="preserve">   Say     Who is it in whose Hands is the governance Of all things  who protects  All   but is not protected  Of any     Say  if ye know  </t>
   </si>
   <si>
     <t xml:space="preserve">   They will say     It belongs  To God   Say     Then how Are ye deluded    </t>
@@ -8305,7 +8305,7 @@
     <t xml:space="preserve">   He knows what is hidden And what is open   too high Is He for the partners They attribute to Him     </t>
   </si>
   <si>
-    <t xml:space="preserve">   Say     O my Lord   If Thou wilt show me  In my lifetime  that which They are warned against —</t>
+    <t xml:space="preserve">   Say     O my Lord   If Thou wilt show me  In my lifetime  that which They are warned against  </t>
   </si>
   <si>
     <t xml:space="preserve">     Then  O my Lord   put me not Amongst the people Who do wrong    </t>
@@ -8323,16 +8323,16 @@
     <t xml:space="preserve">     And I seek refuge with Thee O my Lord   lest they Should come near me  </t>
   </si>
   <si>
-    <t xml:space="preserve">    In Falsehood will they be  Until  when death comes To one of them  he says     O my Lord   send me back  To life  —</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     In order that I may Work righteousness in the things I neglected  —  By no means   It is but a word he says  — Before them is a Partition Till the Day they are Raised up </t>
+    <t xml:space="preserve">    In Falsehood will they be  Until  when death comes To one of them  he says     O my Lord   send me back  To life   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     In order that I may Work righteousness in the things I neglected     By no means   It is but a word he says    Before them is a Partition Till the Day they are Raised up </t>
   </si>
   <si>
     <t xml:space="preserve">   Then when the Trumpet Is blown  there will be No more relationships Between them that day  Nor will one ask after another  </t>
   </si>
   <si>
-    <t xml:space="preserve">   Then those whose balance  Of good deeds  is heavy — They will attain salvation  </t>
+    <t xml:space="preserve">   Then those whose balance  Of good deeds  is heavy   They will attain salvation  </t>
   </si>
   <si>
     <t xml:space="preserve">   But those whose balance Is light  will be those Who have lost their souls   In Hell will they abide </t>
@@ -8368,7 +8368,7 @@
     <t xml:space="preserve">   They will say     We stayed A day or part of a day   But ask those who Keep account  </t>
   </si>
   <si>
-    <t xml:space="preserve">   He will say     Ye stayed Not but a little — If ye had only known  </t>
+    <t xml:space="preserve">   He will say     Ye stayed Not but a little   If ye had only known  </t>
   </si>
   <si>
     <t xml:space="preserve">     Did ye then think That We had created you In jest  and that ye Would not be brought back To Us  for account     </t>
@@ -8386,19 +8386,19 @@
     <t xml:space="preserve">   A Sūra which We Have sent down and Which We have ordained   In it have We sent down Clear Signs  in order that Ye may receive admonition </t>
   </si>
   <si>
-    <t xml:space="preserve">   The woman and the man Guilty of adultery or fornication — Flog each of them With a hundred stripes   Let not compassion move you In their case  in a matter Prescribed by God  if ye believe In God and the Last Day   And let a party Of the Believers Witness their punishment </t>
+    <t xml:space="preserve">   The woman and the man Guilty of adultery or fornication   Flog each of them With a hundred stripes   Let not compassion move you In their case  in a matter Prescribed by God  if ye believe In God and the Last Day   And let a party Of the Believers Witness their punishment </t>
   </si>
   <si>
     <t xml:space="preserve">    Let no man guilty of Adultery or fornication marry Any but a woman Similarly guilty  or an Unbeliever   Nor let any but such a man Or an Unbeliever Marry such a woman   To the Believers such a thing Is forbidden </t>
   </si>
   <si>
-    <t xml:space="preserve">   And those who launch A charge against chaste women  And produce not four witnesses  To support their allegation  — Flog them with eighty stripes   And reject their evidence Ever after   for such men Are wicked transgressors  —</t>
+    <t xml:space="preserve">   And those who launch A charge against chaste women  And produce not four witnesses  To support their allegation    Flog them with eighty stripes   And reject their evidence Ever after   for such men Are wicked transgressors   </t>
   </si>
   <si>
     <t xml:space="preserve">    Unless they repent thereafter And mend  their conduct    For God is Oft Forgiving Most Merciful </t>
   </si>
   <si>
-    <t xml:space="preserve">   And for those who launch A charge against their spouses  And have  in support  No evidence but their own — Their solitary evidence  Can be received  if they Bear witness four times  With an oath  by God That they are solemnly Telling the truth  </t>
+    <t xml:space="preserve">   And for those who launch A charge against their spouses  And have  in support  No evidence but their own   Their solitary evidence  Can be received  if they Bear witness four times  With an oath  by God That they are solemnly Telling the truth  </t>
   </si>
   <si>
     <t xml:space="preserve">    And the fifth  oath   Should be  that they solemnly Invoke the curse of God On themselves if they Tell a lie </t>
@@ -8410,13 +8410,13 @@
     <t xml:space="preserve">    And the fifth  oath  Should be that she solemnly Invokes the wrath of God On herself if  her accuser  Is telling the truth </t>
   </si>
   <si>
-    <t xml:space="preserve">   If it were not For God s grace and mercy On you  and that God Is Oft Returning  Full of wisdom —  Ye would be ruined indeed     </t>
+    <t xml:space="preserve">   If it were not For God s grace and mercy On you  and that God Is Oft Returning  Full of wisdom    Ye would be ruined indeed     </t>
   </si>
   <si>
     <t xml:space="preserve">   Those who brought forward The lie are a body Among yourselves   think it not To be an evil to you   On the contrary it is good For you   to every man Among them  will come The punishment  of the sin That he earned  and to him Who took on himself the lead Among them  will be A Penalty grievous </t>
   </si>
   <si>
-    <t xml:space="preserve">   Why did not Believers— Men and women —when ye Heard of the affair —put The best construction on it In their own minds And say    This  charge  Is an obvious lie    </t>
+    <t xml:space="preserve">   Why did not Believers  Men and women  when ye Heard of the affair  put The best construction on it In their own minds And say    This  charge  Is an obvious lie    </t>
   </si>
   <si>
     <t xml:space="preserve">   Why did they not bring Four witnesses to prove it   When they have not brought The witnesses  such men  In the sight of God   Stand forth  themselves as liars  </t>
@@ -8428,7 +8428,7 @@
     <t xml:space="preserve">   Behold  ye received it On your tongues  And said out of your mouths Things of which ye had No knowledge   and ye thought It to be a light matter  While it was most serious In the sight of God </t>
   </si>
   <si>
-    <t xml:space="preserve">   And why did ye not  When ye heard it  say  —   It is not right of us To speak of this   Glory to God   this is A most serious slander    </t>
+    <t xml:space="preserve">   And why did ye not  When ye heard it  say      It is not right of us To speak of this   Glory to God   this is A most serious slander    </t>
   </si>
   <si>
     <t xml:space="preserve">   God doth admonish you  That ye may never repeat Such  conduct   if ye Are  true  Believers </t>
@@ -8449,7 +8449,7 @@
     <t xml:space="preserve">   Let not those among you Who are endued with grace And amplitude of means Resolve by oath against helping Their kinsmen  those in want  And those who have left Their homes in God s cause   Let them forgive and overlook  Do you not wish That God should forgive you   For God is Oft Forgiving  Most Merciful </t>
   </si>
   <si>
-    <t xml:space="preserve">   Those who slander chaste women  Indiscreet but believing  Are cursed in this life And in the Hereafter   For them is a grievous Penalty —</t>
+    <t xml:space="preserve">   Those who slander chaste women  Indiscreet but believing  Are cursed in this life And in the Hereafter   For them is a grievous Penalty  </t>
   </si>
   <si>
     <t xml:space="preserve">   On the Day when their tongues  Their hands  and their feet Will bear witness against them As to their actions </t>
@@ -8488,16 +8488,16 @@
     <t xml:space="preserve">   God is the Light Of the heavens and the earth  The parable of His Light Is as if there were a Niche And within it a Lamp   The Lamp enclosed in Glass   The glass as it were A brilliant star   Lit from a blessed Tree  An Olive  neither of the East Nor of the West  Whose Oil is well nigh Luminous  Though fire scarce touched it   Light upon Light   God doth guide Whom He will To His Light   God doth set forth Parables For men   and God Doth know all things </t>
   </si>
   <si>
-    <t xml:space="preserve">    Lit is such a Light  In houses  which God Hath permitted to be raised To honour   for the celebration  In them  of His name   In them is He glorified In the mornings and In the evenings   again and again  —</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   By men whom neither Traffic nor merchandise Can divert from the Remembrance Of God  nor from regular Prayer  Nor from the practice Of regular Charity   Their  only  fear is For the Day when Hearts and eyes Will be transformed  In a world wholly new  —</t>
+    <t xml:space="preserve">    Lit is such a Light  In houses  which God Hath permitted to be raised To honour   for the celebration  In them  of His name   In them is He glorified In the mornings and In the evenings   again and again   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   By men whom neither Traffic nor merchandise Can divert from the Remembrance Of God  nor from regular Prayer  Nor from the practice Of regular Charity   Their  only  fear is For the Day when Hearts and eyes Will be transformed  In a world wholly new   </t>
   </si>
   <si>
     <t xml:space="preserve">   That God may reward them According to the best Of their deeds  and add Even more for them Out of His Grace   For God doth provide For those whom He will  Without measure </t>
   </si>
   <si>
-    <t xml:space="preserve">   But the Unbelievers — Their deeds are like a mirage In sandy deserts  which The man parched with thirst Mistakes for water   until When he comes up to it  He finds it to be nothing   But he finds God  Ever  with him  and God Will pay him his account   And God is swift In taking account </t>
+    <t xml:space="preserve">   But the Unbelievers   Their deeds are like a mirage In sandy deserts  which The man parched with thirst Mistakes for water   until When he comes up to it  He finds it to be nothing   But he finds God  Ever  with him  and God Will pay him his account   And God is swift In taking account </t>
   </si>
   <si>
     <t xml:space="preserve">   Or  the Unbelievers  state  Is like the depths of darkness In a vast deep ocean  Overwhelmed with billow Topped by billow  Topped by  dark  clouds   Depths of darkness  one Above another   if a man Stretches out his hand  He can hardly see it   For any to whom God Giveth not light  There is no light     </t>
@@ -8509,7 +8509,7 @@
     <t xml:space="preserve">   Yea  to God belongs The dominion of the heavens And the earth   and to God Is the final goal  of all  </t>
   </si>
   <si>
-    <t xml:space="preserve">   Seest thou not that God Makes the clouds move Gently  then joins them Together  then makes them Into a heap  —then wilt thou See rain issue forth From their midst  And He Sends down from the sky Mountain masses  of clouds  Wherein is hail   He strikes Therewith whom He pleases And He turns it away From whom He pleases  The vivid flash of His lightning Well nigh blinds the sight </t>
+    <t xml:space="preserve">   Seest thou not that God Makes the clouds move Gently  then joins them Together  then makes them Into a heap   then wilt thou See rain issue forth From their midst  And He Sends down from the sky Mountain masses  of clouds  Wherein is hail   He strikes Therewith whom He pleases And He turns it away From whom He pleases  The vivid flash of His lightning Well nigh blinds the sight </t>
   </si>
   <si>
     <t xml:space="preserve">   It is God Who alternates The Night and the Day   Verily in these things Is an instructive example For those who have vision  </t>
@@ -8545,13 +8545,13 @@
     <t xml:space="preserve">   Say     Obey God  and obey The Apostle     but if ye turn Away  he is only responsible For the duty placed on him And ye for that placed On you  If ye obey him  Ye shall be on right guidance  The Apostle s duty is only To preach the clear  Message  </t>
   </si>
   <si>
-    <t xml:space="preserve">   God has promised  to those Among you who believe And work righteous deeds  that He Will  of a surety  grant them In the land  inheritance  Of power   as He granted it To those before them   that He will establish in authority Their religion—the one Which He has chosen for them   And that He will change  Their state   after the fear In which they  lived   to one Of security and peace     They will worship Me  alone  And not associate aught with Me   If any do reject Faith After this  they are Rebellious and wicked </t>
+    <t xml:space="preserve">   God has promised  to those Among you who believe And work righteous deeds  that He Will  of a surety  grant them In the land  inheritance  Of power   as He granted it To those before them   that He will establish in authority Their religion the one Which He has chosen for them   And that He will change  Their state   after the fear In which they  lived   to one Of security and peace     They will worship Me  alone  And not associate aught with Me   If any do reject Faith After this  they are Rebellious and wicked </t>
   </si>
   <si>
     <t xml:space="preserve">   So establish regular Prayer And give regular Charity   And obey the Apostle   That ye may receive mercy </t>
   </si>
   <si>
-    <t xml:space="preserve">   Never think thou That the Unbelievers Are going to frustrate  God s Plan  on earth   Their abode is the Fire — And it is indeed An evil refuge     </t>
+    <t xml:space="preserve">   Never think thou That the Unbelievers Are going to frustrate  God s Plan  on earth   Their abode is the Fire   And it is indeed An evil refuge     </t>
   </si>
   <si>
     <t xml:space="preserve">   O ye who believe   Let those whom your right hands Possess  and the  children  among you Who have not come of age Ask your permission  before They come to your presence   On three occasions   before Morning prayer   the while Ye doff your clothes For the noonday heat   And after the late night prayer   These are your three times Of undress   outside those times It is not wrong for you Or for them to move about Attending to each other   Thus does God make clear The Signs to you   for God Is full of knowledge and wisdom </t>
@@ -8560,10 +8560,10 @@
     <t xml:space="preserve">   But when the children among you Come of age  let them  also  Ask for permission  as do those Senior to them  in age    Thus does God make clear His Signs to you   for God Is full of knowledge and wisdom </t>
   </si>
   <si>
-    <t xml:space="preserve">   Such elderly women as are Past the prospect of marriage — There is no blame on them If they lay aside Their  outer  garments  provided They make not a wanton display Of their beauty   but It is best for them To be modest   and God Is One Who sees and knows All things </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   It is no fault in the blind Nor in one born lame  nor In one afflicted with illness  Nor in yourselves  that ye Should eat in your own houses  Or those of your fathers  Or your mothers  or your brothers  Or your sisters  or your father s brothers Or your father s sisters  Or your mother s brothers  Or your mother s sisters  Or in houses of which The keys are in your possession  Or in the house of a sincere Friend of yours   there is No blame on you  whether Ye eat in company or Separately  But if ye Enter houses  salute each other— A greeting of blessing And purity as from God  Thus does God make clear The Signs to you   that ye May understand    </t>
+    <t xml:space="preserve">   Such elderly women as are Past the prospect of marriage   There is no blame on them If they lay aside Their  outer  garments  provided They make not a wanton display Of their beauty   but It is best for them To be modest   and God Is One Who sees and knows All things </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   It is no fault in the blind Nor in one born lame  nor In one afflicted with illness  Nor in yourselves  that ye Should eat in your own houses  Or those of your fathers  Or your mothers  or your brothers  Or your sisters  or your father s brothers Or your father s sisters  Or your mother s brothers  Or your mother s sisters  Or in houses of which The keys are in your possession  Or in the house of a sincere Friend of yours   there is No blame on you  whether Ye eat in company or Separately  But if ye Enter houses  salute each other  A greeting of blessing And purity as from God  Thus does God make clear The Signs to you   that ye May understand    </t>
   </si>
   <si>
     <t xml:space="preserve">   Only those are Believers  Who believe in God and His Apostle   when they are With him on a matter Requiring collective action  They do not depart until They have asked for his leave   Those who ask for thy leave Are those who believe in God And His Apostle   so when They ask for thy leave  For some business of theirs  Give leave to those of them Whom thou wilt  and ask God for their forgiveness   For God is Oft Forgiving  Most Merciful </t>
@@ -8575,7 +8575,7 @@
     <t xml:space="preserve">   Be quite sure that To God doth belong Whatever is in the heavens And on earth  Well doth He Know what ye are intent upon   And one day they will be Brought back to Him  and He Will tell them the truth Of what they did   For God doth know All things </t>
   </si>
   <si>
-    <t xml:space="preserve">   Blessed is He Who Sent down the Criterion To His Servant  that it May be an admonition To all creature  —</t>
+    <t xml:space="preserve">   Blessed is He Who Sent down the Criterion To His Servant  that it May be an admonition To all creature   </t>
   </si>
   <si>
     <t xml:space="preserve">    He to Whom belongs The dominion of the heavens And the earth   no son Has He begotten  nor has He A partner in His dominion   It is He Who created All things  and ordered them In due proportions </t>
@@ -8602,7 +8602,7 @@
     <t xml:space="preserve">    See what kinds of comparisons They make for thee   But they have gone astray  And never a way will they Be able to find     </t>
   </si>
   <si>
-    <t xml:space="preserve">   Blessed is He Who  If that were His Will  Could give thee better  things  Than those —Gardens beneath which Rivers flow   and He could Give thee Palaces  secure To dwell in  </t>
+    <t xml:space="preserve">   Blessed is He Who  If that were His Will  Could give thee better  things  Than those  Gardens beneath which Rivers flow   and He could Give thee Palaces  secure To dwell in  </t>
   </si>
   <si>
     <t xml:space="preserve">   Nay  they deny the Hour  Of the Judgment to come    But We have prepared A Blazing Fire for such As deny the Hour  </t>
@@ -8638,7 +8638,7 @@
     <t xml:space="preserve">   Such as fear not The meeting with Us  For Judgment  say     Why are not the angels Sent down to us  or  Why  do we not see Our Lord     Indeed they Have an arrogant conceit Of themselves  and mighty Is the insolence of their impiety  </t>
   </si>
   <si>
-    <t xml:space="preserve">   The Day they see the angels — No joy will there be To the sinners that Day   The  angels  will say     There is a barrier Forbidden  to you  altogether    </t>
+    <t xml:space="preserve">   The Day they see the angels   No joy will there be To the sinners that Day   The  angels  will say     There is a barrier Forbidden  to you  altogether    </t>
   </si>
   <si>
     <t xml:space="preserve">   And We shall turn To whatever deeds they did  In this life   and We shall Make such deeds as floating dust Scattered about </t>
@@ -8647,7 +8647,7 @@
     <t xml:space="preserve">   The Companions of the Garden Will be well  that Day  In their abode  and have The fairest of places for repose </t>
   </si>
   <si>
-    <t xml:space="preserve">   The Day the heaven shall be Rent asunder with clouds  And angels shall be sent down  Descending  in ranks  —</t>
+    <t xml:space="preserve">   The Day the heaven shall be Rent asunder with clouds  And angels shall be sent down  Descending  in ranks   </t>
   </si>
   <si>
     <t xml:space="preserve">   That Day  the dominion As of right and truth  Shall be  wholly  for  God  Most Merciful   it will be A Day of dire difficulty For the Misbelievers </t>
@@ -8674,7 +8674,7 @@
     <t xml:space="preserve">   And no question do they Bring to thee but We Reveal to thee the truth And the best explanation  thereof  </t>
   </si>
   <si>
-    <t xml:space="preserve">   Those who will be gathered To Hell  prone  on their faces — They will be in an evil Plight  and  as to Path  Most astray    </t>
+    <t xml:space="preserve">   Those who will be gathered To Hell  prone  on their faces   They will be in an evil Plight  and  as to Path  Most astray    </t>
   </si>
   <si>
     <t xml:space="preserve">    Before this   We sent Moses The Book  and appointed His brother Aaron with him As Minister  </t>
@@ -8683,7 +8683,7 @@
     <t xml:space="preserve">   And We commanded     Go ye Both  to the people who Have rejected our Signs     And those  people  We destroyed With utter destruction </t>
   </si>
   <si>
-    <t xml:space="preserve">   And the people of Noah — When they rejected the apostles  We drowned them  And We made them As a Sign for mankind   And We have prepared For  all  wrong doers A grievous Penalty  —</t>
+    <t xml:space="preserve">   And the people of Noah   When they rejected the apostles  We drowned them  And We made them As a Sign for mankind   And We have prepared For  all  wrong doers A grievous Penalty   </t>
   </si>
   <si>
     <t xml:space="preserve">   As also  Ād and Thamūd  And the Companions Of the Rass  and many A generation between them </t>
@@ -8698,28 +8698,28 @@
     <t xml:space="preserve">   When they see thee  They treat thee no otherwise Than in mockery     Is this The one whom God has sent As an apostle    </t>
   </si>
   <si>
-    <t xml:space="preserve">     He indeed would well nigh Have misled us from Our gods  had it not been That we were constant To them    —Soon will they Know  when they see The Penalty  who it is That is most misled In Path  </t>
+    <t xml:space="preserve">     He indeed would well nigh Have misled us from Our gods  had it not been That we were constant To them     Soon will they Know  when they see The Penalty  who it is That is most misled In Path  </t>
   </si>
   <si>
     <t xml:space="preserve">   Seest thou such a one As taketh for his god His own passion  or impulse    Couldst thou be a disposer Of affairs for him  </t>
   </si>
   <si>
-    <t xml:space="preserve">   Or thinkest thou that most Of them listen or understand   They are only like cattle  — Nay  they are worse astray In Path    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Hast thou not turned Thy vision to thy Lord  — How He doth prolong The Shadow   If He willed  He could make it stationary   Then do We make The sun its guide  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Then We draw it in Towards Ourselves — A contraction by easy stages </t>
+    <t xml:space="preserve">   Or thinkest thou that most Of them listen or understand   They are only like cattle    Nay  they are worse astray In Path    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Hast thou not turned Thy vision to thy Lord    How He doth prolong The Shadow   If He willed  He could make it stationary   Then do We make The sun its guide  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Then We draw it in Towards Ourselves   A contraction by easy stages </t>
   </si>
   <si>
     <t xml:space="preserve">   And He it is Who makes The Night as a Robe For you  and Sleep as Repose  And makes the Day  As it were  a Resur  </t>
   </si>
   <si>
-    <t xml:space="preserve">   And He it is Who sends The Winds as heralds Of glad tidings  going before His Mercy  and We send down Purifying water from the sky —</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   That with it We may give Life to a dead land  And slake the thirst Of things We have created — Cattle and men in great numbers </t>
+    <t xml:space="preserve">   And He it is Who sends The Winds as heralds Of glad tidings  going before His Mercy  and We send down Purifying water from the sky  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   That with it We may give Life to a dead land  And slake the thirst Of things We have created   Cattle and men in great numbers </t>
   </si>
   <si>
     <t xml:space="preserve">   And We have distributed The  water  amongst them  in order That they may celebrate  Our  praises  but most men Are averse  to aught  but  Rank  ingratitude </t>
@@ -8746,7 +8746,7 @@
     <t xml:space="preserve">   Say     No reward do I Ask of you for it but this   That each one who will May take a  straight  Path To his Lord  </t>
   </si>
   <si>
-    <t xml:space="preserve">   And put thy trust In Him Who lives And dies not   and celebrate His praise   and enough is He To be acquainted with The faults of His servants  —</t>
+    <t xml:space="preserve">   And put thy trust In Him Who lives And dies not   and celebrate His praise   and enough is He To be acquainted with The faults of His servants   </t>
   </si>
   <si>
     <t xml:space="preserve">   He Who created the heavens And the earth and all That is between  in six days  And is firmly established On the Throne  of authority    God Most Gracious   Ask thou  then  about Him Of any acquainted  with such things  </t>
@@ -8767,7 +8767,7 @@
     <t xml:space="preserve">   Those who spend the night In adoration of their Lord Prostrate and standing  </t>
   </si>
   <si>
-    <t xml:space="preserve">   Those who say    Our Lord   Avert from us the Wrath Of Hell  for its Wrath Is indeed an affliction grievous —</t>
+    <t xml:space="preserve">   Those who say    Our Lord   Avert from us the Wrath Of Hell  for its Wrath Is indeed an affliction grievous  </t>
   </si>
   <si>
     <t xml:space="preserve">     Evil indeed is it As an abode  and as A place to rest in    </t>
@@ -8776,16 +8776,16 @@
     <t xml:space="preserve">   Those who  when they spend  Are not extravagant and not Niggardly  but hold a just  balance  Between those  extremes   </t>
   </si>
   <si>
-    <t xml:space="preserve">   Those who invoke not  With God  any other god  Nor slay such life as God Has made sacred  except For just cause  not commit Fornication  —and any that does This  not only  meets punishment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    But  the Penalty on the Day Of Judgment will be doubled To him  and he will dwell Therein in ignominy —</t>
+    <t xml:space="preserve">   Those who invoke not  With God  any other god  Nor slay such life as God Has made sacred  except For just cause  not commit Fornication   and any that does This  not only  meets punishment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    But  the Penalty on the Day Of Judgment will be doubled To him  and he will dwell Therein in ignominy  </t>
   </si>
   <si>
     <t xml:space="preserve">   Unless he repents  believes  And works righteous deeds  For God will change The evil of such persons Into good  and God is Oft Forgiving  Most Merciful </t>
   </si>
   <si>
-    <t xml:space="preserve">   And whoever repents and does good Has truly turned to God With an  acceptable  conversion  —</t>
+    <t xml:space="preserve">   And whoever repents and does good Has truly turned to God With an  acceptable  conversion   </t>
   </si>
   <si>
     <t xml:space="preserve">   Those who witness no falsehood  And  if they pass by futility  They pass by it With honourable  avoidance   </t>
@@ -8800,7 +8800,7 @@
     <t xml:space="preserve">   Those are the ones who Will be rewarded with The highest place in heaven  Because of their patient constancy   Therein shall they be met With salutations and peace </t>
   </si>
   <si>
-    <t xml:space="preserve">   Dwelling therein  —how beautiful An abode and place of rest  </t>
+    <t xml:space="preserve">   Dwelling therein   how beautiful An abode and place of rest  </t>
   </si>
   <si>
     <t xml:space="preserve">   Say  to the Rejecters      My Lord is not uneasy Because of you if ye call not on Him   But ye have indeed rejected  Him   and soon will come The inevitable  punishment     </t>
@@ -8824,7 +8824,7 @@
     <t xml:space="preserve">   They have indeed rejected  The Message    so they will Know soon  enough  the truth Of what they mocked at  </t>
   </si>
   <si>
-    <t xml:space="preserve">   Do they not look At the earth —how many Noble things of all kinds We have produced therein  </t>
+    <t xml:space="preserve">   Do they not look At the earth  how many Noble things of all kinds We have produced therein  </t>
   </si>
   <si>
     <t xml:space="preserve">   Verily  in this is a Sign   But most of them Do not believe </t>
@@ -8833,7 +8833,7 @@
     <t xml:space="preserve">   And verily  thy Lord Is He  the Exalted in Might  Most Merciful    </t>
   </si>
   <si>
-    <t xml:space="preserve">   Behold  thy Lord called Moses     Go to the people Of iniquity —</t>
+    <t xml:space="preserve">   Behold  thy Lord called Moses     Go to the people Of iniquity  </t>
   </si>
   <si>
     <t xml:space="preserve">     The people of Pharaoh   Will they not fear God    </t>
@@ -8869,13 +8869,13 @@
     <t xml:space="preserve">     So I fled from you  all  When I feared you   But my Lord has  since  Invested me with judgment  And wisdom  and appointed me As one of the apostles </t>
   </si>
   <si>
-    <t xml:space="preserve">     And this is the favour With which thou dost Reproach me —that thou Hast enslaved the Children Of Israel    </t>
+    <t xml:space="preserve">     And this is the favour With which thou dost Reproach me  that thou Hast enslaved the Children Of Israel    </t>
   </si>
   <si>
     <t xml:space="preserve">   Pharaoh said     And what Is the   Lord and Cherisher Of the Worlds      </t>
   </si>
   <si>
-    <t xml:space="preserve">    Moses  said     The Lord And Cherisher of the heavens And the earth  and all between —If ye want to be Quite sure  </t>
+    <t xml:space="preserve">    Moses  said     The Lord And Cherisher of the heavens And the earth  and all between  If ye want to be Quite sure  </t>
   </si>
   <si>
     <t xml:space="preserve">    Pharaoh  said to those Around     Do ye not listen  To what he says     </t>
@@ -8911,7 +8911,7 @@
     <t xml:space="preserve">     His plan is to get you out Of your land by his sorcery   Then what is it ye counsel    </t>
   </si>
   <si>
-    <t xml:space="preserve">   They said     Keep him And his brother in suspense  For a while   and dispatch To the Cities heralds to collect—</t>
+    <t xml:space="preserve">   They said     Keep him And his brother in suspense  For a while   and dispatch To the Cities heralds to collect </t>
   </si>
   <si>
     <t xml:space="preserve">     And bring up to thee All  our  sorcerers well versed  </t>
@@ -8920,19 +8920,19 @@
     <t xml:space="preserve">   So the sorcerers were got Together for the appointment Of a day well known </t>
   </si>
   <si>
-    <t xml:space="preserve">   And the people were told     Are ye  now  assembled  —</t>
+    <t xml:space="preserve">   And the people were told     Are ye  now  assembled   </t>
   </si>
   <si>
     <t xml:space="preserve">     That we may follow The sorcerers  in religion  If they win    </t>
   </si>
   <si>
-    <t xml:space="preserve">   So when the sorcerers arrived  They said to Pharaoh     Of course—shall we have A  suitable  reward If we win    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   He said     Yea   and more  — For ye shall in that case Be  raised to posts  Nearest  to my person   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Moses said to them     Throw ye—that which Ye are about to throw    </t>
+    <t xml:space="preserve">   So when the sorcerers arrived  They said to Pharaoh     Of course shall we have A  suitable  reward If we win    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   He said     Yea   and more    For ye shall in that case Be  raised to posts  Nearest  to my person   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Moses said to them     Throw ye that which Ye are about to throw    </t>
   </si>
   <si>
     <t xml:space="preserve">   So they threw their ropes And their rods  and said     By the might of Pharaoh  It is we who will Certainly win    </t>
@@ -9028,10 +9028,10 @@
     <t xml:space="preserve">   They said     Nay  but we Found our fathers doing Thus  what we do   </t>
   </si>
   <si>
-    <t xml:space="preserve">   He said     Do ye then See whom ye have been Worshipping —</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     Ye and your fathers before you  —</t>
+    <t xml:space="preserve">   He said     Do ye then See whom ye have been Worshipping  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Ye and your fathers before you   </t>
   </si>
   <si>
     <t xml:space="preserve">     For they are enemies to me   Not so the Lord and Cherisher Of the Worlds  </t>
@@ -9064,7 +9064,7 @@
     <t xml:space="preserve">     Forgive my father  for that He is among those astray  </t>
   </si>
   <si>
-    <t xml:space="preserve">     And let me not be In disgrace on the Day When  men  will be raised up  —</t>
+    <t xml:space="preserve">     And let me not be In disgrace on the Day When  men  will be raised up   </t>
   </si>
   <si>
     <t xml:space="preserve">     The Day whereon neither Wealth nor sons will avail </t>
@@ -9079,13 +9079,13 @@
     <t xml:space="preserve">     And to those straying in Evil  The Fire will be placed In full view  </t>
   </si>
   <si>
-    <t xml:space="preserve">     And it shall be said To them     Where are The  gods  ye worshipped—</t>
+    <t xml:space="preserve">     And it shall be said To them     Where are The  gods  ye worshipped </t>
   </si>
   <si>
     <t xml:space="preserve">       Besides God   Can they Help you or help themselves    </t>
   </si>
   <si>
-    <t xml:space="preserve">     Then they will be thrown Headlong into the  Fire  — They and those straying In Evil </t>
+    <t xml:space="preserve">     Then they will be thrown Headlong into the  Fire    They and those straying In Evil </t>
   </si>
   <si>
     <t xml:space="preserve">     And the whole hosts Of Iblīs together </t>
@@ -9190,7 +9190,7 @@
     <t xml:space="preserve">     Yea  fear Him Who Has bestowed on you Freely all that ye know </t>
   </si>
   <si>
-    <t xml:space="preserve">     Freely has He bestowed On you cattle and sons —</t>
+    <t xml:space="preserve">     Freely has He bestowed On you cattle and sons  </t>
   </si>
   <si>
     <t xml:space="preserve">     And Gardens and Springs </t>
@@ -9220,7 +9220,7 @@
     <t xml:space="preserve">     I am to you an apostle Worthy of all trust </t>
   </si>
   <si>
-    <t xml:space="preserve">     Will ye be left secure  In  the enjoyment of  all That ye have here  —</t>
+    <t xml:space="preserve">     Will ye be left secure  In  the enjoyment of  all That ye have here   </t>
   </si>
   <si>
     <t xml:space="preserve">     Gardens and Springs </t>
@@ -9235,7 +9235,7 @@
     <t xml:space="preserve">     But fear God and obey me  </t>
   </si>
   <si>
-    <t xml:space="preserve">     And follow not the bidding Of those who are extravagant —</t>
+    <t xml:space="preserve">     And follow not the bidding Of those who are extravagant  </t>
   </si>
   <si>
     <t xml:space="preserve">     Who make mischief in the land  And mend not  their ways   </t>
@@ -9280,7 +9280,7 @@
     <t xml:space="preserve">     O my Lord   deliver me And my family from Such things as they do    </t>
   </si>
   <si>
-    <t xml:space="preserve">   So We delivered him And his family —all</t>
+    <t xml:space="preserve">   So We delivered him And his family  all</t>
   </si>
   <si>
     <t xml:space="preserve">   Except an old woman Who lingered behind </t>
@@ -9331,7 +9331,7 @@
     <t xml:space="preserve">   Verily this is a Revelation From the Lord of the Worlds  </t>
   </si>
   <si>
-    <t xml:space="preserve">   With it came down The Spirit of Faith and Truth—</t>
+    <t xml:space="preserve">   With it came down The Spirit of Faith and Truth </t>
   </si>
   <si>
     <t xml:space="preserve">   To thy heart and mind  That thou mayest admonish</t>
@@ -9376,7 +9376,7 @@
     <t xml:space="preserve">   It will profit them not That they enjoyed  this life   </t>
   </si>
   <si>
-    <t xml:space="preserve">   Never did We destroy A population  but had Its warners—</t>
+    <t xml:space="preserve">   Never did We destroy A population  but had Its warners </t>
   </si>
   <si>
     <t xml:space="preserve">   By way of reminder   And We never are unjust </t>
@@ -9403,7 +9403,7 @@
     <t xml:space="preserve">   Then if they disobey thee  Say     I am free  of responsibility  For what ye do    </t>
   </si>
   <si>
-    <t xml:space="preserve">   And put thy trust On the Exalted in Might  The Merciful —</t>
+    <t xml:space="preserve">   And put thy trust On the Exalted in Might  The Merciful  </t>
   </si>
   <si>
     <t xml:space="preserve">   Who seeth thee standing Forth  in prayer  </t>
@@ -9424,22 +9424,22 @@
     <t xml:space="preserve">    Into whose ears  they pour Hearsay vanities  and most Of them are liars </t>
   </si>
   <si>
-    <t xml:space="preserve">   And the Poets — It is those straying in Evil  Who follow them  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Seest thou not that they Wander distracted in every Valley  —</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   And that they say What they practice not  —</t>
+    <t xml:space="preserve">   And the Poets   It is those straying in Evil  Who follow them  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Seest thou not that they Wander distracted in every Valley   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   And that they say What they practice not   </t>
   </si>
   <si>
     <t xml:space="preserve">   Except those who believe  Work righteousness  engage much In the remembrance of God  And defend themselves only after They are unjustly attacked  And soon will the unjust Assailants know what vicissitudes Their affairs will take  </t>
   </si>
   <si>
-    <t xml:space="preserve">   Tā  Sīn  These are verses Of the Qur ān —a Book That makes  things  clear  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    A Guide   and Glad Tidings For the Believers —</t>
+    <t xml:space="preserve">   Tā  Sīn  These are verses Of the Qur ān  a Book That makes  things  clear  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    A Guide   and Glad Tidings For the Believers  </t>
   </si>
   <si>
     <t xml:space="preserve">    Those who establish regular prayers And give in regular charity  And also have  full  assurance Of the Hereafter </t>
@@ -9463,7 +9463,7 @@
     <t xml:space="preserve">      O Moses   Verily  I am God  the Exalted In Might  the Wise   </t>
   </si>
   <si>
-    <t xml:space="preserve">     Now do thou throw thy rod     But when he saw it Moving  of its own accord  As if it had been a snake  He turned back in retreat  And retraced not his steps     O Moses      it was said     Fear not   truly  in My presence  Those called as apostles Have no fear —</t>
+    <t xml:space="preserve">     Now do thou throw thy rod     But when he saw it Moving  of its own accord  As if it had been a snake  He turned back in retreat  And retraced not his steps     O Moses      it was said     Fear not   truly  in My presence  Those called as apostles Have no fear  </t>
   </si>
   <si>
     <t xml:space="preserve">     But if any have done wrong And have thereafter substituted Good to take the place of evil  Truly  I am Oft Forgiving  Most Merciful </t>
@@ -9484,7 +9484,7 @@
     <t xml:space="preserve">   And Solomon was David s heir  He said     O ye people   We have been taught the speech Of Birds  and on us Has been bestowed  a little  Of all things   this is Indeed Grace manifest  from God    </t>
   </si>
   <si>
-    <t xml:space="preserve">   And before Solomon were marshalled His hosts —of Jinns and men And birds  and they were all Kept in order and ranks </t>
+    <t xml:space="preserve">   And before Solomon were marshalled His hosts  of Jinns and men And birds  and they were all Kept in order and ranks </t>
   </si>
   <si>
     <t xml:space="preserve">   At length  when they came To a  lowly  valley of ants  One of the ants said     O ye ants  get into Your habitations  lest Solomon And his hosts crush you  Under foot  without knowing it  </t>
@@ -9505,13 +9505,13 @@
     <t xml:space="preserve">     I found  there  a woman Ruling over them and provided With every requisite   and she Has a magnificent throne </t>
   </si>
   <si>
-    <t xml:space="preserve">     I found her and her people Worshipping the sun besides God   Satan has made their deeds Seem pleasing in their eyes  And has kept them away From the Path —so They receive no guidance —</t>
+    <t xml:space="preserve">     I found her and her people Worshipping the sun besides God   Satan has made their deeds Seem pleasing in their eyes  And has kept them away From the Path  so They receive no guidance  </t>
   </si>
   <si>
     <t xml:space="preserve">      Kept them away from the Path   That they should not worship God  Who brings to light What is hidden in the heavens And the earth  and knows What ye hide and what Ye reveal </t>
   </si>
   <si>
-    <t xml:space="preserve">     God  —there is no god But He  —Lord of the Throne Supreme    </t>
+    <t xml:space="preserve">     God   there is no god But He   Lord of the Throne Supreme    </t>
   </si>
   <si>
     <t xml:space="preserve">    Solomon  said     Soon shall we See whether thou hast told The truth or lied  </t>
@@ -9520,7 +9520,7 @@
     <t xml:space="preserve">     Go thou  with this letter Of mine  and deliver it To them   then draw back From them  and  wait to  see What answer they return   </t>
   </si>
   <si>
-    <t xml:space="preserve">    The Queen  said     Ye chiefs   Here is—delivered to me— A letter worthy of respect </t>
+    <t xml:space="preserve">    The Queen  said     Ye chiefs   Here is delivered to me  A letter worthy of respect </t>
   </si>
   <si>
     <t xml:space="preserve">     It is from Solomon  and is  As follows      In the name Of God  Most Gracious  Most Merciful  </t>
@@ -9553,7 +9553,7 @@
     <t xml:space="preserve">   Said an  Ifrīt  of the Jinns     I will bring it to thee Before thou rise from thy Council   indeed I have Full strength for the purpose  And may be trusted  </t>
   </si>
   <si>
-    <t xml:space="preserve">   Said one who had knowledge Of the Book     I will Bring it to thee within The twinkling of an eye     Then when  Solomon  saw it Placed firmly before him  He said     This is By the grace of my Lord  — To test me whether I am Grateful or ungrateful   And if any is grateful  Truly his gratitude is  a gain  For his own soul   but if Any is ungrateful  truly My Lord is Free of all Needs  Supreme in Honour    </t>
+    <t xml:space="preserve">   Said one who had knowledge Of the Book     I will Bring it to thee within The twinkling of an eye     Then when  Solomon  saw it Placed firmly before him  He said     This is By the grace of my Lord    To test me whether I am Grateful or ungrateful   And if any is grateful  Truly his gratitude is  a gain  For his own soul   but if Any is ungrateful  truly My Lord is Free of all Needs  Supreme in Honour    </t>
   </si>
   <si>
     <t xml:space="preserve">   He said     Transform her throne Out of all recognition by her   Let us see whether she Is guided  to the truth  Or is one of those who Receive no guidance  </t>
@@ -9586,10 +9586,10 @@
     <t xml:space="preserve">   They plotted and planned  But We too planned  Even while they perceived it not </t>
   </si>
   <si>
-    <t xml:space="preserve">   Then see what was the end Of their plot  —this  That We destroyed them And their people  all  of them  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Now such were their houses — In utter ruin —because They practiced wrong doing  Verily in this is a Sign For people of knowledge </t>
+    <t xml:space="preserve">   Then see what was the end Of their plot   this  That We destroyed them And their people  all  of them  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Now such were their houses   In utter ruin  because They practiced wrong doing  Verily in this is a Sign For people of knowledge </t>
   </si>
   <si>
     <t xml:space="preserve">   And We saved those Who believed and practiced Righteousness </t>
@@ -9610,7 +9610,7 @@
     <t xml:space="preserve">   And We rained down on them A shower  of brimstone    And evil was the shower On those who were admonished  But heeded not      </t>
   </si>
   <si>
-    <t xml:space="preserve">   Say   Praise be to God  And Peace on His servants Whom He has chosen  For His Message    Who  Is better  —God or The false gods they associate  With Him   </t>
+    <t xml:space="preserve">   Say   Praise be to God  And Peace on His servants Whom He has chosen  For His Message    Who  Is better   God or The false gods they associate  With Him   </t>
   </si>
   <si>
     <t xml:space="preserve">   Or  who has created The heavens and the earth  And who sends you down Rain from the sky   Yea  with it We cause To grow well planted orchards Full of beauty and delight   It is not in your power To cause the growth Of the trees in them   Can there be Another  god besides God   Nay  they are a people Who swerve from justice </t>
@@ -9622,7 +9622,7 @@
     <t xml:space="preserve">   Or  who listens to the  soul  Distressed when it calls On Him  and who relieves Its suffering  and makes you  Mankind  inheritors of the earth    Can there be another  god Besides God   Little it is That ye heed  </t>
   </si>
   <si>
-    <t xml:space="preserve">   Or  who guides you Through the depths of darkness On land and sea  and who Sends the winds as heralds Of glad tidings  going before His Mercy    Can there be Another  god besides God  — High is God above what They associate with Him  </t>
+    <t xml:space="preserve">   Or  who guides you Through the depths of darkness On land and sea  and who Sends the winds as heralds Of glad tidings  going before His Mercy    Can there be Another  god besides God    High is God above what They associate with Him  </t>
   </si>
   <si>
     <t xml:space="preserve">   Or  who originates Creation  Then repeats it  And who gives you sustenance From heaven and earth    Can there be another  god Besides God   Say    Bring forth Your argument  if ye Are telling the truth    </t>
@@ -9634,10 +9634,10 @@
     <t xml:space="preserve">   Still less can their knowledge Comprehend the Hereafter   nay They are in doubt and uncertainty Thereanent   nay  they are blind Thereunto     </t>
   </si>
   <si>
-    <t xml:space="preserve">   The Unbelievers say     What   When we become dust — We and our fathers —shall we Really be raised  from the dead   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">     It is true we were promised This —we and our fathers Before  us    these are nothing But tales of the ancients  </t>
+    <t xml:space="preserve">   The Unbelievers say     What   When we become dust   We and our fathers  shall we Really be raised  from the dead   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     It is true we were promised This  we and our fathers Before  us    these are nothing But tales of the ancients  </t>
   </si>
   <si>
     <t xml:space="preserve">   Say     Go ye through the earth And see what has been The end of those guilty  Of sin   </t>
@@ -9682,7 +9682,7 @@
     <t xml:space="preserve">   And when the Word is Fulfilled against them  the unjust   We shall produce from the earth A Beast to  face  them   He will speak to them  For that mankind did not Believe with assurance In Our Signs    </t>
   </si>
   <si>
-    <t xml:space="preserve">   One Day We shall gather Together from every people A troop of those who reject Our Signs  and they shall Be kept in ranks —</t>
+    <t xml:space="preserve">   One Day We shall gather Together from every people A troop of those who reject Our Signs  and they shall Be kept in ranks  </t>
   </si>
   <si>
     <t xml:space="preserve">   Until  when they come  Before the Judgment seat    God  will say     Did ye Reject My Signs  though ye Comprehended them not In knowledge  or what Was it ye did    </t>
@@ -9694,7 +9694,7 @@
     <t xml:space="preserve">   See they not that We Have made the Night For them to rest in And the Day to give Them light   Verily in this Are Signs for any people That believe  </t>
   </si>
   <si>
-    <t xml:space="preserve">   And the Day that the Trumpet Will be sounded—then will be Smitten with terror those Who are in the heavens  And those who are on earth  Except such as God will please  To exempt    and all shall come To His  Presence  as beings Conscious of their lowliness </t>
+    <t xml:space="preserve">   And the Day that the Trumpet Will be sounded then will be Smitten with terror those Who are in the heavens  And those who are on earth  Except such as God will please  To exempt    and all shall come To His  Presence  as beings Conscious of their lowliness </t>
   </si>
   <si>
     <t xml:space="preserve">   Thou seest the mountains And thinkest them firmly fixed   But they shall pass away As the clouds pass away    Such is  the artistry of God  Who disposes of all things In perfect order   for He is Wellacquainted with all that ye do </t>
@@ -9706,7 +9706,7 @@
     <t xml:space="preserve">   And if any do evil  Their faces will be thrown Headlong into the Fire     Do ye receive a reward Other than that which ye Have earned by your deeds    </t>
   </si>
   <si>
-    <t xml:space="preserve">   For me  I have been Commanded to serve the Lord Of this City  Him Who has Sanctified it and to Whom  Belong  all things   And I am commanded To be of those who bow In Islam to God s Will —</t>
+    <t xml:space="preserve">   For me  I have been Commanded to serve the Lord Of this City  Him Who has Sanctified it and to Whom  Belong  all things   And I am commanded To be of those who bow In Islam to God s Will  </t>
   </si>
   <si>
     <t xml:space="preserve">   And to rehearse the Qur ān   And if any accept guidance  They do it for the good Of their own souls  And if any stray  say     I am only a Warner   </t>
@@ -9751,7 +9751,7 @@
     <t xml:space="preserve">   When he reached full age  And was firmly established  In life   We bestowed on him Wisdom and knowledge   for thus Do We reward those Who do good </t>
   </si>
   <si>
-    <t xml:space="preserve">   And he entered the City At a time when its people Were not watching   and he Found there two men fighting — One of his own religion  And the other  of his foes  Now the man of his own Religion appealed to him Against his foe  and Moses Struck him with his fist And made an end of him  He said     This is a work Of Evil  Satan    for he is An enemy that manifestly Misleads    </t>
+    <t xml:space="preserve">   And he entered the City At a time when its people Were not watching   and he Found there two men fighting   One of his own religion  And the other  of his foes  Now the man of his own Religion appealed to him Against his foe  and Moses Struck him with his fist And made an end of him  He said     This is a work Of Evil  Satan    for he is An enemy that manifestly Misleads    </t>
   </si>
   <si>
     <t xml:space="preserve">   He prayed     O my Lord   I have indeed wronged my soul   Do Thou then forgive me     So  God  forgave him   for He Is the Oft Forgiving  Most Merciful </t>
@@ -9808,10 +9808,10 @@
     <t xml:space="preserve">   He said     O my Lord   I have slain a man Among them  and I fear Lest they slay me </t>
   </si>
   <si>
-    <t xml:space="preserve">     And my brother Aaron— He is more eloquent in speech Than I   so send him With me as a helper  To confirm  and strengthen  me   For I fear that they may Accuse me of falsehood  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   He said     We will certainly Strengthen thy arm through Thy brother  and invest you both With authority  so they Shall not be able to Touch you   with Our Signs Shall ye triumph —you two As well as those Who follow you  </t>
+    <t xml:space="preserve">     And my brother Aaron  He is more eloquent in speech Than I   so send him With me as a helper  To confirm  and strengthen  me   For I fear that they may Accuse me of falsehood  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   He said     We will certainly Strengthen thy arm through Thy brother  and invest you both With authority  so they Shall not be able to Touch you   with Our Signs Shall ye triumph  you two As well as those Who follow you  </t>
   </si>
   <si>
     <t xml:space="preserve">   When Moses came to them With Our Clear Signs  they said     This is nothing but sorcery Faked up   never did we Hear the like among our fathers Of old    </t>
@@ -9823,7 +9823,7 @@
     <t xml:space="preserve">   Pharaoh said     O Chiefs   No god do I know for you But myself   therefore  O Hāmān   light me a  kiln To bake bricks  out of clay  And build me a lofty Palace  that I may mount up To the god of Moses   But as far as I am concerned  I think  Moses  is a liar    </t>
   </si>
   <si>
-    <t xml:space="preserve">   And he was arrogant and insolent In the land  beyond reason — He and his hosts   they thought That they would not have To return to Us  </t>
+    <t xml:space="preserve">   And he was arrogant and insolent In the land  beyond reason   He and his hosts   they thought That they would not have To return to Us  </t>
   </si>
   <si>
     <t xml:space="preserve">   So We seized him And his hosts  and We Flung them into the sea   Now behold what was the End Of those who did wrong  </t>
@@ -9847,7 +9847,7 @@
     <t xml:space="preserve">   Nor wast thou at the side Of  the Mountain of  Ṭūr When We called  to Moses   Yet  art thou sent  As a Mercy from thy Lord  To give warning to a people To whom no warner had come Before thee   in order that They may receive admonition </t>
   </si>
   <si>
-    <t xml:space="preserve">   If  We had  not  sent thee To the Quraish  —in case A calamity should seize them For  the deeds  that their hands Have sent forth  they might say     Our Lord   why didst Thou not Send us an apostle   We Should then have followed Thy Signs and been amongst Those who believe    </t>
+    <t xml:space="preserve">   If  We had  not  sent thee To the Quraish   in case A calamity should seize them For  the deeds  that their hands Have sent forth  they might say     Our Lord   why didst Thou not Send us an apostle   We Should then have followed Thy Signs and been amongst Those who believe    </t>
   </si>
   <si>
     <t xml:space="preserve">   But  now   when the Truth Has come to them from Ourselves  They say    Why are not  Signs  sent to him  like Those which were sent to Moses     Do they not then reject  The Signs  which were formerly Sent to Moses   They say     Two kinds of sorcery  Each assisting the other     And they say     For us  We reject all  such things     </t>
@@ -9862,7 +9862,7 @@
     <t xml:space="preserve">   Now have We caused The Word to reach them Themselves  in order that They may receive admonition </t>
   </si>
   <si>
-    <t xml:space="preserve">   Those to whom We sent The Book before this —they Do believe in this  Revelation   </t>
+    <t xml:space="preserve">   Those to whom We sent The Book before this  they Do believe in this  Revelation   </t>
   </si>
   <si>
     <t xml:space="preserve">   And when it is recited To them  they say     We Believe therein  for it is The Truth from our Lord   Indeed we have been Muslims  Bowing to God s Will  From before this  </t>
@@ -9877,10 +9877,10 @@
     <t xml:space="preserve">   It is true thou wilt not Be able to guide every one Whom thou lovest   but God Guides those whom He will  And He knows best those Who receive guidance </t>
   </si>
   <si>
-    <t xml:space="preserve">   They say     If we were To follow the guidance with thee  We should be snatched away From our land   Have We not Established for them a secure Sanctuary  to which are brought As tribute fruits of all kinds — A provision from Ourselves   But most of them understand not </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   And how many populations We destroyed  which exulted In their life  of ease and plenty    Now those habitations of theirs  After them  are deserted — All but a  miserable  few   And We are their heirs  </t>
+    <t xml:space="preserve">   They say     If we were To follow the guidance with thee  We should be snatched away From our land   Have We not Established for them a secure Sanctuary  to which are brought As tribute fruits of all kinds   A provision from Ourselves   But most of them understand not </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   And how many populations We destroyed  which exulted In their life  of ease and plenty    Now those habitations of theirs  After them  are deserted   All but a  miserable  few   And We are their heirs  </t>
   </si>
   <si>
     <t xml:space="preserve">   Nor was thy Lord the one To destroy a population until He had sent to its Center An apostle  rehearsing to them Our Signs   nor are We Going to destroy a population Except when its members Practice iniquity </t>
@@ -9889,10 +9889,10 @@
     <t xml:space="preserve">   The  material  things which Ye are given are but The conveniences of this life And the glitter thereof   But that which is with God Is better and more enduring   Will ye not then be wise     </t>
   </si>
   <si>
-    <t xml:space="preserve">   Are  these two  alike  — One to whom We have made A goodly promise  and who Is going to reach its  fulfilment   And one to whom We have Given the good things of this Life  but who  on the Day Of Judgment  is to be among Those brought up  for punishment   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   That Day  God  will Call to them  and say     Where are My   partners    — Whom ye imagined  to be such     </t>
+    <t xml:space="preserve">   Are  these two  alike    One to whom We have made A goodly promise  and who Is going to reach its  fulfilment   And one to whom We have Given the good things of this Life  but who  on the Day Of Judgment  is to be among Those brought up  for punishment   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   That Day  God  will Call to them  and say     Where are My   partners      Whom ye imagined  to be such     </t>
   </si>
   <si>
     <t xml:space="preserve">   Those against whom the charge Will be proved  will say     Our Lord   These are the ones Whom we led astray   We led them astray  as we Were astray ourselves   we free Ourselves  from them  in Thy presence   It was not us they worshipped  </t>
@@ -9925,10 +9925,10 @@
     <t xml:space="preserve">   Say   See ye   If God Were to make the Day Perpetual over you to the Day Of Judgment  what god Is there other than God  Who can give you a Night In which ye can rest   Will ye not then see  </t>
   </si>
   <si>
-    <t xml:space="preserve">   It is out of His Mercy That He has made for you Night and Day —that ye May rest therein  and that Ye may seek of His Grace  — And in order that ye May be grateful </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   The Day that He will Call on them  He will say     Where are My   partners    — Whom ye imagined  to be such     </t>
+    <t xml:space="preserve">   It is out of His Mercy That He has made for you Night and Day  that ye May rest therein  and that Ye may seek of His Grace    And in order that ye May be grateful </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   The Day that He will Call on them  He will say     Where are My   partners      Whom ye imagined  to be such     </t>
   </si>
   <si>
     <t xml:space="preserve">   And from each people Shall We draw a witness  And We shall say     Produce your Proof     then shall they Know that the Truth is in God  alone   and the  lies  Which they invented will Leave them in the lurch    </t>
@@ -9940,7 +9940,7 @@
     <t xml:space="preserve">     But seek  with the  wealth  Which God has bestowed on thee  The Home of the Hereafter  Nor forget thy portion in this World   but do thou good  As God has been good To thee  and seek not  Occasions for  mischief in the land   For God loves not those Who do mischief  </t>
   </si>
   <si>
-    <t xml:space="preserve">   He said     This has been given To me because of a certain Knowledge which I have   Did he not know that God Had destroyed  before him   Whole  generations —which were Superior to him in strength And greater in amount  Of riches  they had collected   But the wicked are not Called  immediately  to account For their sins </t>
+    <t xml:space="preserve">   He said     This has been given To me because of a certain Knowledge which I have   Did he not know that God Had destroyed  before him   Whole  generations  which were Superior to him in strength And greater in amount  Of riches  they had collected   But the wicked are not Called  immediately  to account For their sins </t>
   </si>
   <si>
     <t xml:space="preserve">   So he went forth among His people in the  pride Of his worldly  glitter  Said those whose aim is The Life of this World     Oh   that we had the like Of what Qārūn has got   For he is truly a lord Of mighty good fortune    </t>
@@ -9991,13 +9991,13 @@
     <t xml:space="preserve">   And if any strive  with might And main   they do so For their own souls   For God is free of all Needs from all creation </t>
   </si>
   <si>
-    <t xml:space="preserve">   Those who believe and work Righteous deeds —from them Shall We blot out all evil  That may be  in them  And We shall reward Them according to The best of their deeds </t>
+    <t xml:space="preserve">   Those who believe and work Righteous deeds  from them Shall We blot out all evil  That may be  in them  And We shall reward Them according to The best of their deeds </t>
   </si>
   <si>
     <t xml:space="preserve">   We have enjoined on man Kindness to parents   but if They  either of them  strive  To force  thee to join With Me  in worship  Anything of which thou hast No knowledge  obey them not  Ye have  all  to return To Me  and I will Tell you  the truth  Of all that ye did </t>
   </si>
   <si>
-    <t xml:space="preserve">   And those who believe And work righteous deeds — Them shall We admit To the company of the Righteous </t>
+    <t xml:space="preserve">   And those who believe And work righteous deeds   Them shall We admit To the company of the Righteous </t>
   </si>
   <si>
     <t xml:space="preserve">   Then there are among men Such as say    We believe In God     but when they suffer Affliction in  the cause of  God  They treat men s oppression As if it were the Wrath of God   And if help Comes  to thee  from thy Lord  They are sure to say    We have  always  been With you     Does not God Know best all that is In the hearts of all Creation  </t>
@@ -10018,7 +10018,7 @@
     <t xml:space="preserve">   But We saved him And the Companions Of the Ark  and We made The  Ark  a Sign For all Peoples  </t>
   </si>
   <si>
-    <t xml:space="preserve">   And  We also saved  Abraham   behold  he said To his people    Serve God And fear Him   that Will be best for you— If ye understand  </t>
+    <t xml:space="preserve">   And  We also saved  Abraham   behold  he said To his people    Serve God And fear Him   that Will be best for you  If ye understand  </t>
   </si>
   <si>
     <t xml:space="preserve">     For ye do worship idols Besides God  and ye invent Falsehood  The things that ye Worship besides God have No power to give you sustenance   Then seek ye sustenance From God  serve Him  And be grateful to Him   To Him will be your return </t>
@@ -10054,7 +10054,7 @@
     <t xml:space="preserve">   And  remember  Lūṭ   behold  He said to his people     Ye do commit lewdness  Such as no people in Creation  Ever  committed before you </t>
   </si>
   <si>
-    <t xml:space="preserve">     Do ye indeed approach men  And cut off the highway  — And practice wickedness  Even  in your councils     But his people gave no answer But this   they said     Bring us the Wrath of God If thou tellest the truth  </t>
+    <t xml:space="preserve">     Do ye indeed approach men  And cut off the highway    And practice wickedness  Even  in your councils     But his people gave no answer But this   they said     Bring us the Wrath of God If thou tellest the truth  </t>
   </si>
   <si>
     <t xml:space="preserve">   He said     O my Lord   Help Thou me against people Who do mischief       </t>
@@ -10063,7 +10063,7 @@
     <t xml:space="preserve">   When Our Messengers came To Abraham with the good news  They said     We are indeed Going to destroy the people Of this township   for truly They are  addicted to  crime  </t>
   </si>
   <si>
-    <t xml:space="preserve">   He said     But there is Lūṭ there   They said     Well do we know who Is there   we will certainly Save him and his following — Except his wife   she is Of those who lag behind    </t>
+    <t xml:space="preserve">   He said     But there is Lūṭ there   They said     Well do we know who Is there   we will certainly Save him and his following   Except his wife   she is Of those who lag behind    </t>
   </si>
   <si>
     <t xml:space="preserve">   And when Our Messengers Came to Lūṭ  he was grieved on their account  And felt himself powerless  To protect  them   but they said     Fear thou not  nor grieve   We are  here  to save thee And thy following  except Thy wife   she is Of those who lag behind </t>
@@ -10090,7 +10090,7 @@
     <t xml:space="preserve">   Each one of them We seized For his crime   of them  Against some We sent A violent tornado  with showers Of stones    some were caught By a  mighty  Blast   some We caused the earth To swallow up   and some We drowned  in the waters    It was not God Who Injured  or oppressed  them   They injured  and oppressed  Their own souls </t>
   </si>
   <si>
-    <t xml:space="preserve">   The parable of those who Take protectors other than God Is that of the Spider  Who builds  to itself  A house   but truly The flimsiest of houses Is the Spider s house  — If they but knew </t>
+    <t xml:space="preserve">   The parable of those who Take protectors other than God Is that of the Spider  Who builds  to itself  A house   but truly The flimsiest of houses Is the Spider s house    If they but knew </t>
   </si>
   <si>
     <t xml:space="preserve">   Verily God doth know Of  every thing  whatever That they call upon Besides Him   and He is Exalted  in power   Wise </t>
@@ -10126,22 +10126,22 @@
     <t xml:space="preserve">   Say     Enough is God For a Witness between me And you   He knows What is in the heavens And on earth  And it is Those who believe in vanities And reject God  that Will perish  in the end   </t>
   </si>
   <si>
-    <t xml:space="preserve">   They ask thee To hasten on the Punishment  For them    had it not been For a term  of respite  Appointed  the Punishment Would certainly have come To them   and it will Certainly reach them — Of a sudden  while they Perceive not  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   They ask thee To hasten on the Punishment   But  of a surety  Hell will encompass The rejecters of Faith  —</t>
+    <t xml:space="preserve">   They ask thee To hasten on the Punishment  For them    had it not been For a term  of respite  Appointed  the Punishment Would certainly have come To them   and it will Certainly reach them   Of a sudden  while they Perceive not  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   They ask thee To hasten on the Punishment   But  of a surety  Hell will encompass The rejecters of Faith   </t>
   </si>
   <si>
     <t xml:space="preserve">   On the Day that The Punishment shall cover them From above them and From below them  And  a Voice  shall say     Taste ye  the fruits  Of your deeds    </t>
   </si>
   <si>
-    <t xml:space="preserve">   O My servants who believe   Truly  spacious is My Earth   Therefore serve ye Me—  And Me alone   </t>
+    <t xml:space="preserve">   O My servants who believe   Truly  spacious is My Earth   Therefore serve ye Me   And Me alone   </t>
   </si>
   <si>
     <t xml:space="preserve">   Every soul shall have A taste of death   In the end to Us Shall ye be brought back </t>
   </si>
   <si>
-    <t xml:space="preserve">   But those who believe And work deeds of righteousness— To them shall We give A Home in Heaven — Lofty mansions beneath which flow rivers —to dwell therein For aye  — an excellent reward For those who do  good   </t>
+    <t xml:space="preserve">   But those who believe And work deeds of righteousness  To them shall We give A Home in Heaven   Lofty mansions beneath which flow rivers  to dwell therein For aye    an excellent reward For those who do  good   </t>
   </si>
   <si>
     <t xml:space="preserve">   Those who persevere in patience  And put their trust In their Lord and Cherisher </t>
@@ -10159,10 +10159,10 @@
     <t xml:space="preserve">   And if indeed thou ask them Who it is that sends down Rain from the sky  And gives life therewith To the earth after its death  They will certainly reply    God     Say    Praise be To God     But most Of them understand not    </t>
   </si>
   <si>
-    <t xml:space="preserve">   What is the life of this world But amusement and play   But verily the Home In the Hereafter —that is Life indeed  if they but knew </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Now if they embark On a boat  they call On God  making their devotion Sincerely  and exclusively  to Him   But when He has delivered Them safely to  dry  land  Behold  they give a share  Of their worship to others   —</t>
+    <t xml:space="preserve">   What is the life of this world But amusement and play   But verily the Home In the Hereafter  that is Life indeed  if they but knew </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Now if they embark On a boat  they call On God  making their devotion Sincerely  and exclusively  to Him   But when He has delivered Them safely to  dry  land  Behold  they give a share  Of their worship to others    </t>
   </si>
   <si>
     <t xml:space="preserve">   Disdaining ungratefully Our gifts  And giving themselves up To  worldly  enjoyment   But soon Will they know </t>
@@ -10174,19 +10174,19 @@
     <t xml:space="preserve">   And who does more wrong Than he who invents A lie against God Or rejects the Truth When it reaches Him   Is there not a home In Hell for those who Reject Faith  </t>
   </si>
   <si>
-    <t xml:space="preserve">   And those who strive In Our  Cause  —We will Certainly guide them To Our Paths   For verily God Is with those Who do right </t>
+    <t xml:space="preserve">   And those who strive In Our  Cause   We will Certainly guide them To Our Paths   For verily God Is with those Who do right </t>
   </si>
   <si>
     <t xml:space="preserve">   A  L  M </t>
   </si>
   <si>
-    <t xml:space="preserve">   The Roman Empire Has been defeated—</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   In a land close by   But they   even  after  This  defeat of theirs  Will soon be victorious—</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Within a few years  With God is the Decision  In the Past And in the Future   On that Day shall The Believers rejoice—</t>
+    <t xml:space="preserve">   The Roman Empire Has been defeated </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   In a land close by   But they   even  after  This  defeat of theirs  Will soon be victorious </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Within a few years  With God is the Decision  In the Past And in the Future   On that Day shall The Believers rejoice </t>
   </si>
   <si>
     <t xml:space="preserve">   With the help of God  He helps whom He will  And He is Exalted in Might  Most Merciful </t>
@@ -10216,13 +10216,13 @@
     <t xml:space="preserve">   No intercessor will they have Among their   Partners    And they will  themselves  Reject their   Partners   </t>
   </si>
   <si>
-    <t xml:space="preserve">   On the Day that The Hour will be established —That Day shall  all men  Be sorted out </t>
+    <t xml:space="preserve">   On the Day that The Hour will be established  That Day shall  all men  Be sorted out </t>
   </si>
   <si>
     <t xml:space="preserve">   Then those who have believed And worked righteous deeds  Shall be made happy In a Mead of Delight </t>
   </si>
   <si>
-    <t xml:space="preserve">   And those who have rejected Faith and falsely denied Our Signs and the meeting Of the Hereafter —such Shall be brought forth to Punishment </t>
+    <t xml:space="preserve">   And those who have rejected Faith and falsely denied Our Signs and the meeting Of the Hereafter  such Shall be brought forth to Punishment </t>
   </si>
   <si>
     <t xml:space="preserve">   So  give  glory to God  When ye reach eventide And when ye rise In the morning  </t>
@@ -10234,7 +10234,7 @@
     <t xml:space="preserve">   It is He Who brings out The living from the dead  And brings out the dead From the living  and Who Gives life to the earth After it is dead   And thus shall ye be Brought out  from the dead     </t>
   </si>
   <si>
-    <t xml:space="preserve">   Among His Signs is this  That He created you From dust   and then — Behold  ye are men Scattered  far and wide   </t>
+    <t xml:space="preserve">   Among His Signs is this  That He created you From dust   and then   Behold  ye are men Scattered  far and wide   </t>
   </si>
   <si>
     <t xml:space="preserve">   And among His Signs Is this  that He created For you mates from among Yourselves  that ye may Dwell in tranquillity with them  And He has put love And mercy between your  hearts    Verily in that are Signs For those who reflect </t>
@@ -10267,13 +10267,13 @@
     <t xml:space="preserve">   So set thou thy face Steadily and truly to the Faith    Establish  God s handiwork according To the pattern on which He has made mankind   No change  let there be  In the work  wrought  By God   that is The standard Religion   But most among mankind Understand not </t>
   </si>
   <si>
-    <t xml:space="preserve">   Turn ye back in repentance To Him  and fear Him   Establish regular prayers  And be not ye among those Who join gods with God —</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Those who split up Their Religion  and become  Mere  Sects —each party Rejoicing in that which Is with itself  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   When trouble touches men  They cry to their Lord  Turning back to Him In repentance   but when He gives them a taste Of Mercy as from Himself  Behold  some of them Pay part worship to Other gods besides their Lord —</t>
+    <t xml:space="preserve">   Turn ye back in repentance To Him  and fear Him   Establish regular prayers  And be not ye among those Who join gods with God  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Those who split up Their Religion  and become  Mere  Sects  each party Rejoicing in that which Is with itself  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   When trouble touches men  They cry to their Lord  Turning back to Him In repentance   but when He gives them a taste Of Mercy as from Himself  Behold  some of them Pay part worship to Other gods besides their Lord  </t>
   </si>
   <si>
     <t xml:space="preserve">    As if  to show their ingratitude For the  favours  We have Bestowed on them   Then enjoy  your brief day    but soon Will ye know  your folly  </t>
@@ -10312,22 +10312,22 @@
     <t xml:space="preserve">   That He may reward those Who believe and work righteous Deeds  out of His Bounty  For He loves not those Who reject Faith </t>
   </si>
   <si>
-    <t xml:space="preserve">   Among His Signs is this  That He sends the Winds  as heralds of Glad Tidings  Giving you a taste Of His  Grace and  Mercy — That the ships may sail  Majestically  by His Command And that ye may seek Of His Bounty   in order That ye may be grateful </t>
+    <t xml:space="preserve">   Among His Signs is this  That He sends the Winds  as heralds of Glad Tidings  Giving you a taste Of His  Grace and  Mercy   That the ships may sail  Majestically  by His Command And that ye may seek Of His Bounty   in order That ye may be grateful </t>
   </si>
   <si>
     <t xml:space="preserve">   We did indeed send  Before thee  apostles To their  respective  peoples  And they came to them With Clear Signs   then  To those who transgressed  We meted out Retribution   And it was due from us To aid those who believed </t>
   </si>
   <si>
-    <t xml:space="preserve">   It is God Who sends the Winds  and they raise The Clouds   then does He Spread them in the sky As He wills  and break them Into fragments  until thou seest Rain drops issue from the midst Thereof   then when He has Made them reach such Of His servants as He wills  Behold  they do rejoice  —</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Even  though before they received  The rain —just before this— They were dumb with despair  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Then contemplate  O man    The memorials of God s Mercy  — How He gives life To the earth after Its death   verily the Same Will give life to the men Who are dead   for He Has power over all things </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   And if We  but  send A Wind from which They see  their tilth  Turn yellow —behold  They become  thereafter  Ungrateful  Unbelievers   </t>
+    <t xml:space="preserve">   It is God Who sends the Winds  and they raise The Clouds   then does He Spread them in the sky As He wills  and break them Into fragments  until thou seest Rain drops issue from the midst Thereof   then when He has Made them reach such Of His servants as He wills  Behold  they do rejoice   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Even  though before they received  The rain  just before this  They were dumb with despair  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Then contemplate  O man    The memorials of God s Mercy    How He gives life To the earth after Its death   verily the Same Will give life to the men Who are dead   for He Has power over all things </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   And if We  but  send A Wind from which They see  their tilth  Turn yellow  behold  They become  thereafter  Ungrateful  Unbelievers   </t>
   </si>
   <si>
     <t xml:space="preserve">   So verily thou canst not Make the dead to hear  Nor canst thou make The deaf to hear The call  when they show Their backs and turn away </t>
@@ -10342,7 +10342,7 @@
     <t xml:space="preserve">   On the Day that The Hour  of reckoning  Will be established  The transgressors will swear That they tarried not But an hour   thus were They used to being deluded  </t>
   </si>
   <si>
-    <t xml:space="preserve">   But those endued with knowledge And faith will say     Indeed ye did tarry  Within God s Decree  To the Day of Resur   And this is the Day Of Resur    but ye— Ye were not aware    </t>
+    <t xml:space="preserve">   But those endued with knowledge And faith will say     Indeed ye did tarry  Within God s Decree  To the Day of Resur   And this is the Day Of Resur    but ye  Ye were not aware    </t>
   </si>
   <si>
     <t xml:space="preserve">   So on that Day no excuse Of theirs will Avail the Transgressors  Nor will they be invited  then  To seek grace  by repentance  </t>
@@ -10357,10 +10357,10 @@
     <t xml:space="preserve">   So patiently persevere   for Verily the promise of God Is true   nor let those Shake thy firmness  who have  Themselves  no certainty of faith </t>
   </si>
   <si>
-    <t xml:space="preserve">   These are Verses Of the Wise Book —</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A Guide and a Mercy To the Doers of Good —</t>
+    <t xml:space="preserve">   These are Verses Of the Wise Book  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   A Guide and a Mercy To the Doers of Good  </t>
   </si>
   <si>
     <t xml:space="preserve">   Those who establish regular Prayer  And give regular Charity  And have  in their hearts  The assurance of the Hereafter </t>
@@ -10375,7 +10375,7 @@
     <t xml:space="preserve">   When Our Signs are rehearsed To such a one  he turns Away in arrogance  as if He heard them not  as if There were deafness in both His ears   announce to him A grievous Penalty </t>
   </si>
   <si>
-    <t xml:space="preserve">   For those who believe And work righteous deeds  There will be Gardens Of Bliss —</t>
+    <t xml:space="preserve">   For those who believe And work righteous deeds  There will be Gardens Of Bliss  </t>
   </si>
   <si>
     <t xml:space="preserve">   To dwell therein  The promise Of God is true   and He Is Exalted in power  Wise </t>
@@ -10441,10 +10441,10 @@
     <t xml:space="preserve">   Seest thou not that God merges Night into Day And He merges Day into Night   That He has subjected the sun And the moon  to His Law   Each running its course For a term appointed   and That God is well acquainted With all that ye do  </t>
   </si>
   <si>
-    <t xml:space="preserve">   That is because God is The  only  Reality  and because Whatever else they invoke Besides Him is Falsehood   And because God —He is The Most High  Most Great    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Seest thou not that The ships sail through The Ocean by the grace Of God  —that He may Show you of His Signs   Verily in this are Signs For all who constantly persevere And give thanks </t>
+    <t xml:space="preserve">   That is because God is The  only  Reality  and because Whatever else they invoke Besides Him is Falsehood   And because God  He is The Most High  Most Great    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Seest thou not that The ships sail through The Ocean by the grace Of God   that He may Show you of His Signs   Verily in this are Signs For all who constantly persevere And give thanks </t>
   </si>
   <si>
     <t xml:space="preserve">   When a wave covers them Like the canopy  of clouds   They call to God  Offering Him sincere devotion  But when He has delivered them Safely to land  there are Among them those that halt Between  right and wrong   But none reject Our Signs Except only a perfidious Ungrateful  wretch   </t>
@@ -10456,7 +10456,7 @@
     <t xml:space="preserve">   Verily the knowledge Of the Hour is With God  alone   It is He Who sends down Rain  and He Who knows What is in the wombs  Nor does anyone know What it is that he will Earn on the morrow   Nor does anyone know In what land he is To die  Verily with God Is full knowledge and He is acquainted  with all things  </t>
   </si>
   <si>
-    <t xml:space="preserve">    This is  the revelation Of the Book in which There is no doubt — From the Lord of the Worlds </t>
+    <t xml:space="preserve">    This is  the revelation Of the Book in which There is no doubt   From the Lord of the Worlds </t>
   </si>
   <si>
     <t xml:space="preserve">   Or do they say    He has forged it     Nay  it is the Truth From thy Lord  that thou Mayest admonish a people To whom no warner Has come before thee   In order that they May receive guidance </t>
@@ -10468,7 +10468,7 @@
     <t xml:space="preserve">   He rules  all  affairs From the heavens To the earth   in the end Will  all affairs  go up To Him  on a Day  The space whereof will be  As  a thousand years Of your reckoning </t>
   </si>
   <si>
-    <t xml:space="preserve">   Such is He  the Knower Of all things  hidden And open  the Exalted  In power   the Merciful  —</t>
+    <t xml:space="preserve">   Such is He  the Knower Of all things  hidden And open  the Exalted  In power   the Merciful   </t>
   </si>
   <si>
     <t xml:space="preserve">   He Who has made Everything which He has created Most Good   He began The creation of man With  nothing more than  clay </t>
@@ -10492,7 +10492,7 @@
     <t xml:space="preserve">   If We had so willed  We could certainly have brought Every soul its true guidance   But the Word from Me Will come true    I will Fill Hell with Jinns And men all together  </t>
   </si>
   <si>
-    <t xml:space="preserve">     Taste ye then—for ye Forgot the Meeting Of this Day of yours  And We too will Forget you—taste ye The Penalty of Eternity For your  evil  deeds    </t>
+    <t xml:space="preserve">     Taste ye then for ye Forgot the Meeting Of this Day of yours  And We too will Forget you taste ye The Penalty of Eternity For your  evil  deeds    </t>
   </si>
   <si>
     <t xml:space="preserve">   Only those believe In Our Signs  who  when They are recited to them  Fall down in adoration  And celebrate the praises Of their Lord  nor are they  Ever  puffed up with pride </t>
@@ -10501,7 +10501,7 @@
     <t xml:space="preserve">   Their limbs do forsake Their beds of sleep  the while They call on their Lord In Fear and Hope   And they spend  in charity  Out of the sustenance which We have bestowed on them </t>
   </si>
   <si>
-    <t xml:space="preserve">   Now no person knows What delights of the eye Are kept hidden  in reserve  For them—as a reward For their  good  Deeds </t>
+    <t xml:space="preserve">   Now no person knows What delights of the eye Are kept hidden  in reserve  For them as a reward For their  good  Deeds </t>
   </si>
   <si>
     <t xml:space="preserve">   Is then the man Who believes no better Than the man who is Rebellious and wicked   Not equal are they </t>
@@ -10618,13 +10618,13 @@
     <t xml:space="preserve">   And God turned back The Unbelievers for  all  Their fury   no advantage Did they gain   and enough Is God for the Believers In their fight  And God Is full of Strength  Able To enforce His Will </t>
   </si>
   <si>
-    <t xml:space="preserve">   And those of the people Of the Book who aided Them— God did take them Down from their strongholds And cast terror into Their hearts   so that  Some ye slew  and some Ye made prisoners </t>
+    <t xml:space="preserve">   And those of the people Of the Book who aided Them  God did take them Down from their strongholds And cast terror into Their hearts   so that  Some ye slew  and some Ye made prisoners </t>
   </si>
   <si>
     <t xml:space="preserve">   And He made you heirs Of their lands  their houses  And their goods  And of a land which Ye had not frequented  Before   And God has Power over all things    </t>
   </si>
   <si>
-    <t xml:space="preserve">   O Prophet   say To thy Consorts     If it be that ye desire The life of this world  And its glitter — then come   I will provide for your Enjoyment and set you free In a handsome manner </t>
+    <t xml:space="preserve">   O Prophet   say To thy Consorts     If it be that ye desire The life of this world  And its glitter   then come   I will provide for your Enjoyment and set you free In a handsome manner </t>
   </si>
   <si>
     <t xml:space="preserve">     But if ye seek God And His Apostle  and The Home of the Hereafter  Verily God has prepared For the well doers amongst you A great reward  </t>
@@ -10633,7 +10633,7 @@
     <t xml:space="preserve">   O Consorts of the Prophet If any of you were guilty Of evident unseemly conduct  The Punishment would be Doubled to her  and that Is easy for God </t>
   </si>
   <si>
-    <t xml:space="preserve">   But any of you that is Devout in the service of God and His Apostle  And works righteousness — To her shall We grant Her reward twice   and We Have prepared for her A generous Sustenance </t>
+    <t xml:space="preserve">   But any of you that is Devout in the service of God and His Apostle  And works righteousness   To her shall We grant Her reward twice   and We Have prepared for her A generous Sustenance </t>
   </si>
   <si>
     <t xml:space="preserve">   O Consorts of the Prophet   Ye are not like any Of the  other  women   If ye do fear  God   Be not too complaisant Of speech  lest one In whose heart is A disease should be moved With desire   but speak ye A speech  that is  just </t>
@@ -10645,7 +10645,7 @@
     <t xml:space="preserve">   And recite what is Rehearsed to you in your Homes  of the Signs of God And His Wisdom   For God understands The finest mysteries and Is well acquainted  with them     </t>
   </si>
   <si>
-    <t xml:space="preserve">   For Muslim men and women — For believing men and women  For devout men and women  For true men and women  For men and women who are Patient and constant  for men And women who humble themselves  For men and women who give In charity  for men and women Who fast  and deny themselves   For men and women who Guard their chastity  and For men and women who Engage much in God s praise — For them has God prepared Forgiveness and great reward </t>
+    <t xml:space="preserve">   For Muslim men and women   For believing men and women  For devout men and women  For true men and women  For men and women who are Patient and constant  for men And women who humble themselves  For men and women who give In charity  for men and women Who fast  and deny themselves   For men and women who Guard their chastity  and For men and women who Engage much in God s praise   For them has God prepared Forgiveness and great reward </t>
   </si>
   <si>
     <t xml:space="preserve">   It is not fitting For a Believer  man or woman  When a matter has been decided By God and His Apostle  To have any option About their decision   If anyone disobeys God And His Apostle  he is indeed On a clearly wrong Path </t>
@@ -10675,7 +10675,7 @@
     <t xml:space="preserve">   Their salutation on the Day They meet Him will be   peace       and He has Prepared for them A generous Reward </t>
   </si>
   <si>
-    <t xml:space="preserve">   O Prophet   Truly We Have sent thee as A Witness  a Bearer Of Glad Tidings  And a Warner —</t>
+    <t xml:space="preserve">   O Prophet   Truly We Have sent thee as A Witness  a Bearer Of Glad Tidings  And a Warner  </t>
   </si>
   <si>
     <t xml:space="preserve">   And as one who invites To God s  Grace  by His leave  And as a Lamp Spreading Light </t>
@@ -10690,16 +10690,16 @@
     <t xml:space="preserve">   O ye who believe   When ye marry believing women  And then divorce them Before ye have touched them  No period of  Iddat Have ye to count In respect of them   So give them a present  And set them free In a handsome manner </t>
   </si>
   <si>
-    <t xml:space="preserve">   O Prophet   We have Made lawful to thee Thy wives to whom thou Hast paid their dowers   And those whom thy Right hand possesses out of The prisoners of war whom God has assigned to thee   And daughters of thy paternal Uncles and aunts  and daughters Of thy maternal uncles And aunts  who migrated  From Mecca  with thee   And any believing woman Who dedicates her soul To the Prophet if the Prophet Wishes to wed her  — this Only for thee  and not For the Believers  at large    We know what We have Appointed for them as to Their wives and the captives Whom their right hands Possess  — in order that There should be no difficulty For thee  And God is Oft Forgiving  Most Merciful </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Thou mayest defer  the turn Of  any of them that thou Pleasest  and thou mayest receive Any thou pleasest   and there Is no blame on thee if Thou invite one whose  turn  Thou hadst set aside  This were nigher to The cooling of their eyes  The prevention of their grief  And their satisfaction— That of all of them— With that which thou Hast to give them   And God knows  all  That is in your hearts   And God is All Knowing  Most Forbearing </t>
+    <t xml:space="preserve">   O Prophet   We have Made lawful to thee Thy wives to whom thou Hast paid their dowers   And those whom thy Right hand possesses out of The prisoners of war whom God has assigned to thee   And daughters of thy paternal Uncles and aunts  and daughters Of thy maternal uncles And aunts  who migrated  From Mecca  with thee   And any believing woman Who dedicates her soul To the Prophet if the Prophet Wishes to wed her    this Only for thee  and not For the Believers  at large    We know what We have Appointed for them as to Their wives and the captives Whom their right hands Possess    in order that There should be no difficulty For thee  And God is Oft Forgiving  Most Merciful </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Thou mayest defer  the turn Of  any of them that thou Pleasest  and thou mayest receive Any thou pleasest   and there Is no blame on thee if Thou invite one whose  turn  Thou hadst set aside  This were nigher to The cooling of their eyes  The prevention of their grief  And their satisfaction  That of all of them  With that which thou Hast to give them   And God knows  all  That is in your hearts   And God is All Knowing  Most Forbearing </t>
   </si>
   <si>
     <t xml:space="preserve">   It is not lawful for thee  To marry more  women After this  nor to change Them for  other  wives  Even though their beauty Attract thee except any Thy right hand should Possess  as handmaidens    And God doth watch Over all things    </t>
   </si>
   <si>
-    <t xml:space="preserve">   O ye who Believe   Enter not the Prophet s houses — Until leave is given you — for a meal   and then  Not  so early as  to wait For its preparation   but when Ye are invited  enter   And when ye have taken Your meal  disperse  Without seeking familiar talk  Such  behaviour  annoys The Prophet   he is ashamed To dismiss you but God is not ashamed  to tell you  the truth  And when ye Ask  his ladies  For anything ye want  Ask them from before A screen   that makes For greater purity for Your hearts and for theirs  Nor is it right for you That ye should annoy God s Apostle  or that Ye should marry his widows After him at any time  Truly such a thing is In God s sight an enormity </t>
+    <t xml:space="preserve">   O ye who Believe   Enter not the Prophet s houses   Until leave is given you   for a meal   and then  Not  so early as  to wait For its preparation   but when Ye are invited  enter   And when ye have taken Your meal  disperse  Without seeking familiar talk  Such  behaviour  annoys The Prophet   he is ashamed To dismiss you but God is not ashamed  to tell you  the truth  And when ye Ask  his ladies  For anything ye want  Ask them from before A screen   that makes For greater purity for Your hearts and for theirs  Nor is it right for you That ye should annoy God s Apostle  or that Ye should marry his widows After him at any time  Truly such a thing is In God s sight an enormity </t>
   </si>
   <si>
     <t xml:space="preserve">   Whether ye reveal anything Or conceal it  verily God has full knowledge Of all things </t>
@@ -10711,7 +10711,7 @@
     <t xml:space="preserve">   God and His Angels Send blessings on the Prophet   O ye that believe   Send ye blessings on him  And salute him With all respect </t>
   </si>
   <si>
-    <t xml:space="preserve">   Those who annoy God and His Apostle— God has cursed them In this world and In the Hereafter  And has prepared for them A humiliating Punishment </t>
+    <t xml:space="preserve">   Those who annoy God and His Apostle  God has cursed them In this world and In the Hereafter  And has prepared for them A humiliating Punishment </t>
   </si>
   <si>
     <t xml:space="preserve">   And those who annoy Believing men and women Undeservedly  bear  on themselves  A calumny and a glaring sin    </t>
@@ -10729,10 +10729,10 @@
     <t xml:space="preserve">    Such was  the practice  Approved  of God among those Who lived aforetime   No change wilt thou find In the practice  approved  Of God </t>
   </si>
   <si>
-    <t xml:space="preserve">   Men ask thee concerning The Hour   say    The knowledge Thereof is with God  alone      And what will make thee Understand  —Perchance The Hour is nigh  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Verily God has cursed The Unbelievers and prepared For them a Blazing Fire —</t>
+    <t xml:space="preserve">   Men ask thee concerning The Hour   say    The knowledge Thereof is with God  alone      And what will make thee Understand   Perchance The Hour is nigh  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Verily God has cursed The Unbelievers and prepared For them a Blazing Fire  </t>
   </si>
   <si>
     <t xml:space="preserve">   To dwell therein for ever   No protector will they find  Nor helper </t>
@@ -10756,7 +10756,7 @@
     <t xml:space="preserve">   That He may make Your conduct whole and sound And forgive you your sins   He that obeys God And His Apostle  has already Attained the highest Achievement </t>
   </si>
   <si>
-    <t xml:space="preserve">   We did indeed offer The Trust to the Heavens And the Earth And the Mountains   But they refused To undertake it  Being afraid thereof   But man undertook it  — He was indeed unjust And foolish  —</t>
+    <t xml:space="preserve">   We did indeed offer The Trust to the Heavens And the Earth And the Mountains   But they refused To undertake it  Being afraid thereof   But man undertook it    He was indeed unjust And foolish   </t>
   </si>
   <si>
     <t xml:space="preserve">    With the result  that God has to punish The Hypocrites  men and women  And the Unbelievers  men And women  and God turns In Mercy to the Believers  Men and women   for God Is Oft Forgiving  Most Merciful </t>
@@ -10768,28 +10768,28 @@
     <t xml:space="preserve">   He knows all that goes Into the earth  and all that Comes out thereof   all that Comes down from the sky And all that ascends thereto   And He is the Most Merciful  The Oft Forgiving </t>
   </si>
   <si>
-    <t xml:space="preserve">   The Unbelievers say    Never to us will come The Hour     say    Nay   But most surely  By my Lord  it will come Upon you  —by Him Who knows the unseen — From Whom is not hidden The least little atom In the Heavens or on earth   Nor is there anything less Than that  or greater  but Is in the Record Perspicuous  </t>
+    <t xml:space="preserve">   The Unbelievers say    Never to us will come The Hour     say    Nay   But most surely  By my Lord  it will come Upon you   by Him Who knows the unseen   From Whom is not hidden The least little atom In the Heavens or on earth   Nor is there anything less Than that  or greater  but Is in the Record Perspicuous  </t>
   </si>
   <si>
     <t xml:space="preserve">   That He may reward Those who believe and work Deeds of righteousness   for such Is Forgiveness and a Sustenance Most Generous  </t>
   </si>
   <si>
-    <t xml:space="preserve">   But those who strive Against Our Signs  to frustrate Them —for such will be A Penalty —a Punishment Most humiliating </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   And those to whom Knowledge has come see That the  Revelation  sent down To thee from thy Lord— That is the Truth  And that it guides To the Path of the Exalted  In Might   Worthy Of all praise </t>
+    <t xml:space="preserve">   But those who strive Against Our Signs  to frustrate Them  for such will be A Penalty  a Punishment Most humiliating </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   And those to whom Knowledge has come see That the  Revelation  sent down To thee from thy Lord  That is the Truth  And that it guides To the Path of the Exalted  In Might   Worthy Of all praise </t>
   </si>
   <si>
     <t xml:space="preserve">   The Unbelievers say  In ridicule      Shall we Point out to you a man That will tell you  When ye are all scattered To pieces in disintegration  That ye shall  then be Raised  in a New Creation  </t>
   </si>
   <si>
-    <t xml:space="preserve">     Has he invented a falsehood Against God  or has A spirit  seized  him   — Nay  it is those who Believe not in the Hereafter  That are in  real  Penalty  And in farthest Error </t>
+    <t xml:space="preserve">     Has he invented a falsehood Against God  or has A spirit  seized  him     Nay  it is those who Believe not in the Hereafter  That are in  real  Penalty  And in farthest Error </t>
   </si>
   <si>
     <t xml:space="preserve">   See they not what is Before them and behind them  Of the sky and the earth   If We wished  We could Cause the earth to swallow Them up  or cause a piece Of the sky to fall upon them  Verily in this is a Sign For every devotee that Turns to God  in repentance     </t>
   </si>
   <si>
-    <t xml:space="preserve">   We bestowed Grace aforetime On David from Ourselves     O ye Mountains   sing ye Back the Praises of God With him   and ye birds  Also    And We made The iron soft for him  —</t>
+    <t xml:space="preserve">   We bestowed Grace aforetime On David from Ourselves     O ye Mountains   sing ye Back the Praises of God With him   and ye birds  Also    And We made The iron soft for him   </t>
   </si>
   <si>
     <t xml:space="preserve">    Commanding     Make thou Coats of mail  balancing well The rings of chain armour  And work ye righteousness   For be sure I see  Clearly  all that ye do  </t>
@@ -10804,7 +10804,7 @@
     <t xml:space="preserve">   Then  when We decreed  Solomon s  death  nothing showed them His death except a little Worm of the earth  which Kept  slowly  gnawing away At his staff   so when he Fell down  the Jinns saw Plainly that if they had Known the unseen  they Would not have tarried In the humiliating Penalty  Of their Task  </t>
   </si>
   <si>
-    <t xml:space="preserve">   There was  for Sabā  Aforetime  a Sign in their Home land—two Gardens To the right and to the left    Eat of the Sustenance  provided  By your Lord  and be grateful To Him   a territory fair and happy  And a Lord Oft Forgiving   </t>
+    <t xml:space="preserve">   There was  for Sabā  Aforetime  a Sign in their Home land two Gardens To the right and to the left    Eat of the Sustenance  provided  By your Lord  and be grateful To Him   a territory fair and happy  And a Lord Oft Forgiving   </t>
   </si>
   <si>
     <t xml:space="preserve">   But they turned away  From God   and We sent Against them the flood  Released  from the Dams  And We converted their two Garden  rows  into   gardens   Producing bitter fruit  And tamarisks  and some few  Stunted  Lote trees </t>
@@ -10822,10 +10822,10 @@
     <t xml:space="preserve">   And on them did Satan Prove true his idea  And they followed him  all But a Party that believed </t>
   </si>
   <si>
-    <t xml:space="preserve">   But he had no authority Over them —except that We Might test the man who Believes in the Hereafter From him who is in doubt Concerning it   and thy Lord Doth watch over all things    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Say     Call upon other  gods  Whom ye fancy  besides God   They have no power — Not the weight of an atom — In the heavens or on earth   No  sort of  share have they Therein  nor is any of them A helper to God </t>
+    <t xml:space="preserve">   But he had no authority Over them  except that We Might test the man who Believes in the Hereafter From him who is in doubt Concerning it   and thy Lord Doth watch over all things    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Say     Call upon other  gods  Whom ye fancy  besides God   They have no power   Not the weight of an atom   In the heavens or on earth   No  sort of  share have they Therein  nor is any of them A helper to God </t>
   </si>
   <si>
     <t xml:space="preserve">     No intercession can avail In His Presence  except for those For whom He has granted Permission  So far  is this The case  that  when terror Is removed from their hearts  At the Day of Judgement  then  Will they say    What is it That your Lord commanded    They will say    That which is True and just   and He is The Most High  Most Great    </t>
@@ -10870,7 +10870,7 @@
     <t xml:space="preserve">   Say     Verily my Lord enlarges And restricts the Provision To whom He pleases  but Most men understand not     </t>
   </si>
   <si>
-    <t xml:space="preserve">   It is not your wealth Nor your sons  that will Bring you nearer to Us In degree   but only Those who believe and work Righteousness—these are The ones for whom there is A multiplied Reward For their deeds  while Secure they  reside  In the dwellings on high  </t>
+    <t xml:space="preserve">   It is not your wealth Nor your sons  that will Bring you nearer to Us In degree   but only Those who believe and work Righteousness these are The ones for whom there is A multiplied Reward For their deeds  while Secure they  reside  In the dwellings on high  </t>
   </si>
   <si>
     <t xml:space="preserve">   Those who strive against Our Signs  to frustrate them  Will be given over Into Punishment </t>
@@ -10882,10 +10882,10 @@
     <t xml:space="preserve">   One day He will Gather them all together  And say to the angels    Was it you that these Men used to worship   </t>
   </si>
   <si>
-    <t xml:space="preserve">   They will say    Glory to Thee   Our  tie  is with Thee— As Protector—not with them  Nay  but they worshipped The Jinns   most of them Believed in them  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   So on that Day No power shall they have Over each other  for profit Or harm   and We shall Say to the wrong doers    Taste ye the Penalty Of the Fire —the which Ye were wont to deny   </t>
+    <t xml:space="preserve">   They will say    Glory to Thee   Our  tie  is with Thee  As Protector not with them  Nay  but they worshipped The Jinns   most of them Believed in them  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   So on that Day No power shall they have Over each other  for profit Or harm   and We shall Say to the wrong doers    Taste ye the Penalty Of the Fire  the which Ye were wont to deny   </t>
   </si>
   <si>
     <t xml:space="preserve">   When Our Clear Signs Are rehearsed to them  They say    This is only A man who wishes To hinder you from the  worship  Which your fathers practiced   And they say    This is Only a falsehood invented    And the Unbelievers say Of the Truth when it comes To them    This is nothing But evident magic   </t>
@@ -10897,13 +10897,13 @@
     <t xml:space="preserve">   And their predecessors rejected  The Truth    these have Not received a tenth Of what We had granted To those   yet when they rejected My apostles  how  terrible  Was My re   of them      </t>
   </si>
   <si>
-    <t xml:space="preserve">   Say     I do admonish you On one point   that ye Do stand up before God — It may be  in pairs  Or  it may be  singly — And reflect  within yourselves    Your Companion is not Possessed   he is no less Than a Warner to you  In face of a terrible Penalty  </t>
+    <t xml:space="preserve">   Say     I do admonish you On one point   that ye Do stand up before God   It may be  in pairs  Or  it may be  singly   And reflect  within yourselves    Your Companion is not Possessed   he is no less Than a Warner to you  In face of a terrible Penalty  </t>
   </si>
   <si>
     <t xml:space="preserve">   Say     No reward do I Ask of you   it is  all  In your interest   my reward Is only due from God   And He is Witness To all things  </t>
   </si>
   <si>
-    <t xml:space="preserve">   Say     Verily my Lord Doth cast the  mantle Of  Truth  over His servants  — He that has full knowledge Of  all  that is hidden  </t>
+    <t xml:space="preserve">   Say     Verily my Lord Doth cast the  mantle Of  Truth  over His servants    He that has full knowledge Of  all  that is hidden  </t>
   </si>
   <si>
     <t xml:space="preserve">   Say     The Truth has arrived  And Falsehood neither creates Anything new  nor restores Anything  </t>
@@ -10915,7 +10915,7 @@
     <t xml:space="preserve">   If thou couldst but see When they will quake With terror   but then There will be no escape  For them   and they will be Seized from a position  Quite  near </t>
   </si>
   <si>
-    <t xml:space="preserve">   And they will say    We do believe  now  In the  Truth      but how Could they receive  Faith  From a position  so  far off —</t>
+    <t xml:space="preserve">   And they will say    We do believe  now  In the  Truth      but how Could they receive  Faith  From a position  so  far off  </t>
   </si>
   <si>
     <t xml:space="preserve">   Seeing that they did reject Faith  entirely  before  and That they  continually  cast  Slanders  on the Unseen From a position far off  </t>
@@ -10924,7 +10924,7 @@
     <t xml:space="preserve">   And between them And their desires  Is placed a barrier  As was done in the past With their partisans   For they were indeed In suspicious  disquieting  doubt </t>
   </si>
   <si>
-    <t xml:space="preserve">Praise be to God  Who created  out of nothing  The heavens and the earth  Who made the angels Messengers with wings — Two  or three  or four  Pairs    He adds to Creation As He pleases   for God Has power over all things </t>
+    <t xml:space="preserve">Praise be to God  Who created  out of nothing  The heavens and the earth  Who made the angels Messengers with wings   Two  or three  or four  Pairs    He adds to Creation As He pleases   for God Has power over all things </t>
   </si>
   <si>
     <t xml:space="preserve">   What God out of His Mercy Doth bestow on mankind There is none can withhold   What He doth withhold  There is none can grant  Apart from Him   And He is the Exalted In Power  Full of Wisdom </t>
@@ -10951,13 +10951,13 @@
     <t xml:space="preserve">   It is God Who sends Forth the Winds  so that They raise up the Clouds  And We drive them To a Land that is dead  And revive the earth therewith After its death   even so  Will be  the Resur   </t>
   </si>
   <si>
-    <t xml:space="preserve">   If any do seek For glory and power — To God belong All glory and power  To Him mount up  All  Words of Purity   It is He Who exalts Each Deed of Righteousness  Those that lay Plots Of Evil — for them Is a Penalty terrible   And the plotting of such Will be void  of result  </t>
+    <t xml:space="preserve">   If any do seek For glory and power   To God belong All glory and power  To Him mount up  All  Words of Purity   It is He Who exalts Each Deed of Righteousness  Those that lay Plots Of Evil   for them Is a Penalty terrible   And the plotting of such Will be void  of result  </t>
   </si>
   <si>
     <t xml:space="preserve">   And God did create You from dust   Then from a sperm drop   Then He made you In pairs  And no female Conceives  or lays down  Her load   but with His Knowledge  Nor is a man Long lived granted length Of days  nor is a part Cut off from his life  But is in a Decree  Ordained   All this Is easy to God </t>
   </si>
   <si>
-    <t xml:space="preserve">   Nor are the two bodies Of flowing water alike — The one palatable  sweet  And pleasant to drink  And the other  salt And bitter  Yet from each  Kind of water  do ye Eat flesh fresh and tender  And ye extract ornaments To wear   and thou seest The ships therein that plough The waves  that ye may Seek  thus  of the Bounty Of God that ye May be grateful </t>
+    <t xml:space="preserve">   Nor are the two bodies Of flowing water alike   The one palatable  sweet  And pleasant to drink  And the other  salt And bitter  Yet from each  Kind of water  do ye Eat flesh fresh and tender  And ye extract ornaments To wear   and thou seest The ships therein that plough The waves  that ye may Seek  thus  of the Bounty Of God that ye May be grateful </t>
   </si>
   <si>
     <t xml:space="preserve">   He merges Night into Day  And He merges Day Into Night  and He has Subjected the sun and The moon  to His Law    Each one runs its course For a term appointed  Such is God your Lord   To Him belongs all Dominion  And those whom ye invoke Besides Him have not The least power </t>
@@ -11014,7 +11014,7 @@
     <t xml:space="preserve">   For He will pay them Their meed  nay  He will Give them  even  more Out of His Bounty   For He is Oft Forgiving  Most Ready to appreciate  service  </t>
   </si>
   <si>
-    <t xml:space="preserve">   That which We have revealed To thee of the Book Is the Truth — confirming What was  revealed  before it   For God is assuredly— With respect to His servants— Well acquainted and Fully Observant </t>
+    <t xml:space="preserve">   That which We have revealed To thee of the Book Is the Truth   confirming What was  revealed  before it   For God is assuredly  With respect to His servants  Well acquainted and Fully Observant </t>
   </si>
   <si>
     <t xml:space="preserve">   Then We have given the Book for inheritance To such of Our servants As We have chosen   But there are among them Some who wrong their own Souls   some who follow A middle course   and some Who are by God s leave Foremost in good deeds   That is the highest Grace </t>
@@ -11029,10 +11029,10 @@
     <t xml:space="preserve">     Who has  out of His Bounty  Settled us in a Home That will last   no toil nor sense of weariness Shall touch us therein  </t>
   </si>
   <si>
-    <t xml:space="preserve">   But those who reject  God — For them will be The Fire of Hell   No term shall be determined For them  so they should die  Nor shall its Penalty Be lightened for them  Thus do We reward Every ungrateful one  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Therein will they cry Aloud  for assistance      Our Lord   Bring us out   We shall work righteousness  Not the  deeds  we used To do    —  Did We not Give you long enough life So that he that would Should receive admonition   And  moreover  the warner Came to you  So taste ye  The fruit of your deeds    For the Wrong doers There is no helper     </t>
+    <t xml:space="preserve">   But those who reject  God   For them will be The Fire of Hell   No term shall be determined For them  so they should die  Nor shall its Penalty Be lightened for them  Thus do We reward Every ungrateful one  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Therein will they cry Aloud  for assistance      Our Lord   Bring us out   We shall work righteousness  Not the  deeds  we used To do       Did We not Give you long enough life So that he that would Should receive admonition   And  moreover  the warner Came to you  So taste ye  The fruit of your deeds    For the Wrong doers There is no helper     </t>
   </si>
   <si>
     <t xml:space="preserve">   Verily God knows  All  the hidden things Of the heavens and the earth   Verily He has full knowledge Of all that is In  men s  hearts </t>
@@ -11041,19 +11041,19 @@
     <t xml:space="preserve">   He it is that has made You inheritors in the earth   If  then  any do reject  God   their re   works  Against themselves   their re  But adds to the odium For the Unbelievers in the sight of their Lord   Their re  but adds To  their own  undoing </t>
   </si>
   <si>
-    <t xml:space="preserve">   Say     Have ye seen  These    Partners   of yours Whom ye call upon Besides God     Show me What it is they have created In the  wide  earth  Or have they a share In the heavens   Or Have We given them a Book From which they  can derive  Clear  evidence   —Nay  the wrong doers promise Each other nothing but delusions </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   It is God Who sustains The heavens and the earth  Lest they cease  to function    And if they should fail  There is none—not one— Can sustain them thereafter   Verily He is Most Forbearing  Oft Forgiving </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   They swore their strongest oaths By God that if a warner Came to them  they would Follow his guidance better Than any  other  of the Peoples   But when a warner came To them  it has only Increased their flight  From righteousness  —</t>
+    <t xml:space="preserve">   Say     Have ye seen  These    Partners   of yours Whom ye call upon Besides God     Show me What it is they have created In the  wide  earth  Or have they a share In the heavens   Or Have We given them a Book From which they  can derive  Clear  evidence    Nay  the wrong doers promise Each other nothing but delusions </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   It is God Who sustains The heavens and the earth  Lest they cease  to function    And if they should fail  There is none not one  Can sustain them thereafter   Verily He is Most Forbearing  Oft Forgiving </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   They swore their strongest oaths By God that if a warner Came to them  they would Follow his guidance better Than any  other  of the Peoples   But when a warner came To them  it has only Increased their flight  From righteousness   </t>
   </si>
   <si>
     <t xml:space="preserve">   On account of their arrogance In the land and their Plotting of Evil  But the plotting of Evil Will hem in only The authors thereof  Now Are they but looking for The way the ancients Were dealt with   But No change wilt thou find In God s way  of dealing    No turning off wilt thou Find in God s way  of dealing  </t>
   </si>
   <si>
-    <t xml:space="preserve">   Do they not travel Through the earth  and see What was the End Of those before them — Though they were superior To them in strength   Nor is God to be frustrated By anything whatever In the heavens Or on earth   for He Is All Knowing  All Powerful </t>
+    <t xml:space="preserve">   Do they not travel Through the earth  and see What was the End Of those before them   Though they were superior To them in strength   Nor is God to be frustrated By anything whatever In the heavens Or on earth   for He Is All Knowing  All Powerful </t>
   </si>
   <si>
     <t xml:space="preserve">   If God were to punish Men according to what They deserve  He would not Leave on the back Of the  earth  a single Living creature   but He Gives them respite For a stated Term   When their Term expires  Verily God has in His sight All His servants </t>
@@ -11062,7 +11062,7 @@
     <t xml:space="preserve">   Ya Sin </t>
   </si>
   <si>
-    <t xml:space="preserve">   By the Qur ān  Full of Wisdom —</t>
+    <t xml:space="preserve">   By the Qur ān  Full of Wisdom  </t>
   </si>
   <si>
     <t xml:space="preserve">   Thou art indeed One of the apostles </t>
@@ -11134,7 +11134,7 @@
     <t xml:space="preserve">     For me  I have faith In the Lord of you  all    Listen  then  to me   </t>
   </si>
   <si>
-    <t xml:space="preserve">   It was said     Enter thou The Garden   He said     Ah me   Would that My People knew  what I know   —</t>
+    <t xml:space="preserve">   It was said     Enter thou The Garden   He said     Ah me   Would that My People knew  what I know    </t>
   </si>
   <si>
     <t xml:space="preserve">     For that my Lord Has granted me Forgiveness And has enrolled me Among those held in honour   </t>
@@ -11152,7 +11152,7 @@
     <t xml:space="preserve">   See they not how many Generations before them We destroyed   Not to them Will they return  </t>
   </si>
   <si>
-    <t xml:space="preserve">   But each one of them All—will be Brought before Us  for judgment     </t>
+    <t xml:space="preserve">   But each one of them All will be Brought before Us  for judgment     </t>
   </si>
   <si>
     <t xml:space="preserve">   A Sign for them Is the earth that is dead   We do give it life  And produce grain therefrom  Of which ye do eat </t>
@@ -11173,7 +11173,7 @@
     <t xml:space="preserve">   And the Sun Runs his course For a period determined For him   that is The decree of  Him  The Exalted in Might The All Knowing </t>
   </si>
   <si>
-    <t xml:space="preserve">   And the Moon — We have measured for her Mansions  to traverse  Till she returns Like the old  and withered  Lower part of a date stalk </t>
+    <t xml:space="preserve">   And the Moon   We have measured for her Mansions  to traverse  Till she returns Like the old  and withered  Lower part of a date stalk </t>
   </si>
   <si>
     <t xml:space="preserve">   It is not permitted To the Sun to catch up The Moon  nor can The Night outstrip the Day   Each  just  swims along In  its own  orbit  According to Law  </t>
@@ -11197,7 +11197,7 @@
     <t xml:space="preserve">   Not a Sign comes to them From among the Signs Of their Lord  but they Turn away therefrom </t>
   </si>
   <si>
-    <t xml:space="preserve">   And when they are told    Spend ye of  the bounties  With which God Has provided you   the Unbelievers Say to those who believe     Shall we then feed those Whom  if God had so willed  He would have fed   himself   — Ye are in nothing But manifest error  </t>
+    <t xml:space="preserve">   And when they are told    Spend ye of  the bounties  With which God Has provided you   the Unbelievers Say to those who believe     Shall we then feed those Whom  if God had so willed  He would have fed   himself     Ye are in nothing But manifest error  </t>
   </si>
   <si>
     <t xml:space="preserve">   Further  they say    When Will this promise  come to pass   If what ye say is true   </t>
@@ -11230,13 +11230,13 @@
     <t xml:space="preserve">    Every  fruit  enjoyment  Will be there for them   They shall have whatever They call for  </t>
   </si>
   <si>
-    <t xml:space="preserve">     Peace   —a Word  of salutation  from a Lord Most Merciful  </t>
+    <t xml:space="preserve">     Peace    a Word  of salutation  from a Lord Most Merciful  </t>
   </si>
   <si>
     <t xml:space="preserve">     And O ye in sin   Get ye apart this Day  </t>
   </si>
   <si>
-    <t xml:space="preserve">     Did I not enjoin On you  O ye children Of Adam  that ye Should not worship Satan   For that he was to you An enemy avowed  —</t>
+    <t xml:space="preserve">     Did I not enjoin On you  O ye children Of Adam  that ye Should not worship Satan   For that he was to you An enemy avowed   </t>
   </si>
   <si>
     <t xml:space="preserve">     And that ye should Worship Me   for that  this Was the Straight Way  </t>
@@ -11269,7 +11269,7 @@
     <t xml:space="preserve">   That it may give admonition To any  who are  alive  And that the charge May be proved against those Who reject  Truth  </t>
   </si>
   <si>
-    <t xml:space="preserve">   See they not that it is We Who have created For them—among the things Which Our hands have fashioned—Cattle  which are under Their dominion  —</t>
+    <t xml:space="preserve">   See they not that it is We Who have created For them among the things Which Our hands have fashioned Cattle  which are under Their dominion   </t>
   </si>
   <si>
     <t xml:space="preserve">   And that We have Subjected them to their  use    Of them some do carry them And some they eat  </t>
@@ -11293,13 +11293,13 @@
     <t xml:space="preserve">   And he makes comparisons For Us  and forgets his own  Origin and  Creation   He says    Who can give Life to  dry  bones And decomposed ones  at that    </t>
   </si>
   <si>
-    <t xml:space="preserve">   Say    He will give them Life Who created them For the first time   For He is well versed In every kind of creation  —</t>
+    <t xml:space="preserve">   Say    He will give them Life Who created them For the first time   For He is well versed In every kind of creation   </t>
   </si>
   <si>
     <t xml:space="preserve">     The same Who produces For you fire out of The green tree  when behold   Ye kindle therewith  Your own fires   </t>
   </si>
   <si>
-    <t xml:space="preserve">     Is not He Who created The heavens and the earth Able to create the like Thereof   —Yea  indeed   For He is the Creator Supreme  Of skill and knowledge  infinite   </t>
+    <t xml:space="preserve">     Is not He Who created The heavens and the earth Able to create the like Thereof    Yea  indeed   For He is the Creator Supreme  Of skill and knowledge  infinite   </t>
   </si>
   <si>
     <t xml:space="preserve">   Verily  when He intends A thing  His Command is    Be    and it is  </t>
@@ -11317,13 +11317,13 @@
     <t xml:space="preserve">   And thus proclaim The Message  of God   </t>
   </si>
   <si>
-    <t xml:space="preserve">   Verily  verily  your God Is One  —</t>
+    <t xml:space="preserve">   Verily  verily  your God Is One   </t>
   </si>
   <si>
     <t xml:space="preserve">   Lord of the heavens And of the earth  And all between them  And Lord of every point At the rising of the sun  </t>
   </si>
   <si>
-    <t xml:space="preserve">   We have indeed decked The lower heaven with beauty  In  the stars —</t>
+    <t xml:space="preserve">   We have indeed decked The lower heaven with beauty  In  the stars  </t>
   </si>
   <si>
     <t xml:space="preserve">    For beauty  and for guard Against all obstinate Rebellious evil spirits </t>
@@ -11344,7 +11344,7 @@
     <t xml:space="preserve">   Truly dost thou marvel  While they ridicule </t>
   </si>
   <si>
-    <t xml:space="preserve">   And  when they are Admonished  pay no heed —</t>
+    <t xml:space="preserve">   And  when they are Admonished  pay no heed  </t>
   </si>
   <si>
     <t xml:space="preserve">   And  when they see A Sign  turn it To mockery </t>
@@ -11371,7 +11371,7 @@
     <t xml:space="preserve">    A voice will say     This is the Day Of Sorting Out  whose Truth ye  once  denied      </t>
   </si>
   <si>
-    <t xml:space="preserve">     Bring ye up   It shall be said    The wrong doers And their wives  And the things they worshipped—</t>
+    <t xml:space="preserve">     Bring ye up   It shall be said    The wrong doers And their wives  And the things they worshipped </t>
   </si>
   <si>
     <t xml:space="preserve">     Besides God  And lead them to the Way To the  Fierce  Fire  </t>
@@ -11419,13 +11419,13 @@
     <t xml:space="preserve">   Nay   he has come With the  very  Truth  And he confirms  the Message Of  the apostles  before him  </t>
   </si>
   <si>
-    <t xml:space="preserve">   Ye shall indeed taste Of the Grievous Penalty  —</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   But it will be no more Than the retribution Of  the Evil  that ye Have wrought  —</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   But the sincere  and devoted  Servants of God —</t>
+    <t xml:space="preserve">   Ye shall indeed taste Of the Grievous Penalty   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   But it will be no more Than the retribution Of  the Evil  that ye Have wrought   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   But the sincere  and devoted  Servants of God  </t>
   </si>
   <si>
     <t xml:space="preserve">   For them is a Sustenance Determined </t>
@@ -11518,13 +11518,13 @@
     <t xml:space="preserve">   So they  too  were rushed Down on their footsteps  </t>
   </si>
   <si>
-    <t xml:space="preserve">   And truly before them  Many of the ancients Went astray  —</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   But We sent aforetime  Among them   apostles  To admonish them  —</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Then see what was The End of those who Were admonished  but heeded not  —</t>
+    <t xml:space="preserve">   And truly before them  Many of the ancients Went astray   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   But We sent aforetime  Among them   apostles  To admonish them   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Then see what was The End of those who Were admonished  but heeded not   </t>
   </si>
   <si>
     <t xml:space="preserve">   Except the sincere  and devoted  Servants of God    </t>
@@ -11563,7 +11563,7 @@
     <t xml:space="preserve">   Behold  he said to his father And to his people    What Is that which ye worship  </t>
   </si>
   <si>
-    <t xml:space="preserve">     Is it a Falsehood— Gods other than God— That ye desire  </t>
+    <t xml:space="preserve">     Is it a Falsehood  Gods other than God  That ye desire  </t>
   </si>
   <si>
     <t xml:space="preserve">     Then what is your idea About the Lord of the Worlds   </t>
@@ -11620,10 +11620,10 @@
     <t xml:space="preserve">   We called out to him    O Abraham  </t>
   </si>
   <si>
-    <t xml:space="preserve">     Thou hast already fulfilled The vision   —thus indeed Do We reward Those who do right </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   For this was obviously A trial—</t>
+    <t xml:space="preserve">     Thou hast already fulfilled The vision    thus indeed Do We reward Those who do right </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   For this was obviously A trial </t>
   </si>
   <si>
     <t xml:space="preserve">   And We ransomed him With a momentous sacrifice  </t>
@@ -11635,7 +11635,7 @@
     <t xml:space="preserve">     Peace and salutation To Abraham   </t>
   </si>
   <si>
-    <t xml:space="preserve">   And We gave him The good news Of Isaac—a prophet — One of the Righteous </t>
+    <t xml:space="preserve">   And We gave him The good news Of Isaac a prophet   One of the Righteous </t>
   </si>
   <si>
     <t xml:space="preserve">   We blessed him and Isaac   But of their progeny Are  some  that do right  And  some  that obviously Do wrong  to their own souls    </t>
@@ -11671,13 +11671,13 @@
     <t xml:space="preserve">   Behold  he said To his people    Will ye not fear  God   </t>
   </si>
   <si>
-    <t xml:space="preserve">     Will ye call upon Baal And forsake the Best Of Creators —</t>
+    <t xml:space="preserve">     Will ye call upon Baal And forsake the Best Of Creators  </t>
   </si>
   <si>
     <t xml:space="preserve">     God  your Lord and Cherisher And the Lord and Cherisher Of your fathers of old   </t>
   </si>
   <si>
-    <t xml:space="preserve">   But they rejected him  And they will certainly Be called up  for punishment  —</t>
+    <t xml:space="preserve">   But they rejected him  And they will certainly Be called up  for punishment   </t>
   </si>
   <si>
     <t xml:space="preserve">   Except the sincere and devoted Servants of God  among them  </t>
@@ -11701,7 +11701,7 @@
     <t xml:space="preserve">   Then We destroyed The rest </t>
   </si>
   <si>
-    <t xml:space="preserve">   Verily  ye pass By their  sites   By day—</t>
+    <t xml:space="preserve">   Verily  ye pass By their  sites   By day </t>
   </si>
   <si>
     <t xml:space="preserve">   And by night   Will ye not understand     </t>
@@ -11737,7 +11737,7 @@
     <t xml:space="preserve">   And they believed   So We permitted them To enjoy  their life  For a while </t>
   </si>
   <si>
-    <t xml:space="preserve">   Now ask them their opinion   Is it that thy Lord Has  only  daughters  and they Have sons  —</t>
+    <t xml:space="preserve">   Now ask them their opinion   Is it that thy Lord Has  only  daughters  and they Have sons   </t>
   </si>
   <si>
     <t xml:space="preserve">   Or that We created The angels female  and they Are witnesses  thereto   </t>
@@ -11773,7 +11773,7 @@
     <t xml:space="preserve">   Not  so do  the Servants Of God  sincere and devoted </t>
   </si>
   <si>
-    <t xml:space="preserve">   For  verily  neither ye Nor those ye worship—</t>
+    <t xml:space="preserve">   For  verily  neither ye Nor those ye worship </t>
   </si>
   <si>
     <t xml:space="preserve">   Can lead  any  Into temptation Concerning God </t>
@@ -11809,7 +11809,7 @@
     <t xml:space="preserve">   That they would certainly Be assisted </t>
   </si>
   <si>
-    <t xml:space="preserve">   And that Our forces — They surely must conquer </t>
+    <t xml:space="preserve">   And that Our forces   They surely must conquer </t>
   </si>
   <si>
     <t xml:space="preserve">   So turn thou away From them for a little while </t>
@@ -11842,7 +11842,7 @@
     <t xml:space="preserve">   But the Unbelievers  Are steeped  in Self glory And Separatism </t>
   </si>
   <si>
-    <t xml:space="preserve">   How many generations Before them did We destroy   In the end they cried  For mercy —when There was no longer time For being saved  </t>
+    <t xml:space="preserve">   How many generations Before them did We destroy   In the end they cried  For mercy  when There was no longer time For being saved  </t>
   </si>
   <si>
     <t xml:space="preserve">   So they wonder That a Warner has come To them from among themselves   And the Unbelievers say    This is a sorcerer Telling lies  </t>
@@ -11857,22 +11857,22 @@
     <t xml:space="preserve">     We never heard  the like  Of this among the people Of these latter days   This is nothing but A made up tale    </t>
   </si>
   <si>
-    <t xml:space="preserve">     What   Has the Message Been sent to him—  Of all persons  among us     But they are in doubt Concerning My  own  Message   Nay  they have not yet Tasted My Punishment  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Or have they the Treasures Of the Mercy of thy Lord — The Exalted in Power  The Grantor of Bounties Without measure  </t>
+    <t xml:space="preserve">     What   Has the Message Been sent to him   Of all persons  among us     But they are in doubt Concerning My  own  Message   Nay  they have not yet Tasted My Punishment  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Or have they the Treasures Of the Mercy of thy Lord   The Exalted in Power  The Grantor of Bounties Without measure  </t>
   </si>
   <si>
     <t xml:space="preserve">   Or have they the dominion Of the heavens and the earth And all between   If so  Let them mount up With the ropes and means  To reach that end   </t>
   </si>
   <si>
-    <t xml:space="preserve">   But there—will be Put to flight even a host Of confederates </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Before them  were many Who  rejected apostles — The People of Noah  And  Ad  and Pharaoh The Lord of Stakes </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   And Thamūd  and the People Of Lūt  and the Companions Of the Wood  —such were The Confederates </t>
+    <t xml:space="preserve">   But there will be Put to flight even a host Of confederates </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Before them  were many Who  rejected apostles   The People of Noah  And  Ad  and Pharaoh The Lord of Stakes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   And Thamūd  and the People Of Lūt  and the Companions Of the Wood   such were The Confederates </t>
   </si>
   <si>
     <t xml:space="preserve">   Not one  of them  but Rejected the apostles  But My Punishment Came justly and inevitably  On them     </t>
@@ -11923,13 +11923,13 @@
     <t xml:space="preserve">    Here is  a Book which We have sent down Unto thee  full of blessings  That they may meditate On its Signs  and that Men of understanding may Receive admonition </t>
   </si>
   <si>
-    <t xml:space="preserve">   To David We gave Solomon  for a son  — How excellent in Our service   Ever did he turn  to Us   </t>
+    <t xml:space="preserve">   To David We gave Solomon  for a son    How excellent in Our service   Ever did he turn  to Us   </t>
   </si>
   <si>
     <t xml:space="preserve">   Behold  there were brought Before him at eventide  Coursers of the highest breeding  And swift of foot  </t>
   </si>
   <si>
-    <t xml:space="preserve">   And he said    Truly Do I love the love Of Good with a view To the glory of my Lord   — Until  the sun  was hidden In the veil  of Night   </t>
+    <t xml:space="preserve">   And he said    Truly Do I love the love Of Good with a view To the glory of my Lord     Until  the sun  was hidden In the veil  of Night   </t>
   </si>
   <si>
     <t xml:space="preserve">     Bring them back to me   Then began he to pass His hand over  their  legs And their necks </t>
@@ -11941,10 +11941,10 @@
     <t xml:space="preserve">   He said    O my Lord   Forgive me  and grant me A Kingdom which   It may be   suits not Another after me   For Thou art the Grantor Of Bounties  without measure   </t>
   </si>
   <si>
-    <t xml:space="preserve">   Then We subjected the Wind To his power  to flow Gently to his order  Whithersoever he willed —</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   As also the evil ones   Including  every kind Of builder and diver —</t>
+    <t xml:space="preserve">   Then We subjected the Wind To his power  to flow Gently to his order  Whithersoever he willed  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   As also the evil ones   Including  every kind Of builder and diver  </t>
   </si>
   <si>
     <t xml:space="preserve">   As also others bound Together in fetters </t>
@@ -11962,7 +11962,7 @@
     <t xml:space="preserve">    The command was given     Strike with thy foot   Here is  water  wherein To wash  cool and refreshing  And  water  to drink  </t>
   </si>
   <si>
-    <t xml:space="preserve">   And We gave him  back  His people and doubled Their number —as a Grace From Ourselves  and a thing For commemoration  for all Who have Understanding </t>
+    <t xml:space="preserve">   And We gave him  back  His people and doubled Their number  as a Grace From Ourselves  and a thing For commemoration  for all Who have Understanding </t>
   </si>
   <si>
     <t xml:space="preserve">     And take in thy hand A little grass  and strike Therewith   and break not  Thy oath    Truly We found Him full of patience and constancy  How excellent in Our service   Ever did he turn  to Us   </t>
@@ -11971,7 +11971,7 @@
     <t xml:space="preserve">   And commemorate Our Servants Abraham  Isaac  and Jacob  Possessors of Power and Vision </t>
   </si>
   <si>
-    <t xml:space="preserve">   Verily We did chose them For a special  purpose — Proclaiming the Message Of the Hereafter </t>
+    <t xml:space="preserve">   Verily We did chose them For a special  purpose   Proclaiming the Message Of the Hereafter </t>
   </si>
   <si>
     <t xml:space="preserve">   They were  in Our sight  Truly  of the company Of the Elect and the Good </t>
@@ -11980,7 +11980,7 @@
     <t xml:space="preserve">   And commemorate Ismā īl  Elisha  and Zul Kifl   Each of them was Of the company of the Good </t>
   </si>
   <si>
-    <t xml:space="preserve">   This is a Message  Of admonition    and verily  For the Righteous  Is a beautiful place Of  final  Return —</t>
+    <t xml:space="preserve">   This is a Message  Of admonition    and verily  For the Righteous  Is a beautiful place Of  final  Return  </t>
   </si>
   <si>
     <t xml:space="preserve">   Gardens of Eternity  Whose doors will  ever  Be open to them  </t>
@@ -11995,16 +11995,16 @@
     <t xml:space="preserve">   Such is the Promise Made to you For the Day of Account  </t>
   </si>
   <si>
-    <t xml:space="preserve">   Truly such will be Our Bounty  to you    It will never fail  —</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Yea  such   But— For the wrong doers Will be an evil place Of  final  Return  —</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Hell  —they will burn Therein —an evil bed  Indeed  to lie on   —</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Yea  such  —Then Shall they taste it — A boiling fluid  and a fluid Dark  murky  intensely cold  —</t>
+    <t xml:space="preserve">   Truly such will be Our Bounty  to you    It will never fail   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Yea  such   But  For the wrong doers Will be an evil place Of  final  Return   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Hell   they will burn Therein  an evil bed  Indeed  to lie on    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Yea  such   Then Shall they taste it   A boiling fluid  and a fluid Dark  murky  intensely cold   </t>
   </si>
   <si>
     <t xml:space="preserve">   And other Penalties Of a similar kind  To match them  </t>
@@ -12016,7 +12016,7 @@
     <t xml:space="preserve">    The followers shall cry To the misleaders &amp;colon     Nay  ye  too    No welcome For you   It is ye who Have brought this upon us   Now evil is  this  place To stay in    </t>
   </si>
   <si>
-    <t xml:space="preserve">   They will say     Our Lord   Whoever brought this upon — us Add to him a double Penalty in the Fire    </t>
+    <t xml:space="preserve">   They will say     Our Lord   Whoever brought this upon   us Add to him a double Penalty in the Fire    </t>
   </si>
   <si>
     <t xml:space="preserve">   And they will say     What has happened to us That we see not men Whom we used to number Among the bad ones  </t>
@@ -12025,16 +12025,16 @@
     <t xml:space="preserve">     Did we treat them  As such  in ridicule  Or have  our  eyes Failed to perceive them    </t>
   </si>
   <si>
-    <t xml:space="preserve">   Truly that is just and fitting — The mutual recriminations Of the People of the Fire     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Say     Truly am I A Warner   no god Is there but the One God  Supreme and Irresistible —</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     The Lord of the heavens And the earth  and all Between —Exalted in Might  Able to enforce His Will  Forgiving again and again  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Say     That is a Message Supreme  above all  —</t>
+    <t xml:space="preserve">   Truly that is just and fitting   The mutual recriminations Of the People of the Fire     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Say     Truly am I A Warner   no god Is there but the One God  Supreme and Irresistible  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     The Lord of the heavens And the earth  and all Between  Exalted in Might  Able to enforce His Will  Forgiving again and again  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Say     That is a Message Supreme  above all   </t>
   </si>
   <si>
     <t xml:space="preserve">     From which ye Do turn away  </t>
@@ -12067,22 +12067,22 @@
     <t xml:space="preserve">     And My Curse shall be On thee till the Day of Judgement  </t>
   </si>
   <si>
-    <t xml:space="preserve">    God  said     Respite then Is granted thee—</t>
+    <t xml:space="preserve">    God  said     Respite then Is granted thee </t>
   </si>
   <si>
     <t xml:space="preserve">     Till the Day of the Time Appointed  </t>
   </si>
   <si>
-    <t xml:space="preserve">    Iblīs  said     Then  By Thy Power  I will Put them all in the wrong —</t>
+    <t xml:space="preserve">    Iblīs  said     Then  By Thy Power  I will Put them all in the wrong  </t>
   </si>
   <si>
     <t xml:space="preserve">     Except Thy Servants Amongst them  sincere And purified  by Thy grace   </t>
   </si>
   <si>
-    <t xml:space="preserve">    God  said     Then It is just And fitting— and I say what is Just and fitting—</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     That I will certainly fill Hell with thee And those that follow thee — Every one  </t>
+    <t xml:space="preserve">    God  said     Then It is just And fitting  and I say what is Just and fitting </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     That I will certainly fill Hell with thee And those that follow thee   Every one  </t>
   </si>
   <si>
     <t xml:space="preserve">   Say     No reward do I ask Of you for this  Qur ān   Nor am I a pretender </t>
@@ -12106,7 +12106,7 @@
     <t xml:space="preserve">   Had God wished To take to Himself A son  He could have Chosen whom He pleased Out of those whom He Doth create   but Glory Be to Him    He is above Such things   He is God  The One  the Irresistible </t>
   </si>
   <si>
-    <t xml:space="preserve">   He created the heavens And the earth In true  proportions    He makes the Night Overlap the Day  and the Day Overlap the Night   He has subjected The sun and the moon  To His law    Each one follows a course For a time appointed  Is not He the Exalted In Power—He Who forgives Again and again  </t>
+    <t xml:space="preserve">   He created the heavens And the earth In true  proportions    He makes the Night Overlap the Day  and the Day Overlap the Night   He has subjected The sun and the moon  To His law    Each one follows a course For a time appointed  Is not He the Exalted In Power He Who forgives Again and again  </t>
   </si>
   <si>
     <t xml:space="preserve">   He created you  all  From a single Person   Then created of like nature  His mate   and He Sent down for you eight head Of cattle in pairs   He makes you  In the wombs Of your mothers  In stages  one after another  In three veils of darkness  Such is God  your Lord And Cherisher   to Him belongs  All  dominion  There is No god but He   then How are ye turned away  From your true Center   </t>
@@ -12118,7 +12118,7 @@
     <t xml:space="preserve">   When some trouble toucheth man  He crieth unto his Lord  Turning to Him in repentance   But when He bestoweth A favour upon him As from Himself   man  Doth forget what he cried And prayed for before  And he doth set up Rivals unto God  Thus misleading others From God s Path  Say    Enjoy thy blasphemy For a little while   Verily thou art  one  Of the Companions of the Fire    </t>
   </si>
   <si>
-    <t xml:space="preserve">   Is one who worships devoutly During the hours of the night Prostrating himself or standing  In adoration   who takes heed Of the Hereafter  and who Places his hope in the Mercy Of his Lord— like one Who does not    Say     Are those equal  those who know And those who do not know   It is those who are Endued with understanding That receive admonition    </t>
+    <t xml:space="preserve">   Is one who worships devoutly During the hours of the night Prostrating himself or standing  In adoration   who takes heed Of the Hereafter  and who Places his hope in the Mercy Of his Lord  like one Who does not    Say     Are those equal  those who know And those who do not know   It is those who are Endued with understanding That receive admonition    </t>
   </si>
   <si>
     <t xml:space="preserve">   Say     O ye My servants who believe   Fear your Lord  Good is  the reward  For those who do good In this world  Spacious is God s earth   Those who patiently persevere Will truly receive A reward without measure   </t>
@@ -12142,7 +12142,7 @@
     <t xml:space="preserve">   They shall have Layers Of Fire above them  And Layers  of Fire  Below them   with this Doth God warn off His Servants     O My Servants   Then fear ye Me    </t>
   </si>
   <si>
-    <t xml:space="preserve">   Those who eschew Evil — And fall not into Its worship —and turn To God  in repentance  — For them is Good News   So announce the Good News To My Servants —</t>
+    <t xml:space="preserve">   Those who eschew Evil   And fall not into Its worship  and turn To God  in repentance    For them is Good News   So announce the Good News To My Servants  </t>
   </si>
   <si>
     <t xml:space="preserve">   Those who listen To the Word  And follow The best  meaning  in it   Those are the ones Whom God has guided  and those Are the ones endued With understanding </t>
@@ -12178,7 +12178,7 @@
     <t xml:space="preserve">    It is  A Qur ān In Arabic  without any Crookedness  therein    In order that they May guard against Evil </t>
   </si>
   <si>
-    <t xml:space="preserve">   God puts forth a Parable— A man belonging to many Partners at variance with each other  And a man belonging entirely To one master   are those two Equal in comparison   Praise be to God   But most of them Have no knowledge </t>
+    <t xml:space="preserve">   God puts forth a Parable  A man belonging to many Partners at variance with each other  And a man belonging entirely To one master   are those two Equal in comparison   Praise be to God   But most of them Have no knowledge </t>
   </si>
   <si>
     <t xml:space="preserve">   Truly thou wilt die  One day   and truly they  Too  will die  one day  </t>
@@ -12190,7 +12190,7 @@
     <t xml:space="preserve">   Who  then  doth more wrong Than one who utters A lie concerning God  And rejects the Truth When it comes to him Is there not in Hell An abode for blasphemers  </t>
   </si>
   <si>
-    <t xml:space="preserve">   And he who brings the Truth And he who confirms  And supports  it— such are the men who do right </t>
+    <t xml:space="preserve">   And he who brings the Truth And he who confirms  And supports  it  such are the men who do right </t>
   </si>
   <si>
     <t xml:space="preserve">   They shall have all That they wish for  In the presence of their Lord   Such is the reward Of those who do good  </t>
@@ -12205,10 +12205,10 @@
     <t xml:space="preserve">   And such as God doth Guide there can be None to lead astray  Is not God Exalted In Power   Able to enforce His Will   Lord of Retribution  </t>
   </si>
   <si>
-    <t xml:space="preserve">   If indeed thou ask them Who it is that created The heavens and the earth  They would be sure to say    God    Say     See ye then   The things that ye invoke Besides God —can they  If God wills some Penalty For me  remove His Penalty  — Or if He wills some Grace For me  can they keep back His Grace     Say     Sufficient Is God for me   In Him trust those Who put their trust  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Say     O my people   Do whatever ye can   I will do  my part    But soon will ye know—</t>
+    <t xml:space="preserve">   If indeed thou ask them Who it is that created The heavens and the earth  They would be sure to say    God    Say     See ye then   The things that ye invoke Besides God  can they  If God wills some Penalty For me  remove His Penalty    Or if He wills some Grace For me  can they keep back His Grace     Say     Sufficient Is God for me   In Him trust those Who put their trust  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Say     O my people   Do whatever ye can   I will do  my part    But soon will ye know </t>
   </si>
   <si>
     <t xml:space="preserve">     Who it is to whom Comes a Penalty of ignominy  and on whom Descends a Penalty that abides  </t>
@@ -12244,7 +12244,7 @@
     <t xml:space="preserve">   Thus did the  generations  Before them say   But All that they did Was of no profit to them </t>
   </si>
   <si>
-    <t xml:space="preserve">   Nay  the evil results Of their deeds overtook them  And the wrong doers Of this  generation —the evil results of their deeds Will soon overtake them  too   And they will never be Able to frustrate  Our Plan   </t>
+    <t xml:space="preserve">   Nay  the evil results Of their deeds overtook them  And the wrong doers Of this  generation  the evil results of their deeds Will soon overtake them  too   And they will never be Able to frustrate  Our Plan   </t>
   </si>
   <si>
     <t xml:space="preserve">   Know they not that God enlarges the provision Or restricts it  for any He pleases   Verily  in this are Signs for those who believe     </t>
@@ -12256,13 +12256,13 @@
     <t xml:space="preserve">     Turn ye to your Lord  In repentance  and bow To His  Will  Before The Penalty comes on you   After that ye shall not Be helped </t>
   </si>
   <si>
-    <t xml:space="preserve">     And follow the Best Of  the courses  revealed To you from your Lord  before the Penalty comes On you—of a sudden  While ye perceive not   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">     Lest the soul should  then  Say     Ah   woe is me  —In that I neglected  My Duty  towards God  And was but among those Who mocked    —</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     Or  lest  it should say     If only God had guided Me  I should certainly Have been among the righteous    —</t>
+    <t xml:space="preserve">     And follow the Best Of  the courses  revealed To you from your Lord  before the Penalty comes On you of a sudden  While ye perceive not   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Lest the soul should  then  Say     Ah   woe is me   In that I neglected  My Duty  towards God  And was but among those Who mocked     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Or  lest  it should say     If only God had guided Me  I should certainly Have been among the righteous     </t>
   </si>
   <si>
     <t xml:space="preserve">     Or  lest  it should say When it  actually  sees the Penalty     If only I had another chance  I should certainly be Among those who do good    </t>
@@ -12271,7 +12271,7 @@
     <t xml:space="preserve">      The reply will be &amp;colon     Nay  But there came to thee My Signs and thou didst Reject them   thou wast Haughty  and became one Of those who reject Faith      </t>
   </si>
   <si>
-    <t xml:space="preserve">   On the Day of Judgement Wilt thou see those Who told lies against God  — Their faces will be turned Black   is there not In Hell an abode For the Haughty  </t>
+    <t xml:space="preserve">   On the Day of Judgement Wilt thou see those Who told lies against God    Their faces will be turned Black   is there not In Hell an abode For the Haughty  </t>
   </si>
   <si>
     <t xml:space="preserve">   But God will deliver The righteous to their place Of salvation   no evil Shall touch them  Nor shall they grieve </t>
@@ -12280,13 +12280,13 @@
     <t xml:space="preserve">   God is the Creator Of all things  and He Is the Guardian and Disposer Of all affairs </t>
   </si>
   <si>
-    <t xml:space="preserve">   To Him belong the keys Of the heavens And the earth   And those who reject The Signs of God — It is they who will Be in loss    </t>
+    <t xml:space="preserve">   To Him belong the keys Of the heavens And the earth   And those who reject The Signs of God   It is they who will Be in loss    </t>
   </si>
   <si>
     <t xml:space="preserve">   Say     Is it Some one other than God That ye order me To worship  O ye Ignorant ones    </t>
   </si>
   <si>
-    <t xml:space="preserve">   But it has already Been revealed to thee — As it was to those Before thee —  If thou Wert to join  gods with God   truly fruitless Will be thy work  in life  And thou wilt surely Be in the ranks of those Who lose  all spiritual good   </t>
+    <t xml:space="preserve">   But it has already Been revealed to thee   As it was to those Before thee    If thou Wert to join  gods with God   truly fruitless Will be thy work  in life  And thou wilt surely Be in the ranks of those Who lose  all spiritual good   </t>
   </si>
   <si>
     <t xml:space="preserve">   Nay  but worship God And be of those who Give thanks </t>
@@ -12322,7 +12322,7 @@
     <t xml:space="preserve">   Hā Mīm </t>
   </si>
   <si>
-    <t xml:space="preserve">   The revelation Of this Book Is from God  Exalted in Power  Full of Knowledge —</t>
+    <t xml:space="preserve">   The revelation Of this Book Is from God  Exalted in Power  Full of Knowledge  </t>
   </si>
   <si>
     <t xml:space="preserve">   Who forgiveth Sin  Accepteth Repentance  Is Strict in Punishment  And hath a Long Reach  In all things   There is no god But He   to Him Is the Final Goal </t>
@@ -12331,7 +12331,7 @@
     <t xml:space="preserve">   None can dispute About the Signs of God But the Unbelievers  Let not  then  Their strutting about Through the land Deceive thee  </t>
   </si>
   <si>
-    <t xml:space="preserve">   But  there were people  before them  Who denied  the Signs  —The People of Noah  And the Confederates  Of Evil  after them   And every People plotted Against their prophet  To seize him  and disputed By means of vanities  Therewith to condemn The Truth   but it was I That seized them   And how  terrible  Was My Requital  </t>
+    <t xml:space="preserve">   But  there were people  before them  Who denied  the Signs   The People of Noah  And the Confederates  Of Evil  after them   And every People plotted Against their prophet  To seize him  and disputed By means of vanities  Therewith to condemn The Truth   but it was I That seized them   And how  terrible  Was My Requital  </t>
   </si>
   <si>
     <t xml:space="preserve">   Thus was the Decree Of thy Lord proved true Against the Unbelievers   That truly they are Companions of the Fire  </t>
@@ -12343,7 +12343,7 @@
     <t xml:space="preserve">     And grant  our Lord   That they enter The Gardens of Eternity  Which Thou hast promised To them  and to the righteous Among their fathers  Their wives  and their posterity   For Thou art  He   The Exalted in Might  Full of Wisdom </t>
   </si>
   <si>
-    <t xml:space="preserve">     And preserve them From  all  ills   And any whom Thou Dost preserve from ills That Day —on them Wilt Thou have bestowed Mercy indeed   and that Will be truly  for them  The highest Achievement     </t>
+    <t xml:space="preserve">     And preserve them From  all  ills   And any whom Thou Dost preserve from ills That Day  on them Wilt Thou have bestowed Mercy indeed   and that Will be truly  for them  The highest Achievement     </t>
   </si>
   <si>
     <t xml:space="preserve">   The Unbelievers will be Addressed     Greater was The aversion of God to you Than  is  your aversion To yourselves  seeing that ye Were called to the Faith And ye used to refuse  </t>
@@ -12361,7 +12361,7 @@
     <t xml:space="preserve">   Call ye  then  upon God With sincere devotion to Him  Even though the Unbelievers May detest it </t>
   </si>
   <si>
-    <t xml:space="preserve">   Raised high above ranks  Or degrees    He is  the Lord Of the Throne  of authority    By His Command doth He Send the spirit  of inspiration  To any of His servants He pleases  that it may Warn  men  of the Day Of Mutual Meeting —</t>
+    <t xml:space="preserve">   Raised high above ranks  Or degrees    He is  the Lord Of the Throne  of authority    By His Command doth He Send the spirit  of inspiration  To any of His servants He pleases  that it may Warn  men  of the Day Of Mutual Meeting  </t>
   </si>
   <si>
     <t xml:space="preserve">   The Day whereon They will  all  come forth   Not a single thing Concerning them is hidden From God  Whose will be The Dominion that Day   That of God  the One  The Irresistible  </t>
@@ -12400,31 +12400,31 @@
     <t xml:space="preserve">   Moses said     I have indeed Called upon my Lord And your Lord  For pro   from every Arrogant one who believes not In the Day of Account       </t>
   </si>
   <si>
-    <t xml:space="preserve">   A Believer  a man From among the people Of Pharaoh  who had concealed His faith  said     Will ye Slay a man because he Says    My Lord is God    — When he has indeed come To you with Clear  Signs  From your Lord   And if He be a liar  on him Is  the sin of  his lie   But  if he is telling The Truth  then will Fall on you something Of the  calamity  of which He warns you   truly God guides not one Who transgresses and lies  </t>
+    <t xml:space="preserve">   A Believer  a man From among the people Of Pharaoh  who had concealed His faith  said     Will ye Slay a man because he Says    My Lord is God      When he has indeed come To you with Clear  Signs  From your Lord   And if He be a liar  on him Is  the sin of  his lie   But  if he is telling The Truth  then will Fall on you something Of the  calamity  of which He warns you   truly God guides not one Who transgresses and lies  </t>
   </si>
   <si>
     <t xml:space="preserve">     O my People   yours Is the dominion this day   Ye have the upper hand In the land   but who Will help us from The Punishment of God  Should it befall us     Pharaoh said     I but Point out to you that Which I see  myself    Nor do I guide you But to the Path of Right    </t>
   </si>
   <si>
-    <t xml:space="preserve">   Then said the man Who believed     O my People   Truly I do fear For you something like The Day  of disaster  Of the Confederates  in sin   —</t>
+    <t xml:space="preserve">   Then said the man Who believed     O my People   Truly I do fear For you something like The Day  of disaster  Of the Confederates  in sin    </t>
   </si>
   <si>
     <t xml:space="preserve">     Something like the fate Of the People of Noah  The  Ad  and the Thamūd  And those who came After them   but God Never wishes injustice To His Servants </t>
   </si>
   <si>
-    <t xml:space="preserve">     And O my People   I fear for you a Day When there will be Mutual calling  and wailing  —</t>
+    <t xml:space="preserve">     And O my People   I fear for you a Day When there will be Mutual calling  and wailing   </t>
   </si>
   <si>
     <t xml:space="preserve">     A Day when ye Shall turn your backs And flee   no defender Shall ye have from God   Any whom God leaves To stray  there is none To guide </t>
   </si>
   <si>
-    <t xml:space="preserve">     And to you there came Joseph in times gone by  With Clear Signs  but Ye ceased not to doubt Of the  mission  for which He had come   at length  When he died  ye said     No apostle will God send After him    Thus doth God Leave to stray such as Transgress and live in doubt —</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Such  as dispute about The Signs of God  Without any authority That hath reached them  Grievous and odious  Is such conduct  In the sight of God And of the Believers  Thus doth God seal up Every heart—of arrogant And obstinate transgressors  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Pharaoh said     O Hāmān   Build me a lofty palace  That I may attain The ways and means—</t>
+    <t xml:space="preserve">     And to you there came Joseph in times gone by  With Clear Signs  but Ye ceased not to doubt Of the  mission  for which He had come   at length  When he died  ye said     No apostle will God send After him    Thus doth God Leave to stray such as Transgress and live in doubt  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Such  as dispute about The Signs of God  Without any authority That hath reached them  Grievous and odious  Is such conduct  In the sight of God And of the Believers  Thus doth God seal up Every heart of arrogant And obstinate transgressors  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Pharaoh said     O Hāmān   Build me a lofty palace  That I may attain The ways and means </t>
   </si>
   <si>
     <t xml:space="preserve">     The ways and means Of  reaching  the heavens  And that I may mount up To the God of Moses   But as far as I am concerned  I think  Moses  is a liar     Thus was made alluring  In Pharaoh s eyes  The evil of his deeds  And he was hindered From the Path   and the plot Of Pharaoh led to nothing But perdition  for him     </t>
@@ -12436,7 +12436,7 @@
     <t xml:space="preserve">     O my People   This life Of the present is nothing But  temporary  convenience   It is the Hereafter That is the Home That will last </t>
   </si>
   <si>
-    <t xml:space="preserve">     He that works evil Will not be requited But by the like thereof   And he that works A righteous deed—whether Man or woman—and is A Believer—such will enter The Garden  of Bliss    therein Will they have abundance Without measure </t>
+    <t xml:space="preserve">     He that works evil Will not be requited But by the like thereof   And he that works A righteous deed whether Man or woman and is A Believer such will enter The Garden  of Bliss    therein Will they have abundance Without measure </t>
   </si>
   <si>
     <t xml:space="preserve">     And O my People   How  strange  it is For me to call you To Salvation while ye Call me to the Fire  </t>
@@ -12469,13 +12469,13 @@
     <t xml:space="preserve">   They will say     Did there Not come to you Your apostles with Clear Signs     They will say    Yes    They will reply    Then Pray  as ye like    But The Prayer of those Without Faith is nothing But  futile wandering  In  mazes of  error       </t>
   </si>
   <si>
-    <t xml:space="preserve">   We will  without doubt  Help Our apostles and those Who believe   both  In this world s life And on the Day When the Witnesses Will stand forth —</t>
+    <t xml:space="preserve">   We will  without doubt  Help Our apostles and those Who believe   both  In this world s life And on the Day When the Witnesses Will stand forth  </t>
   </si>
   <si>
     <t xml:space="preserve">   The Day when no profit Will it be to Wrong doers To present their excuses  But they will  only  have The Curse and the Home Of Misery </t>
   </si>
   <si>
-    <t xml:space="preserve">   We did aforetime give Moses The  Book of  Guidance  And We gave the Book In inheritance to the Children Of Israel —</t>
+    <t xml:space="preserve">   We did aforetime give Moses The  Book of  Guidance  And We gave the Book In inheritance to the Children Of Israel  </t>
   </si>
   <si>
     <t xml:space="preserve">   A Guide and a Message To men of understanding </t>
@@ -12484,7 +12484,7 @@
     <t xml:space="preserve">   Patiently  then  persevere   For the Promise of God Is true   and ask forgiveness For thy fault  and celebrate The Praises of thy Lord In the evening And in the morning </t>
   </si>
   <si>
-    <t xml:space="preserve">   Those who dispute About the Signs of God Without any authority Bestowed on them —there is Nothing in their breasts But  the quest of  greatness  Which they shall never Attain to   seek refuge  Then  in God   it is He Who hears and sees  all things  </t>
+    <t xml:space="preserve">   Those who dispute About the Signs of God Without any authority Bestowed on them  there is Nothing in their breasts But  the quest of  greatness  Which they shall never Attain to   seek refuge  Then  in God   it is He Who hears and sees  all things  </t>
   </si>
   <si>
     <t xml:space="preserve">   Assuredly the creation Of the heavens And the earth Is a greater  matter  Than the creation of men   Yet most men understand not </t>
@@ -12496,7 +12496,7 @@
     <t xml:space="preserve">   The Hour will certainly come   Therein is no doubt   Yet most men believe not </t>
   </si>
   <si>
-    <t xml:space="preserve">   And your Lord says     Call on Me   I Will answer your  Prayer    But those who are Too arrogant to serve Me Will surely find themselves In Hell—in humiliation       </t>
+    <t xml:space="preserve">   And your Lord says     Call on Me   I Will answer your  Prayer    But those who are Too arrogant to serve Me Will surely find themselves In Hell in humiliation       </t>
   </si>
   <si>
     <t xml:space="preserve">   It is God Who has Made the Night for you  That ye may rest therein  And the Day  as that Which helps  you  to see  Verily God is Full of Grace and Bounty to men   Yet most men give No thanks </t>
@@ -12508,34 +12508,34 @@
     <t xml:space="preserve">   Thus are deluded those Who are wont to reject The Signs of God </t>
   </si>
   <si>
-    <t xml:space="preserve">   It is God Who has Made for you the earth As a resting place  And the sky as a canopy  And has given you shape—And made your shapes Beautiful —and has provided For you Sustenance  Of things pure and good  —Such is God your Lord  So Glory to God  The Lord of the Worlds  </t>
+    <t xml:space="preserve">   It is God Who has Made for you the earth As a resting place  And the sky as a canopy  And has given you shape And made your shapes Beautiful  and has provided For you Sustenance  Of things pure and good   Such is God your Lord  So Glory to God  The Lord of the Worlds  </t>
   </si>
   <si>
     <t xml:space="preserve">   He is the Living  One    There is no god but He   Call upon Him  giving Him Sincere devotion  Praise be To God  Lord of the Worlds  </t>
   </si>
   <si>
-    <t xml:space="preserve">   Say     I have been forbidden To invoke those whom ye Invoke besides God —seeing that The Clear Signs have come To me from my Lord   And I have been commanded To bow  in Islām  To the Lord of the Worlds  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   It is He Who has Created you from dust  Then from a sperm drop  Then from a leech like clot   Then does He get you Out  into the light  As a child   then lets you  Grow and  reach your age Of full strength   then Lets you become old —Though of you there are Some who die before  —And lets you reach A Term appointed   In order that ye May learn wisdom </t>
+    <t xml:space="preserve">   Say     I have been forbidden To invoke those whom ye Invoke besides God  seeing that The Clear Signs have come To me from my Lord   And I have been commanded To bow  in Islām  To the Lord of the Worlds  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   It is He Who has Created you from dust  Then from a sperm drop  Then from a leech like clot   Then does He get you Out  into the light  As a child   then lets you  Grow and  reach your age Of full strength   then Lets you become old  Though of you there are Some who die before   And lets you reach A Term appointed   In order that ye May learn wisdom </t>
   </si>
   <si>
     <t xml:space="preserve">   It is He Who gives Life And Death   and when He Decides upon an affair  He says to it    Be    And it is    </t>
   </si>
   <si>
-    <t xml:space="preserve">   Seest thou not those That dispute concerning The Signs of God   How are they turned away  From Reality   —</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Those who reject the Book And the  revelations  with which We sent Our apostles   But soon shall they know —</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   When the yokes  shall be  Round their necks  And the chains   They shall be dragged along—</t>
+    <t xml:space="preserve">   Seest thou not those That dispute concerning The Signs of God   How are they turned away  From Reality    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Those who reject the Book And the  revelations  with which We sent Our apostles   But soon shall they know  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   When the yokes  shall be  Round their necks  And the chains   They shall be dragged along </t>
   </si>
   <si>
     <t xml:space="preserve">   In the boiling fetid fluid   Then in the Fire Shall they be burned  </t>
   </si>
   <si>
-    <t xml:space="preserve">   Then shall it be said To them     Where are The  deities  to which Ye gave part worship—</t>
+    <t xml:space="preserve">   Then shall it be said To them     Where are The  deities  to which Ye gave part worship </t>
   </si>
   <si>
     <t xml:space="preserve">     In derogation of God     They will reply     They have Left us in the lurch   Nay  we invoked not  Of old  anything  that had Real existence    Thus Does God leave The Unbelievers to stray </t>
@@ -12547,7 +12547,7 @@
     <t xml:space="preserve">     Enter ye the gates Of Hell  to dwell therein   And evil is  this  abode Of the arrogant    </t>
   </si>
   <si>
-    <t xml:space="preserve">   So persevere in patience   For the Promise of God Is true   and whether We show thee  in this life  Some part of what We Promise them —or We Take thy soul  to Our Mercy   Before that  — in any case  It is to Us that They shall  all  return </t>
+    <t xml:space="preserve">   So persevere in patience   For the Promise of God Is true   and whether We show thee  in this life  Some part of what We Promise them  or We Take thy soul  to Our Mercy   Before that    in any case  It is to Us that They shall  all  return </t>
   </si>
   <si>
     <t xml:space="preserve">   We did aforetime send Apostles before thee   of them There are some whose story We have related to thee  And some whose story We have not related To thee  It was not  Possible  for any apostle To bring a Sign except By the leave of God   But when the Command Of God issued  The matter was decided In truth and justice  And there perished  There and then  those Who stood on Falsehoods    </t>
@@ -12568,7 +12568,7 @@
     <t xml:space="preserve">   For when their apostles Came to them With Clear Signs  they exulted In such knowledge  and skill  As they had   but That very  Wrath  at which They were wont to scoff Hemmed them in </t>
   </si>
   <si>
-    <t xml:space="preserve">   But when they saw Our Punishment  they said     We believe in God —The One God—and we Reject the partners we used To join with Him  </t>
+    <t xml:space="preserve">   But when they saw Our Punishment  they said     We believe in God  The One God and we Reject the partners we used To join with Him  </t>
   </si>
   <si>
     <t xml:space="preserve">   But their professing the Faith When they  actually  saw Our Punishment was not going To profit them   Such has been  God s way Of dealing with His servants  From the most ancient times   And even thus did The rejecters of God Perish  utterly   </t>
@@ -12577,10 +12577,10 @@
     <t xml:space="preserve">   Hā Mīm  </t>
   </si>
   <si>
-    <t xml:space="preserve">   A revelation from  God   Most Gracious  Most Merciful  —</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A Book  whereof the verses Are explained in detail  —A Qur ān in Arabic  For people who understand  —</t>
+    <t xml:space="preserve">   A revelation from  God   Most Gracious  Most Merciful   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   A Book  whereof the verses Are explained in detail   A Qur ān in Arabic  For people who understand   </t>
   </si>
   <si>
     <t xml:space="preserve">   Giving Good News And Admonition   yet most Of them turn away  And so they hear not </t>
@@ -12589,7 +12589,7 @@
     <t xml:space="preserve">   They say     Our hearts are Under veils   concealed  From that to which thou Dost invite us  and In our ears is a deafness  And between us and thee Is a screen   so do Thou  what thou wilt    For us  we shall do  What we will     </t>
   </si>
   <si>
-    <t xml:space="preserve">   Say thou     I am But a man like you   It is revealed to me By inspiration  that your God Is One God   so stand True to Him  and ask For His forgiveness    And woe to those who Join gods with God —</t>
+    <t xml:space="preserve">   Say thou     I am But a man like you   It is revealed to me By inspiration  that your God Is One God   so stand True to Him  and ask For His forgiveness    And woe to those who Join gods with God  </t>
   </si>
   <si>
     <t xml:space="preserve">   Those who practice not Regular Charity  and who Even deny the Hereafter </t>
@@ -12634,7 +12634,7 @@
     <t xml:space="preserve">   At length  when they reach The  Fire   their hearing  Their sight  and their skins Will bear witness against them  As to  all  their deeds </t>
   </si>
   <si>
-    <t xml:space="preserve">   They will say to their skins     Why bear ye witness Against us     They will say     God hath given us speech — He  Who giveth speech To everything   He created You for the first time  And unto Him were ye To return </t>
+    <t xml:space="preserve">   They will say to their skins     Why bear ye witness Against us     They will say     God hath given us speech   He  Who giveth speech To everything   He created You for the first time  And unto Him were ye To return </t>
   </si>
   <si>
     <t xml:space="preserve">     Ye did not seek To hide yourselves  lest Your hearing  your sight  And your skins should bear Witness against you   But Ye did think that God Knew not many of the things That ye used to do  </t>
@@ -12655,7 +12655,7 @@
     <t xml:space="preserve">   But We will certainly Give the Unbelievers a taste Of a severe Penalty  And We will requite them For the worst of their deeds </t>
   </si>
   <si>
-    <t xml:space="preserve">   Such is the requital Of the enemies of God —The Fire   therein will be For them the Eternal Home   A  fit  requital  for That they were wont To reject Our Signs </t>
+    <t xml:space="preserve">   Such is the requital Of the enemies of God  The Fire   therein will be For them the Eternal Home   A  fit  requital  for That they were wont To reject Our Signs </t>
   </si>
   <si>
     <t xml:space="preserve">   And the Unbelievers will say     Our Lord   Show us those  Among Jinns and men  Who misled us   we shall Crush them beneath our feet  So that they become The vilest  before all    </t>
@@ -12664,7 +12664,7 @@
     <t xml:space="preserve">   In the case of those Who say    Our Lord Is God    and  further  Stand straight and steadfast  The angels descend on them  From time to time      Fear ye not      they suggest     Nor grieve   But receive The Glad Tidings Of the Garden  of Bliss   The which ye were promised  </t>
   </si>
   <si>
-    <t xml:space="preserve">     We are your protectors In this life and In the Hereafter   Therein shall ye have All that your souls Shall desire   therein Shall ye have all That ye ask for  —</t>
+    <t xml:space="preserve">     We are your protectors In this life and In the Hereafter   Therein shall ye have All that your souls Shall desire   therein Shall ye have all That ye ask for   </t>
   </si>
   <si>
     <t xml:space="preserve">     A hospitable gift from One Oft Forgiving  Most Merciful       </t>
@@ -12676,7 +12676,7 @@
     <t xml:space="preserve">   Nor can Goodness and Evil Be equal  Repel  Evil  With what is better   Then will he between whom And thee was hatred Become as it were Thy friend and intimate  </t>
   </si>
   <si>
-    <t xml:space="preserve">   And no one will be Granted such goodness Except those who exercise Patience and self restraint —None but persons of The greatest good fortune </t>
+    <t xml:space="preserve">   And no one will be Granted such goodness Except those who exercise Patience and self restraint  None but persons of The greatest good fortune </t>
   </si>
   <si>
     <t xml:space="preserve">   And if  at any time  An incitement to discord Is made to thee By the Evil One  Seek refuge in God  He is the One Who hears and knows All things </t>
@@ -12691,7 +12691,7 @@
     <t xml:space="preserve">   And among His Signs In this   thou seest The earth barren and desolate   But when We send down Rain to it  it is stirred To life and yields increase  Truly  He Who gives life To the  dead  earth Can surely give life To  men  who are dead  For He has power Over all things </t>
   </si>
   <si>
-    <t xml:space="preserve">   Those who pervert The Truth in Our Signs Are not hidden from Us  Which is better  —he that Is cast into the Fire  Or he that comes safe through On the Day of Judgement   Do what ye will   Verily He seeth  clearly  All that ye do </t>
+    <t xml:space="preserve">   Those who pervert The Truth in Our Signs Are not hidden from Us  Which is better   he that Is cast into the Fire  Or he that comes safe through On the Day of Judgement   Do what ye will   Verily He seeth  clearly  All that ye do </t>
   </si>
   <si>
     <t xml:space="preserve">   Those who reject the Message When it comes to them  Are not hidden from Us   And indeed it is a Book Of exalted power </t>
@@ -12739,7 +12739,7 @@
     <t xml:space="preserve">    Ain  Sīn  Kāf </t>
   </si>
   <si>
-    <t xml:space="preserve">   Thus doth  He  send Inspiration to thee As  He did  to those before thee — God  Exalted in Power  Full of Wisdom </t>
+    <t xml:space="preserve">   Thus doth  He  send Inspiration to thee As  He did  to those before thee   God  Exalted in Power  Full of Wisdom </t>
   </si>
   <si>
     <t xml:space="preserve">   To Him belongs all That is in the heavens And on earth   and He Is Most High  Most Great </t>
@@ -12748,7 +12748,7 @@
     <t xml:space="preserve">   The heavens are almost Rent asunder from above them  By His Glory    And the angels celebrate The Praises of their Lord  And pray for forgiveness For  all  beings on earth   Behold   Verily God is He  the Oft Forgiving  Most Merciful </t>
   </si>
   <si>
-    <t xml:space="preserve">   And those who take As protectors others besides Him — God doth watch over them   And thou art not The disposer of their affairs </t>
+    <t xml:space="preserve">   And those who take As protectors others besides Him   God doth watch over them   And thou art not The disposer of their affairs </t>
   </si>
   <si>
     <t xml:space="preserve">   Thus have We sent By inspiration to thee An Arabic Qur ān   That thou mayest warn The Mother of Cities And all around her   And warn  them  of The Day of Assembly  Of which there is no doubt    When  some will be In the Garden  and some In the Blazing Fire </t>
@@ -12757,7 +12757,7 @@
     <t xml:space="preserve">   If God had so willed  He could have made them A single people   but He Admits whom He will To His Mercy   And the wrong doers Will have no protector Nor helper </t>
   </si>
   <si>
-    <t xml:space="preserve">   What   Have they taken  For worship  protectors Besides Him   But it is God —He is the Protector  And it is He Who Gives life to the dead   It is He Who has power Over all things    </t>
+    <t xml:space="preserve">   What   Have they taken  For worship  protectors Besides Him   But it is God  He is the Protector  And it is He Who Gives life to the dead   It is He Who has power Over all things    </t>
   </si>
   <si>
     <t xml:space="preserve">   Whatever it be wherein Ye differ  the decision Thereof is with God   Such is God my Lord   In Him I trust  And to Him I turn </t>
@@ -12772,13 +12772,13 @@
     <t xml:space="preserve">   The same religion has He Established for you as that Which He enjoined on Noah The which We have sent By inspiration to thee And that which We enjoined On Abraham  Moses  and Jesus   Namely  that ye should remain Steadfast in Religion  and make No divisions therein   To those who worship Other things than God  Hard is the  way  To which thou callest them  God chooses to Himself Those whom He pleases  And guides to Himself Those who turn  to Him  </t>
   </si>
   <si>
-    <t xml:space="preserve">   And they became divided Only after knowledge Reached them —through selfish Envy as between themselves  Had it not been For a Word that Went forth before From thy Lord   Tending  to a Term appointed  The matter would have Been settled between them   But truly those who have Inherited the Book after them Are in suspicious  disquieting  Doubt concerning it </t>
+    <t xml:space="preserve">   And they became divided Only after knowledge Reached them  through selfish Envy as between themselves  Had it not been For a Word that Went forth before From thy Lord   Tending  to a Term appointed  The matter would have Been settled between them   But truly those who have Inherited the Book after them Are in suspicious  disquieting  Doubt concerning it </t>
   </si>
   <si>
     <t xml:space="preserve">   Now then  for that  reason   Call  them to the Faith   And stand steadfast As thou art commanded  Nor follow thou their vain Desires   but say     I believe In the Book which God has sent down   And I am commanded To judge justly between you  God is Our Lord And your Lord  For us  Is the responsibility for  Our deeds  and for you For your deeds  There is No contention between us And you  God will Bring us together  And to Him is  Our  final goal </t>
   </si>
   <si>
-    <t xml:space="preserve">   But those who dispute Concerning God after He Has been accepted — Futile is their dispute In the sight of Their Lord   on them Is Wrath and for them Will be a Penalty Terrible </t>
+    <t xml:space="preserve">   But those who dispute Concerning God after He Has been accepted   Futile is their dispute In the sight of Their Lord   on them Is Wrath and for them Will be a Penalty Terrible </t>
   </si>
   <si>
     <t xml:space="preserve">   It is God Who has Sent down the Book in truth  And the Balance  By which to weigh conduct   And what will make thee Realise that perhaps the Hour Is close at hand  </t>
@@ -12886,7 +12886,7 @@
     <t xml:space="preserve">   It is not fitting For a man that God Should speak to him Except by inspiration  Or from behind a veil  Or by the sending Of a Messenger To reveal  with God s permission  What God wills   for He Is Most High  Most Wise </t>
   </si>
   <si>
-    <t xml:space="preserve">   And thus have We  By Our command  sent Inspiration to thee   Thou knowest not  before  What was Revelation  and What was Faith   but We Have made the  Qur ān  A Light  wherewith We Guide such of Our servants As We will   and verily Thou dost guide  men  To the Straight Way —</t>
+    <t xml:space="preserve">   And thus have We  By Our command  sent Inspiration to thee   Thou knowest not  before  What was Revelation  and What was Faith   but We Have made the  Qur ān  A Light  wherewith We Guide such of Our servants As We will   and verily Thou dost guide  men  To the Straight Way  </t>
   </si>
   <si>
     <t xml:space="preserve">   The Way of God  To Whom belongs Whatever is in the heavens And whatever is on earth  Behold  how  all affairs Tend towards God  </t>
@@ -12895,7 +12895,7 @@
     <t xml:space="preserve">   Ha Mīm </t>
   </si>
   <si>
-    <t xml:space="preserve">   By the Book that Makes things clear —</t>
+    <t xml:space="preserve">   By the Book that Makes things clear  </t>
   </si>
   <si>
     <t xml:space="preserve">   We have made it A Qur ān in Arabic  That ye may be able To understand  and learn wisdom  </t>
@@ -12913,16 +12913,16 @@
     <t xml:space="preserve">   And never came there A prophet to them But they mocked him </t>
   </si>
   <si>
-    <t xml:space="preserve">   So We destroyed  them —Stronger in power than these  —And  thus  has passed on The Parable of the peoples Of old </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   If thou wert To question them    Who created The heavens and the earth     They would be sure to reply    They were created by  Him   The Exalted in Power  Full of Knowledge    —</t>
+    <t xml:space="preserve">   So We destroyed  them  Stronger in power than these   And  thus  has passed on The Parable of the peoples Of old </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   If thou wert To question them    Who created The heavens and the earth     They would be sure to reply    They were created by  Him   The Exalted in Power  Full of Knowledge     </t>
   </si>
   <si>
     <t xml:space="preserve">    Yea  the same that  Has made for you The earth  like a carpet  Spread out  and has made For you roads  and channels  Therein  in order that ye May find guidance  on the way   </t>
   </si>
   <si>
-    <t xml:space="preserve">   That sends down  From time to time  Rain from the sky In due measure  — And We raise to life Therewith a land that is Dead   even so will ye Be raised  from the dead   —</t>
+    <t xml:space="preserve">   That sends down  From time to time  Rain from the sky In due measure    And We raise to life Therewith a land that is Dead   even so will ye Be raised  from the dead    </t>
   </si>
   <si>
     <t xml:space="preserve">   That has created pairs In all things  and has made For you ships and cattle On which ye ride </t>
@@ -13087,13 +13087,13 @@
     <t xml:space="preserve">   But sects from among Themselves fell into disagreement   Then woe to the wrong doers  From the Penalty Of a Grievous Day  </t>
   </si>
   <si>
-    <t xml:space="preserve">   Do they only wait For the Hour—that it Should come on them All of a sudden  While they perceive not  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Friends on that Day Will be foes  one To another —except The Righteous    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   My devotees   No fear shall be On you that Day  Nor shall ye grieve —</t>
+    <t xml:space="preserve">   Do they only wait For the Hour that it Should come on them All of a sudden  While they perceive not  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Friends on that Day Will be foes  one To another  except The Righteous    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   My devotees   No fear shall be On you that Day  Nor shall ye grieve  </t>
   </si>
   <si>
     <t xml:space="preserve">    Being  those who have believed In Our Signs and bowed  Their wills to Ours  in Islām </t>
@@ -13147,7 +13147,7 @@
     <t xml:space="preserve">   And blessed is He To Whom belongs the dominion Of the heavens and the earth  And all between them   With Him is the knowledge Of the Hour  of Judgment    And to Him shall ye Be brought back </t>
   </si>
   <si>
-    <t xml:space="preserve">   And those whom they invoke Besides God have no power Of intercession  —only he Who bears witness to the Truth  And they know  him  </t>
+    <t xml:space="preserve">   And those whom they invoke Besides God have no power Of intercession   only he Who bears witness to the Truth  And they know  him  </t>
   </si>
   <si>
     <t xml:space="preserve">   If thou ask them  Who Created them  they will Certainly say  God   how Then are they deluded Away  from the Truth   </t>
@@ -13159,7 +13159,7 @@
     <t xml:space="preserve">   But turn away from them  And say   Peace     But soon shall they know  </t>
   </si>
   <si>
-    <t xml:space="preserve">   By the Book that Makes things clear  —</t>
+    <t xml:space="preserve">   By the Book that Makes things clear   </t>
   </si>
   <si>
     <t xml:space="preserve">   We sent it down During a blessed night   For We  ever  wish To warn  against Evil  </t>
@@ -13177,7 +13177,7 @@
     <t xml:space="preserve">   The Lord of the heavens And the earth and all Between them  if ye  but  Have an assured faith </t>
   </si>
   <si>
-    <t xml:space="preserve">   There is no god but He   It is He Who gives life And gives death — The Lord and Cherisher To you and your earliest Ancestors </t>
+    <t xml:space="preserve">   There is no god but He   It is He Who gives life And gives death   The Lord and Cherisher To you and your earliest Ancestors </t>
   </si>
   <si>
     <t xml:space="preserve">   Yet they play about In doubt </t>
@@ -13192,7 +13192,7 @@
     <t xml:space="preserve">    They will say &amp;colon     Our Lord   Remove The Penalty from us  For We do really believe    </t>
   </si>
   <si>
-    <t xml:space="preserve">   How shall the Message Be  effectual  for them  Seeing that an Apostle Explaining things clearly Has  already  come to them —</t>
+    <t xml:space="preserve">   How shall the Message Be  effectual  for them  Seeing that an Apostle Explaining things clearly Has  already  come to them  </t>
   </si>
   <si>
     <t xml:space="preserve">   Yet they turn away From him and say     Tutored  By others   a man possessed    </t>
@@ -13273,7 +13273,7 @@
     <t xml:space="preserve">   We created them not Except for just ends   But most of them Do not understand </t>
   </si>
   <si>
-    <t xml:space="preserve">   Verily the Day of Sorting Out is the time Appointed for all of them —</t>
+    <t xml:space="preserve">   Verily the Day of Sorting Out is the time Appointed for all of them  </t>
   </si>
   <si>
     <t xml:space="preserve">   The Day when no protector Can avail his client In aught  and no help Can they receive </t>
@@ -13285,7 +13285,7 @@
     <t xml:space="preserve">   Verily the tree Of Zaqqūm</t>
   </si>
   <si>
-    <t xml:space="preserve">   Will be the food Of the Sinful —</t>
+    <t xml:space="preserve">   Will be the food Of the Sinful  </t>
   </si>
   <si>
     <t xml:space="preserve">   Like molten brass   It will boil In their insides </t>
@@ -13321,7 +13321,7 @@
     <t xml:space="preserve">   There can they call For every kind of fruit In peace and security  </t>
   </si>
   <si>
-    <t xml:space="preserve">   Nor will they there Taste Death  except the first Death   and He will preserve Them from the Penalty Of the Blazing Fire —</t>
+    <t xml:space="preserve">   Nor will they there Taste Death  except the first Death   and He will preserve Them from the Penalty Of the Blazing Fire  </t>
   </si>
   <si>
     <t xml:space="preserve">   As a Bounty from thy Lord   That will be The supreme achievement  </t>
@@ -13342,7 +13342,7 @@
     <t xml:space="preserve">   And in the creation Of yourselves and the fact That animals are scattered  Through the earth   are Signs For those of assured Faith </t>
   </si>
   <si>
-    <t xml:space="preserve">   And in the alternation Of Night and Day  And the fact that God Sends down Sustenance from The sky  and revives therewith The earth after its death  And the change Of the winds —are Signs For those that are wise </t>
+    <t xml:space="preserve">   And in the alternation Of Night and Day  And the fact that God Sends down Sustenance from The sky  and revives therewith The earth after its death  And the change Of the winds  are Signs For those that are wise </t>
   </si>
   <si>
     <t xml:space="preserve">   Such are the Signs Of God  which We rehearse to thee In truth   then in what Exposition will they believe After  rejecting  God And His Signs  </t>
@@ -13390,7 +13390,7 @@
     <t xml:space="preserve">   These are clear evidences To men  and a Guidance And Mercy to those Of assured Faith </t>
   </si>
   <si>
-    <t xml:space="preserve">   What   do those who Seek after evil ways Think that We shall Hold them equal with Those who believe and Do righteous deeds —that Equal will be their Life and their death   Ill is the judgment That they make    </t>
+    <t xml:space="preserve">   What   do those who Seek after evil ways Think that We shall Hold them equal with Those who believe and Do righteous deeds  that Equal will be their Life and their death   Ill is the judgment That they make    </t>
   </si>
   <si>
     <t xml:space="preserve">   God created the heavens And the earth for Just ends  and in order That each soul may find The recompense of what It has earned  and none Of them be wronged </t>
@@ -13408,7 +13408,7 @@
     <t xml:space="preserve">   Say     It is God Who Gives you life  then Gives you death   then He will gather you together For the Day of Judgement About which there is No doubt     but most Men do not understand    </t>
   </si>
   <si>
-    <t xml:space="preserve">   To God belongs The dominion of the heavens And the earth  and The Day that the Hour Of Judgment is established —That Day will the dealers In Falsehood perish  </t>
+    <t xml:space="preserve">   To God belongs The dominion of the heavens And the earth  and The Day that the Hour Of Judgment is established  That Day will the dealers In Falsehood perish  </t>
   </si>
   <si>
     <t xml:space="preserve">   And thou wilt see Every sect bowing the knee   Every sect will be called To its Record     This Day Shall ye be recompensed For all that ye did  </t>
@@ -13423,7 +13423,7 @@
     <t xml:space="preserve">   But as to those who Rejected God   to them Will be said      Were not Our Signs rehearsed to you   But ye were arrogant  And were a people Given to sin  </t>
   </si>
   <si>
-    <t xml:space="preserve">     And when it was said That the promise of God Was true  and that the Hour—There was no doubt About its  coming   ye Used to say    We Know not what is The Hour   we only think It is an idea  and we Have no firm assurance     </t>
+    <t xml:space="preserve">     And when it was said That the promise of God Was true  and that the Hour There was no doubt About its  coming   ye Used to say    We Know not what is The Hour   we only think It is an idea  and we Have no firm assurance     </t>
   </si>
   <si>
     <t xml:space="preserve">   Then will appear to them The evil  fruits  of what They did  and they will be Completely encircled by that Which they used to mock at  </t>
@@ -13435,7 +13435,7 @@
     <t xml:space="preserve">     This  because ye used To take the Signs of God In jest  and the life Of the world deceived you      From  the Day  therefore  They shall not be taken out Thence  nor shall they be Received into Grace </t>
   </si>
   <si>
-    <t xml:space="preserve">   Then Praise be to God  Lord of the heavens And Lord of the earth —Lord and Cherisher Of all the worlds  </t>
+    <t xml:space="preserve">   Then Praise be to God  Lord of the heavens And Lord of the earth  Lord and Cherisher Of all the worlds  </t>
   </si>
   <si>
     <t xml:space="preserve">   To Him be Glory Throughout the heavens And the earth   and He Is Exalted in Power  Full of Wisdom  </t>
@@ -13471,7 +13471,7 @@
     <t xml:space="preserve">   And before this  was The Book of Moses As a guide and a mercy   And this Book confirms  it  In the Arabic tongue   To admonish the unjust  And as Glad Tidings To those who do right </t>
   </si>
   <si>
-    <t xml:space="preserve">   Verily those who say    Our Lord is God    And remain firm  On that Path  — On them shall be no fear  Nor shall they grieve </t>
+    <t xml:space="preserve">   Verily those who say    Our Lord is God    And remain firm  On that Path    On them shall be no fear  Nor shall they grieve </t>
   </si>
   <si>
     <t xml:space="preserve">   Such shall be Companions Of the Garden  dwelling Therein  for aye    a recompense For their  good  deeds </t>
@@ -13504,10 +13504,10 @@
     <t xml:space="preserve">   He said     The Knowledge  Of when it will come  Is only with God   I Proclaim to you the mission On which I have been sent   But I see that ye Are a people in ignorance      </t>
   </si>
   <si>
-    <t xml:space="preserve">   Then  when they saw The  Penalty in the shape of  A cloud traversing the sky  Coming to meet their valleys  They said    This cloud Will give us rain       Nay  it is the  calamity  Ye were asking to be Hastened  — a wind Wherein is a Grievous Penalty  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">     Everything will it destroy By the command of its Lord     Then by the morning they— Nothing was to be seen But  the ruins of  their houses   Thus do We recompense Those given to sin  </t>
+    <t xml:space="preserve">   Then  when they saw The  Penalty in the shape of  A cloud traversing the sky  Coming to meet their valleys  They said    This cloud Will give us rain       Nay  it is the  calamity  Ye were asking to be Hastened    a wind Wherein is a Grievous Penalty  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Everything will it destroy By the command of its Lord     Then by the morning they  Nothing was to be seen But  the ruins of  their houses   Thus do We recompense Those given to sin  </t>
   </si>
   <si>
     <t xml:space="preserve">   And We had firmly established Them in a  prosperity and  power Which We have not given To you  ye Quraish    And We had endowed them With  faculties of  Hearing  seeing  heart and intellect   But of no profit to them Were their  faculties of  Hearing  sight  and heart And intellect  when they Went on rejecting the Signs of God   and they were  Completely  encircled By that which they Used to mock at     </t>
@@ -13540,16 +13540,16 @@
     <t xml:space="preserve">   Therefore patiently persevere  As did  all  apostles Of inflexible purpose   And be in no haste About the  Unbelievers   On the Day That they see the  Punishment  Promised them   it will be  As if they had not Tarried more than an hour In a single day   Thine But  to proclaim the Message   But shall any be destroyed Except those who transgress  </t>
   </si>
   <si>
-    <t xml:space="preserve">   Those who reject God And hinder  men  from The Path of God —Their deeds will God Render astray  From their mark  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   But those who believe And work deeds of Righteousness  and believe In the  Revelation  sent down To Muhammad—for it is The Truth from their Lord —He will remove from them Their ills and improve Their condition </t>
+    <t xml:space="preserve">   Those who reject God And hinder  men  from The Path of God  Their deeds will God Render astray  From their mark  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   But those who believe And work deeds of Righteousness  and believe In the  Revelation  sent down To Muhammad for it is The Truth from their Lord  He will remove from them Their ills and improve Their condition </t>
   </si>
   <si>
     <t xml:space="preserve">   This because those who Reject God follow vanities  While those who believe follow The Truth from their Lord   Thus does God set forth For men their lessons By similitudes </t>
   </si>
   <si>
-    <t xml:space="preserve">   Therefore  when ye meet The Unbelievers  in fight   Smite at their necks   At length  when ye have Thoroughly subdued them  Bind a bond Firmly  on them    thereafter  Is the time for  either Generosity or ransom   Until the war lays down Its burdens  Thus  are ye Commanded    but if it Had been God s Will  He could certainly have exacted Retribution from them  Himself    but  He lets you fight  In order to test you  Some with others  But those who are slain In the way of God —He will never let Their deeds be lost </t>
+    <t xml:space="preserve">   Therefore  when ye meet The Unbelievers  in fight   Smite at their necks   At length  when ye have Thoroughly subdued them  Bind a bond Firmly  on them    thereafter  Is the time for  either Generosity or ransom   Until the war lays down Its burdens  Thus  are ye Commanded    but if it Had been God s Will  He could certainly have exacted Retribution from them  Himself    but  He lets you fight  In order to test you  Some with others  But those who are slain In the way of God  He will never let Their deeds be lost </t>
   </si>
   <si>
     <t xml:space="preserve">   Soon will He guide them And improve their condition </t>
@@ -13561,7 +13561,7 @@
     <t xml:space="preserve">   O ye who believe   If ye will aid  The cause of  God  He will aid you  And plant your feet firmly </t>
   </si>
   <si>
-    <t xml:space="preserve">   But those who reject  God  —For them is destruction  And  God  will render Their deeds astray  from their mark  </t>
+    <t xml:space="preserve">   But those who reject  God   For them is destruction  And  God  will render Their deeds astray  from their mark  </t>
   </si>
   <si>
     <t xml:space="preserve">   That is because they Hate the Revelation of God   So He has made Their deeds fruitless </t>
@@ -13591,13 +13591,13 @@
     <t xml:space="preserve">   But to those who receive Guidance  He increases  The light of  Guidance  And bestows on them Their Piety and Restraint  From evil  </t>
   </si>
   <si>
-    <t xml:space="preserve">   Do they then only wait For the Hour —that it Should come on them Of a sudden   But already Have come some tokens Thereof  and when it  Actually  is on them  How can they benefit Then by their admonition  </t>
+    <t xml:space="preserve">   Do they then only wait For the Hour  that it Should come on them Of a sudden   But already Have come some tokens Thereof  and when it  Actually  is on them  How can they benefit Then by their admonition  </t>
   </si>
   <si>
     <t xml:space="preserve">   Know  therefore  that There is no god But God  and ask Forgiveness for thy fault  And for the men And women who believe   For God knows how ye Move about and how Ye dwell in your homes    </t>
   </si>
   <si>
-    <t xml:space="preserve">   Those who believe say    Why is not a Sūra Sent down  for us      But when a Sūra Of basic or categorical Meaning is revealed  And fighting is mentioned Therein  thou wilt see those In whose hearts is a disease Looking at thee with a look Of one in swoon at The approach of death  But more fitting for them—</t>
+    <t xml:space="preserve">   Those who believe say    Why is not a Sūra Sent down  for us      But when a Sūra Of basic or categorical Meaning is revealed  And fighting is mentioned Therein  thou wilt see those In whose hearts is a disease Looking at thee with a look Of one in swoon at The approach of death  But more fitting for them </t>
   </si>
   <si>
     <t xml:space="preserve">   Were it to obey And say what is just  And when a matter Is resolved on  it were Best for them if they Were true to God </t>
@@ -13612,7 +13612,7 @@
     <t xml:space="preserve">   Do they not then Earnestly seek to understand The Qur ān  or are Their hearts locked up By them </t>
   </si>
   <si>
-    <t xml:space="preserve">   Those who turn back As apostates after Guidance Was clearly shown to them —The Evil One has instigated Them and buoyed them up With false hopes </t>
+    <t xml:space="preserve">   Those who turn back As apostates after Guidance Was clearly shown to them  The Evil One has instigated Them and buoyed them up With false hopes </t>
   </si>
   <si>
     <t xml:space="preserve">   This  because they said To those who hate what God has revealed    We Will obey you in part Of  this  matter     but God Knows their  inner  secrets </t>
@@ -13639,7 +13639,7 @@
     <t xml:space="preserve">   O ye who believe   Obey God  and obey The Apostle  and make Not vain your deeds  </t>
   </si>
   <si>
-    <t xml:space="preserve">   Those who reject God  And hinder  men  from the Path Of God  then die rejecting God —God will not forgive them </t>
+    <t xml:space="preserve">   Those who reject God  And hinder  men  from the Path Of God  then die rejecting God  God will not forgive them </t>
   </si>
   <si>
     <t xml:space="preserve">   Be not weary and Faint hearted  crying for peace  When ye should be Uppermost   for God is With you  and will never Put you in loss For your  good  deeds </t>
@@ -13663,10 +13663,10 @@
     <t xml:space="preserve">   And that God may help Thee with powerful help </t>
   </si>
   <si>
-    <t xml:space="preserve">   It is He Who sent Down Tranquillity Into the hearts of The Believers  that they may Add Faith to their Faith  —For to God belong The Forces of the heavens And the earth   and God is Full of Knowledge and Wisdom  —</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   That He may admit The men and women Who believe  to Gardens Beneath which rivers flow  To dwell therein for aye  And remove their ills From them   and that is  In the sight of God  The highest achievement  For man  —</t>
+    <t xml:space="preserve">   It is He Who sent Down Tranquillity Into the hearts of The Believers  that they may Add Faith to their Faith   For to God belong The Forces of the heavens And the earth   and God is Full of Knowledge and Wisdom   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   That He may admit The men and women Who believe  to Gardens Beneath which rivers flow  To dwell therein for aye  And remove their ills From them   and that is  In the sight of God  The highest achievement  For man   </t>
   </si>
   <si>
     <t xml:space="preserve">   And that He may punish The Hypocrites  men and Women  and the Polytheists  Men and women  who imagine An evil opinion of God  On them is a round Of Evil   the Wrath of God Is on them   He has cursed Them and got Hell ready For them  and evil Is it for a destination </t>
@@ -13681,7 +13681,7 @@
     <t xml:space="preserve">   In order that ye  O men  may believe In God and His Apostle  That ye may assist and honour Him  And celebrate His praises Morning and evening </t>
   </si>
   <si>
-    <t xml:space="preserve">   Verily those who plight Their fealty to thee Do no less than plight Their fealty to God   The Hand of God is Over their hands   Then any one who violates His oath  does so To the harm of his own Soul  and any one who Fulfils what he has Covenanted with God —God will soon grant him A great Reward    </t>
+    <t xml:space="preserve">   Verily those who plight Their fealty to thee Do no less than plight Their fealty to God   The Hand of God is Over their hands   Then any one who violates His oath  does so To the harm of his own Soul  and any one who Fulfils what he has Covenanted with God  God will soon grant him A great Reward    </t>
   </si>
   <si>
     <t xml:space="preserve">   The desert Arabs who Lagged behind will Say to thee     We were engaged in  Looking after  our flocks And herds  and our families   Do thou then ask Forgiveness for us    They say with their tongues What is not in their hearts  Say     Who then has Any power at all  To intervene  on your behalf With God  if His Will Is to give you some loss Or to give you some profit   But God is well acquainted With all that ye do </t>
@@ -13702,7 +13702,7 @@
     <t xml:space="preserve">   Say to the desert Arabs Who lagged behind     Ye Shall be summoned  to fight  Against a people given to Vehement war   then shall ye Fight  or they shall submit  Then if ye show obedience  God will grant you A goodly reward  but if Ye turn back as ye Did before  He will punish You with a grievous Penalty   </t>
   </si>
   <si>
-    <t xml:space="preserve">   No blame is there On the blind  nor is There blame on the lame  Nor on one ill  if he Joins not the war    But he that obeys God And His Apostle — God  Will admit him to Gardens Beneath which rivers flow   And he who turns back   God  will punish him With a grievous Penalty    </t>
+    <t xml:space="preserve">   No blame is there On the blind  nor is There blame on the lame  Nor on one ill  if he Joins not the war    But he that obeys God And His Apostle   God  Will admit him to Gardens Beneath which rivers flow   And he who turns back   God  will punish him With a grievous Penalty    </t>
   </si>
   <si>
     <t xml:space="preserve">   God s Good Pleasure Was on the Believers When they swore Fealty To thee under the Tree   He knew what was In their hearts  and He Sent down Tranquillity To them   and He rewarded Them with a speedy Victory  </t>
@@ -13729,7 +13729,7 @@
     <t xml:space="preserve">   They are the ones who Denied revelation and hindered you From the Sacred Mosque And the sacrificial animals  Detained from reaching their Place of sacrifice  Had there Not been believing men And believing women whom Ye did not know that Ye were trampling down And on whose account A crime would have accrued To you without  your  knowledge   God would have allowed you To force your way  but He held back your hands  That He may admit To His Mercy whom He will  If they had been Apart  We should Certainly have punished The Unbelievers among them With a grievous punishment </t>
   </si>
   <si>
-    <t xml:space="preserve">   While the Unbelievers Got up in their hearts Heat and cant—the heat And cant of Ignorance —God sent down His Tranquillity To His Apostle and to The Believers  and made them Stick close to the command Of self restraint   and well Were they entitled to it And worthy of it  And God has full knowledge Of all things    </t>
+    <t xml:space="preserve">   While the Unbelievers Got up in their hearts Heat and cant the heat And cant of Ignorance  God sent down His Tranquillity To His Apostle and to The Believers  and made them Stick close to the command Of self restraint   and well Were they entitled to it And worthy of it  And God has full knowledge Of all things    </t>
   </si>
   <si>
     <t xml:space="preserve">   Truly did God fulfil The vision for His Apostle   Ye shall enter the Sacred Mosque  if God wills  With minds secure  heads shaved  Hair cut short  and without fear  For He knew what ye Knew not  and He granted  Besides this  a speedy victory </t>
@@ -13747,10 +13747,10 @@
     <t xml:space="preserve">   O ye who believe   Raise not your voices Above the voice of the Prophet  Nor speak aloud to him In talk  as ye may Speak aloud to one another  Lest your deeds become Vain and ye perceive not </t>
   </si>
   <si>
-    <t xml:space="preserve">   Those that lower their voice In the presence of God s Apostle —their hearts Has God tested for piety   For them is Forgiveness And a great Reward </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Those who shout out To thee from without The Inner Apartments— Most of them lack understanding </t>
+    <t xml:space="preserve">   Those that lower their voice In the presence of God s Apostle  their hearts Has God tested for piety   For them is Forgiveness And a great Reward </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Those who shout out To thee from without The Inner Apartments  Most of them lack understanding </t>
   </si>
   <si>
     <t xml:space="preserve">   If only they had patience Until thou couldst Come out to them  It would be best For them   but God is Oft Forgiving  Most Merciful </t>
@@ -13759,7 +13759,7 @@
     <t xml:space="preserve">   O ye who believe   If a wicked person comes To you with any news  Ascertain the truth  lest Ye harm people unwittingly  And afterwards become Full of repentance for What ye have done </t>
   </si>
   <si>
-    <t xml:space="preserve">   And know that among you Is God s Apostle   were he  In many matters  to follow Your  wishes   ye would Certainly fall into misfortune   But God has endeared The Faith to you  and Has made it beautiful In your hearts  and He Has made hateful to you Unbelief  wickedness  and Rebellion   such indeed are Those who walk in righteousness  —</t>
+    <t xml:space="preserve">   And know that among you Is God s Apostle   were he  In many matters  to follow Your  wishes   ye would Certainly fall into misfortune   But God has endeared The Faith to you  and Has made it beautiful In your hearts  and He Has made hateful to you Unbelief  wickedness  and Rebellion   such indeed are Those who walk in righteousness   </t>
   </si>
   <si>
     <t xml:space="preserve">   A grace and favour From God   and God Is full of Knowledge And Wisdom </t>
@@ -13810,10 +13810,10 @@
     <t xml:space="preserve">   But they deny the truth When it comes to them   So they are in A confused state </t>
   </si>
   <si>
-    <t xml:space="preserve">   Do they not look At the sky above them  — How We have made it And adorned it  And there are no Flaws in it  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   And the earth—We have spread it out  And set thereon mountains Standing firm  and produced Therein every kind of Beautiful growth  in pairs —</t>
+    <t xml:space="preserve">   Do they not look At the sky above them    How We have made it And adorned it  And there are no Flaws in it  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   And the earth We have spread it out  And set thereon mountains Standing firm  and produced Therein every kind of Beautiful growth  in pairs  </t>
   </si>
   <si>
     <t xml:space="preserve">   To be observed And commemorated By every devotee Turning  to God  </t>
@@ -13822,10 +13822,10 @@
     <t xml:space="preserve">   And We send down From the sky Rain Charged with blessing  And We produce therewith Gardens and Grain for harvests  </t>
   </si>
   <si>
-    <t xml:space="preserve">   And tall  and stately  Palm trees  with shoots Of fruit stalks  piled One over another  —</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   As sustenance for  God s  Servants  — And We give  new  life Therewith to land that is Dead   thus will be The Resur  </t>
+    <t xml:space="preserve">   And tall  and stately  Palm trees  with shoots Of fruit stalks  piled One over another   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   As sustenance for  God s  Servants    And We give  new  life Therewith to land that is Dead   thus will be The Resur  </t>
   </si>
   <si>
     <t xml:space="preserve">   Before them was denied  The Hereafter  by the People Of Noah  the Companions Of the Rass  the Thamūd </t>
@@ -13864,7 +13864,7 @@
     <t xml:space="preserve">   And his Companion will say     Here is  his record  ready With me    </t>
   </si>
   <si>
-    <t xml:space="preserve">    The sentence will be &amp;colon     Throw  throw into Hell Every contumacious Rejector  Of God   —</t>
+    <t xml:space="preserve">    The sentence will be &amp;colon     Throw  throw into Hell Every contumacious Rejector  Of God    </t>
   </si>
   <si>
     <t xml:space="preserve">     Who forbade what was good  Transgressed all bounds  Cast doubts and suspicions  </t>
@@ -13885,10 +13885,10 @@
     <t xml:space="preserve">   One Day We will ask Hell    Art thou Filled to the full     It will say    Are there Any more  to come     </t>
   </si>
   <si>
-    <t xml:space="preserve">   And the Garden Will be brought nigh To the Righteous —no more A thing distant </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    A voice will say &amp;colon     This is what was Promised for you — For every one who turned  To God  in sincere repentance  Who kept  His Law  </t>
+    <t xml:space="preserve">   And the Garden Will be brought nigh To the Righteous  no more A thing distant </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    A voice will say &amp;colon     This is what was Promised for you   For every one who turned  To God  in sincere repentance  Who kept  His Law  </t>
   </si>
   <si>
     <t xml:space="preserve">    Who feared  God  Most Gracious unseen  And brought a heart Turned in devotion  to Him   </t>
@@ -13897,10 +13897,10 @@
     <t xml:space="preserve">     Enter ye therein In Peace and Security   This is a Day Of Eternal Life    </t>
   </si>
   <si>
-    <t xml:space="preserve">   There will be for them Therein all that they wish —And more besides In Our Presence </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   But how many Generations before them Did We destroy  for their Sins  —stronger in power Than they   Then did they Wander through the land   Was there any place Of escape  for them   </t>
+    <t xml:space="preserve">   There will be for them Therein all that they wish  And more besides In Our Presence </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   But how many Generations before them Did We destroy  for their Sins   stronger in power Than they   Then did they Wander through the land   Was there any place Of escape  for them   </t>
   </si>
   <si>
     <t xml:space="preserve">   Verily in this Is a Message For any that has A heart and understanding Or who gives ear and Earnestly witnesses  the truth  </t>
@@ -13915,16 +13915,16 @@
     <t xml:space="preserve">   And during part Of the night   also   Celebrate His praises  And  so likewise  After the postures Of adoration </t>
   </si>
   <si>
-    <t xml:space="preserve">   And listen for the Day When the Caller will call Out from a place Quite near —</t>
+    <t xml:space="preserve">   And listen for the Day When the Caller will call Out from a place Quite near  </t>
   </si>
   <si>
     <t xml:space="preserve">   The Day when they will Hear a  mighty  Blast In  very  truth    that Will be the Day Of Resur  </t>
   </si>
   <si>
-    <t xml:space="preserve">   Verily it is We Who Give Life and Death   And to Us is The Final Goal—</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   The Day when The Earth will be Rent asunder  from  men  Hurrying out   that will be A gathering together —Quite easy for Us </t>
+    <t xml:space="preserve">   Verily it is We Who Give Life and Death   And to Us is The Final Goal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   The Day when The Earth will be Rent asunder  from  men  Hurrying out   that will be A gathering together  Quite easy for Us </t>
   </si>
   <si>
     <t xml:space="preserve">   We know best what they Say   and thou art not One to overawe them By force  So admonish With the Qur ān such As fear My Warning  </t>
@@ -13939,7 +13939,7 @@
     <t xml:space="preserve">   And those that Flow with ease And gentleness  </t>
   </si>
   <si>
-    <t xml:space="preserve">   And those that Distribute and apportion By Command  —</t>
+    <t xml:space="preserve">   And those that Distribute and apportion By Command   </t>
   </si>
   <si>
     <t xml:space="preserve">   Verily that which ye Are promised is true  </t>
@@ -13957,7 +13957,7 @@
     <t xml:space="preserve">   Through which are deluded  away From the Truth  such As would be deluded </t>
   </si>
   <si>
-    <t xml:space="preserve">   Woe to the falsehood mongers —</t>
+    <t xml:space="preserve">   Woe to the falsehood mongers  </t>
   </si>
   <si>
     <t xml:space="preserve">   Those who  flounder  heedless In a flood of confusion  </t>
@@ -14023,7 +14023,7 @@
     <t xml:space="preserve">    Abraham  said     And what  O ye Messengers  Is your errand  now     </t>
   </si>
   <si>
-    <t xml:space="preserve">   They said    We have Been sent to a people  Deep  in sin  —</t>
+    <t xml:space="preserve">   They said    We have Been sent to a people  Deep  in sin   </t>
   </si>
   <si>
     <t xml:space="preserve">     To bring on  on them   A shower of  stones Of clay  brimstone  </t>
@@ -14101,7 +14101,7 @@
     <t xml:space="preserve">   No Sustenance do I require Of them  nor do I Require that they should Feed Me </t>
   </si>
   <si>
-    <t xml:space="preserve">   For God is He Who Gives  all  Sustenance —Lord of Power —Steadfast  for ever  </t>
+    <t xml:space="preserve">   For God is He Who Gives  all  Sustenance  Lord of Power  Steadfast  for ever  </t>
   </si>
   <si>
     <t xml:space="preserve">   For the wrong doers  Their portion is like Unto the portion of their Fellows  of earlier generations    Then let them not ask Me To hasten  that portion   </t>
@@ -14125,13 +14125,13 @@
     <t xml:space="preserve">   By the Canopy Raised High  </t>
   </si>
   <si>
-    <t xml:space="preserve">   And by the Ocean Filled with Swell  —</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Verily  the Doom of thy Lord Will indeed come to pass  —</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   There is none Can avert it  —</t>
+    <t xml:space="preserve">   And by the Ocean Filled with Swell   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Verily  the Doom of thy Lord Will indeed come to pass   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   There is none Can avert it   </t>
   </si>
   <si>
     <t xml:space="preserve">   On the Day when The firmament will be In dreadful commotion </t>
@@ -14140,7 +14140,7 @@
     <t xml:space="preserve">   And the mountains will fly Hither and thither </t>
   </si>
   <si>
-    <t xml:space="preserve">   Then woe that Day To those that treat  Truth  as Falsehood  —</t>
+    <t xml:space="preserve">   Then woe that Day To those that treat  Truth  as Falsehood   </t>
   </si>
   <si>
     <t xml:space="preserve">   That play  and paddle  In shallow trifles </t>
@@ -14149,7 +14149,7 @@
     <t xml:space="preserve">   That Day shall they be Thrust down to the Fire Of Hell  irresistibly </t>
   </si>
   <si>
-    <t xml:space="preserve">     This    it will be said    Is the Fire —which ye Were wont to deny  </t>
+    <t xml:space="preserve">     This    it will be said    Is the Fire  which ye Were wont to deny  </t>
   </si>
   <si>
     <t xml:space="preserve">     Is this then a fake  or is it ye that Do not see  </t>
@@ -14158,7 +14158,7 @@
     <t xml:space="preserve">     Burn ye therein   The same is it to you Whether ye bear it With patience  or not   Ye but receive the recompense Of your  own  deeds   </t>
   </si>
   <si>
-    <t xml:space="preserve">   As to the Righteous  They will be in Gardens  And in Happiness —</t>
+    <t xml:space="preserve">   As to the Righteous  They will be in Gardens  And in Happiness  </t>
   </si>
   <si>
     <t xml:space="preserve">   Enjoying the  Bliss  which Their Lord hath bestowed On them  and their Lord Shall deliver them from The Penalty of the Fire </t>
@@ -14170,7 +14170,7 @@
     <t xml:space="preserve">   They will recline  with ease  On Thrones  of dignity  Arranged in ranks   And We shall join them To Companions  with beautiful Big and lustrous eyes </t>
   </si>
   <si>
-    <t xml:space="preserve">   And those who believe And whose families follow Them in Faith —to them Shall We join their families   nor shall We deprive them  Of the fruit  of aught Of their works    Yet  is each individual In pledge for his deeds </t>
+    <t xml:space="preserve">   And those who believe And whose families follow Them in Faith  to them Shall We join their families   nor shall We deprive them  Of the fruit  of aught Of their works    Yet  is each individual In pledge for his deeds </t>
   </si>
   <si>
     <t xml:space="preserve">   And We shall bestow On them  of fruit and meat  Anything they shall desire </t>
@@ -14197,10 +14197,10 @@
     <t xml:space="preserve">   Therefore proclaim thou The praises  of thy Lord    For by the Grace Of thy Lord  thou art No  vulgar  soothsayer  nor Art thou one possessed </t>
   </si>
   <si>
-    <t xml:space="preserve">   Or do they say  —   A Poet  we await For him some calamity  Hatched  by Time    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Say thou     Await ye  — I too will wait Along with you    </t>
+    <t xml:space="preserve">   Or do they say      A Poet  we await For him some calamity  Hatched  by Time    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Say thou     Await ye    I too will wait Along with you    </t>
   </si>
   <si>
     <t xml:space="preserve">   Is it that their faculties Of understanding urge them To this  or are they But a people transgressing Beyond bounds  </t>
@@ -14209,7 +14209,7 @@
     <t xml:space="preserve">   Or do they say    He fabricated the  Message      Nay  they have no faith  </t>
   </si>
   <si>
-    <t xml:space="preserve">   Let them then produce A recital like unto it — If  it be  they speak The Truth  </t>
+    <t xml:space="preserve">   Let them then produce A recital like unto it   If  it be  they speak The Truth  </t>
   </si>
   <si>
     <t xml:space="preserve">   Were they created of nothing  Or were they themselves The creators  </t>
@@ -14227,7 +14227,7 @@
     <t xml:space="preserve">   Or has He only daughters And ye have sons  </t>
   </si>
   <si>
-    <t xml:space="preserve">   Or is it that thou Dost ask for a reward So that they are burdened With a load of debt  —</t>
+    <t xml:space="preserve">   Or is it that thou Dost ask for a reward So that they are burdened With a load of debt   </t>
   </si>
   <si>
     <t xml:space="preserve">   Or that the Unseen Is in their hands  and they write it down  </t>
@@ -14242,7 +14242,7 @@
     <t xml:space="preserve">   Were they to see A piece of the sky Falling  on them   they Would  only  say     Clouds Gathered in heaps    </t>
   </si>
   <si>
-    <t xml:space="preserve">   So leave them alone Until they encounter That Day of theirs  Wherein they shall  perforce  Swoon  with terror  —</t>
+    <t xml:space="preserve">   So leave them alone Until they encounter That Day of theirs  Wherein they shall  perforce  Swoon  with terror   </t>
   </si>
   <si>
     <t xml:space="preserve">   The Day when their plotting Will avail them nothing And no help shall be Given them </t>
@@ -14254,10 +14254,10 @@
     <t xml:space="preserve">   Now await in patience The command of thy Lord   For verily thou art In our eyes   And celebrate the praises Of thy Lord the while Thou standest forth </t>
   </si>
   <si>
-    <t xml:space="preserve">   And for part of the night Also praise thou Him — And at the retreat Of the stars  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   By the Star When it goes down —</t>
+    <t xml:space="preserve">   And for part of the night Also praise thou Him   And at the retreat Of the stars  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   By the Star When it goes down  </t>
   </si>
   <si>
     <t xml:space="preserve">   Your Companion is neither Astray nor being misled </t>
@@ -14284,7 +14284,7 @@
     <t xml:space="preserve">   And was at a distance Of but two bow lengths Or  even  nearer  </t>
   </si>
   <si>
-    <t xml:space="preserve">   So did  God  convey The inspiration to His Servant—  Conveyed  what He  meant  To convey </t>
+    <t xml:space="preserve">   So did  God  convey The inspiration to His Servant   Conveyed  what He  meant  To convey </t>
   </si>
   <si>
     <t xml:space="preserve">   The  Prophet s   mind and  heart In no way falsified That which he saw </t>
@@ -14323,7 +14323,7 @@
     <t xml:space="preserve">   Behold  such would be Indeed a division Most unfair  </t>
   </si>
   <si>
-    <t xml:space="preserve">   These are nothing but names Which ye have devised  — Ye and your fathers — For which God has sent Down no authority  whatever   They follow nothing but Conjecture and what Their own souls desire  — Even though there has already Come to them Guidance From their Lord  </t>
+    <t xml:space="preserve">   These are nothing but names Which ye have devised    Ye and your fathers   For which God has sent Down no authority  whatever   They follow nothing but Conjecture and what Their own souls desire    Even though there has already Come to them Guidance From their Lord  </t>
   </si>
   <si>
     <t xml:space="preserve">   Nay  shall man have  just  Anything he hankers after  </t>
@@ -14350,7 +14350,7 @@
     <t xml:space="preserve">   Yea  to God belongs all That is in the heavens And on earth   so that He rewards those who do Evil  according to their deeds  And He rewards those who Do good  with what is best </t>
   </si>
   <si>
-    <t xml:space="preserve">   Those who avoid Great sins and shameful deeds  Only  falling into  small faults — Verily thy Lord is ample In forgiveness  He knows You well when He brings You out of the earth  And when ye are hidden In your mothers  wombs  Therefore justify not yourselves   He knows best who it is That guards against evil    </t>
+    <t xml:space="preserve">   Those who avoid Great sins and shameful deeds  Only  falling into  small faults   Verily thy Lord is ample In forgiveness  He knows You well when He brings You out of the earth  And when ye are hidden In your mothers  wombs  Therefore justify not yourselves   He knows best who it is That guards against evil    </t>
   </si>
   <si>
     <t xml:space="preserve">   Seest thou one Who turns back </t>
@@ -14362,10 +14362,10 @@
     <t xml:space="preserve">   What   Has he knowledge Of the unseen So that he can see  </t>
   </si>
   <si>
-    <t xml:space="preserve">   Nay  is he not acquainted With what is in the books Of Moses—</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   And of Abraham Who fulfilled his engagements  —</t>
+    <t xml:space="preserve">   Nay  is he not acquainted With what is in the books Of Moses </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   And of Abraham Who fulfilled his engagements   </t>
   </si>
   <si>
     <t xml:space="preserve">   Namely  that no bearer Of burdens can bear The burden of another  </t>
@@ -14389,7 +14389,7 @@
     <t xml:space="preserve">   That it is He Who Granteth Death and Life  </t>
   </si>
   <si>
-    <t xml:space="preserve">   That He did create In pairs — male and female </t>
+    <t xml:space="preserve">   That He did create In pairs   male and female </t>
   </si>
   <si>
     <t xml:space="preserve">   From a seed when lodged  In its place   </t>
@@ -14434,7 +14434,7 @@
     <t xml:space="preserve">   Do ye then wonder At this recital  </t>
   </si>
   <si>
-    <t xml:space="preserve">   And will ye laugh And not weep —</t>
+    <t xml:space="preserve">   And will ye laugh And not weep  </t>
   </si>
   <si>
     <t xml:space="preserve">   Wasting your time In vanities  </t>
@@ -14455,16 +14455,16 @@
     <t xml:space="preserve">   There have already come To them Recitals wherein There is  enough  to check  them  </t>
   </si>
   <si>
-    <t xml:space="preserve">   Mature wisdom  —but  The preaching of  Warners Profits them not </t>
+    <t xml:space="preserve">   Mature wisdom   but  The preaching of  Warners Profits them not </t>
   </si>
   <si>
     <t xml:space="preserve">   Therefore   O Prophet   Turn away from them  The Day that the Caller Will call  them  To a terrible affair </t>
   </si>
   <si>
-    <t xml:space="preserve">   They will come forth —Their eyes humbled—From  their  graves   torpid  Like locusts scattered abroad </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Hastening with eyes transfixed  Towards the Caller  —   Hard is this Day     The Unbelievers will say </t>
+    <t xml:space="preserve">   They will come forth  Their eyes humbled From  their  graves   torpid  Like locusts scattered abroad </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Hastening with eyes transfixed  Towards the Caller      Hard is this Day     The Unbelievers will say </t>
   </si>
   <si>
     <t xml:space="preserve">   Before them the People Of Noah rejected  their apostle    They rejected Our servant  And said    Here is One possessed      and he Was driven out </t>
@@ -14539,7 +14539,7 @@
     <t xml:space="preserve">   The People of Lūt Rejected  his  Warning </t>
   </si>
   <si>
-    <t xml:space="preserve">   We sent against them A violent tornado With showers of stones   Which destroyed them   except Lūt s household   them We Delivered by early Dawn —</t>
+    <t xml:space="preserve">   We sent against them A violent tornado With showers of stones   Which destroyed them   except Lūt s household   them We Delivered by early Dawn  </t>
   </si>
   <si>
     <t xml:space="preserve">   As a Grace from Us   Thus do We reward Those who give thanks </t>
@@ -14587,7 +14587,7 @@
     <t xml:space="preserve">   Verily  all things Have We created In proportion and measure </t>
   </si>
   <si>
-    <t xml:space="preserve">   And Our command Is but a single  Act  — Like the twinkling Of an eye </t>
+    <t xml:space="preserve">   And Our command Is but a single  Act    Like the twinkling Of an eye </t>
   </si>
   <si>
     <t xml:space="preserve">   And  oft  in the past  Have We destroyed gangs Like unto you   then Is there any that Will receive admonition  </t>
@@ -14620,7 +14620,7 @@
     <t xml:space="preserve">   The sun and the moon Follow courses  exactly  computed  </t>
   </si>
   <si>
-    <t xml:space="preserve">   And the herbs and the trees—Both  alike  bow in adoration </t>
+    <t xml:space="preserve">   And the herbs and the trees Both  alike  bow in adoration </t>
   </si>
   <si>
     <t xml:space="preserve">   And the Firmament has He Raised high  and He has set up The Balance  of Justice  </t>
@@ -14671,7 +14671,7 @@
     <t xml:space="preserve">   All that is on earth Will perish  </t>
   </si>
   <si>
-    <t xml:space="preserve">   But will abide  for ever  The Face of thy Lord —Full of Majesty  Bounty and Honour </t>
+    <t xml:space="preserve">   But will abide  for ever  The Face of thy Lord  Full of Majesty  Bounty and Honour </t>
   </si>
   <si>
     <t xml:space="preserve">   Of Him seeks  its needs  Every creature in the heavens And on earth   Every day in  new  Splendour Doth He  shine   </t>
@@ -14701,13 +14701,13 @@
     <t xml:space="preserve">   In its midst And in the midst Of boiling hot water Will they wander round  </t>
   </si>
   <si>
-    <t xml:space="preserve">   But for such as fear The time when they will Stand before  the Judgment Seat Of  their Lord  There will be two Gardens—</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Then which of the favours Of your Lord will ye deny  —</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Containing all kinds  Of trees and delights   —</t>
+    <t xml:space="preserve">   But for such as fear The time when they will Stand before  the Judgment Seat Of  their Lord  There will be two Gardens </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Then which of the favours Of your Lord will ye deny   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Containing all kinds  Of trees and delights    </t>
   </si>
   <si>
     <t xml:space="preserve">   In them  each  will be Two Springs flowing  free   </t>
@@ -14719,16 +14719,16 @@
     <t xml:space="preserve">   They will recline on Carpets  Whose inner linings will be Of rich brocade   the Fruit Of the Gardens will be Near  and easy of reach  </t>
   </si>
   <si>
-    <t xml:space="preserve">   In them will be  Maidens   Chaste  restraining their glances  Whom no man or Jinn Before them has touched  —</t>
+    <t xml:space="preserve">   In them will be  Maidens   Chaste  restraining their glances  Whom no man or Jinn Before them has touched   </t>
   </si>
   <si>
     <t xml:space="preserve">   Like unto rubies and coral </t>
   </si>
   <si>
-    <t xml:space="preserve">   Is there any Reward For Good—other than Good  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   And besides these two  There are two other Gardens —</t>
+    <t xml:space="preserve">   Is there any Reward For Good other than Good  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   And besides these two  There are two other Gardens  </t>
   </si>
   <si>
     <t xml:space="preserve">   Dark green in colour  From plentiful watering  </t>
@@ -14746,7 +14746,7 @@
     <t xml:space="preserve">   Companions restrained  as to Their glances   in  goodly  pavilions  </t>
   </si>
   <si>
-    <t xml:space="preserve">   Whom no man or Jinn Before them has touched  —</t>
+    <t xml:space="preserve">   Whom no man or Jinn Before them has touched   </t>
   </si>
   <si>
     <t xml:space="preserve">   Reclining on green Cushions And rich Carpets of beauty </t>
@@ -14776,10 +14776,10 @@
     <t xml:space="preserve">   And ye shall be sorted out Into three classes </t>
   </si>
   <si>
-    <t xml:space="preserve">   Then  there will be  The Companions of The Right Hand  —What will be The Companions of The Right Hand  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   And the Companions of The Left Hand —What will be The Companions of The Left Hand  </t>
+    <t xml:space="preserve">   Then  there will be  The Companions of The Right Hand   What will be The Companions of The Right Hand  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   And the Companions of The Left Hand  What will be The Companions of The Left Hand  </t>
   </si>
   <si>
     <t xml:space="preserve">   And those Foremost  In Faith  will be Foremost  in the Hereafter  </t>
@@ -14818,7 +14818,7 @@
     <t xml:space="preserve">   And the flesh of fowls  Any that they may desire </t>
   </si>
   <si>
-    <t xml:space="preserve">   And  there will be  Companions With beautiful  big  And lustrous eyes —</t>
+    <t xml:space="preserve">   And  there will be  Companions With beautiful  big  And lustrous eyes  </t>
   </si>
   <si>
     <t xml:space="preserve">   Like unto Pearls Well guarded </t>
@@ -14827,19 +14827,19 @@
     <t xml:space="preserve">   A Reward for the Deeds Of their past  Life  </t>
   </si>
   <si>
-    <t xml:space="preserve">   No frivolity will they Hear therein  nor any Taint of ill —</t>
+    <t xml:space="preserve">   No frivolity will they Hear therein  nor any Taint of ill  </t>
   </si>
   <si>
     <t xml:space="preserve">   Only the saying    Peace   Peace   </t>
   </si>
   <si>
-    <t xml:space="preserve">   The Companions of The Right Hand —What will be The Companions of The Right Hand  </t>
+    <t xml:space="preserve">   The Companions of The Right Hand  What will be The Companions of The Right Hand  </t>
   </si>
   <si>
     <t xml:space="preserve">    They will be  among Lote trees without thorns </t>
   </si>
   <si>
-    <t xml:space="preserve">   Among Talh trees With flowers  or fruits  Piled one above another —</t>
+    <t xml:space="preserve">   Among Talh trees With flowers  or fruits  Piled one above another  </t>
   </si>
   <si>
     <t xml:space="preserve">   In shade long extended </t>
@@ -14860,10 +14860,10 @@
     <t xml:space="preserve">   We have created  their Companions  Of special creation </t>
   </si>
   <si>
-    <t xml:space="preserve">   And made them Virgin pure  and undefiled  —</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Beloved  by nature   Equal in age —</t>
+    <t xml:space="preserve">   And made them Virgin pure  and undefiled   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Beloved  by nature   Equal in age  </t>
   </si>
   <si>
     <t xml:space="preserve">   For the companions Of the Right Hand    </t>
@@ -14875,7 +14875,7 @@
     <t xml:space="preserve">   And a  goodly  number From those of later times </t>
   </si>
   <si>
-    <t xml:space="preserve">   The Companions of the Left Hand —What will be The Companions of The Left Hand  </t>
+    <t xml:space="preserve">   The Companions of the Left Hand  What will be The Companions of The Left Hand  </t>
   </si>
   <si>
     <t xml:space="preserve">    They will be  in the midst Of a fierce Blast of Fire And in Boiling Water </t>
@@ -14893,7 +14893,7 @@
     <t xml:space="preserve">   And persisted obstinately In wickedness supreme  </t>
   </si>
   <si>
-    <t xml:space="preserve">   And they used to say    What   when we die And become dust and bones  Shall we then indeed Be raised up again  —</t>
+    <t xml:space="preserve">   And they used to say    What   when we die And become dust and bones  Shall we then indeed Be raised up again   </t>
   </si>
   <si>
     <t xml:space="preserve">      We  and our fathers of old    </t>
@@ -14905,7 +14905,7 @@
     <t xml:space="preserve">     All will certainly be Gathered together for the meeting Appointed for a Day Well known </t>
   </si>
   <si>
-    <t xml:space="preserve">     Then will ye truly — O ye that go wrong  And treat  Truth  as Falsehood  —</t>
+    <t xml:space="preserve">     Then will ye truly   O ye that go wrong  And treat  Truth  as Falsehood   </t>
   </si>
   <si>
     <t xml:space="preserve">     Ye will surely taste Of the Tree of Zaqqūm </t>
@@ -14926,7 +14926,7 @@
     <t xml:space="preserve">   It is We Who have Created you   why will ye Not witness the Truth  </t>
   </si>
   <si>
-    <t xml:space="preserve">   Do ye then see  — The  human Seed  that Ye throw out —</t>
+    <t xml:space="preserve">   Do ye then see    The  human Seed  that Ye throw out  </t>
   </si>
   <si>
     <t xml:space="preserve">   Is it ye who create it  Or are We the Creators  </t>
@@ -14977,10 +14977,10 @@
     <t xml:space="preserve">   Then celebrate with praises The name of thy Lord  The Supreme     </t>
   </si>
   <si>
-    <t xml:space="preserve">   Furthermore I call To witness the setting Of the Stars —</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   And that is indeed A mighty adjuration If ye but knew —</t>
+    <t xml:space="preserve">   Furthermore I call To witness the setting Of the Stars  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   And that is indeed A mighty adjuration If ye but knew  </t>
   </si>
   <si>
     <t xml:space="preserve">   That this is indeed A Qur ān most honourable </t>
@@ -15001,16 +15001,16 @@
     <t xml:space="preserve">   And have ye made it Your livelihood that ye Should declare it false  </t>
   </si>
   <si>
-    <t xml:space="preserve">   Then why do ye not  Intervene  when  the soul Of the dying man  Reaches the throat —</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   And ye the while  Sit  looking on —</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   But We are nearer To him than ye  And yet see not —</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Then why do you not — If you are exempt From  future  account —</t>
+    <t xml:space="preserve">   Then why do ye not  Intervene  when  the soul Of the dying man  Reaches the throat  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   And ye the while  Sit  looking on  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   But We are nearer To him than ye  And yet see not  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Then why do you not   If you are exempt From  future  account  </t>
   </si>
   <si>
     <t xml:space="preserve">   Call back the soul  If ye are true  In your claim of Independence   </t>
@@ -15043,7 +15043,7 @@
     <t xml:space="preserve">   So celebrate with praises The name of thy Lord  The Supreme </t>
   </si>
   <si>
-    <t xml:space="preserve">   Whatever is in The heavens and on earth — Let it declare The Praises and Glory of God   For He is the Exalted In Might  the Wise </t>
+    <t xml:space="preserve">   Whatever is in The heavens and on earth   Let it declare The Praises and Glory of God   For He is the Exalted In Might  the Wise </t>
   </si>
   <si>
     <t xml:space="preserve">   To Him belongs the dominion Of the heavens and the earth   It is He Who gives Life and Death   and He Has Power over all things </t>
@@ -15061,25 +15061,25 @@
     <t xml:space="preserve">   He merges Night into Day  and He merges Day into Night   and He has full knowledge Of the secrets of  all  hearts </t>
   </si>
   <si>
-    <t xml:space="preserve">   Believe in God And His Apostle  And spend  in charity  Out of the  substance  Whereof He has made you Heirs  For  those of you Who believe and spend  In charity  —for them Is a great Reward </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   What cause have ye Why ye should not believe In God  —And the Apostle Invites you to believe In your Lord  and has Indeed taken your Covenant  If ye are men of faith </t>
+    <t xml:space="preserve">   Believe in God And His Apostle  And spend  in charity  Out of the  substance  Whereof He has made you Heirs  For  those of you Who believe and spend  In charity   for them Is a great Reward </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   What cause have ye Why ye should not believe In God   And the Apostle Invites you to believe In your Lord  and has Indeed taken your Covenant  If ye are men of faith </t>
   </si>
   <si>
     <t xml:space="preserve">   He is the One Who Sends to His Servant Manifest Signs  that He May lead you from The depths of Darkness into the Light  And verily  God is to you Most kind and Merciful </t>
   </si>
   <si>
-    <t xml:space="preserve">   And what cause have ye Why ye should not spend In the cause of God  —For to God belongs The heritage of the heavens And the earth  Not equal among you Are those who spent  freely  and fought  before the Victory   With those who did so later   Those are higher in rank Than those who spent  freely  And fought afterwards  But to all has God promised A goodly  reward   And God Is well acquainted With all that ye do    </t>
+    <t xml:space="preserve">   And what cause have ye Why ye should not spend In the cause of God   For to God belongs The heritage of the heavens And the earth  Not equal among you Are those who spent  freely  and fought  before the Victory   With those who did so later   Those are higher in rank Than those who spent  freely  And fought afterwards  But to all has God promised A goodly  reward   And God Is well acquainted With all that ye do    </t>
   </si>
   <si>
     <t xml:space="preserve">   Who is he that will Loan to God a beautiful Loan   For  God  will Increase it manifold To his credit  And he will have  besides  A liberal reward </t>
   </si>
   <si>
-    <t xml:space="preserve">   One Day shalt thou see The believing men and The believing women—How their Light runs Forward before them And by their right hands    Their greeting will be      Good News for you this Day   Gardens beneath which flow rivers   To dwell therein for aye   This is indeed The highest Achievement    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   One day will the Hypocrites—Men and women—say To the Believers     Wait For us   Let us borrow  A light  from your Light     It will be said     Turn Ye back to your rear   Then seek a light  where Ye can      So a wall Will be put up betwixt them  With a gate therein  Within it will be Mercy Throughout  and without it  All alongside  will be  Wrath and  Punishment  </t>
+    <t xml:space="preserve">   One Day shalt thou see The believing men and The believing women How their Light runs Forward before them And by their right hands    Their greeting will be      Good News for you this Day   Gardens beneath which flow rivers   To dwell therein for aye   This is indeed The highest Achievement    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   One day will the Hypocrites Men and women say To the Believers     Wait For us   Let us borrow  A light  from your Light     It will be said     Turn Ye back to your rear   Then seek a light  where Ye can      So a wall Will be put up betwixt them  With a gate therein  Within it will be Mercy Throughout  and without it  All alongside  will be  Wrath and  Punishment  </t>
   </si>
   <si>
     <t xml:space="preserve">    Those without  will call out    Were we not with you      The others  will reply    True   But ye led yourselves Into temptation   ye looked forward  To our ruin    ye doubted  God s Promise    and  your false  Desires deceived you   until There issued the Command Of God  And the Deceiver Deceived you in respect of God </t>
@@ -15097,7 +15097,7 @@
     <t xml:space="preserve">   For those who give In Charity  men and women  And loan to God A Beautiful Loan  It shall be increased manifold  To their credit   And they shall have  besides  A liberal reward </t>
   </si>
   <si>
-    <t xml:space="preserve">   And those who believe In God and His apostles—They are the Sincere  Lovers of truth   and The Witnesses  who testify   In the eyes of their Lord   They shall have their Reward And their Light  But those who reject God And deny Our Signs —They are the Companions Of Hell Fire    </t>
+    <t xml:space="preserve">   And those who believe In God and His apostles They are the Sincere  Lovers of truth   and The Witnesses  who testify   In the eyes of their Lord   They shall have their Reward And their Light  But those who reject God And deny Our Signs  They are the Companions Of Hell Fire    </t>
   </si>
   <si>
     <t xml:space="preserve">   Know ye  all   that The life of this world Is but play and amusement  Pomp and mutual boasting And multiplying   in rivalry  Among yourselves  riches And children  Here is a similitude   How rain and the growth Which it brings forth  delight  The hearts of  the tillers   Soon it withers   thou Wilt see it grow yellow   Then it becomes dry And crumbles away  But in the Hereafter Is a Penalty severe  For the devotees of wrong   And Forgiveness from God And  His  Good Pleasure  For the devotees of God   And what is the life Of this world  but Goods and chattels Of deception  </t>
@@ -15109,7 +15109,7 @@
     <t xml:space="preserve">   No misfortune can happen On earth or in your souls But is recorded in A decree before We bring It into existence   That is truly easy for God  </t>
   </si>
   <si>
-    <t xml:space="preserve">   In order that ye may Not despair over matters That pass you by  Nor exult over favours Bestowed upon you  For God loveth not Any vainglorious boaster —</t>
+    <t xml:space="preserve">   In order that ye may Not despair over matters That pass you by  Nor exult over favours Bestowed upon you  For God loveth not Any vainglorious boaster  </t>
   </si>
   <si>
     <t xml:space="preserve">   Such persons as are Covetous and commend Covetousness to men  And if any turn back  From God s Way   verily God is free of all needs  Worthy of all praise </t>
@@ -15211,22 +15211,22 @@
     <t xml:space="preserve">   Whether ye cut down  O ye Muslims    The tender palm trees  Or ye left them standing On their roots  it was By leave of God  and In order that He might Cover with shame The rebellious transgressors </t>
   </si>
   <si>
-    <t xml:space="preserve">   What God has bestowed On His Apostle  and taken Away  from them—for this Ye made no expedition With either cavalry or camelry   But God gives power To His apostles over Any He pleases   and God Has power over all things </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   What God has bestowed On His Apostle  and taken Away  from the people Of the townships —belongs To God —to His Apostle And to kindred and orphans  The needy and the wayfarer   In order that it may not  Merely  make a circuit Between the wealth among you  So take what the Apostle Assigns to you  and deny Yourselves that which he Withholds from you  And fear God   for God Is strict in Punishment </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Some part is due  To the indigent Muhājirs  Those who were expelled From their homes and their property  While seeking Grace from God And  His  Good Pleasure  And aiding God and His Apostle   Such are indeed The sincere ones  —</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   But those who Before them  had homes  In Medina  And had adopted the Faith — Show their af  to such As came to them for refuge  And entertain no desire In their hearts for things Given to the  latter   But give them preference Over themselves  even though Poverty was their  own lot   And those saved from The covetousness of their own Souls —they are the ones That achieve prosperity </t>
+    <t xml:space="preserve">   What God has bestowed On His Apostle  and taken Away  from them for this Ye made no expedition With either cavalry or camelry   But God gives power To His apostles over Any He pleases   and God Has power over all things </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   What God has bestowed On His Apostle  and taken Away  from the people Of the townships  belongs To God  to His Apostle And to kindred and orphans  The needy and the wayfarer   In order that it may not  Merely  make a circuit Between the wealth among you  So take what the Apostle Assigns to you  and deny Yourselves that which he Withholds from you  And fear God   for God Is strict in Punishment </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Some part is due  To the indigent Muhājirs  Those who were expelled From their homes and their property  While seeking Grace from God And  His  Good Pleasure  And aiding God and His Apostle   Such are indeed The sincere ones   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   But those who Before them  had homes  In Medina  And had adopted the Faith   Show their af  to such As came to them for refuge  And entertain no desire In their hearts for things Given to the  latter   But give them preference Over themselves  even though Poverty was their  own lot   And those saved from The covetousness of their own Souls  they are the ones That achieve prosperity </t>
   </si>
   <si>
     <t xml:space="preserve">   And those who came After them say     Our Lord   Forgive us  and our brethren Who came before us Into the Faith  And leave not  In our hearts  Rancour  or sense of injury  Against those who have believed  Our Lord   Thou art Indeed Full of Kindness  Most Merciful      </t>
   </si>
   <si>
-    <t xml:space="preserve">   Hast thou not observed The Hypocrites say To their misbelieving brethren Among the People of the Book  —   If ye are expelled  We too will go out With you  and we will Never hearken to any one In your affair   and if Ye are attacked  in fight  We will help you    But God is witness That they are indeed liars </t>
+    <t xml:space="preserve">   Hast thou not observed The Hypocrites say To their misbelieving brethren Among the People of the Book      If ye are expelled  We too will go out With you  and we will Never hearken to any one In your affair   and if Ye are attacked  in fight  We will help you    But God is witness That they are indeed liars </t>
   </si>
   <si>
     <t xml:space="preserve">   If they are expelled  Never will they go out With them   and if they Are attacked  in fight   They will never help them   And if they do help them  They will turn their backs   So they will receive no help </t>
@@ -15238,7 +15238,7 @@
     <t xml:space="preserve">   They will not fight you  Even  together  except In fortified townships  Or from behind walls  Strong is their fighting  spirit  Amongst themselves   Thou wouldst think They were united  But their hearts are divided   That is because they Are a people devoid Of wisdom </t>
   </si>
   <si>
-    <t xml:space="preserve">   Like those who lately Preceded them  they have Tasted the evil result Of their conduct   and  In the Hereafter there is  For them a grievous Penalty  —</t>
+    <t xml:space="preserve">   Like those who lately Preceded them  they have Tasted the evil result Of their conduct   and  In the Hereafter there is  For them a grievous Penalty   </t>
   </si>
   <si>
     <t xml:space="preserve">    Their allies deceived them   Like the Evil One  When he says to man    Deny God     but when  Man  denies God   The Evil One  says    I am free of thee   I do fear God  The Lord of the Worlds    </t>
@@ -15259,16 +15259,16 @@
     <t xml:space="preserve">   Had We sent down This Qur ān on a mountain  Verily  thou would have seen It humble itself and cleave Asunder for fear of God  Such are the similitudes Which We propound to men  That they may reflect </t>
   </si>
   <si>
-    <t xml:space="preserve">   God is He  than Whom There is no other god  — Who knows  all things  Both secret and open   He  Most Gracious  Most Merciful </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   God is He  than Whom There is no other god  — The Sovereign  the Holy One  the Source of Peace  and Per    The Guardian of Faith  The Preserver of Safety  The Exalted in Might  The Irresistible  the Supreme   Glory to God    High is He  Above the partners They attribute to Him </t>
+    <t xml:space="preserve">   God is He  than Whom There is no other god    Who knows  all things  Both secret and open   He  Most Gracious  Most Merciful </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   God is He  than Whom There is no other god    The Sovereign  the Holy One  the Source of Peace  and Per    The Guardian of Faith  The Preserver of Safety  The Exalted in Might  The Irresistible  the Supreme   Glory to God    High is He  Above the partners They attribute to Him </t>
   </si>
   <si>
     <t xml:space="preserve">   He is God  the Creator  The Evolver  The Bestower of Forms  Or Colours   To Him belong The Most Beautiful Names   Whatever is in The heavens and on earth  Doth declare His Praises and Glory   And He is the Exalted In Might  the Wise </t>
   </si>
   <si>
-    <t xml:space="preserve">   O ye who believe   Take not My enemies And yours as friends  Or protectors  —offering them  Your  love  even though They have rejected the Truth That has come to you  And have  on the contrary  Driven out the Prophet And yourselves  from your homes    Simply  because ye believe In God your Lord   If ye have come out To strive in My Way And to seek My Good Pleasure   Take them not as friends   Holding secret converse Of love  and friendship  With them   for I know Full well all that ye Conceal and all that ye Reveal  And any of you That does this has strayed From the Straight Path </t>
+    <t xml:space="preserve">   O ye who believe   Take not My enemies And yours as friends  Or protectors   offering them  Your  love  even though They have rejected the Truth That has come to you  And have  on the contrary  Driven out the Prophet And yourselves  from your homes    Simply  because ye believe In God your Lord   If ye have come out To strive in My Way And to seek My Good Pleasure   Take them not as friends   Holding secret converse Of love  and friendship  With them   for I know Full well all that ye Conceal and all that ye Reveal  And any of you That does this has strayed From the Straight Path </t>
   </si>
   <si>
     <t xml:space="preserve">   If they were to get The better of you  They would behave to you As enemies  and stretch forth Their hands and their tongues Against you for evil   And they desire that ye Should reject the Truth </t>
@@ -15277,7 +15277,7 @@
     <t xml:space="preserve">   Of no profit to you Will be your relatives And your children On the Day of Judgment   He will judge between you   For God sees well All that ye do </t>
   </si>
   <si>
-    <t xml:space="preserve">   There is for you An excellent example  to follow  In Abraham and those with him  When they said To their people     We are clear of you And of whatever ye worship Besides God   we have rejected You  and there has arisen  Between us and you  enmity And hatred for ever —unless Ye believe in God And Him alone     But not when Abraham Said to his father     I will pray for forgiveness For thee  though I have No power  to get  aught On thy behalf from God     They prayed      Our Lord   In Thee do we trust  And to Thee do we turn In repentance   to Thee Is  our  final Goal </t>
+    <t xml:space="preserve">   There is for you An excellent example  to follow  In Abraham and those with him  When they said To their people     We are clear of you And of whatever ye worship Besides God   we have rejected You  and there has arisen  Between us and you  enmity And hatred for ever  unless Ye believe in God And Him alone     But not when Abraham Said to his father     I will pray for forgiveness For thee  though I have No power  to get  aught On thy behalf from God     They prayed      Our Lord   In Thee do we trust  And to Thee do we turn In repentance   to Thee Is  our  final Goal </t>
   </si>
   <si>
     <t xml:space="preserve">     Our Lord   Make us not A  test and  trial For the Unbelievers  But forgive us  our Lord   For Thou art the Exalted In Might  the Wise   </t>
@@ -15331,7 +15331,7 @@
     <t xml:space="preserve">   It is He Who has sent His Apostle with Guidance and the Religion of Truth  That he may proclaim it Over all religion  Even though the Pagans May detest  it     </t>
   </si>
   <si>
-    <t xml:space="preserve">   O ye who believe   Shall I lead you To a bargain that will Save you from A grievous Penalty  —</t>
+    <t xml:space="preserve">   O ye who believe   Shall I lead you To a bargain that will Save you from A grievous Penalty   </t>
   </si>
   <si>
     <t xml:space="preserve">   That ye believe in God And His Apostle  and that Ye strive  your utmost  In the Cause of God  With your property And your persons   That will be best for you  If ye but knew  </t>
@@ -15340,16 +15340,16 @@
     <t xml:space="preserve">   He will forgive you Your sins  and admit you To Gardens beneath which Rivers flow  and to beautiful Mansions in Gardens Of Eternity   that is indeed The supreme Achievement </t>
   </si>
   <si>
-    <t xml:space="preserve">   And another  favour will He bestow   which ye Do love  — help from God and a speedy victory  So give the Glad Tidings To the Believers </t>
+    <t xml:space="preserve">   And another  favour will He bestow   which ye Do love    help from God and a speedy victory  So give the Glad Tidings To the Believers </t>
   </si>
   <si>
     <t xml:space="preserve">   O ye who believe   Be ye helpers of God   As said Jesus the son of Mary To the Disciples    Who will be My helpers to  the work Of  God     Said the Disciples     We are God s helpers     Then a portion of the Children Of Israel believed  and A portion disbelieved   But We gave power To those who believed  Against their enemies  And they became The ones that prevailed </t>
   </si>
   <si>
-    <t xml:space="preserve">   Whatever is In the heavens and On earth  doth declare The Praises and Glory of God — the Sovereign  The Holy One  the Exalted In Might  the Wise </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   It is He Who has sent Amongst the Unlettered An apostle from among Themselves  to rehearse To them His Signs  To sanctify them  and To instruct them in Scripture And Wisdom — although They had been  before  In manifest error  —</t>
+    <t xml:space="preserve">   Whatever is In the heavens and On earth  doth declare The Praises and Glory of God   the Sovereign  The Holy One  the Exalted In Might  the Wise </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   It is He Who has sent Amongst the Unlettered An apostle from among Themselves  to rehearse To them His Signs  To sanctify them  and To instruct them in Scripture And Wisdom   although They had been  before  In manifest error   </t>
   </si>
   <si>
     <t xml:space="preserve">   As well as  to confer All these benefits upon  Others of them  who Have not already joined them   And He is Exalted In Might  Wise </t>
@@ -15436,7 +15436,7 @@
     <t xml:space="preserve">   Believe  therefore  in God And His Apostle  and In the Light which We Have sent down  And God Is well acquainted With all that ye do </t>
   </si>
   <si>
-    <t xml:space="preserve">   The Day that He assembles You  all  for a day Of Assembly — that will be A day of mutual loss And gain  among you   And those who believe In God and work righteousness — He will remove from them Their ills  and He will admit Them to gardens beneath which Rivers flow  to dwell therein For ever   that will be The Supreme Achievement </t>
+    <t xml:space="preserve">   The Day that He assembles You  all  for a day Of Assembly   that will be A day of mutual loss And gain  among you   And those who believe In God and work righteousness   He will remove from them Their ills  and He will admit Them to gardens beneath which Rivers flow  to dwell therein For ever   that will be The Supreme Achievement </t>
   </si>
   <si>
     <t xml:space="preserve">   But those who reject Faith And treat Our Signs As falsehoods  they will be Companions of the Fire  To dwell therein for aye   And evil is that Goal    </t>
@@ -15457,10 +15457,10 @@
     <t xml:space="preserve">   Your riches and your children May be but a trial   But in the Presence of God  Is the highest Reward </t>
   </si>
   <si>
-    <t xml:space="preserve">   So fear God As much as ye can   Listen and obey   And spend in charity For the benefit of Your own souls  And those saved from The covetousness of their own Souls — they are the ones That achieve prosperity </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   If ye loan to God A beautiful loan  He Will double it to Your  credit   and He Will grant you Forgiveness   For God is most Ready To appreciate  service   Most Forbearing —</t>
+    <t xml:space="preserve">   So fear God As much as ye can   Listen and obey   And spend in charity For the benefit of Your own souls  And those saved from The covetousness of their own Souls   they are the ones That achieve prosperity </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   If ye loan to God A beautiful loan  He Will double it to Your  credit   and He Will grant you Forgiveness   For God is most Ready To appreciate  service   Most Forbearing  </t>
   </si>
   <si>
     <t xml:space="preserve">   Knower of what is hidden And what is open  Exalted in Might  Full of Wisdom </t>
@@ -15487,13 +15487,13 @@
     <t xml:space="preserve">   Let the man of means Spend according to His means   and the man Whose resources are restricted  Let him spend according To what God has given him  God puts no burden On any person beyond What He has given him  After a difficulty  God Will soon grant relief    </t>
   </si>
   <si>
-    <t xml:space="preserve">   How many populations That insolently opposed The command of their Lord And of His apostles  Did We not then Call to account — To severe account — And We imposed on them An exemplary Punishment </t>
+    <t xml:space="preserve">   How many populations That insolently opposed The command of their Lord And of His apostles  Did We not then Call to account   To severe account   And We imposed on them An exemplary Punishment </t>
   </si>
   <si>
     <t xml:space="preserve">   Then did they taste The evil result of Their conduct  and the End of their conduct was Perdition </t>
   </si>
   <si>
-    <t xml:space="preserve">   God has prepared for them A severe Punishment  In the Hereafter   Therefore fear God  O ye men of understanding— Who have believed — For God hath indeed Sent down to you A Message</t>
+    <t xml:space="preserve">   God has prepared for them A severe Punishment  In the Hereafter   Therefore fear God  O ye men of understanding  Who have believed   For God hath indeed Sent down to you A Message</t>
   </si>
   <si>
     <t xml:space="preserve">   An Apostle  who rehearses To you the Signs of God Containing clear explanations  That he may lead forth Those who believe And do righteous deeds From the depths of Darkness Into Light  And those who Believe in God and work Righteousness  He will admit To Gardens beneath which rivers Flow  to dwell therein For ever   God has indeed Granted for them A most excellent provision </t>
@@ -15511,10 +15511,10 @@
     <t xml:space="preserve">   When the Prophet disclosed A matter in confidence To one of his consorts And she then divulged it  To another   and God made it Known to him  he confirmed Part thereof and repudiated A part  Then when he Told her thereof  she said    Who told thee this     He said    He told me Who knows and is well acquainted  With all things   </t>
   </si>
   <si>
-    <t xml:space="preserve">   If ye two turn in repentance To Him  your hearts Are indeed so inclined   but if ye back up Each other against him  Truly God is his Protector  And Gabriel  and  every  Righteous one among those Who believe — and furthermore  The angels— will back  him  up </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   It may be  if he Divorced you  all   That God will give him In exchange Consorts Better than you — Who submit  their wills   Who believe  who are devout  Who turn to God in repentance  Who worship  in humility   Who travel  for Faith  and fast — Previously married or virgins </t>
+    <t xml:space="preserve">   If ye two turn in repentance To Him  your hearts Are indeed so inclined   but if ye back up Each other against him  Truly God is his Protector  And Gabriel  and  every  Righteous one among those Who believe   and furthermore  The angels  will back  him  up </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   It may be  if he Divorced you  all   That God will give him In exchange Consorts Better than you   Who submit  their wills   Who believe  who are devout  Who turn to God in repentance  Who worship  in humility   Who travel  for Faith  and fast   Previously married or virgins </t>
   </si>
   <si>
     <t xml:space="preserve">   O ye who believe  Save yourselves and your Families from a Fire Whose fuel is Men And Stones  over which Are  appointed  angels Stern  and  severe  Who flinch not  from Executing  the Commands They receive from God  but do  precisely  what They are commanded </t>
@@ -15523,10 +15523,10 @@
     <t xml:space="preserve">    They will say     O ye Unbelievers   Make no excuses This day   Ye are being But requited for All that ye did       </t>
   </si>
   <si>
-    <t xml:space="preserve">   O ye who believe  Turn to God With sincere repentance   In the hope that Your Lord will remove From you your ills And admit you to Gardens Beneath which Rivers flow — The Day that God Will not permit To be humiliated The Prophet and those Who believe with him  Their Light will run Forward before them And by their right hands  While they say    Our Lord   Perfect our Light for us  And grant us Forgiveness   For Thou hast power Over all things   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   O Prophet   Strive hard Against the Unbelievers And the Hypocrites  And be firm against them  Their abode is Hell — An evil refuge  indeed  </t>
+    <t xml:space="preserve">   O ye who believe  Turn to God With sincere repentance   In the hope that Your Lord will remove From you your ills And admit you to Gardens Beneath which Rivers flow   The Day that God Will not permit To be humiliated The Prophet and those Who believe with him  Their Light will run Forward before them And by their right hands  While they say    Our Lord   Perfect our Light for us  And grant us Forgiveness   For Thou hast power Over all things   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   O Prophet   Strive hard Against the Unbelievers And the Hypocrites  And be firm against them  Their abode is Hell   An evil refuge  indeed  </t>
   </si>
   <si>
     <t xml:space="preserve">   God sets forth  For an example To the Unbelievers  the wife of Noah And the wife of Lūṭ   They were  respectively  Under two of Our righteous Servants  but they were False to their  husbands   And they profited nothing Before God on their account  But were told     Enter ye The Fire along with  Others  that enter    </t>
@@ -15538,10 +15538,10 @@
     <t xml:space="preserve">   And Mary the daughter Of   Imran  who guarded Her chastity  and We Breathed into  her body  Of Our spirit   and she Testified to the truth Of the words of her Lord And of His Revelations  And was one of the Devout  servants  </t>
   </si>
   <si>
-    <t xml:space="preserve">   Blessed be He In Whose hands Is Dominion   And He over all things Hath Power  —</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    He Who created Death And Life  that He May try which of you Is best in deed   And He is the Exalted In Might  Oft Forgiving  —</t>
+    <t xml:space="preserve">   Blessed be He In Whose hands Is Dominion   And He over all things Hath Power   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    He Who created Death And Life  that He May try which of you Is best in deed   And He is the Exalted In Might  Oft Forgiving   </t>
   </si>
   <si>
     <t xml:space="preserve">    He Who created The seven heavens One above another   No want of proportion Wilt thou see In the Creation Of  God  Most Gracious  So turn thy vision again   Seest thou any flaw  </t>
@@ -15577,7 +15577,7 @@
     <t xml:space="preserve">   And whether ye hide Your word or publish it  He certainly has  full  knowledge  Of the secrets of  all  hearts </t>
   </si>
   <si>
-    <t xml:space="preserve">   Should He not know — He that created   And He is the One That understands the finest Mysteries  and  is Well acquainted  with them     </t>
+    <t xml:space="preserve">   Should He not know   He that created   And He is the One That understands the finest Mysteries  and  is Well acquainted  with them     </t>
   </si>
   <si>
     <t xml:space="preserve">   It is He Who has Made the earth manageable For you  so traverse Ye through its tracts And enjoy of the Sustenance Which He furnishes   but Unto Him is the Resur  </t>
@@ -15601,7 +15601,7 @@
     <t xml:space="preserve">   Or who is there That can provide you With Sustenance if He Were to withhold His provision   Nay  they obstinately persist In insolent impiety And flight  from the Truth  </t>
   </si>
   <si>
-    <t xml:space="preserve">   Is then one who Walks headlong  with his face Grovelling  better guided — Or one who walks Evenly on a Straight Way  </t>
+    <t xml:space="preserve">   Is then one who Walks headlong  with his face Grovelling  better guided   Or one who walks Evenly on a Straight Way  </t>
   </si>
   <si>
     <t xml:space="preserve">   Say     It is He Who Has created you  and made You grow   and made For you the faculties Of hearing  seeing  feeling and understanding   Little thanks it is ye give  </t>
@@ -15610,7 +15610,7 @@
     <t xml:space="preserve">   Say     It is He Who Has multiplied you Through the earth  And to Him shall ye Be gathered together   </t>
   </si>
   <si>
-    <t xml:space="preserve">   They ask   When will This promise be  fulfilled   — If ye are telling The truth </t>
+    <t xml:space="preserve">   They ask   When will This promise be  fulfilled     If ye are telling The truth </t>
   </si>
   <si>
     <t xml:space="preserve">   Say     As to the knowledge Of the time  it is With God alone   I am  sent  only To warn plainly in public   </t>
@@ -15619,16 +15619,16 @@
     <t xml:space="preserve">   At length  when they See it close at hand  Grieved will be the faces Of the Unbelievers  And it will be said  To them      This is  the promise fulfilled   Which ye were calling for    </t>
   </si>
   <si>
-    <t xml:space="preserve">   Say     See ye   If God were To destroy me  And those with me  Or if He bestows His Mercy on us — Yet who can deliver the Unbelievers from A grievous Penalty  </t>
+    <t xml:space="preserve">   Say     See ye   If God were To destroy me  And those with me  Or if He bestows His Mercy on us   Yet who can deliver the Unbelievers from A grievous Penalty  </t>
   </si>
   <si>
     <t xml:space="preserve">   Say     He is  God  Most Gracious   we have Believed in Him  And on Him have we Put our trust   So  soon will ye know Which  of us  it is That is in manifest error   </t>
   </si>
   <si>
-    <t xml:space="preserve">   Say    See ye  — If your stream be Some morning lost  In the underground earth   Who then can supply you With clear flowing water    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Nun  By the Pen And by the  Record  Which  men  write —</t>
+    <t xml:space="preserve">   Say    See ye    If your stream be Some morning lost  In the underground earth   Who then can supply you With clear flowing water    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Nun  By the Pen And by the  Record  Which  men  write  </t>
   </si>
   <si>
     <t xml:space="preserve">   Thou art not  By the grace of thy Lord  Mad or possessed </t>
@@ -15655,7 +15655,7 @@
     <t xml:space="preserve">   Their desire is that Thou shouldst be pliant   So would they be pliant </t>
   </si>
   <si>
-    <t xml:space="preserve">   Need not the type Of despicable man — Ready with oaths </t>
+    <t xml:space="preserve">   Need not the type Of despicable man   Ready with oaths </t>
   </si>
   <si>
     <t xml:space="preserve">   A slanderer  going about With calumnies </t>
@@ -15664,7 +15664,7 @@
     <t xml:space="preserve">    Habitually  hindering  all  good  Transgressing beyond bounds  Deep in sin </t>
   </si>
   <si>
-    <t xml:space="preserve">   Violent  and cruel  — With all that  base born —</t>
+    <t xml:space="preserve">   Violent  and cruel    With all that  base born  </t>
   </si>
   <si>
     <t xml:space="preserve">   Because he possesses Wealth and  numerous  sons </t>
@@ -15688,13 +15688,13 @@
     <t xml:space="preserve">   So the  garden  became  By the morning  like A dark and desolate spot   Whose fruit had been gathered  </t>
   </si>
   <si>
-    <t xml:space="preserve">   As the morning broke  They called out  One to another —</t>
+    <t xml:space="preserve">   As the morning broke  They called out  One to another  </t>
   </si>
   <si>
     <t xml:space="preserve">     Go ye to your tilth  Betimes  in morning  if ye would gather The fruits   </t>
   </si>
   <si>
-    <t xml:space="preserve">   So they departed  conversing In secret low tones   saying —</t>
+    <t xml:space="preserve">   So they departed  conversing In secret low tones   saying  </t>
   </si>
   <si>
     <t xml:space="preserve">     Let not a single indigent Person break in upon you Into the  garden  this day   </t>
@@ -15724,7 +15724,7 @@
     <t xml:space="preserve">     It may be that our Lord Will give us in exchange A better  garden  than this   for we do turn to Him  In repentance     </t>
   </si>
   <si>
-    <t xml:space="preserve">   Such is the Punishment  In this life    but greater Is the Punishment In the Hereafter — If only they knew     </t>
+    <t xml:space="preserve">   Such is the Punishment  In this life    but greater Is the Punishment In the Hereafter   If only they knew     </t>
   </si>
   <si>
     <t xml:space="preserve">   Verily  for the Righteous  Are Gardens of Delight  In the Presence Of their Lord </t>
@@ -15733,7 +15733,7 @@
     <t xml:space="preserve">   Shall We then treat The People of Faith Like the People of Sin  </t>
   </si>
   <si>
-    <t xml:space="preserve">   Or have ye a Book Through which ye learn—</t>
+    <t xml:space="preserve">   Or have ye a Book Through which ye learn </t>
   </si>
   <si>
     <t xml:space="preserve">   That ye shall have  Through it whatever Ye choose  </t>
@@ -15748,10 +15748,10 @@
     <t xml:space="preserve">   Or have they some   Partners    in Godhead    Then let them produce Their   partners    If they are truthful  </t>
   </si>
   <si>
-    <t xml:space="preserve">   The Day that the Shin Shall be laid bare  And they shall be summoned To bow in adoration  But they shall not be able —</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Their eyes will be Cast down — ignominy will Cover them   seeing that They had been summoned Aforetime to bow in adoration  While they were whole   And had refused  </t>
+    <t xml:space="preserve">   The Day that the Shin Shall be laid bare  And they shall be summoned To bow in adoration  But they shall not be able  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Their eyes will be Cast down   ignominy will Cover them   seeing that They had been summoned Aforetime to bow in adoration  While they were whole   And had refused  </t>
   </si>
   <si>
     <t xml:space="preserve">   Then leave Me alone With such as reject This Message   by degrees Shall We punish them From di s they perceive not </t>
@@ -15760,13 +15760,13 @@
     <t xml:space="preserve">   A  long  respite will I Grant them   truly Powerful is My plan </t>
   </si>
   <si>
-    <t xml:space="preserve">   Or is it that thou dost Ask them for a reward  So that they are burdened With a load of debt  —</t>
+    <t xml:space="preserve">   Or is it that thou dost Ask them for a reward  So that they are burdened With a load of debt   </t>
   </si>
   <si>
     <t xml:space="preserve">   Or that the Unseen Is in their hands  so that They can write it down  </t>
   </si>
   <si>
-    <t xml:space="preserve">   So wait with patience For the Command Of thy Lord  and be not Like the Companion Of the Fish — when he Cried out in agony </t>
+    <t xml:space="preserve">   So wait with patience For the Command Of thy Lord  and be not Like the Companion Of the Fish   when he Cried out in agony </t>
   </si>
   <si>
     <t xml:space="preserve">   Had not Grace From His Lord Reached him  he Would indeed have been Cast off on the naked Shore  in disgrace </t>
@@ -15793,10 +15793,10 @@
     <t xml:space="preserve">   The Thamūd And the  Ād people  Branded  as false The Stunning Calamity </t>
   </si>
   <si>
-    <t xml:space="preserve">   But the Thamūd — They were destroyed By a terrible Storm Of thunder and lightning  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   And the  Ād — They were destroyed By a furious Wind  Exceedingly violent  </t>
+    <t xml:space="preserve">   But the Thamūd   They were destroyed By a terrible Storm Of thunder and lightning  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   And the  Ād   They were destroyed By a furious Wind  Exceedingly violent  </t>
   </si>
   <si>
     <t xml:space="preserve">   He made it rage Against them seven nights And eight days in succession   So that thou couldst see The  whole  people lying Prostrate in its  path   As if they had been Roots of hollow palm trees Tumbled down  </t>
@@ -15820,7 +15820,7 @@
     <t xml:space="preserve">   Then  when one Blast is sounded On the Trumpet </t>
   </si>
   <si>
-    <t xml:space="preserve">   And the earth is moved  And its mountains  And they are crushed to powder At one stroke —</t>
+    <t xml:space="preserve">   And the earth is moved  And its mountains  And they are crushed to powder At one stroke  </t>
   </si>
   <si>
     <t xml:space="preserve">   On that Day Shall the  Great  Event Come to pass </t>
@@ -15937,10 +15937,10 @@
     <t xml:space="preserve">   So glorify the name Of thy Lord Most High </t>
   </si>
   <si>
-    <t xml:space="preserve">   A questioner asked About a Penalty To befall—</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   The Unbelievers  The which there is none To ward off —</t>
+    <t xml:space="preserve">   A questioner asked About a Penalty To befall </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   The Unbelievers  The which there is none To ward off  </t>
   </si>
   <si>
     <t xml:space="preserve">    A Penalty  from God  Lord of the Ways Of Ascent </t>
@@ -15949,7 +15949,7 @@
     <t xml:space="preserve">   The angels and The Spirit ascend Unto Him in a Day The measure whereof Is  as  fifty thousand years  </t>
   </si>
   <si>
-    <t xml:space="preserve">   Therefore do thou hold Patience —a Patience Of beautiful  contentment  </t>
+    <t xml:space="preserve">   Therefore do thou hold Patience  a Patience Of beautiful  contentment  </t>
   </si>
   <si>
     <t xml:space="preserve">   They see the  Day  indeed As a far off  event   </t>
@@ -15967,7 +15967,7 @@
     <t xml:space="preserve">   And no friend will ask After a friend </t>
   </si>
   <si>
-    <t xml:space="preserve">   Though they will be put In sight of each other — The sinner s desire will be   Would that he could Redeem himself from The Penalty of that Day By  sacrificing  his children </t>
+    <t xml:space="preserve">   Though they will be put In sight of each other   The sinner s desire will be   Would that he could Redeem himself from The Penalty of that Day By  sacrificing  his children </t>
   </si>
   <si>
     <t xml:space="preserve">   His wife and his brother </t>
@@ -15976,13 +15976,13 @@
     <t xml:space="preserve">   His kindred who sheltered him </t>
   </si>
   <si>
-    <t xml:space="preserve">   And all  all that is On earth —so it could Deliver him  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   By no means   For it would be The Fire of Hell  —</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Plucking out  his being  Right to the skull  —</t>
+    <t xml:space="preserve">   And all  all that is On earth  so it could Deliver him  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   By no means   For it would be The Fire of Hell   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Plucking out  his being  Right to the skull   </t>
   </si>
   <si>
     <t xml:space="preserve">   Inviting  all  such As turn their backs And turn away their faces  From the Right  </t>
@@ -15991,16 +15991,16 @@
     <t xml:space="preserve">   And collect  wealth  And hide it  from use   </t>
   </si>
   <si>
-    <t xml:space="preserve">   Truly man was created Very impatient —</t>
+    <t xml:space="preserve">   Truly man was created Very impatient  </t>
   </si>
   <si>
     <t xml:space="preserve">   Fretful when evil Touches him  </t>
   </si>
   <si>
-    <t xml:space="preserve">   And niggardly when Good reaches him  —</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Not so those devoted To Prayer  —</t>
+    <t xml:space="preserve">   And niggardly when Good reaches him   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Not so those devoted To Prayer   </t>
   </si>
   <si>
     <t xml:space="preserve">   Those who remain steadfast To their prayer  </t>
@@ -16015,19 +16015,19 @@
     <t xml:space="preserve">   And those who hold To the truth of the Day Of Judgment  </t>
   </si>
   <si>
-    <t xml:space="preserve">   And those who fear The displeasure of their Lord —</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   For their Lord s displeasure Is the opposite of Peace And Tranquillity  —</t>
+    <t xml:space="preserve">   And those who fear The displeasure of their Lord  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   For their Lord s displeasure Is the opposite of Peace And Tranquillity   </t>
   </si>
   <si>
     <t xml:space="preserve">   And those who guard Their chastity</t>
   </si>
   <si>
-    <t xml:space="preserve">   Except with their wives And the  captives  whom Their right hands possess — For  then  they are not To be blamed </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   But those who trespass Beyond this are transgressors  —</t>
+    <t xml:space="preserve">   Except with their wives And the  captives  whom Their right hands possess   For  then  they are not To be blamed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   But those who trespass Beyond this are transgressors   </t>
   </si>
   <si>
     <t xml:space="preserve">   And those who respect Their trusts and covenants  </t>
@@ -16036,13 +16036,13 @@
     <t xml:space="preserve">   And those who stand firm In their testimonies  </t>
   </si>
   <si>
-    <t xml:space="preserve">   And those who guard  The sacredness  of their worship  —</t>
+    <t xml:space="preserve">   And those who guard  The sacredness  of their worship   </t>
   </si>
   <si>
     <t xml:space="preserve">   Such will be The honoured ones In the Gardens  of Bliss     </t>
   </si>
   <si>
-    <t xml:space="preserve">   Now what is The matter with the Unbelievers That they rush madly Before thee—</t>
+    <t xml:space="preserve">   Now what is The matter with the Unbelievers That they rush madly Before thee </t>
   </si>
   <si>
     <t xml:space="preserve">   From the right And from the left In crowds  </t>
@@ -16054,19 +16054,19 @@
     <t xml:space="preserve">   By no means   For We have created them Out of the  base matter  They know  </t>
   </si>
   <si>
-    <t xml:space="preserve">   Now I do Call to witness The Lord of all points In the East and the West That We can certainly—</t>
+    <t xml:space="preserve">   Now I do Call to witness The Lord of all points In the East and the West That We can certainly </t>
   </si>
   <si>
     <t xml:space="preserve">   Substitute for them Better  men  than they   And We are not To be defeated  In Our Plan  </t>
   </si>
   <si>
-    <t xml:space="preserve">   So leave them To plunge in vain talk And play about  Until they encounter That Day of theirs which They have been promised  —</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   The Day whereon They will issue From their sepulchres In sudden haste As if they were Rushing to a goal post  Fixed for them  —</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Their eyes lowered In de  — Ignominy covering them  All over    Such is the Day The which they Are promised  </t>
+    <t xml:space="preserve">   So leave them To plunge in vain talk And play about  Until they encounter That Day of theirs which They have been promised   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   The Day whereon They will issue From their sepulchres In sudden haste As if they were Rushing to a goal post  Fixed for them   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Their eyes lowered In de    Ignominy covering them  All over    Such is the Day The which they Are promised  </t>
   </si>
   <si>
     <t xml:space="preserve">   We sent Noah To his People  With the Command       Do thou warn thy People Before there comes to them A grievous Penalty   </t>
@@ -16105,7 +16105,7 @@
     <t xml:space="preserve">       Give you increase In wealth and sons   And bestow on you Gardens and bestow on you Rivers  of flowing water  </t>
   </si>
   <si>
-    <t xml:space="preserve">       What is the matter With you  that ye Place not your hope For kindness and long suffering In God —</t>
+    <t xml:space="preserve">       What is the matter With you  that ye Place not your hope For kindness and long suffering In God  </t>
   </si>
   <si>
     <t xml:space="preserve">       Seeing that it is He That has created you In diverse stages  </t>
@@ -16135,13 +16135,13 @@
     <t xml:space="preserve">     And they have devised A tremendous Plot </t>
   </si>
   <si>
-    <t xml:space="preserve">     And they have said  To each other     Abandon not your gods   Abandon neither Wadd Nor Suwā   neither Yagūth nor Ya ūq  Nor Nasr    —</t>
+    <t xml:space="preserve">     And they have said  To each other     Abandon not your gods   Abandon neither Wadd Nor Suwā   neither Yagūth nor Ya ūq  Nor Nasr     </t>
   </si>
   <si>
     <t xml:space="preserve">     They have already Misled many   and Grant Thou no increase To the wrong doers but in Straying  from their mark    </t>
   </si>
   <si>
-    <t xml:space="preserve">   Because of their sins They were drowned  In the flood   And were made to enter The Fire  of Punishment    And they found— In lieu of God— None to help them </t>
+    <t xml:space="preserve">   Because of their sins They were drowned  In the flood   And were made to enter The Fire  of Punishment    And they found  In lieu of God  None to help them </t>
   </si>
   <si>
     <t xml:space="preserve">   And Noah said     O my Lord   Leave not Of the Unbelievers  A single one on earth  </t>
@@ -16192,10 +16192,10 @@
     <t xml:space="preserve">     And as for us  Since we have listened To the Guidance  we have Accepted it   and any Who believes in his Lord Has no fear  either Of a short  account  Or of any injustice </t>
   </si>
   <si>
-    <t xml:space="preserve">     Amongst us are some That submit their wills  To God   and some That swerve from justice  Now those who submit Their wills—they have Sought out  the path  Of right conduct  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">     But those who swerve — They are  but  fuel For Hell Fire   —</t>
+    <t xml:space="preserve">     Amongst us are some That submit their wills  To God   and some That swerve from justice  Now those who submit Their wills they have Sought out  the path  Of right conduct  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     But those who swerve   They are  but  fuel For Hell Fire    </t>
   </si>
   <si>
     <t xml:space="preserve">    And God s Message is      If they  The pagans  Had  only  remained On the  right  Way  We should certainly have Bestowed on them Rain In abundance </t>
@@ -16219,16 +16219,16 @@
     <t xml:space="preserve">   Say     No one can Deliver me from God  If I were to disobey Him   Nor should I find refuge Except in Him </t>
   </si>
   <si>
-    <t xml:space="preserve">     Unless I proclaim what I receive from God And His Messages   For any that disobey God And His Apostle —for them Is Hell   they shall dwell Therein for ever   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   At length  when they See  with their own eyes  That which they are promised — Then will they know Who it is that is Weakest in  his  helper And least important In point of numbers </t>
+    <t xml:space="preserve">     Unless I proclaim what I receive from God And His Messages   For any that disobey God And His Apostle  for them Is Hell   they shall dwell Therein for ever   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   At length  when they See  with their own eyes  That which they are promised   Then will they know Who it is that is Weakest in  his  helper And least important In point of numbers </t>
   </si>
   <si>
     <t xml:space="preserve">   Say     I know not whether The  Punishment  which ye Are promised is near  Or whether my Lord Will appoint for it A distant term </t>
   </si>
   <si>
-    <t xml:space="preserve">     He  alone  knows the Unseen  Nor does He make any one Acquainted with His Mysteries —</t>
+    <t xml:space="preserve">     He  alone  knows the Unseen  Nor does He make any one Acquainted with His Mysteries  </t>
   </si>
   <si>
     <t xml:space="preserve">     Except an apostle Whom He has chosen   And then He makes A band of watchers March before him And behind him </t>
@@ -16240,10 +16240,10 @@
     <t xml:space="preserve">   O thou folded In garments  </t>
   </si>
   <si>
-    <t xml:space="preserve">   Stand  to prayer  by night  But not all night —</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Half of it — Or a little less </t>
+    <t xml:space="preserve">   Stand  to prayer  by night  But not all night  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Half of it   Or a little less </t>
   </si>
   <si>
     <t xml:space="preserve">   Or a little more   And recite the Qur ān In slow  measured rhythmic tones </t>
@@ -16285,7 +16285,7 @@
     <t xml:space="preserve">   But Pharaoh disobeyed The apostle   so We Seized him with A heavy Punishment </t>
   </si>
   <si>
-    <t xml:space="preserve">   Then how shall ye  If ye deny  God   Guard yourselves against A Day that will make Children hoary headed  —</t>
+    <t xml:space="preserve">   Then how shall ye  If ye deny  God   Guard yourselves against A Day that will make Children hoary headed   </t>
   </si>
   <si>
     <t xml:space="preserve">   Whereon the sky will be Cleft asunder   His Promise needs must Be accomplished </t>
@@ -16294,7 +16294,7 @@
     <t xml:space="preserve">   Verily this is an Admonition   Therefore  whoso will  let him Take a  straight  path To his Lord     </t>
   </si>
   <si>
-    <t xml:space="preserve">   Thy Lord doth know That thou standest forth  To prayer  nigh two thirds Of the night  or half The night  or a third Of the night  and so doth A party of those with thee  But God doth appoint Night And Day in due measure  He knoweth that ye are Unable to keep count thereof  So He hath turned to you  In mercy    read ye  Therefore  of the Qur ān As much as may be Easy for you  He knoweth That there may be  some  Among you in ill health   Others traveling through the land  Seeking of God s bounty   Yet others fighting In God s Cause  Read ye  Therefore  as much of the Qur an As may be easy  for you    And establish regular Prayer And give regular Charity   and loan to God A Beautiful Loan  And whatever good Ye send forth For your souls  Ye shall find it In God s Presence — Yea  better and Greater  in Reward  And seek ye the Grace Of God   for God is Oft Forgiving  Most Merciful </t>
+    <t xml:space="preserve">   Thy Lord doth know That thou standest forth  To prayer  nigh two thirds Of the night  or half The night  or a third Of the night  and so doth A party of those with thee  But God doth appoint Night And Day in due measure  He knoweth that ye are Unable to keep count thereof  So He hath turned to you  In mercy    read ye  Therefore  of the Qur ān As much as may be Easy for you  He knoweth That there may be  some  Among you in ill health   Others traveling through the land  Seeking of God s bounty   Yet others fighting In God s Cause  Read ye  Therefore  as much of the Qur an As may be easy  for you    And establish regular Prayer And give regular Charity   and loan to God A Beautiful Loan  And whatever good Ye send forth For your souls  Ye shall find it In God s Presence   Yea  better and Greater  in Reward  And seek ye the Grace Of God   for God is Oft Forgiving  Most Merciful </t>
   </si>
   <si>
     <t xml:space="preserve">   O thou wrapped up  In a mantle   </t>
@@ -16321,25 +16321,25 @@
     <t xml:space="preserve">   Finally  when the trumpet Is sounded </t>
   </si>
   <si>
-    <t xml:space="preserve">   That will be—that Day— A Day of Distress —</t>
+    <t xml:space="preserve">   That will be that Day  A Day of Distress  </t>
   </si>
   <si>
     <t xml:space="preserve">   Far from easy For those without Faith </t>
   </si>
   <si>
-    <t xml:space="preserve">   Leave Me alone   to deal  With the  creature  whom I created  bare and  alone  —</t>
+    <t xml:space="preserve">   Leave Me alone   to deal  With the  creature  whom I created  bare and  alone   </t>
   </si>
   <si>
     <t xml:space="preserve">   To whom I granted Resources in abundance </t>
   </si>
   <si>
-    <t xml:space="preserve">   And sons to be By his side  —</t>
+    <t xml:space="preserve">   And sons to be By his side   </t>
   </si>
   <si>
     <t xml:space="preserve">   To whom I made  Life  smooth and comfortable  </t>
   </si>
   <si>
-    <t xml:space="preserve">   Yet is he greedy— That I should add  Yet more  —</t>
+    <t xml:space="preserve">   Yet is he greedy  That I should add  Yet more   </t>
   </si>
   <si>
     <t xml:space="preserve">   By no means   For to Our Signs He has been refractory  </t>
@@ -16348,13 +16348,13 @@
     <t xml:space="preserve">   Soon will I visit him With a mount of calamities  </t>
   </si>
   <si>
-    <t xml:space="preserve">   For he thought And he plotted  —</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   And woe to him   How he plotted  —</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Yea  woe to him   How he plotted  —</t>
+    <t xml:space="preserve">   For he thought And he plotted   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   And woe to him   How he plotted   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Yea  woe to him   How he plotted   </t>
   </si>
   <si>
     <t xml:space="preserve">   Then he looked round  </t>
@@ -16378,7 +16378,7 @@
     <t xml:space="preserve">   And what will explain To thee what Hell Fire is  </t>
   </si>
   <si>
-    <t xml:space="preserve">   Naught doth it permit To endure  and naught Doth it leave alone  —</t>
+    <t xml:space="preserve">   Naught doth it permit To endure  and naught Doth it leave alone   </t>
   </si>
   <si>
     <t xml:space="preserve">   Darkening and changing The colour of man  </t>
@@ -16387,7 +16387,7 @@
     <t xml:space="preserve">   Over it are Nineteen </t>
   </si>
   <si>
-    <t xml:space="preserve">   And We have set none But angels as guardians Of the Fire   and We Have fixed their number Only as a trial For Unbelievers —in order That the people of the Book May arrive at certainty  And the Believers may increase In Faith — and that no doubts May be left for the People Of the Book and the Believers  And that those in whose hearts Is a disease and the Unbelievers May say    What symbol Doth God intend by this     Thus doth God leave to stray Whom He pleaseth and guide Whom He pleaseth   and none Can know the forces Of the Lord  except He  And this is no other than A warning to mankind    </t>
+    <t xml:space="preserve">   And We have set none But angels as guardians Of the Fire   and We Have fixed their number Only as a trial For Unbelievers  in order That the people of the Book May arrive at certainty  And the Believers may increase In Faith   and that no doubts May be left for the People Of the Book and the Believers  And that those in whose hearts Is a disease and the Unbelievers May say    What symbol Doth God intend by this     Thus doth God leave to stray Whom He pleaseth and guide Whom He pleaseth   and none Can know the forces Of the Lord  except He  And this is no other than A warning to mankind    </t>
   </si>
   <si>
     <t xml:space="preserve">   Nay  verily   By the Moon </t>
@@ -16396,16 +16396,16 @@
     <t xml:space="preserve">   And by the Night As it retreateth </t>
   </si>
   <si>
-    <t xml:space="preserve">   And by the Dawn As it shineth forth —</t>
+    <t xml:space="preserve">   And by the Dawn As it shineth forth  </t>
   </si>
   <si>
     <t xml:space="preserve">   This is but one Of the mighty  portents  </t>
   </si>
   <si>
-    <t xml:space="preserve">   A warning to mankind —</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   To any of you that Chooses to press forward  Or to follow behind  —</t>
+    <t xml:space="preserve">   A warning to mankind  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   To any of you that Chooses to press forward  Or to follow behind   </t>
   </si>
   <si>
     <t xml:space="preserve">   Every soul will be  held  In pledge for its deeds </t>
@@ -16441,7 +16441,7 @@
     <t xml:space="preserve">   Then will no intercession Of  any  intercessors Profit them </t>
   </si>
   <si>
-    <t xml:space="preserve">   Then what is The matter with them That they turn away From admonition  —</t>
+    <t xml:space="preserve">   Then what is The matter with them That they turn away From admonition   </t>
   </si>
   <si>
     <t xml:space="preserve">   As if they were Affrighted asses </t>
@@ -16489,7 +16489,7 @@
     <t xml:space="preserve">   And the moon is Buried in darkness </t>
   </si>
   <si>
-    <t xml:space="preserve">   And the sun and moon Are joined together —</t>
+    <t xml:space="preserve">   And the sun and moon Are joined together  </t>
   </si>
   <si>
     <t xml:space="preserve">   That Day will Man say     Where is the refuge    </t>
@@ -16528,7 +16528,7 @@
     <t xml:space="preserve">   And leave alone The Hereafter </t>
   </si>
   <si>
-    <t xml:space="preserve">   Some faces  that Day  Will beam  in brightness And beauty  —</t>
+    <t xml:space="preserve">   Some faces  that Day  Will beam  in brightness And beauty   </t>
   </si>
   <si>
     <t xml:space="preserve">   Looking towards their Lord  </t>
@@ -16555,7 +16555,7 @@
     <t xml:space="preserve">   That Day the Drive Will be  all  to thy Lord     </t>
   </si>
   <si>
-    <t xml:space="preserve">   So he gave nothing In charity  nor Did he pray  —</t>
+    <t xml:space="preserve">   So he gave nothing In charity  nor Did he pray   </t>
   </si>
   <si>
     <t xml:space="preserve">   But on the contrary  He rejected Truth And turned away  </t>
@@ -16585,7 +16585,7 @@
     <t xml:space="preserve">   Has not He   the same   The power to give life To the dead  </t>
   </si>
   <si>
-    <t xml:space="preserve">   Has there not been Over Man a long period Of Time  when he was Nothing— not even  mentioned  </t>
+    <t xml:space="preserve">   Has there not been Over Man a long period Of Time  when he was Nothing  not even  mentioned  </t>
   </si>
   <si>
     <t xml:space="preserve">   Verily We created Man from a drop Of mingled sperm  In order to try him   So We gave him  the gifts   Of Hearing and Sight </t>
@@ -16597,7 +16597,7 @@
     <t xml:space="preserve">   For the Rejecters We have prepared Chains  Yokes and A Blazing Fire </t>
   </si>
   <si>
-    <t xml:space="preserve">   As to the Righteous  They shall drink Of a Cup  of Wine  Mixed with Kafur —</t>
+    <t xml:space="preserve">   As to the Righteous  They shall drink Of a Cup  of Wine  Mixed with Kafur  </t>
   </si>
   <si>
     <t xml:space="preserve">   A Fountain where The Devotees of God Do drink  making it Flow in unstinted abundance </t>
@@ -16675,7 +16675,7 @@
     <t xml:space="preserve">   But ye will not  Except as God wills   For God is full of Knowledge and Wisdom </t>
   </si>
   <si>
-    <t xml:space="preserve">   He will admit To His Mercy Whom He will   But the wrong doers — For them has He prepared A grievous Penalty </t>
+    <t xml:space="preserve">   He will admit To His Mercy Whom He will   But the wrong doers   For them has He prepared A grievous Penalty </t>
   </si>
   <si>
     <t xml:space="preserve">   By the  Winds  Sent Forth One after another  To man s profit   </t>
@@ -16693,7 +16693,7 @@
     <t xml:space="preserve">   Then spread abroad A Message </t>
   </si>
   <si>
-    <t xml:space="preserve">   Whether of Justification Or of Warning  —</t>
+    <t xml:space="preserve">   Whether of Justification Or of Warning   </t>
   </si>
   <si>
     <t xml:space="preserve">   Assuredly  what ye are Promised must come to pass </t>
@@ -16708,7 +16708,7 @@
     <t xml:space="preserve">   When the mountains are Scattered  to the winds  as dust  </t>
   </si>
   <si>
-    <t xml:space="preserve">   And when the apostles Are  all  appointed a time  To collect   —</t>
+    <t xml:space="preserve">   And when the apostles Are  all  appointed a time  To collect    </t>
   </si>
   <si>
     <t xml:space="preserve">   For what Day Are these  Portents  deferred  </t>
@@ -16732,7 +16732,7 @@
     <t xml:space="preserve">   Thus do We deal With men of sin </t>
   </si>
   <si>
-    <t xml:space="preserve">   Have We not created You from a fluid  Held  despicable  —</t>
+    <t xml:space="preserve">   Have We not created You from a fluid  Held  despicable   </t>
   </si>
   <si>
     <t xml:space="preserve">   The which We placed In a place of rest  Firmly fixed </t>
@@ -16789,7 +16789,7 @@
     <t xml:space="preserve">   As to the Righteous  They shall be amidst  Cool  shades and springs  Of water  </t>
   </si>
   <si>
-    <t xml:space="preserve">   And  they shall have  Fruits — all they desire </t>
+    <t xml:space="preserve">   And  they shall have  Fruits   all they desire </t>
   </si>
   <si>
     <t xml:space="preserve">     Eat ye and drink ye To your heart s content   For that ye worked  Righteousness    </t>
@@ -16855,7 +16855,7 @@
     <t xml:space="preserve">   And gardens of luxurious growth  </t>
   </si>
   <si>
-    <t xml:space="preserve">   Verily the Day Of Sorting Out Is a thing appointed —</t>
+    <t xml:space="preserve">   Verily the Day Of Sorting Out Is a thing appointed  </t>
   </si>
   <si>
     <t xml:space="preserve">   The Day that the Trumpet Shall be sounded  and ye Shall come forth in crowds  </t>
@@ -16867,7 +16867,7 @@
     <t xml:space="preserve">   And the mountains Shall vanish  as if They were a mirage </t>
   </si>
   <si>
-    <t xml:space="preserve">   Truly Hell is As a place of ambush —</t>
+    <t xml:space="preserve">   Truly Hell is As a place of ambush  </t>
   </si>
   <si>
     <t xml:space="preserve">   For the transgressors A place of destination  </t>
@@ -16879,7 +16879,7 @@
     <t xml:space="preserve">   Nothing cool shall they tastes Therein nor any drink </t>
   </si>
   <si>
-    <t xml:space="preserve">   Save a boiling fluid And a fluid  dark murky  Intensely cold —</t>
+    <t xml:space="preserve">   Save a boiling fluid And a fluid  dark murky  Intensely cold  </t>
   </si>
   <si>
     <t xml:space="preserve">   A fitting recompense  For them  </t>
@@ -16909,13 +16909,13 @@
     <t xml:space="preserve">   And a Cup full  To the Brim  </t>
   </si>
   <si>
-    <t xml:space="preserve">   No Vanity shall they hear Therein  nor Untruth —</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Recompense from thy Lord  A Gift   amply  sufficient —</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    From  the Lord Of the heavens And the earth  And all between —  God  Most Gracious   None shall have power To argue with Him </t>
+    <t xml:space="preserve">   No Vanity shall they hear Therein  nor Untruth  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Recompense from thy Lord  A Gift   amply  sufficient  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    From  the Lord Of the heavens And the earth  And all between    God  Most Gracious   None shall have power To argue with Him </t>
   </si>
   <si>
     <t xml:space="preserve">   The Day that The Spirit and the angels Will stand forth in ranks  None shall speak Except any who is Permitted by  God  Most Gracious  And he will say What is right </t>
@@ -16924,7 +16924,7 @@
     <t xml:space="preserve">   That Day will be The sure Reality   Therefore  whoso will  let him Take a  straight  Return to his Lord  </t>
   </si>
   <si>
-    <t xml:space="preserve">   Verily  We have warned you Of a Penalty near — The Day when man will See  the Deeds  which His hands have sent forth  And the Unbeliever will say    Woe unto me   Would that I were  mere  dust    </t>
+    <t xml:space="preserve">   Verily  We have warned you Of a Penalty near   The Day when man will See  the Deeds  which His hands have sent forth  And the Unbeliever will say    Woe unto me   Would that I were  mere  dust    </t>
   </si>
   <si>
     <t xml:space="preserve">   By the  angels  Who tear out  The souls of the wicked  With violence  </t>
@@ -16939,7 +16939,7 @@
     <t xml:space="preserve">   Then press forward As in a race </t>
   </si>
   <si>
-    <t xml:space="preserve">   Then arrange to do  The Commands of their Lord  —</t>
+    <t xml:space="preserve">   Then arrange to do  The Commands of their Lord   </t>
   </si>
   <si>
     <t xml:space="preserve">   One Day everything that Can be in commotion will Be in violent commotion </t>
@@ -16954,10 +16954,10 @@
     <t xml:space="preserve">   Cast down will be  Their owners   eyes </t>
   </si>
   <si>
-    <t xml:space="preserve">   They say  now      What   Shall we indeed be Returned to  our  former state  —</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     What  — when we shall Have become rotten bones    </t>
+    <t xml:space="preserve">   They say  now      What   Shall we indeed be Returned to  our  former state   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     What    when we shall Have become rotten bones    </t>
   </si>
   <si>
     <t xml:space="preserve">   They say     It would  In that case  be A return with loss    </t>
@@ -16972,13 +16972,13 @@
     <t xml:space="preserve">   Has the story Of Moses reached thee  </t>
   </si>
   <si>
-    <t xml:space="preserve">   Behold  thy Lord did call To him in the sacred valley Of Tuwā  —</t>
+    <t xml:space="preserve">   Behold  thy Lord did call To him in the sacred valley Of Tuwā   </t>
   </si>
   <si>
     <t xml:space="preserve">     Go thou to Pharaoh  For he has indeed Transgressed all bounds  </t>
   </si>
   <si>
-    <t xml:space="preserve">     And say to him    Wouldst thou that thou Shouldst be purified  From sin   —</t>
+    <t xml:space="preserve">     And say to him    Wouldst thou that thou Shouldst be purified  From sin    </t>
   </si>
   <si>
     <t xml:space="preserve">      And that I guide thee To thy Lord  so thou Shouldst fear Him    </t>
@@ -16999,7 +16999,7 @@
     <t xml:space="preserve">   Saying    I am your Lord  Most High   </t>
   </si>
   <si>
-    <t xml:space="preserve">   But God did punish him   And made an  example Of him —in the Hereafter  As in this life </t>
+    <t xml:space="preserve">   But God did punish him   And made an  example Of him  in the Hereafter  As in this life </t>
   </si>
   <si>
     <t xml:space="preserve">   Verily in this is An instructive warning For whosoever feareth  God     </t>
@@ -17026,13 +17026,13 @@
     <t xml:space="preserve">   For use and convenience To you and your cattle </t>
   </si>
   <si>
-    <t xml:space="preserve">   Therefore  when there comes The great  overwhelming  Event  —</t>
+    <t xml:space="preserve">   Therefore  when there comes The great  overwhelming  Event   </t>
   </si>
   <si>
     <t xml:space="preserve">   The Day when Man Shall remember  all  That he strove for </t>
   </si>
   <si>
-    <t xml:space="preserve">   And Hell Fire shall be Placed in full view For  all  to see —</t>
+    <t xml:space="preserve">   And Hell Fire shall be Placed in full view For  all  to see  </t>
   </si>
   <si>
     <t xml:space="preserve">   Then  for such as had Transgressed all bounds </t>
@@ -17050,7 +17050,7 @@
     <t xml:space="preserve">   Their Abode will be The Garden </t>
   </si>
   <si>
-    <t xml:space="preserve">   They ask thee About the Hour — When Will be its appointed time   </t>
+    <t xml:space="preserve">   They ask thee About the Hour   When Will be its appointed time   </t>
   </si>
   <si>
     <t xml:space="preserve">   Wherein art thou  concerned  With the declaration thereof  </t>
@@ -17071,7 +17071,7 @@
     <t xml:space="preserve">   Because there came to him The blind man  interrupting  </t>
   </si>
   <si>
-    <t xml:space="preserve">   But what could tell thee But that perchance he might Grow  in spiritual understanding   —</t>
+    <t xml:space="preserve">   But what could tell thee But that perchance he might Grow  in spiritual understanding    </t>
   </si>
   <si>
     <t xml:space="preserve">   Or that he might receive Admonition  and the teaching Might profit him  </t>
@@ -17107,7 +17107,7 @@
     <t xml:space="preserve">   Exalted  in dignity   Kept pure and holy </t>
   </si>
   <si>
-    <t xml:space="preserve">    Written  by the hands Of scribes —</t>
+    <t xml:space="preserve">    Written  by the hands Of scribes  </t>
   </si>
   <si>
     <t xml:space="preserve">   Honorable and Pious and Just </t>
@@ -17155,10 +17155,10 @@
     <t xml:space="preserve">   And enclosed Gardens  Dense with lofty trees </t>
   </si>
   <si>
-    <t xml:space="preserve">   And Fruits and Fodder  —</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   At length when there comes the Deafening Noise  —</t>
+    <t xml:space="preserve">   And Fruits and Fodder   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   At length when there comes the Deafening Noise   </t>
   </si>
   <si>
     <t xml:space="preserve">   That Day shall a man Flee from his own brother </t>
@@ -17209,7 +17209,7 @@
     <t xml:space="preserve">   When the souls Are sorted out   Being joined  like with like   </t>
   </si>
   <si>
-    <t xml:space="preserve">   When the female  infant   Buried alive  is questioned—</t>
+    <t xml:space="preserve">   When the female  infant   Buried alive  is questioned </t>
   </si>
   <si>
     <t xml:space="preserve">   For what crime She was killed  </t>
@@ -17224,13 +17224,13 @@
     <t xml:space="preserve">   When the Blazing Fire Is kindled to fierce heat  </t>
   </si>
   <si>
-    <t xml:space="preserve">   And when the Garden Is brought near  —</t>
+    <t xml:space="preserve">   And when the Garden Is brought near   </t>
   </si>
   <si>
     <t xml:space="preserve">    Then  shall each soul know What it has put forward </t>
   </si>
   <si>
-    <t xml:space="preserve">   So verily I call To witness the Planets— That recede </t>
+    <t xml:space="preserve">   So verily I call To witness the Planets  That recede </t>
   </si>
   <si>
     <t xml:space="preserve">   Go straight  or hide  </t>
@@ -17239,7 +17239,7 @@
     <t xml:space="preserve">   And the Night As it dissipates  </t>
   </si>
   <si>
-    <t xml:space="preserve">   And the Dawn As it breathes away The darkness  —</t>
+    <t xml:space="preserve">   And the Dawn As it breathes away The darkness   </t>
   </si>
   <si>
     <t xml:space="preserve">   Verily this is the word Of a most honorable Messenger </t>
@@ -17272,7 +17272,7 @@
     <t xml:space="preserve">    With profit  to whoever Among you wills To go straight  </t>
   </si>
   <si>
-    <t xml:space="preserve">   But ye shall not will Except as God wills — The Cherisher of the Worlds </t>
+    <t xml:space="preserve">   But ye shall not will Except as God wills   The Cherisher of the Worlds </t>
   </si>
   <si>
     <t xml:space="preserve">   When the Sky Is cleft asunder  </t>
@@ -17284,13 +17284,13 @@
     <t xml:space="preserve">   When the Oceans Are suffered to burst forth  </t>
   </si>
   <si>
-    <t xml:space="preserve">   And when the Graves Are turned upside down  —</t>
+    <t xml:space="preserve">   And when the Graves Are turned upside down   </t>
   </si>
   <si>
     <t xml:space="preserve">    Then  shall each soul know What it hath sent forward And  what it hath  kept back </t>
   </si>
   <si>
-    <t xml:space="preserve">   O man   what has Seduced thee from Thy Lord Most Beneficent  —</t>
+    <t xml:space="preserve">   O man   what has Seduced thee from Thy Lord Most Beneficent   </t>
   </si>
   <si>
     <t xml:space="preserve">   Him Who created thee  Fashioned thee in due proportion  And gave thee a just bias  </t>
@@ -17302,10 +17302,10 @@
     <t xml:space="preserve">   Nay   but ye do Reject Right and Judgment  </t>
   </si>
   <si>
-    <t xml:space="preserve">   But verily over you  Are appointed angels  To protect you —</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Kind and honorable — Writing down  your deeds   </t>
+    <t xml:space="preserve">   But verily over you  Are appointed angels  To protect you  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Kind and honorable   Writing down  your deeds   </t>
   </si>
   <si>
     <t xml:space="preserve">   They know  and understand  All that ye do </t>
@@ -17314,7 +17314,7 @@
     <t xml:space="preserve">   As for the Righteous  They will be in Bliss  </t>
   </si>
   <si>
-    <t xml:space="preserve">   And the Wicked— They will be in the Fire </t>
+    <t xml:space="preserve">   And the Wicked  They will be in the Fire </t>
   </si>
   <si>
     <t xml:space="preserve">   Which they will enter On the Day of Judgment </t>
@@ -17332,7 +17332,7 @@
     <t xml:space="preserve">    It will be  the Day When no soul shall have Power  to do  aught For another   For the Command  that Day  Will be  wholly  with God </t>
   </si>
   <si>
-    <t xml:space="preserve">   Woe to those That deal in fraud —</t>
+    <t xml:space="preserve">   Woe to those That deal in fraud  </t>
   </si>
   <si>
     <t xml:space="preserve">   Those who when they Have to receive by measure From men  exact full measure </t>
@@ -17341,7 +17341,7 @@
     <t xml:space="preserve">   But when they have To give by measure Or weight to men  Give less than due </t>
   </si>
   <si>
-    <t xml:space="preserve">   Do they not think That they will be called To account  —</t>
+    <t xml:space="preserve">   Do they not think That they will be called To account   </t>
   </si>
   <si>
     <t xml:space="preserve">   On a Mighty Day </t>
@@ -17359,7 +17359,7 @@
     <t xml:space="preserve">    There is  a Register  Fully  inscribed </t>
   </si>
   <si>
-    <t xml:space="preserve">   Woe  that Day  to those That deny—</t>
+    <t xml:space="preserve">   Woe  that Day  to those That deny </t>
   </si>
   <si>
     <t xml:space="preserve">   Those that deny The Day of Judgment </t>
@@ -17440,7 +17440,7 @@
     <t xml:space="preserve">   When the Sky is Rent asunder </t>
   </si>
   <si>
-    <t xml:space="preserve">   And hearkens to  The Command of  its Lord — And it must needs  Do so  —</t>
+    <t xml:space="preserve">   And hearkens to  The Command of  its Lord   And it must needs  Do so   </t>
   </si>
   <si>
     <t xml:space="preserve">   And when the Earth is flattened out </t>
@@ -17449,10 +17449,10 @@
     <t xml:space="preserve">   And casts forth What is within it And becomes  clean  empty </t>
   </si>
   <si>
-    <t xml:space="preserve">   And hearkens to  The Command of  its Lord — And it must needs  Do so  — then will come Home the full Reality  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   O thou man   Verily thou art ever Toiling on towards the Lord— Painfully toiling — but thou Shalt meet Him </t>
+    <t xml:space="preserve">   And hearkens to  The Command of  its Lord   And it must needs  Do so    then will come Home the full Reality  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   O thou man   Verily thou art ever Toiling on towards the Lord  Painfully toiling   but thou Shalt meet Him </t>
   </si>
   <si>
     <t xml:space="preserve">   Then he who is given His Record in his Right hand </t>
@@ -17464,7 +17464,7 @@
     <t xml:space="preserve">   And he will turn To his people  rejoicing  </t>
   </si>
   <si>
-    <t xml:space="preserve">   But he who is given His Record behind his back —</t>
+    <t xml:space="preserve">   But he who is given His Record behind his back  </t>
   </si>
   <si>
     <t xml:space="preserve">   Soon will he cry For Perdition </t>
@@ -17494,7 +17494,7 @@
     <t xml:space="preserve">   Ye shall surely travel From stage to stage </t>
   </si>
   <si>
-    <t xml:space="preserve">   What then is the matter With them  that they Believe not  —</t>
+    <t xml:space="preserve">   What then is the matter With them  that they Believe not   </t>
   </si>
   <si>
     <t xml:space="preserve">   And when the Qur ān Is read to them  they Fall not prostrate </t>
@@ -17518,7 +17518,7 @@
     <t xml:space="preserve">   By the promised Day  Of Judgment   </t>
   </si>
   <si>
-    <t xml:space="preserve">   By one that witnesses  And the subject of the witness  —</t>
+    <t xml:space="preserve">   By one that witnesses  And the subject of the witness   </t>
   </si>
   <si>
     <t xml:space="preserve">   Woe to the makers Of the pit  of fire  </t>
@@ -17533,7 +17533,7 @@
     <t xml:space="preserve">   And they witnessed  All  that they were doing Against the Believers </t>
   </si>
   <si>
-    <t xml:space="preserve">   And they ill treated them For no other reason than That they believed in God  Exalted in Power Worthy of all Praise  —</t>
+    <t xml:space="preserve">   And they ill treated them For no other reason than That they believed in God  Exalted in Power Worthy of all Praise   </t>
   </si>
   <si>
     <t xml:space="preserve">   Him to Whom belongs The dominion of the heavens And the earth   And God is Witness To all things </t>
@@ -17560,7 +17560,7 @@
     <t xml:space="preserve">   Doer  without let  Of all that He intends </t>
   </si>
   <si>
-    <t xml:space="preserve">   Has the story Reached thee  Of the Forces—</t>
+    <t xml:space="preserve">   Has the story Reached thee  Of the Forces </t>
   </si>
   <si>
     <t xml:space="preserve">   Of Pharaoh and the Thamud  </t>
@@ -17578,10 +17578,10 @@
     <t xml:space="preserve">    Inscribed  in a Tablet Preserved </t>
   </si>
   <si>
-    <t xml:space="preserve">   By the Sky And the Night Visitant  Therein  —</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   And what will explain to thee What the Night Visitant is —</t>
+    <t xml:space="preserve">   By the Sky And the Night Visitant  Therein   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   And what will explain to thee What the Night Visitant is  </t>
   </si>
   <si>
     <t xml:space="preserve">    It is  the Star Of piercing brightness  </t>
@@ -17593,7 +17593,7 @@
     <t xml:space="preserve">   Now let man but think From what he is created  </t>
   </si>
   <si>
-    <t xml:space="preserve">   He is created from a drop emitted—</t>
+    <t xml:space="preserve">   He is created from a drop emitted </t>
   </si>
   <si>
     <t xml:space="preserve">   Proceeding from between The backbone and the ribs  </t>
@@ -17611,7 +17611,7 @@
     <t xml:space="preserve">   By the Firmament Which returns  in its round  </t>
   </si>
   <si>
-    <t xml:space="preserve">   And by the Earth Which opens out  For the gushing of springs Or the sprouting of vegetation  —</t>
+    <t xml:space="preserve">   And by the Earth Which opens out  For the gushing of springs Or the sprouting of vegetation   </t>
   </si>
   <si>
     <t xml:space="preserve">   Behold this is the Word That distinguishes  Good From Evil   </t>
@@ -17680,7 +17680,7 @@
     <t xml:space="preserve">   But the Hereafter Is better and more enduring </t>
   </si>
   <si>
-    <t xml:space="preserve">   And this is In the Books Of the earliest  Revelations  —</t>
+    <t xml:space="preserve">   And this is In the Books Of the earliest  Revelations   </t>
   </si>
   <si>
     <t xml:space="preserve">   The Books of Abraham and Moses </t>
@@ -17692,10 +17692,10 @@
     <t xml:space="preserve">   Some faces  that Day Will be humiliated </t>
   </si>
   <si>
-    <t xml:space="preserve">   Laboring  hard   weary —</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   The while they enter The Blazing Fire —</t>
+    <t xml:space="preserve">   Laboring  hard   weary  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   The while they enter The Blazing Fire  </t>
   </si>
   <si>
     <t xml:space="preserve">   The while they are given  To drink  of a boiling hot spring </t>
@@ -17710,7 +17710,7 @@
     <t xml:space="preserve">    Other  faces that Day Will be joyful </t>
   </si>
   <si>
-    <t xml:space="preserve">   Pleased with their Striving —</t>
+    <t xml:space="preserve">   Pleased with their Striving  </t>
   </si>
   <si>
     <t xml:space="preserve">   Where they shall hear No  word  of vanity  </t>
@@ -17731,13 +17731,13 @@
     <t xml:space="preserve">   And rich carpets  All  spread out </t>
   </si>
   <si>
-    <t xml:space="preserve">   Do they not look At the Camels  How they are made  —</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   And at the Sky  How it is raised high  —</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   And at the Mountains  How they are fixed firm  —</t>
+    <t xml:space="preserve">   Do they not look At the Camels  How they are made   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   And at the Sky  How it is raised high   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   And at the Mountains  How they are fixed firm   </t>
   </si>
   <si>
     <t xml:space="preserve">   And at the Earth  How it is spread out  </t>
@@ -17749,7 +17749,7 @@
     <t xml:space="preserve">   Thou art not one To manage  men s  affairs </t>
   </si>
   <si>
-    <t xml:space="preserve">   But if any turn away And reject God —</t>
+    <t xml:space="preserve">   But if any turn away And reject God  </t>
   </si>
   <si>
     <t xml:space="preserve">   God will punish him With a mighty Punishment </t>
@@ -17770,13 +17770,13 @@
     <t xml:space="preserve">   By the Even And Odd  contrasted   </t>
   </si>
   <si>
-    <t xml:space="preserve">   And by the Night When it passeth away  —</t>
+    <t xml:space="preserve">   And by the Night When it passeth away   </t>
   </si>
   <si>
     <t xml:space="preserve">   Is there  not  in these An adjuration  or evidence  For those who understand  </t>
   </si>
   <si>
-    <t xml:space="preserve">   Seest thou not How thy Lord dealt With the  Ad  people  —</t>
+    <t xml:space="preserve">   Seest thou not How thy Lord dealt With the  Ad  people   </t>
   </si>
   <si>
     <t xml:space="preserve">   Of the  city of  Iram  With lofty pillars </t>
@@ -17785,7 +17785,7 @@
     <t xml:space="preserve">   The like of which Were not produced In  all  the land  </t>
   </si>
   <si>
-    <t xml:space="preserve">   And with the Thamud  People   who cut out  Huge  rocks in the valley  —</t>
+    <t xml:space="preserve">   And with the Thamud  People   who cut out  Huge  rocks in the valley   </t>
   </si>
   <si>
     <t xml:space="preserve">   And with Pharaoh  Lord of Stakes  </t>
@@ -17812,10 +17812,10 @@
     <t xml:space="preserve">   Nay  nay   But ye Honour not the orphans  </t>
   </si>
   <si>
-    <t xml:space="preserve">   Nor do ye encourage One another To feed the poor  —</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   And ye devour Inheritance— All with greed </t>
+    <t xml:space="preserve">   Nor do ye encourage One another To feed the poor   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   And ye devour Inheritance  All with greed </t>
   </si>
   <si>
     <t xml:space="preserve">   And ye love wealth With inordinate love  </t>
@@ -17827,7 +17827,7 @@
     <t xml:space="preserve">   And thy Lord cometh  And His angels  Rank upon rank </t>
   </si>
   <si>
-    <t xml:space="preserve">   And Hell  that Day  Is brought  face to face  — On that Day will man Remember  but how will That remembrance profit him  </t>
+    <t xml:space="preserve">   And Hell  that Day  Is brought  face to face    On that Day will man Remember  but how will That remembrance profit him  </t>
   </si>
   <si>
     <t xml:space="preserve">   He will say     Ah   Would that I had Sent forth  Good Deeds  For  this  my  Future  Life    </t>
@@ -17842,7 +17842,7 @@
     <t xml:space="preserve">    To the righteous soul Will be said &amp;colon     O  thou  soul  In  complete  rest And satisfaction  </t>
   </si>
   <si>
-    <t xml:space="preserve">     Come back thou To thy Lord — Well pleased  thyself   And well pleasing Unto Him  </t>
+    <t xml:space="preserve">     Come back thou To thy Lord   Well pleased  thyself   And well pleasing Unto Him  </t>
   </si>
   <si>
     <t xml:space="preserve">     Enter thou  then  Among my Devotees  </t>
@@ -17851,13 +17851,13 @@
     <t xml:space="preserve">    Yea  enter thou My Heaven    </t>
   </si>
   <si>
-    <t xml:space="preserve">   I do call to witness This City  —</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   And thou art a freeman Of this City  —</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   And  the mystic ties of  Parent and Child  —</t>
+    <t xml:space="preserve">   I do call to witness This City   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   And thou art a freeman Of this City   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   And  the mystic ties of  Parent and Child   </t>
   </si>
   <si>
     <t xml:space="preserve">   Verily We have created Man into toil and struggle </t>
@@ -17872,10 +17872,10 @@
     <t xml:space="preserve">   Thinketh he that none Beholdeth him  </t>
   </si>
   <si>
-    <t xml:space="preserve">   Have We not made For him a pair of eyes  —</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   And a tongue  And a pair of lips  —</t>
+    <t xml:space="preserve">   Have We not made For him a pair of eyes   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   And a tongue  And a pair of lips   </t>
   </si>
   <si>
     <t xml:space="preserve">   And shown him The two highways  </t>
@@ -17884,7 +17884,7 @@
     <t xml:space="preserve">   But he hath made no haste On the path that is steep </t>
   </si>
   <si>
-    <t xml:space="preserve">   And what will explain To thee the path that is steep  —</t>
+    <t xml:space="preserve">   And what will explain To thee the path that is steep   </t>
   </si>
   <si>
     <t xml:space="preserve">    It is     freeing the bondman  </t>
@@ -17932,7 +17932,7 @@
     <t xml:space="preserve">   By the Soul  And the proportion and order Given to it  </t>
   </si>
   <si>
-    <t xml:space="preserve">   And its enlightenment As to its wrong And its right  —</t>
+    <t xml:space="preserve">   And its enlightenment As to its wrong And its right   </t>
   </si>
   <si>
     <t xml:space="preserve">   Truly he succeeds That purifies it </t>
@@ -17962,7 +17962,7 @@
     <t xml:space="preserve">   By the Day as it Appears in glory  </t>
   </si>
   <si>
-    <t xml:space="preserve">   By  the mystery of  The creation of male And female  —</t>
+    <t xml:space="preserve">   By  the mystery of  The creation of male And female   </t>
   </si>
   <si>
     <t xml:space="preserve">   Verily   the ends  ye Strive for are diverse </t>
@@ -17971,7 +17971,7 @@
     <t xml:space="preserve">   So he who gives  In charity  and fears  God  </t>
   </si>
   <si>
-    <t xml:space="preserve">   And  in all sincerity  Testifies to the Best —</t>
+    <t xml:space="preserve">   And  in all sincerity  Testifies to the Best  </t>
   </si>
   <si>
     <t xml:space="preserve">   We will indeed Make smooth for him The path to Bliss </t>
@@ -18004,7 +18004,7 @@
     <t xml:space="preserve">   Who give the lie to Truth And turn their backs </t>
   </si>
   <si>
-    <t xml:space="preserve">   But those most devoted To God shall be Removed far from it —</t>
+    <t xml:space="preserve">   But those most devoted To God shall be Removed far from it  </t>
   </si>
   <si>
     <t xml:space="preserve">   Those who spend their wealth For increase in self purification </t>
@@ -18022,7 +18022,7 @@
     <t xml:space="preserve">   By the Glorious Morning Light </t>
   </si>
   <si>
-    <t xml:space="preserve">   And by the Night When it is still —</t>
+    <t xml:space="preserve">   And by the Night When it is still  </t>
   </si>
   <si>
     <t xml:space="preserve">   Thy Guardian Lord Hath not forsaken thee  Nor is He displeased </t>
@@ -18049,16 +18049,16 @@
     <t xml:space="preserve">   Nor repulse the petitioner  Unheard   </t>
   </si>
   <si>
-    <t xml:space="preserve">   But the Bounty Of thy Lord— Rehearse and proclaim  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Have We not Expanded thee thy breast  —</t>
+    <t xml:space="preserve">   But the Bounty Of thy Lord  Rehearse and proclaim  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Have We not Expanded thee thy breast   </t>
   </si>
   <si>
     <t xml:space="preserve">   And removed from thee Thy burden</t>
   </si>
   <si>
-    <t xml:space="preserve">   The which did gall Thy back  —</t>
+    <t xml:space="preserve">   The which did gall Thy back   </t>
   </si>
   <si>
     <t xml:space="preserve">   And raised high the esteem  In which  thou  art held   </t>
@@ -18082,13 +18082,13 @@
     <t xml:space="preserve">   And the Mount Of Sinai </t>
   </si>
   <si>
-    <t xml:space="preserve">   And this City Of security —</t>
+    <t xml:space="preserve">   And this City Of security  </t>
   </si>
   <si>
     <t xml:space="preserve">   We have indeed created man In the best of molds </t>
   </si>
   <si>
-    <t xml:space="preserve">   Then do We abase him  To be  the lowest Of the low —</t>
+    <t xml:space="preserve">   Then do We abase him  To be  the lowest Of the low  </t>
   </si>
   <si>
     <t xml:space="preserve">   Except such as believe And do righteous deeds   For they shall have A reward unfailing </t>
@@ -18100,16 +18100,16 @@
     <t xml:space="preserve">   Is not God The wisest of Judges  </t>
   </si>
   <si>
-    <t xml:space="preserve">   Proclaim    or Read    in the name Of thy Lord and Cherisher  Who created—</t>
+    <t xml:space="preserve">   Proclaim    or Read    in the name Of thy Lord and Cherisher  Who created </t>
   </si>
   <si>
     <t xml:space="preserve">   Created man out of A  mere  clot Of congealed blood  </t>
   </si>
   <si>
-    <t xml:space="preserve">   Proclaim   And thy Lord Is Most Bountiful —</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   He Who taught  The use of  the Pen —</t>
+    <t xml:space="preserve">   Proclaim   And thy Lord Is Most Bountiful  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   He Who taught  The use of  the Pen  </t>
   </si>
   <si>
     <t xml:space="preserve">   Taught man that Which he knew not </t>
@@ -18124,13 +18124,13 @@
     <t xml:space="preserve">   Verily  to thy Lord Is the return  of all  </t>
   </si>
   <si>
-    <t xml:space="preserve">   Seest thou one Who forbids—</t>
+    <t xml:space="preserve">   Seest thou one Who forbids </t>
   </si>
   <si>
     <t xml:space="preserve">   A votary when he  Turns  to pray  </t>
   </si>
   <si>
-    <t xml:space="preserve">   Seest thou if He is on  the road Of  Guidance  —</t>
+    <t xml:space="preserve">   Seest thou if He is on  the road Of  Guidance   </t>
   </si>
   <si>
     <t xml:space="preserve">   Or enjoins Righteousness  </t>
@@ -18142,7 +18142,7 @@
     <t xml:space="preserve">   Knoweth he not That God doth see  </t>
   </si>
   <si>
-    <t xml:space="preserve">   Let him beware   If he Desist not  We will Drag him by the forelock —</t>
+    <t xml:space="preserve">   Let him beware   If he Desist not  We will Drag him by the forelock  </t>
   </si>
   <si>
     <t xml:space="preserve">   A lying  sinful forelock  </t>
@@ -18172,7 +18172,7 @@
     <t xml:space="preserve">   Peace    This Until the rise of Morn  </t>
   </si>
   <si>
-    <t xml:space="preserve">    Those who reject  Truth  Among the People of the Book And among the Polytheists  Were not going to depart  From their ways  until There should come to them Clear Evidence —</t>
+    <t xml:space="preserve">    Those who reject  Truth  Among the People of the Book And among the Polytheists  Were not going to depart  From their ways  until There should come to them Clear Evidence  </t>
   </si>
   <si>
     <t xml:space="preserve">    An apostle from God  Rehearsing scriptures Kept pure and holy  </t>
@@ -18190,7 +18190,7 @@
     <t xml:space="preserve">    Those who reject  Truth  Among the People of the Book And among the Polytheists  Will be in hell fire  To dwell therein  for aye   They are the worst of creatures </t>
   </si>
   <si>
-    <t xml:space="preserve">    Those who have faith And do righteous deeds — They are the best of creatures </t>
+    <t xml:space="preserve">    Those who have faith And do righteous deeds   They are the best of creatures </t>
   </si>
   <si>
     <t xml:space="preserve">   Their reward is with God   Gardens of Eternity  Beneath which rivers flow   They will dwell therein For ever   God well pleased With them  and they with Him   All this for such as Fear their Lord and Cherisher </t>
@@ -18202,7 +18202,7 @@
     <t xml:space="preserve">   And the Earth throws up Her burdens  from within  </t>
   </si>
   <si>
-    <t xml:space="preserve">   And man cries  distressed      What is the matter with her    —</t>
+    <t xml:space="preserve">   And man cries  distressed      What is the matter with her     </t>
   </si>
   <si>
     <t xml:space="preserve">   On that Day will she Declare her tidings  </t>
@@ -18232,7 +18232,7 @@
     <t xml:space="preserve">   And raise the dust In clouds the while </t>
   </si>
   <si>
-    <t xml:space="preserve">   And penetrate forthwith Into the midst  of the foe  En masse —</t>
+    <t xml:space="preserve">   And penetrate forthwith Into the midst  of the foe  En masse  </t>
   </si>
   <si>
     <t xml:space="preserve">   Truly Man is  To his Lord  Ungrateful  </t>
@@ -18244,10 +18244,10 @@
     <t xml:space="preserve">   And violent is he In his love of wealth </t>
   </si>
   <si>
-    <t xml:space="preserve">   Does he not know — When that which is In the graves is Scattered abroad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   And that which is  Locked up  in  human  breasts Is made manifest—</t>
+    <t xml:space="preserve">   Does he not know   When that which is In the graves is Scattered abroad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   And that which is  Locked up  in  human  breasts Is made manifest </t>
   </si>
   <si>
     <t xml:space="preserve">   That their Lord had been Well acquainted with them   Even to  that Day  </t>
@@ -18274,7 +18274,7 @@
     <t xml:space="preserve">   Will be in a Life Of good pleasure and satisfaction </t>
   </si>
   <si>
-    <t xml:space="preserve">   But he whose Balance  of good deeds  Will be  found  light —</t>
+    <t xml:space="preserve">   But he whose Balance  of good deeds  Will be  found  light  </t>
   </si>
   <si>
     <t xml:space="preserve">   Will have his home In a  bottomless  Pit </t>
@@ -18364,7 +18364,7 @@
     <t xml:space="preserve">   For the covenants  Of security and safeguard Enjoyed  by the Quraish </t>
   </si>
   <si>
-    <t xml:space="preserve">   Their covenants  covering  journeys By winter and summer —</t>
+    <t xml:space="preserve">   Their covenants  covering  journeys By winter and summer  </t>
   </si>
   <si>
     <t xml:space="preserve">   Let them adore the Lord Of this House </t>
@@ -18400,7 +18400,7 @@
     <t xml:space="preserve">   Therefore to thy Lord Turn in Prayer And Sacrifice </t>
   </si>
   <si>
-    <t xml:space="preserve">   For he who hateth thee — He will be cut off  From Future Hope  </t>
+    <t xml:space="preserve">   For he who hateth thee   He will be cut off  From Future Hope  </t>
   </si>
   <si>
     <t xml:space="preserve">   Say  O ye That reject Faith  </t>
@@ -18436,7 +18436,7 @@
     <t xml:space="preserve">   Burnt soon will he be In a Fire Of blazing Flame  </t>
   </si>
   <si>
-    <t xml:space="preserve">   His wife shall carry The  crackling  wood — as fuel  —</t>
+    <t xml:space="preserve">   His wife shall carry The  crackling  wood   as fuel   </t>
   </si>
   <si>
     <t xml:space="preserve">   A twisted rope Of palm leaf fibre Round her  own  neck  </t>
@@ -18475,13 +18475,13 @@
     <t xml:space="preserve">   The King  or Ruler  Of Mankind </t>
   </si>
   <si>
-    <t xml:space="preserve">   The God  or Judge  Of Mankind  —</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   From the mischief Of the Whisperer  Of Evil  who withdraws  After his whisper  —</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    The same  who whispers Into the hearts of Mankind —</t>
+    <t xml:space="preserve">   The God  or Judge  Of Mankind   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   From the mischief Of the Whisperer  Of Evil  who withdraws  After his whisper   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    The same  who whispers Into the hearts of Mankind  </t>
   </si>
   <si>
     <t xml:space="preserve">   Among Jinns And among Men </t>
